--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0B2F4-A313-437D-9B8F-6140AF233CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F87AE-0D97-447E-90FB-B869107141A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -18,11 +18,11 @@
     <sheet name="Link" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Posts!$A$1:$C$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Posts!$A$1:$C$427</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="535">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -1464,6 +1464,186 @@
   </si>
   <si>
     <t>pardinus</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200214t212510410z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200214t215113002z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-100421/@geekdancing/bnjkloia</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@electronicsworld/actifit-electronicsworld-20200215t014219358z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200215t031237607z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200215t032033948z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-96026</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sn0n/actifit-sn0n-20200215t061021141z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@runridefly/actifit-runridefly-20200215t061312506z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200215t071504638z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-96148</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@danielschmunk/appics-v1-appics-im-96179</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@vesytz/actifit-vesytz-20200215t101717059z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@taug/appics-v1-appics-im-96191</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@purepinay/actifit-purepinay-20200215t121052273z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200215t125715332z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200215t131506808z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@robibasa/actifit-robibasa-20200215t140434130z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@photobook/actifit-photobook-20200215t152455547z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bluengel/actifit-bluengel-20200215t161351448z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200215t162024339z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-96394</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@yousafharoonkhan/actifit-yousafharoonkhan-20200215t174458470z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200215t182844306z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@verticallife2/actifit-verticallife2-20200215t191216275z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200215t200308604z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200215t202439724z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sereze/actifit-sereze-20200215t203516976z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@elteamgordo/appics-v1-appics-im-96489</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-96491</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@rookielector/appics-v1-appics-im-96492</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@drugelis/actifit-drugelis-20200215t214138854z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@spurisna/actifit-spurisna-20200215t225242148z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@yanipetkov/actifit-yanipetkov-20200216t014425597z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@sn0n/appics-v1-appics-im-96591</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-96597</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200216t041855349z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200216t042328178z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@runridefly/actifit-runridefly-20200216t045202135z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200216t054016031z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@enormeanimal/actifit-enormeanimal-20200216t054528050z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-96673</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sn0n/actifit-sn0n-20200216t062119443z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200216t071801348z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-96716</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@vesytz/actifit-vesytz-20200216t083356851z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@photobook/actifit-photobook-20200216t084022172z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@demstreets/appics-v1-appics-im-96833</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@purepinay/actifit-purepinay-20200216t124611407z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@felixsander/appics-v1-appics-im-96883</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@danielschmunk/appics-v1-appics-im-96906</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rookielector/actifit-rookielector-20200216t152725854z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@zanoni/actifit-zanoni-20200216t154530512z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sereze/actifit-sereze-20200216t164628887z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200216t173758922z</t>
+  </si>
+  <si>
+    <t>danielschmunk</t>
+  </si>
+  <si>
+    <t>taug</t>
+  </si>
+  <si>
+    <t>photobook</t>
+  </si>
+  <si>
+    <t>verticallife2</t>
+  </si>
+  <si>
+    <t>yousafharoonkhan</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1731,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43875.937932754627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="380" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43877.788417245371" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="427" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -1565,7 +1745,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="98">
+      <sharedItems containsBlank="1" count="103">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -1661,6 +1841,11 @@
         <s v="joetunex"/>
         <s v="pardinus"/>
         <s v="chrisparis"/>
+        <s v="danielschmunk"/>
+        <s v="taug"/>
+        <s v="photobook"/>
+        <s v="yousafharoonkhan"/>
+        <s v="verticallife2"/>
         <m/>
         <s v="appics" u="1"/>
         <s v="charlesfuchs" u="1"/>
@@ -1679,7 +1864,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="380">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="427">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3536,56 +3721,291 @@
     <s v="https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200214t201245867z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200214t212510410z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200214t215113002z"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="46"/>
+    <s v="https://steemit.com/hive-100421/@geekdancing/bnjkloia"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/actifit/@electronicsworld/actifit-electronicsworld-20200215t014219358z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200215t031237607z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200215t032033948z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-96026"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="https://steemit.com/actifit/@sn0n/actifit-sn0n-20200215t061021141z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/actifit/@runridefly/actifit-runridefly-20200215t061312506z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200215t071504638z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-96148"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="95"/>
+    <s v="https://steemit.com/appics/@danielschmunk/appics-v1-appics-im-96179"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="https://steemit.com/actifit/@vesytz/actifit-vesytz-20200215t101717059z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="96"/>
+    <s v="https://steemit.com/appics/@taug/appics-v1-appics-im-96191"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/actifit/@purepinay/actifit-purepinay-20200215t121052273z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200215t125715332z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200215t131506808z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/actifit/@robibasa/actifit-robibasa-20200215t140434130z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/actifit/@photobook/actifit-photobook-20200215t152455547z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/actifit/@bluengel/actifit-bluengel-20200215t161351448z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200215t162024339z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-96394"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="98"/>
+    <s v="https://steemit.com/actifit/@yousafharoonkhan/actifit-yousafharoonkhan-20200215t174458470z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200215t182844306z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="99"/>
+    <s v="https://steemit.com/actifit/@verticallife2/actifit-verticallife2-20200215t191216275z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200215t200308604z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200215t202439724z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/actifit/@sereze/actifit-sereze-20200215t203516976z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="89"/>
+    <s v="https://steemit.com/appics/@elteamgordo/appics-v1-appics-im-96489"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-96491"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="41"/>
+    <s v="https://steemit.com/appics/@rookielector/appics-v1-appics-im-96492"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/actifit/@drugelis/actifit-drugelis-20200215t214138854z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="82"/>
+    <s v="https://steemit.com/actifit/@spurisna/actifit-spurisna-20200215t225242148z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="72"/>
+    <s v="https://steemit.com/actifit/@yanipetkov/actifit-yanipetkov-20200216t014425597z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="https://steemit.com/appics/@sn0n/appics-v1-appics-im-96591"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="https://steemit.com/appics/@runridefly/appics-v1-appics-im-96597"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200216t041855349z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/actifit/@runridefly/actifit-runridefly-20200216t045202135z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200216t042328178z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200216t054016031z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/actifit/@enormeanimal/actifit-enormeanimal-20200216t054528050z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-96673"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="https://steemit.com/actifit/@sn0n/actifit-sn0n-20200216t062119443z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200216t071801348z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-96716"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="https://steemit.com/actifit/@vesytz/actifit-vesytz-20200216t083356851z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/actifit/@photobook/actifit-photobook-20200216t084022172z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="59"/>
+    <s v="https://steemit.com/appics/@demstreets/appics-v1-appics-im-96833"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/actifit/@purepinay/actifit-purepinay-20200216t124611407z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="88"/>
+    <s v="https://steemit.com/appics/@felixsander/appics-v1-appics-im-96883"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="95"/>
+    <s v="https://steemit.com/appics/@danielschmunk/appics-v1-appics-im-96906"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <s v="https://steemit.com/actifit/@rookielector/actifit-rookielector-20200216t152725854z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/actifit/@zanoni/actifit-zanoni-20200216t154530512z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/actifit/@sereze/actifit-sereze-20200216t164628887z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200216t173758922z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="95"/>
+    <x v="100"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -3597,7 +4017,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="99">
+      <items count="104">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -3607,7 +4027,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="96"/>
+        <item m="1" x="101"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -3615,7 +4035,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="97"/>
+        <item m="1" x="102"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -3690,12 +4110,17 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="95"/>
+        <item x="100"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
         <item x="93"/>
         <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -3713,7 +4138,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="63">
+  <rowItems count="65">
     <i>
       <x v="42"/>
     </i>
@@ -3721,36 +4146,39 @@
       <x v="71"/>
     </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
       <x v="46"/>
     </i>
     <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="44"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
       <x v="45"/>
     </i>
     <i>
@@ -3760,139 +4188,142 @@
       <x v="60"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="53"/>
     </i>
     <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="65"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
       <x v="58"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="35"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i>
       <x v="10"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="66"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
       <x v="67"/>
     </i>
     <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="95"/>
+      <x v="99"/>
     </i>
     <i>
       <x v="54"/>
@@ -3926,8 +4357,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -3939,7 +4370,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="99">
+      <items count="104">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -3949,7 +4380,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="96"/>
+        <item m="1" x="101"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -3957,7 +4388,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="97"/>
+        <item m="1" x="102"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -4032,12 +4463,17 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="95"/>
+        <item x="100"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
         <item x="93"/>
         <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4055,26 +4491,26 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="52">
+  <rowItems count="55">
+    <i>
+      <x v="71"/>
+    </i>
     <i>
       <x v="55"/>
     </i>
     <i>
+      <x v="13"/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="13"/>
+      <x v="68"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="68"/>
-    </i>
-    <i>
       <x v="79"/>
     </i>
     <i>
@@ -4084,130 +4520,139 @@
       <x/>
     </i>
     <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="81"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="62"/>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="76"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
       <x v="63"/>
     </i>
     <i>
+      <x v="87"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="85"/>
-    </i>
-    <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="87"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="48"/>
     </i>
     <i>
       <x v="70"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="48"/>
+      <x v="78"/>
     </i>
     <i>
       <x v="53"/>
     </i>
     <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="78"/>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="41"/>
     </i>
     <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="52"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="91"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="102"/>
     </i>
     <i>
       <x v="96"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="37"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
+      <x v="101"/>
+    </i>
+    <i>
       <x v="43"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="86"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="52"/>
     </i>
     <i t="grand">
       <x/>
@@ -4531,15 +4976,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
@@ -4578,10 +5023,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B4" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
@@ -4592,41 +5037,41 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="B5" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B6" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="E6" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E7" s="3">
         <v>7</v>
@@ -4634,13 +5079,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="B8" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -4648,16 +5093,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="B9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="E9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4665,7 +5110,7 @@
         <v>418</v>
       </c>
       <c r="B10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>383</v>
@@ -4679,7 +5124,7 @@
         <v>362</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>375</v>
@@ -4693,27 +5138,27 @@
         <v>340</v>
       </c>
       <c r="B12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -4721,24 +5166,24 @@
         <v>363</v>
       </c>
       <c r="B14" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="B15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -4746,13 +5191,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
@@ -4760,27 +5205,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -4788,13 +5233,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -4802,10 +5247,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>392</v>
@@ -4816,13 +5261,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -4830,13 +5275,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -4847,10 +5292,10 @@
         <v>370</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -4858,13 +5303,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -4872,13 +5317,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -4886,13 +5331,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -4900,13 +5345,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -4914,13 +5359,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -4928,13 +5373,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -4942,13 +5387,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="B30" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -4956,13 +5401,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -4976,52 +5421,52 @@
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -5029,24 +5474,24 @@
         <v>417</v>
       </c>
       <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="3">
         <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -5054,13 +5499,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="B38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -5082,13 +5527,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="B40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -5096,13 +5541,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="B41" s="3">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>371</v>
+        <v>471</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -5110,13 +5555,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -5124,13 +5569,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -5138,10 +5583,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="B44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>377</v>
@@ -5158,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -5166,13 +5611,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -5180,13 +5625,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -5194,13 +5639,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -5208,13 +5653,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -5222,13 +5667,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -5236,13 +5681,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -5250,13 +5695,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -5264,13 +5709,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -5278,13 +5723,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>391</v>
+        <v>534</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -5292,37 +5737,55 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="B55" s="3">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
       <c r="D57" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="3">
+        <v>257</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -5338,7 +5801,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D60" s="2" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -5346,7 +5809,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D61" s="2" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -5354,7 +5817,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D62" s="2" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -5362,7 +5825,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D63" s="2" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -5370,7 +5833,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D64" s="2" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -5378,7 +5841,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65" s="2" t="s">
-        <v>395</v>
+        <v>531</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -5386,10 +5849,26 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D67" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D68" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E66" s="3">
-        <v>149</v>
+      <c r="E68" s="3">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5399,10 +5878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10241,8 +10720,722 @@
         <v>470</v>
       </c>
     </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" t="str">
+        <f t="shared" ref="A373:A427" si="15">IFERROR(IF(FIND("appics",C373)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" ref="B373:B427" si="16">IF(A373="other","N/A",IF(A373="appics",MID(C373,29,LEN(C373)-26-28),MID(C373,30,FIND("/actifit-",C373)-30)))</f>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C373" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="16"/>
+        <v>steemmillionaire</v>
+      </c>
+      <c r="C374" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>434</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="16"/>
+        <v>N/A</v>
+      </c>
+      <c r="C375" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="16"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C376" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="16"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C377" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" si="16"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C378" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="16"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C379" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" si="16"/>
+        <v>sn0n</v>
+      </c>
+      <c r="C380" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B381" t="str">
+        <f t="shared" si="16"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C381" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B382" t="str">
+        <f t="shared" si="16"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C382" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B383" t="str">
+        <f t="shared" si="16"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C383" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B384" t="str">
+        <f t="shared" si="16"/>
+        <v>danielschmunk</v>
+      </c>
+      <c r="C384" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B385" t="str">
+        <f t="shared" si="16"/>
+        <v>vesytz</v>
+      </c>
+      <c r="C385" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B386" t="str">
+        <f t="shared" si="16"/>
+        <v>taug</v>
+      </c>
+      <c r="C386" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B387" t="str">
+        <f t="shared" si="16"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C387" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B388" t="str">
+        <f t="shared" si="16"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C388" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B389" t="str">
+        <f t="shared" si="16"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C389" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B390" t="str">
+        <f t="shared" si="16"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C390" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B391" t="str">
+        <f t="shared" si="16"/>
+        <v>photobook</v>
+      </c>
+      <c r="C391" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B392" t="str">
+        <f t="shared" si="16"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C392" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="16"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C393" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B394" t="str">
+        <f t="shared" si="16"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C394" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" si="16"/>
+        <v>yousafharoonkhan</v>
+      </c>
+      <c r="C395" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B396" t="str">
+        <f t="shared" si="16"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C396" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B397" t="str">
+        <f t="shared" si="16"/>
+        <v>verticallife2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B398" t="str">
+        <f t="shared" si="16"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C398" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B399" t="str">
+        <f t="shared" si="16"/>
+        <v>chrisparis</v>
+      </c>
+      <c r="C399" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B400" t="str">
+        <f t="shared" si="16"/>
+        <v>sereze</v>
+      </c>
+      <c r="C400" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B401" t="str">
+        <f t="shared" si="16"/>
+        <v>elteamgordo</v>
+      </c>
+      <c r="C401" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B402" t="str">
+        <f t="shared" si="16"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C402" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B403" t="str">
+        <f t="shared" si="16"/>
+        <v>rookielector</v>
+      </c>
+      <c r="C403" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B404" t="str">
+        <f t="shared" si="16"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C404" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B405" t="str">
+        <f t="shared" si="16"/>
+        <v>spurisna</v>
+      </c>
+      <c r="C405" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B406" t="str">
+        <f t="shared" si="16"/>
+        <v>yanipetkov</v>
+      </c>
+      <c r="C406" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A407" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B407" t="str">
+        <f t="shared" si="16"/>
+        <v>sn0n</v>
+      </c>
+      <c r="C407" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A408" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="16"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C408" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B409" t="str">
+        <f t="shared" si="16"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C409" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" si="16"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C410" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B411" t="str">
+        <f t="shared" si="16"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C411" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A412" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B412" t="str">
+        <f t="shared" si="16"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C412" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A413" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B413" t="str">
+        <f t="shared" si="16"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C413" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A414" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B414" t="str">
+        <f t="shared" si="16"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C414" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A415" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B415" t="str">
+        <f t="shared" si="16"/>
+        <v>sn0n</v>
+      </c>
+      <c r="C415" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A416" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B416" t="str">
+        <f t="shared" si="16"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C416" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A417" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B417" t="str">
+        <f t="shared" si="16"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C417" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A418" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B418" t="str">
+        <f t="shared" si="16"/>
+        <v>vesytz</v>
+      </c>
+      <c r="C418" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A419" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B419" t="str">
+        <f t="shared" si="16"/>
+        <v>photobook</v>
+      </c>
+      <c r="C419" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A420" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B420" t="str">
+        <f t="shared" si="16"/>
+        <v>demstreets</v>
+      </c>
+      <c r="C420" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A421" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B421" t="str">
+        <f t="shared" si="16"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C421" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A422" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B422" t="str">
+        <f t="shared" si="16"/>
+        <v>felixsander</v>
+      </c>
+      <c r="C422" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A423" t="str">
+        <f t="shared" si="15"/>
+        <v>appics</v>
+      </c>
+      <c r="B423" t="str">
+        <f t="shared" si="16"/>
+        <v>danielschmunk</v>
+      </c>
+      <c r="C423" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A424" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B424" t="str">
+        <f t="shared" si="16"/>
+        <v>rookielector</v>
+      </c>
+      <c r="C424" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A425" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B425" t="str">
+        <f t="shared" si="16"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C425" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A426" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B426" t="str">
+        <f t="shared" si="16"/>
+        <v>sereze</v>
+      </c>
+      <c r="C426" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A427" t="str">
+        <f t="shared" si="15"/>
+        <v>actifit</v>
+      </c>
+      <c r="B427" t="str">
+        <f t="shared" si="16"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C427" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C372" xr:uid="{AE833E5A-FC5E-4347-9C7F-0BDDBB0B7EA4}"/>
+  <autoFilter ref="A1:C427" xr:uid="{AE833E5A-FC5E-4347-9C7F-0BDDBB0B7EA4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10252,7 +11445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4CF7A8-3770-4C0F-8CCD-C6DA2E5FBFCF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F87AE-0D97-447E-90FB-B869107141A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE4FA-17ED-4257-863F-45B2F9D4671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="573">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -1644,6 +1644,120 @@
   </si>
   <si>
     <t>yousafharoonkhan</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@fitbyrobi/actifit-fitbyrobi-20200216t180202364z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@btcsam/appics-v1-appics-im-97053</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200216t191241262z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200216t192332084z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200216t202338868z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@demstreets/appics-v1-appics-im-97106</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@drugelis/actifit-drugelis-20200216t205115730z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200216t210945081z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@electronicsworld/actifit-electronicsworld-20200216t214210412z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-97137</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200216t215435192z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@street.yoga/actifit-street-yoga-20200216t224246783z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@happybea/actifit-happybea-20200216t224624756z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200216t225735617z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mhm-philippines/actifit-mhm-philippines-20200216t231939943z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@street.yoga/appics-v1-appics-im-97175</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200217t002224575z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200217t014650224z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-97254</t>
+  </si>
+  <si>
+    <t>https://steemit.com/dtube/@wil.metcalfe/f679583436o</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@vesytz/actifit-vesytz-20200217t043250864z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@runridefly/actifit-runridefly-20200217t045240046z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200217t063141972z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@alexvanaken/actifit-alexvanaken-20200217t063538285z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@uyobong/actifit-uyobong-20200217t072633301z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200217t074727483z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@photobook/actifit-photobook-20200217t075853496z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@demstreets/appics-v1-appics-im-97460</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-97469</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@purepinay/actifit-purepinay-20200217t122039052z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazy.steeph/appics-v1-appics-im-97506</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@enormeanimal/actifit-enormeanimal-20200217t143128669z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@zanoni/actifit-zanoni-20200217t151141584z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bluengel/actifit-bluengel-20200217t160337255z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@robibasa/actifit-robibasa-20200217t170109768z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sereze/actifit-sereze-20200217t174917713z</t>
+  </si>
+  <si>
+    <t>uyobong</t>
+  </si>
+  <si>
+    <t>happybea</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1845,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43877.788417245371" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="427" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43878.854609722221" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="463" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -1745,7 +1859,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="103">
+      <sharedItems containsBlank="1" count="105">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -1846,6 +1960,8 @@
         <s v="photobook"/>
         <s v="yousafharoonkhan"/>
         <s v="verticallife2"/>
+        <s v="happybea"/>
+        <s v="uyobong"/>
         <m/>
         <s v="appics" u="1"/>
         <s v="charlesfuchs" u="1"/>
@@ -1864,7 +1980,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="427">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="463">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3996,16 +4112,196 @@
     <s v="https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200216t173758922z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="66"/>
+    <s v="https://steemit.com/actifit/@fitbyrobi/actifit-fitbyrobi-20200216t180202364z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="73"/>
+    <s v="https://steemit.com/appics/@btcsam/appics-v1-appics-im-97053"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200216t191241262z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200216t192332084z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200216t202338868z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="59"/>
+    <s v="https://steemit.com/appics/@demstreets/appics-v1-appics-im-97106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/actifit/@drugelis/actifit-drugelis-20200216t205115730z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200216t210945081z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/actifit/@electronicsworld/actifit-electronicsworld-20200216t214210412z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-97137"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200216t215435192z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/actifit/@street.yoga/actifit-street-yoga-20200216t224246783z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="100"/>
+    <s v="https://steemit.com/actifit/@happybea/actifit-happybea-20200216t224624756z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200216t225735617z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/actifit/@mhm-philippines/actifit-mhm-philippines-20200216t231939943z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="40"/>
+    <s v="https://steemit.com/appics/@street.yoga/appics-v1-appics-im-97175"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200217t002224575z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200217t014650224z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="https://steemit.com/appics/@runridefly/appics-v1-appics-im-97254"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="46"/>
+    <s v="https://steemit.com/dtube/@wil.metcalfe/f679583436o"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="https://steemit.com/actifit/@vesytz/actifit-vesytz-20200217t043250864z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/actifit/@runridefly/actifit-runridefly-20200217t045240046z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200217t063141972z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://steemit.com/actifit/@alexvanaken/actifit-alexvanaken-20200217t063538285z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="101"/>
+    <s v="https://steemit.com/actifit/@uyobong/actifit-uyobong-20200217t072633301z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200217t074727483z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/actifit/@photobook/actifit-photobook-20200217t075853496z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="59"/>
+    <s v="https://steemit.com/appics/@demstreets/appics-v1-appics-im-97460"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-97469"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/actifit/@purepinay/actifit-purepinay-20200217t122039052z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="51"/>
+    <s v="https://steemit.com/appics/@krazy.steeph/appics-v1-appics-im-97506"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/actifit/@enormeanimal/actifit-enormeanimal-20200217t143128669z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/actifit/@zanoni/actifit-zanoni-20200217t151141584z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/actifit/@bluengel/actifit-bluengel-20200217t160337255z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/actifit/@robibasa/actifit-robibasa-20200217t170109768z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/actifit/@sereze/actifit-sereze-20200217t174917713z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="100"/>
+    <x v="102"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -4017,7 +4313,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="104">
+      <items count="106">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -4027,7 +4323,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="101"/>
+        <item m="1" x="103"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -4035,7 +4331,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="102"/>
+        <item m="1" x="104"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -4110,7 +4406,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="100"/>
+        <item x="102"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -4121,6 +4417,8 @@
         <item x="97"/>
         <item x="98"/>
         <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4138,198 +4436,180 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="65">
+  <rowItems count="59">
     <i>
-      <x v="42"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="55"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="90"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="88"/>
     </i>
     <i>
       <x v="46"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="87"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="51"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
       <x v="50"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="56"/>
     </i>
     <i t="grand">
       <x/>
@@ -4339,7 +4619,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -4357,8 +4637,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -4370,7 +4650,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="104">
+      <items count="106">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -4380,7 +4660,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="101"/>
+        <item m="1" x="103"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -4388,7 +4668,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="102"/>
+        <item m="1" x="104"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -4463,7 +4743,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="100"/>
+        <item x="102"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -4474,6 +4754,8 @@
         <item x="97"/>
         <item x="98"/>
         <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4491,168 +4773,201 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="55">
+  <rowItems count="66">
+    <i>
+      <x v="42"/>
+    </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="60"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="77"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="59"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="98"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="58"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="47"/>
     </i>
     <i>
-      <x v="73"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="61"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="64"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="66"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="67"/>
     </i>
     <i>
-      <x v="87"/>
+      <x v="95"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="99"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="86"/>
+      <x v="72"/>
     </i>
     <i t="grand">
       <x/>
@@ -4662,7 +4977,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -4976,7 +5291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -5023,10 +5338,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
@@ -5037,24 +5352,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B5" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E5" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="B6" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>341</v>
@@ -5068,7 +5383,7 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>373</v>
@@ -5079,13 +5394,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -5093,13 +5408,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -5107,27 +5422,27 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="B11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -5138,24 +5453,24 @@
         <v>340</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B13" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -5163,10 +5478,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="B14" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>389</v>
@@ -5177,27 +5492,27 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
@@ -5205,13 +5520,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
@@ -5219,21 +5534,21 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B19" s="3">
         <v>7</v>
@@ -5247,13 +5562,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -5261,27 +5576,27 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B21" s="3">
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -5292,10 +5607,10 @@
         <v>370</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -5303,13 +5618,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -5317,13 +5632,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -5331,13 +5646,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -5345,13 +5660,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>530</v>
+        <v>359</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -5359,13 +5674,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -5373,13 +5688,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -5387,13 +5702,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -5404,10 +5719,10 @@
         <v>343</v>
       </c>
       <c r="B31" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -5415,13 +5730,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -5429,13 +5744,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -5443,13 +5758,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -5463,7 +5778,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>388</v>
+        <v>530</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -5471,7 +5786,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -5485,27 +5800,27 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>392</v>
+        <v>532</v>
       </c>
       <c r="B37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>532</v>
+        <v>389</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -5513,13 +5828,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -5527,13 +5842,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="B40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -5547,7 +5862,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -5561,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -5569,13 +5884,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>473</v>
+        <v>348</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -5583,13 +5898,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -5597,13 +5912,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="B45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -5611,13 +5926,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>419</v>
+        <v>571</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -5625,13 +5940,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -5639,13 +5954,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>346</v>
+        <v>474</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -5653,13 +5968,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -5673,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -5681,13 +5996,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -5695,13 +6010,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -5709,13 +6024,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -5723,13 +6038,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>534</v>
+        <v>382</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -5737,13 +6052,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -5751,13 +6066,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>342</v>
+        <v>534</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -5765,13 +6080,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -5779,45 +6094,69 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>431</v>
+        <v>572</v>
       </c>
       <c r="B58" s="3">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
       <c r="D59" s="2" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
       <c r="D60" s="2" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
       <c r="D61" s="2" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="3">
+        <v>284</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -5825,7 +6164,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D63" s="2" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -5833,7 +6172,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D64" s="2" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -5841,7 +6180,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65" s="2" t="s">
-        <v>531</v>
+        <v>379</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -5849,7 +6188,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66" s="2" t="s">
-        <v>393</v>
+        <v>531</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -5857,7 +6196,7 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D67" s="2" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -5865,10 +6204,18 @@
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D69" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E68" s="3">
-        <v>164</v>
+      <c r="E69" s="3">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5878,10 +6225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C427"/>
+  <dimension ref="A1:C463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B431" sqref="B431"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11434,6 +11781,473 @@
         <v>529</v>
       </c>
     </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A428" t="str">
+        <f t="shared" ref="A428:A463" si="17">IFERROR(IF(FIND("appics",C428)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B428" t="str">
+        <f t="shared" ref="B428:B463" si="18">IF(A428="other","N/A",IF(A428="appics",MID(C428,29,LEN(C428)-26-28),MID(C428,30,FIND("/actifit-",C428)-30)))</f>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C428" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A429" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B429" t="str">
+        <f t="shared" si="18"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C429" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A430" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B430" t="str">
+        <f t="shared" si="18"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C430" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A431" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B431" t="str">
+        <f t="shared" si="18"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C431" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A432" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B432" t="str">
+        <f t="shared" si="18"/>
+        <v>chrisparis</v>
+      </c>
+      <c r="C432" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A433" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B433" t="str">
+        <f t="shared" si="18"/>
+        <v>demstreets</v>
+      </c>
+      <c r="C433" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A434" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B434" t="str">
+        <f t="shared" si="18"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C434" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A435" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B435" t="str">
+        <f t="shared" si="18"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C435" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A436" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B436" t="str">
+        <f t="shared" si="18"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C436" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A437" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B437" t="str">
+        <f t="shared" si="18"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C437" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A438" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B438" t="str">
+        <f t="shared" si="18"/>
+        <v>steemmillionaire</v>
+      </c>
+      <c r="C438" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A439" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B439" t="str">
+        <f t="shared" si="18"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C439" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A440" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B440" t="str">
+        <f t="shared" si="18"/>
+        <v>happybea</v>
+      </c>
+      <c r="C440" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A441" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B441" t="str">
+        <f t="shared" si="18"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C441" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A442" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B442" t="str">
+        <f t="shared" si="18"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C442" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A443" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B443" t="str">
+        <f t="shared" si="18"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C443" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A444" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B444" t="str">
+        <f t="shared" si="18"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C444" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A445" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B445" t="str">
+        <f t="shared" si="18"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C445" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A446" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B446" t="str">
+        <f t="shared" si="18"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C446" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>434</v>
+      </c>
+      <c r="B447" t="str">
+        <f t="shared" si="18"/>
+        <v>N/A</v>
+      </c>
+      <c r="C447" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A448" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B448" t="str">
+        <f t="shared" si="18"/>
+        <v>vesytz</v>
+      </c>
+      <c r="C448" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A449" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B449" t="str">
+        <f t="shared" si="18"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C449" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A450" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B450" t="str">
+        <f t="shared" si="18"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C450" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A451" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B451" t="str">
+        <f t="shared" si="18"/>
+        <v>alexvanaken</v>
+      </c>
+      <c r="C451" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A452" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B452" t="str">
+        <f t="shared" si="18"/>
+        <v>uyobong</v>
+      </c>
+      <c r="C452" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A453" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B453" t="str">
+        <f t="shared" si="18"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C453" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A454" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B454" t="str">
+        <f t="shared" si="18"/>
+        <v>photobook</v>
+      </c>
+      <c r="C454" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A455" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B455" t="str">
+        <f t="shared" si="18"/>
+        <v>demstreets</v>
+      </c>
+      <c r="C455" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A456" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B456" t="str">
+        <f t="shared" si="18"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C456" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A457" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B457" t="str">
+        <f t="shared" si="18"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C457" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A458" t="str">
+        <f t="shared" si="17"/>
+        <v>appics</v>
+      </c>
+      <c r="B458" t="str">
+        <f t="shared" si="18"/>
+        <v>krazy.steeph</v>
+      </c>
+      <c r="C458" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A459" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B459" t="str">
+        <f t="shared" si="18"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C459" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A460" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B460" t="str">
+        <f t="shared" si="18"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C460" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A461" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B461" t="str">
+        <f t="shared" si="18"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C461" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A462" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B462" t="str">
+        <f t="shared" si="18"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C462" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A463" t="str">
+        <f t="shared" si="17"/>
+        <v>actifit</v>
+      </c>
+      <c r="B463" t="str">
+        <f t="shared" si="18"/>
+        <v>sereze</v>
+      </c>
+      <c r="C463" t="s">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C427" xr:uid="{AE833E5A-FC5E-4347-9C7F-0BDDBB0B7EA4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11445,9 +12259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4CF7A8-3770-4C0F-8CCD-C6DA2E5FBFCF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE4FA-17ED-4257-863F-45B2F9D4671C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477BBAC-D705-4208-86E9-85667BB6D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="45" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="623">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -1758,6 +1758,156 @@
   </si>
   <si>
     <t>happybea</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@toofasteddie/actifit-toofasteddie-20200217t202310443z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200217t204217820z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200217t204420065z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ruhrsearch/actifit-ruhrsearch-20200217t204524232z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200217t205503286z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@happybea/actifit-happybea-20200217t210129437z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200217t210540513z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200217t212751947z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200217t213316240z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@btcsam/actifit-btcsam-20200217t220045474z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-97781</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@drugelis/actifit-drugelis-20200217t224029561z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200217t224117166z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@electronicsworld/actifit-electronicsworld-20200217t235228982z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200218t001456899z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@soldier/appics-v1-appics-im-97814</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-97815</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200218t010806129z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@samgiset/appics-v1-appics-im-97828</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazypoet/appics-v1-appics-im-97844</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-97861</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rookielector/actifit-rookielector-20200218t030401303z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@camiloferrua/actifit-camiloferrua-20200218t034758815z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@runridefly/actifit-runridefly-20200218t040417018z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-97893</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mcoinz79/actifit-mcoinz79-20200218t043902256z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@cgames/actifit-cgames-20200218t044306038z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@photobook/actifit-photobook-20200218t060659678z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@yanipetkov/actifit-yanipetkov-20200218t082055564z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-97997</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@rajan1995/appics-v1-appics-im-98069</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@purepinay/actifit-purepinay-20200218t113338422z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@demstreets/appics-v1-appics-im-98132</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazy.steeph/appics-v1-appics-im-98142</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200218t133506849z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@hdelosrios/appics-v1-appics-im-98199</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@paulnulty/appics-v1-appics-im-98221</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bluengel/actifit-bluengel-20200218t160133226z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ange.nkuru/actifit-ange-nkuru-20200218t163637563z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@zanoni/actifit-zanoni-20200218t164825443z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@robibasa/actifit-robibasa-20200218t172619669z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-98292</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sereze/actifit-sereze-20200218t182133255z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@rabihfarhat/appics-v1-appics-im-98326</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200218t184810774z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200218t185907596z</t>
+  </si>
+  <si>
+    <t>hdelosrios</t>
+  </si>
+  <si>
+    <t>samgiset</t>
+  </si>
+  <si>
+    <t>camiloferrua</t>
+  </si>
+  <si>
+    <t>toofasteddie</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1995,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43878.854609722221" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="463" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43879.857206250002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="509" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -1859,7 +2009,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="105">
+      <sharedItems containsBlank="1" count="109">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -1962,6 +2112,10 @@
         <s v="verticallife2"/>
         <s v="happybea"/>
         <s v="uyobong"/>
+        <s v="toofasteddie"/>
+        <s v="samgiset"/>
+        <s v="camiloferrua"/>
+        <s v="hdelosrios"/>
         <m/>
         <s v="appics" u="1"/>
         <s v="charlesfuchs" u="1"/>
@@ -1980,7 +2134,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="463">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="509">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4292,16 +4446,246 @@
     <s v="https://steemit.com/actifit/@sereze/actifit-sereze-20200217t174917713z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="102"/>
+    <s v="https://steemit.com/actifit/@toofasteddie/actifit-toofasteddie-20200217t202310443z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200217t204217820z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200217t204420065z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="37"/>
+    <s v="https://steemit.com/actifit/@ruhrsearch/actifit-ruhrsearch-20200217t204524232z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200217t205503286z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="100"/>
+    <s v="https://steemit.com/actifit/@happybea/actifit-happybea-20200217t210129437z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200217t210540513z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200217t212751947z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200217t213316240z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/actifit/@btcsam/actifit-btcsam-20200217t220045474z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-97781"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/actifit/@drugelis/actifit-drugelis-20200217t224029561z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200217t224117166z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/actifit/@electronicsworld/actifit-electronicsworld-20200217t235228982z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200218t001456899z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="https://steemit.com/appics/@soldier/appics-v1-appics-im-97814"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="https://steemit.com/appics/@runridefly/appics-v1-appics-im-97815"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200218t010806129z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="103"/>
+    <s v="https://steemit.com/appics/@samgiset/appics-v1-appics-im-97828"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-97844"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-97861"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <s v="https://steemit.com/actifit/@rookielector/actifit-rookielector-20200218t030401303z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="104"/>
+    <s v="https://steemit.com/actifit/@camiloferrua/actifit-camiloferrua-20200218t034758815z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/actifit/@runridefly/actifit-runridefly-20200218t040417018z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-97893"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/actifit/@mcoinz79/actifit-mcoinz79-20200218t043902256z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="35"/>
+    <s v="https://steemit.com/actifit/@cgames/actifit-cgames-20200218t044306038z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/actifit/@photobook/actifit-photobook-20200218t060659678z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="72"/>
+    <s v="https://steemit.com/actifit/@yanipetkov/actifit-yanipetkov-20200218t082055564z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-97997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="43"/>
+    <s v="https://steemit.com/appics/@rajan1995/appics-v1-appics-im-98069"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/actifit/@purepinay/actifit-purepinay-20200218t113338422z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="59"/>
+    <s v="https://steemit.com/appics/@demstreets/appics-v1-appics-im-98132"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="51"/>
+    <s v="https://steemit.com/appics/@krazy.steeph/appics-v1-appics-im-98142"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200218t133506849z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="105"/>
+    <s v="https://steemit.com/appics/@hdelosrios/appics-v1-appics-im-98199"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="44"/>
+    <s v="https://steemit.com/appics/@paulnulty/appics-v1-appics-im-98221"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/actifit/@bluengel/actifit-bluengel-20200218t160133226z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="57"/>
+    <s v="https://steemit.com/actifit/@ange.nkuru/actifit-ange-nkuru-20200218t163637563z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/actifit/@zanoni/actifit-zanoni-20200218t164825443z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/actifit/@robibasa/actifit-robibasa-20200218t172619669z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-98292"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/actifit/@sereze/actifit-sereze-20200218t182133255z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="https://steemit.com/appics/@rabihfarhat/appics-v1-appics-im-98326"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200218t184810774z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200218t185907596z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="102"/>
+    <x v="106"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B62" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -4313,7 +4697,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="106">
+      <items count="110">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -4323,7 +4707,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="103"/>
+        <item m="1" x="107"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -4331,7 +4715,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="104"/>
+        <item m="1" x="108"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -4406,7 +4790,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="102"/>
+        <item x="106"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -4419,6 +4803,10 @@
         <item x="99"/>
         <item x="100"/>
         <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4436,180 +4824,207 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="59">
+  <rowItems count="68">
     <i>
-      <x v="13"/>
+      <x v="42"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="50"/>
     </i>
     <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="77"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="63"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="76"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="32"/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="73"/>
+      <x v="58"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="64"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="83"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="38"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="99"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="39"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="72"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x v="74"/>
     </i>
     <i t="grand">
       <x/>
@@ -4619,7 +5034,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -4637,8 +5052,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -4650,7 +5065,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="106">
+      <items count="110">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -4660,7 +5075,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="103"/>
+        <item m="1" x="107"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -4668,7 +5083,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="104"/>
+        <item m="1" x="108"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -4743,7 +5158,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="102"/>
+        <item x="106"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -4756,6 +5171,10 @@
         <item x="99"/>
         <item x="100"/>
         <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4773,201 +5192,189 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="66">
+  <rowItems count="62">
     <i>
-      <x v="42"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="55"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="90"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="46"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="69"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="50"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="100"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="97"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="52"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="77"/>
+      <x v="101"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="94"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="54"/>
+      <x v="91"/>
     </i>
     <i>
-      <x v="75"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="72"/>
+      <x v="86"/>
     </i>
     <i t="grand">
       <x/>
@@ -4977,7 +5384,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -5291,7 +5698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -5341,13 +5748,13 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5355,13 +5762,13 @@
         <v>410</v>
       </c>
       <c r="B5" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E5" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -5369,13 +5776,13 @@
         <v>394</v>
       </c>
       <c r="B6" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E6" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -5383,35 +5790,35 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B8" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B9" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>366</v>
@@ -5422,13 +5829,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="B10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
@@ -5436,13 +5843,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="B11" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -5450,13 +5857,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -5467,13 +5874,13 @@
         <v>363</v>
       </c>
       <c r="B13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -5481,10 +5888,10 @@
         <v>401</v>
       </c>
       <c r="B14" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -5492,13 +5899,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B15" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -5506,24 +5913,24 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B17" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>429</v>
@@ -5534,13 +5941,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -5548,27 +5955,27 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
       <c r="B19" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="B20" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -5582,7 +5989,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -5596,49 +6003,49 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="B24" s="3">
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -5660,13 +6067,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -5674,13 +6081,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -5694,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>355</v>
+        <v>530</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -5702,13 +6109,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -5716,13 +6123,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -5730,13 +6137,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>396</v>
+        <v>532</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -5744,13 +6151,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -5758,10 +6165,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="B34" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>340</v>
@@ -5775,10 +6182,10 @@
         <v>409</v>
       </c>
       <c r="B35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>530</v>
+        <v>371</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -5786,13 +6193,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B36" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -5800,13 +6207,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>532</v>
+        <v>417</v>
       </c>
       <c r="B37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -5814,27 +6221,27 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>421</v>
+        <v>619</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -5842,13 +6249,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -5856,13 +6263,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="B41" s="3">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
@@ -5870,13 +6277,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>471</v>
+        <v>393</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -5884,13 +6291,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -5898,13 +6305,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -5912,13 +6319,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>398</v>
+        <v>572</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -5926,13 +6333,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>571</v>
+        <v>348</v>
       </c>
       <c r="B46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -5940,13 +6347,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="B47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -5954,13 +6361,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>474</v>
+        <v>346</v>
       </c>
       <c r="B48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -5968,13 +6375,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -5988,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -5996,13 +6403,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -6010,13 +6417,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>430</v>
+        <v>621</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -6024,13 +6431,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>425</v>
+        <v>571</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -6038,13 +6445,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -6052,13 +6459,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -6066,13 +6473,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -6080,13 +6487,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -6094,13 +6501,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>572</v>
+        <v>376</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -6108,13 +6515,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -6122,13 +6529,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -6136,13 +6543,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>344</v>
+        <v>622</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -6150,59 +6557,77 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B62" s="3">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
       <c r="D63" s="2" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" s="3">
+        <v>315</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D66" s="2" t="s">
-        <v>531</v>
+        <v>368</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D67" s="2" t="s">
-        <v>345</v>
+        <v>620</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D68" s="2" t="s">
         <v>411</v>
       </c>
@@ -6210,12 +6635,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D69" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D71" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E69" s="3">
-        <v>172</v>
+      <c r="E71" s="3">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6225,10 +6666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C509"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A448" sqref="A448"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="A463" sqref="A463:B509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12246,6 +12687,604 @@
       </c>
       <c r="C463" t="s">
         <v>570</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A464" t="str">
+        <f t="shared" ref="A464:A509" si="19">IFERROR(IF(FIND("appics",C464)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B464" t="str">
+        <f t="shared" ref="B464:B509" si="20">IF(A464="other","N/A",IF(A464="appics",MID(C464,29,LEN(C464)-26-28),MID(C464,30,FIND("/actifit-",C464)-30)))</f>
+        <v>toofasteddie</v>
+      </c>
+      <c r="C464" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A465" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B465" t="str">
+        <f t="shared" si="20"/>
+        <v>chrisparis</v>
+      </c>
+      <c r="C465" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A466" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B466" t="str">
+        <f t="shared" si="20"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C466" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A467" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B467" t="str">
+        <f t="shared" si="20"/>
+        <v>ruhrsearch</v>
+      </c>
+      <c r="C467" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A468" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B468" t="str">
+        <f t="shared" si="20"/>
+        <v>steemmillionaire</v>
+      </c>
+      <c r="C468" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A469" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B469" t="str">
+        <f t="shared" si="20"/>
+        <v>happybea</v>
+      </c>
+      <c r="C469" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A470" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B470" t="str">
+        <f t="shared" si="20"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C470" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A471" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B471" t="str">
+        <f t="shared" si="20"/>
+        <v>steemmillionaire</v>
+      </c>
+      <c r="C471" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A472" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B472" t="str">
+        <f t="shared" si="20"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C472" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A473" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B473" t="str">
+        <f t="shared" si="20"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C473" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A474" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B474" t="str">
+        <f t="shared" si="20"/>
+        <v>mauriciovite</v>
+      </c>
+      <c r="C474" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A475" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B475" t="str">
+        <f t="shared" si="20"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C475" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A476" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B476" t="str">
+        <f t="shared" si="20"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C476" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A477" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B477" t="str">
+        <f t="shared" si="20"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C477" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A478" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B478" t="str">
+        <f t="shared" si="20"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C478" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A479" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B479" t="str">
+        <f t="shared" si="20"/>
+        <v>soldier</v>
+      </c>
+      <c r="C479" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A480" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B480" t="str">
+        <f t="shared" si="20"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C480" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A481" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B481" t="str">
+        <f t="shared" si="20"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C481" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A482" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B482" t="str">
+        <f t="shared" si="20"/>
+        <v>samgiset</v>
+      </c>
+      <c r="C482" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A483" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B483" t="str">
+        <f t="shared" si="20"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C483" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A484" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B484" t="str">
+        <f t="shared" si="20"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C484" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A485" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B485" t="str">
+        <f t="shared" si="20"/>
+        <v>rookielector</v>
+      </c>
+      <c r="C485" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A486" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B486" t="str">
+        <f t="shared" si="20"/>
+        <v>camiloferrua</v>
+      </c>
+      <c r="C486" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A487" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B487" t="str">
+        <f t="shared" si="20"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C487" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A488" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B488" t="str">
+        <f t="shared" si="20"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C488" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A489" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B489" t="str">
+        <f t="shared" si="20"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C489" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A490" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B490" t="str">
+        <f t="shared" si="20"/>
+        <v>cgames</v>
+      </c>
+      <c r="C490" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A491" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B491" t="str">
+        <f t="shared" si="20"/>
+        <v>photobook</v>
+      </c>
+      <c r="C491" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A492" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B492" t="str">
+        <f t="shared" si="20"/>
+        <v>yanipetkov</v>
+      </c>
+      <c r="C492" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A493" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B493" t="str">
+        <f t="shared" si="20"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C493" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A494" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B494" t="str">
+        <f t="shared" si="20"/>
+        <v>rajan1995</v>
+      </c>
+      <c r="C494" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A495" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B495" t="str">
+        <f t="shared" si="20"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C495" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A496" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B496" t="str">
+        <f t="shared" si="20"/>
+        <v>demstreets</v>
+      </c>
+      <c r="C496" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A497" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B497" t="str">
+        <f t="shared" si="20"/>
+        <v>krazy.steeph</v>
+      </c>
+      <c r="C497" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A498" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B498" t="str">
+        <f t="shared" si="20"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C498" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A499" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B499" t="str">
+        <f t="shared" si="20"/>
+        <v>hdelosrios</v>
+      </c>
+      <c r="C499" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A500" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B500" t="str">
+        <f t="shared" si="20"/>
+        <v>paulnulty</v>
+      </c>
+      <c r="C500" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A501" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B501" t="str">
+        <f t="shared" si="20"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C501" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A502" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B502" t="str">
+        <f t="shared" si="20"/>
+        <v>ange.nkuru</v>
+      </c>
+      <c r="C502" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A503" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B503" t="str">
+        <f t="shared" si="20"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C503" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A504" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B504" t="str">
+        <f t="shared" si="20"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C504" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A505" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B505" t="str">
+        <f t="shared" si="20"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C505" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A506" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B506" t="str">
+        <f t="shared" si="20"/>
+        <v>sereze</v>
+      </c>
+      <c r="C506" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A507" t="str">
+        <f t="shared" si="19"/>
+        <v>appics</v>
+      </c>
+      <c r="B507" t="str">
+        <f t="shared" si="20"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C507" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A508" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B508" t="str">
+        <f t="shared" si="20"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C508" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A509" t="str">
+        <f t="shared" si="19"/>
+        <v>actifit</v>
+      </c>
+      <c r="B509" t="str">
+        <f t="shared" si="20"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C509" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477BBAC-D705-4208-86E9-85667BB6D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B294D-AE8E-411C-80D6-93DF9B4DFE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="668">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -1908,6 +1908,141 @@
   </si>
   <si>
     <t>toofasteddie</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200218t193403247z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@griega/actifit-griega-20200218t205207299z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@street.yoga/actifit-street-yoga-20200218t205911007z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200218t210239802z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@happybea/actifit-happybea-20200218t211704620z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@onealfa/actifit-onealfa-20200218t212335719z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@drugelis/actifit-drugelis-20200218t214517921z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-98436</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@flemingfarm/actifit-flemingfarm-20200218t231209536z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200218t233748754z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200219t003448958z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-98520</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mcoinz79/actifit-mcoinz79-20200219t032501133z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-98542</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-98544</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@runridefly/actifit-runridefly-20200219t042120828z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@warhead61/actifit-warhead61-20200219t065851637z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@photobook/actifit-photobook-20200219t075919741z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/getinshapechallenge/@krazypoet/9bb6264de0d6a</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-98629</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200219t085734911z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200219t103912163z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-98740</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@purepinay/actifit-purepinay-20200219t125244128z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@zanoni/actifit-zanoni-20200219t155412244z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bluengel/actifit-bluengel-20200219t160303646z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200219t162907557z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@robibasa/actifit-robibasa-20200219t170209679z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@elteamgordo/appics-v1-appics-im-98972</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@sereze/actifit-sereze-20200219t195149013z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200219t202605798z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200219t205025094z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@onealfa/actifit-onealfa-20200219t210337108z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200219t211014539z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@rookielector/actifit-rookielector-20200219t212047901z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@drugelis/actifit-drugelis-20200219t214531313z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200219t220208259z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@enormeanimal/actifit-enormeanimal-20200219t223544385z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200219t224842892z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@street.yoga/actifit-street-yoga-20200219t225817589z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-99091</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@flemingfarm/actifit-flemingfarm-20200219t200258533z</t>
+  </si>
+  <si>
+    <t>flemingfarm</t>
+  </si>
+  <si>
+    <t>griega</t>
+  </si>
+  <si>
+    <t>warhead61</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2130,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43879.857206250002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="509" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43881.01712916667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="551" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2009,7 +2144,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="109">
+      <sharedItems containsBlank="1" count="112">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2116,6 +2251,9 @@
         <s v="samgiset"/>
         <s v="camiloferrua"/>
         <s v="hdelosrios"/>
+        <s v="griega"/>
+        <s v="flemingfarm"/>
+        <s v="warhead61"/>
         <m/>
         <s v="appics" u="1"/>
         <s v="charlesfuchs" u="1"/>
@@ -2134,7 +2272,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="509">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="551">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4676,16 +4814,226 @@
     <s v="https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200218t185907596z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200218t193403247z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="106"/>
+    <s v="https://steemit.com/actifit/@griega/actifit-griega-20200218t205207299z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/actifit/@street.yoga/actifit-street-yoga-20200218t205911007z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200218t210239802z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="100"/>
+    <s v="https://steemit.com/actifit/@happybea/actifit-happybea-20200218t211704620z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://steemit.com/actifit/@onealfa/actifit-onealfa-20200218t212335719z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/actifit/@drugelis/actifit-drugelis-20200218t214517921z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-98436"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="107"/>
+    <s v="https://steemit.com/actifit/@flemingfarm/actifit-flemingfarm-20200218t231209536z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200218t233748754z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200219t003448958z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-98520"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/actifit/@mcoinz79/actifit-mcoinz79-20200219t032501133z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-98542"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-98544"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/actifit/@runridefly/actifit-runridefly-20200219t042120828z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="108"/>
+    <s v="https://steemit.com/actifit/@warhead61/actifit-warhead61-20200219t065851637z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/actifit/@photobook/actifit-photobook-20200219t075919741z"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="46"/>
+    <s v="https://steemit.com/getinshapechallenge/@krazypoet/9bb6264de0d6a"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-98629"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200219t103912163z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200219t085734911z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-98740"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/actifit/@purepinay/actifit-purepinay-20200219t125244128z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/actifit/@zanoni/actifit-zanoni-20200219t155412244z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/actifit/@bluengel/actifit-bluengel-20200219t160303646z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200219t162907557z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/actifit/@robibasa/actifit-robibasa-20200219t170209679z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="89"/>
+    <s v="https://steemit.com/appics/@elteamgordo/appics-v1-appics-im-98972"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/actifit/@sereze/actifit-sereze-20200219t195149013z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="107"/>
+    <s v="https://steemit.com/actifit/@flemingfarm/actifit-flemingfarm-20200219t200258533z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="https://steemit.com/actifit/@rabihfarhat/actifit-rabihfarhat-20200219t202605798z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/actifit/@chrisparis/actifit-chrisparis-20200219t205025094z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://steemit.com/actifit/@onealfa/actifit-onealfa-20200219t210337108z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/actifit/@ynwa.andree/actifit-ynwa-andree-20200219t211014539z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <s v="https://steemit.com/actifit/@rookielector/actifit-rookielector-20200219t212047901z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/actifit/@drugelis/actifit-drugelis-20200219t214531313z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="https://steemit.com/actifit/@steemmillionaire/actifit-steemmillionaire-20200219t220208259z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/actifit/@enormeanimal/actifit-enormeanimal-20200219t223544385z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/actifit/@actifit-peter/actifit-actifit-peter-20200219t224842892z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/actifit/@street.yoga/actifit-street-yoga-20200219t225817589z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-99091"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="106"/>
+    <x v="109"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -4697,7 +5045,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="110">
+      <items count="113">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -4707,7 +5055,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="107"/>
+        <item m="1" x="110"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -4715,7 +5063,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="108"/>
+        <item m="1" x="111"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -4790,7 +5138,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="106"/>
+        <item x="109"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -4807,6 +5155,9 @@
         <item x="103"/>
         <item x="104"/>
         <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4824,207 +5175,198 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="68">
-    <i>
-      <x v="42"/>
-    </i>
+  <rowItems count="65">
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="70"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="48"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="59"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="89"/>
     </i>
     <i>
-      <x v="77"/>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="102"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="104"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="91"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="107"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="86"/>
     </i>
     <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="74"/>
+      <x v="52"/>
     </i>
     <i t="grand">
       <x/>
@@ -5034,7 +5376,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -5052,8 +5394,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -5065,7 +5407,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="110">
+      <items count="113">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -5075,7 +5417,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="107"/>
+        <item m="1" x="110"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -5083,7 +5425,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="108"/>
+        <item m="1" x="111"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -5158,7 +5500,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="106"/>
+        <item x="109"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -5175,6 +5517,9 @@
         <item x="103"/>
         <item x="104"/>
         <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -5192,189 +5537,207 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="62">
+  <rowItems count="68">
     <i>
-      <x v="13"/>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="90"/>
     </i>
     <i>
-      <x/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="77"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="60"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="73"/>
+      <x v="28"/>
     </i>
     <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="59"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="40"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="94"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="87"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="72"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="86"/>
+      <x v="74"/>
     </i>
     <i t="grand">
       <x/>
@@ -5384,7 +5747,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -5745,41 +6108,41 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="B4" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B5" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="E5" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="B6" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="E6" s="3">
         <v>11</v>
@@ -5787,24 +6150,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B7" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="B8" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>385</v>
@@ -5815,27 +6178,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="B9" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="E9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="B10" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
@@ -5846,21 +6209,21 @@
         <v>352</v>
       </c>
       <c r="B11" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="B12" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>384</v>
@@ -5871,10 +6234,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>383</v>
@@ -5888,10 +6251,10 @@
         <v>401</v>
       </c>
       <c r="B14" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -5899,13 +6262,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B15" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -5913,13 +6276,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="B16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -5930,7 +6293,7 @@
         <v>402</v>
       </c>
       <c r="B17" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>429</v>
@@ -5944,10 +6307,10 @@
         <v>408</v>
       </c>
       <c r="B18" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -5958,10 +6321,10 @@
         <v>370</v>
       </c>
       <c r="B19" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
@@ -5975,7 +6338,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -5983,13 +6346,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B21" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -6000,10 +6363,10 @@
         <v>359</v>
       </c>
       <c r="B22" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -6011,13 +6374,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -6025,13 +6388,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B24" s="3">
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -6039,27 +6402,27 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -6067,13 +6430,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -6081,13 +6444,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -6095,13 +6458,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>530</v>
+        <v>351</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -6109,13 +6472,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -6123,13 +6486,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -6137,13 +6500,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>532</v>
+        <v>426</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -6151,13 +6514,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -6171,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -6179,13 +6542,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -6193,13 +6556,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>359</v>
+        <v>530</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -6207,13 +6570,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="B37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -6227,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -6235,7 +6598,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
@@ -6249,10 +6612,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>422</v>
@@ -6263,10 +6626,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>417</v>
@@ -6277,7 +6640,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
@@ -6291,7 +6654,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
@@ -6305,7 +6668,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>356</v>
+        <v>665</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -6319,13 +6682,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>572</v>
+        <v>356</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -6333,13 +6696,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -6347,13 +6710,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -6361,13 +6724,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -6375,13 +6738,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="B49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -6389,13 +6752,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>533</v>
+        <v>666</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -6403,7 +6766,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -6417,7 +6780,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -6431,7 +6794,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>571</v>
+        <v>355</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -6445,13 +6808,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>391</v>
+        <v>622</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -6459,13 +6822,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -6473,13 +6836,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>360</v>
+        <v>667</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -6487,7 +6850,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>534</v>
+        <v>342</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -6501,13 +6864,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -6515,7 +6878,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -6529,7 +6892,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>372</v>
+        <v>571</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -6543,7 +6906,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>622</v>
+        <v>430</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -6557,7 +6920,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>430</v>
+        <v>621</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -6585,13 +6948,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -6599,27 +6962,39 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="B65" s="3">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>620</v>
       </c>
@@ -6628,6 +7003,12 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" s="3">
+        <v>348</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>411</v>
       </c>
@@ -6637,7 +7018,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D69" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -6656,7 +7037,7 @@
         <v>431</v>
       </c>
       <c r="E71" s="3">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6666,10 +7047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C509"/>
+  <dimension ref="A1:C551"/>
   <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A463" sqref="A463:B509"/>
+    <sheetView topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13285,6 +13666,551 @@
       </c>
       <c r="C509" t="s">
         <v>618</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A510" t="str">
+        <f t="shared" ref="A510:A551" si="21">IFERROR(IF(FIND("appics",C510)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B510" t="str">
+        <f t="shared" ref="B510:B551" si="22">IF(A510="other","N/A",IF(A510="appics",MID(C510,29,LEN(C510)-26-28),MID(C510,30,FIND("/actifit-",C510)-30)))</f>
+        <v>chrisparis</v>
+      </c>
+      <c r="C510" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A511" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B511" t="str">
+        <f t="shared" si="22"/>
+        <v>griega</v>
+      </c>
+      <c r="C511" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A512" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B512" t="str">
+        <f t="shared" si="22"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C512" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A513" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B513" t="str">
+        <f t="shared" si="22"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C513" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A514" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B514" t="str">
+        <f t="shared" si="22"/>
+        <v>happybea</v>
+      </c>
+      <c r="C514" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A515" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B515" t="str">
+        <f t="shared" si="22"/>
+        <v>onealfa</v>
+      </c>
+      <c r="C515" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A516" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B516" t="str">
+        <f t="shared" si="22"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C516" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A517" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B517" t="str">
+        <f t="shared" si="22"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C517" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A518" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B518" t="str">
+        <f t="shared" si="22"/>
+        <v>flemingfarm</v>
+      </c>
+      <c r="C518" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A519" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B519" t="str">
+        <f t="shared" si="22"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C519" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A520" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B520" t="str">
+        <f t="shared" si="22"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C520" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A521" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B521" t="str">
+        <f t="shared" si="22"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C521" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A522" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B522" t="str">
+        <f t="shared" si="22"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C522" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A523" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B523" t="str">
+        <f t="shared" si="22"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C523" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A524" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B524" t="str">
+        <f t="shared" si="22"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C524" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A525" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B525" t="str">
+        <f t="shared" si="22"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C525" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A526" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B526" t="str">
+        <f t="shared" si="22"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C526" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A527" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B527" t="str">
+        <f t="shared" si="22"/>
+        <v>photobook</v>
+      </c>
+      <c r="C527" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>434</v>
+      </c>
+      <c r="B528" t="str">
+        <f t="shared" si="22"/>
+        <v>N/A</v>
+      </c>
+      <c r="C528" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A529" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B529" t="str">
+        <f t="shared" si="22"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C529" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A530" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B530" t="str">
+        <f t="shared" si="22"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C530" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A531" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B531" t="str">
+        <f t="shared" si="22"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C531" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A532" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B532" t="str">
+        <f t="shared" si="22"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C532" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A533" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B533" t="str">
+        <f t="shared" si="22"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C533" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A534" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B534" t="str">
+        <f t="shared" si="22"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C534" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A535" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B535" t="str">
+        <f t="shared" si="22"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C535" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A536" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B536" t="str">
+        <f t="shared" si="22"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C536" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A537" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B537" t="str">
+        <f t="shared" si="22"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C537" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A538" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B538" t="str">
+        <f t="shared" si="22"/>
+        <v>elteamgordo</v>
+      </c>
+      <c r="C538" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A539" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B539" t="str">
+        <f t="shared" si="22"/>
+        <v>sereze</v>
+      </c>
+      <c r="C539" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A540" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B540" t="str">
+        <f t="shared" si="22"/>
+        <v>flemingfarm</v>
+      </c>
+      <c r="C540" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A541" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B541" t="str">
+        <f t="shared" si="22"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C541" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A542" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B542" t="str">
+        <f t="shared" si="22"/>
+        <v>chrisparis</v>
+      </c>
+      <c r="C542" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A543" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B543" t="str">
+        <f t="shared" si="22"/>
+        <v>onealfa</v>
+      </c>
+      <c r="C543" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A544" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B544" t="str">
+        <f t="shared" si="22"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C544" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A545" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B545" t="str">
+        <f t="shared" si="22"/>
+        <v>rookielector</v>
+      </c>
+      <c r="C545" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A546" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B546" t="str">
+        <f t="shared" si="22"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C546" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A547" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B547" t="str">
+        <f t="shared" si="22"/>
+        <v>steemmillionaire</v>
+      </c>
+      <c r="C547" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A548" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B548" t="str">
+        <f t="shared" si="22"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C548" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A549" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B549" t="str">
+        <f t="shared" si="22"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C549" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A550" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B550" t="str">
+        <f t="shared" si="22"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C550" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A551" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B551" t="str">
+        <f t="shared" si="22"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C551" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B294D-AE8E-411C-80D6-93DF9B4DFE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD023F0E-9222-4AFF-A553-E98289FFE839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="756">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2043,6 +2043,270 @@
   </si>
   <si>
     <t>warhead61</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-99710</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mhm-philippines/actifit-mhm-philippines-20200220t000435119z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200220t004423308z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200220t010724160z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-99127</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@runridefly/actifit-runridefly-20200220t021453220z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200220t042205049z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@warhead61/actifit-warhead61-20200220t063934570z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@photobook/actifit-photobook-20200220t071925339z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-99279</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-99308</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200220t105441918z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@purepinay/actifit-purepinay-20200220t123757861z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@dailyspam/appics-v1-appics-im-99410</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bbaspring/actifit-bbaspring-20200220t131536034z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@robibasa/actifit-robibasa-20200220t151018548z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200220t155416808z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@bluengel/actifit-bluengel-20200220t160114716z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@zanoni/actifit-zanoni-20200220t161540932z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200220t175042441z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200220t183516512z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-99631</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alexvanaken/appics-v1-appics-im-99645</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200220t192930753z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@appics/appics-v1-appics-im-99677</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200220t203849870z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200220t210758309z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-99691</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-99702</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200220t215129514z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200220t221303232z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200220t222150279z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@yanipetkov/actifit-yanipetkov-20200220t222535862z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@rookielector/appics-v1-appics-im-99721</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@uyobong/actifit-uyobong-20200220t225157692z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200220t230055899z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200220t231403396z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200220t235520535z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200221t001939783z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200221t011354041z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-99819</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200221t033757978z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-99876</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200221t051043104z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alexvanaken/actifit-alexvanaken-20200221t063903824z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200221t064505613z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200221t072828973z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@laura.appics/appics-v1-appics-im-99970</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@hdelosrios/appics-v1-appics-im-100047</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-100059</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200221t124115015z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@imagine.colours/appics-v1-appics-im-100148</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bbaspring/actifit-bbaspring-20200221t151025294z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200221t154505580z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@aniestudio/appics-v1-appics-im-100175</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200221t155924296z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200221t164910451z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-100263</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazypoet/appics-v1-appics-im-100264</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-100276</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200221t183751251z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200221t191248181z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@woe-is-meme/appics-v1-appics-im-100307</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200221t195939477z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@enormeanimal/appics-v1-appics-im-100321</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200221t201115699z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200221t202255829z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200221t213224507z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200221t215204900z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@onealfa/actifit-onealfa-20200221t215258344z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@andreacastaneda/appics-v1-appics-im-100380</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@dailyspam/appics-v1-appics-im-100382</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200221t221634550z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200221t222928565z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@griega/actifit-griega-20200221t223915711z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200221t225444734z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200221t234640555z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200222t012406458z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200222t013242742z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200222t023731073z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200222t024826062z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200222t025032894z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alexvanaken/actifit-alexvanaken-20200222t025452008z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200222t025946008z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200222t033645047z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200222t044539221z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@joetunex/appics-v1-appics-im-100532</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200222t075432340z</t>
   </si>
 </sst>
 </file>
@@ -5032,369 +5296,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="113">
-        <item x="17"/>
-        <item x="62"/>
-        <item x="19"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="38"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item m="1" x="110"/>
-        <item x="68"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="30"/>
-        <item x="22"/>
-        <item x="73"/>
-        <item x="35"/>
-        <item m="1" x="111"/>
-        <item x="34"/>
-        <item x="39"/>
-        <item x="5"/>
-        <item x="75"/>
-        <item x="59"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="10"/>
-        <item x="89"/>
-        <item x="12"/>
-        <item x="32"/>
-        <item x="4"/>
-        <item x="88"/>
-        <item x="66"/>
-        <item x="36"/>
-        <item x="48"/>
-        <item x="55"/>
-        <item x="31"/>
-        <item x="74"/>
-        <item x="90"/>
-        <item x="86"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="58"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="60"/>
-        <item x="56"/>
-        <item x="52"/>
-        <item x="76"/>
-        <item x="28"/>
-        <item x="81"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="44"/>
-        <item x="63"/>
-        <item x="83"/>
-        <item x="64"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="50"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="16"/>
-        <item x="41"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="80"/>
-        <item x="69"/>
-        <item x="85"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="82"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="67"/>
-        <item x="53"/>
-        <item x="70"/>
-        <item x="23"/>
-        <item x="77"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="54"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="109"/>
-        <item x="46"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="65">
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -5764,6 +5666,368 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="113">
+        <item x="17"/>
+        <item x="62"/>
+        <item x="19"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item m="1" x="110"/>
+        <item x="68"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="22"/>
+        <item x="73"/>
+        <item x="35"/>
+        <item m="1" x="111"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="89"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="88"/>
+        <item x="66"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="74"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="58"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="60"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="76"/>
+        <item x="28"/>
+        <item x="81"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="50"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="80"/>
+        <item x="69"/>
+        <item x="85"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="53"/>
+        <item x="70"/>
+        <item x="23"/>
+        <item x="77"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="54"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="109"/>
+        <item x="46"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="65">
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6063,7 +6327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -7047,10 +7311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C551"/>
+  <dimension ref="A1:C639"/>
   <sheetViews>
-    <sheetView topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529"/>
+    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
+      <selection activeCell="B638" sqref="B638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13670,11 +13934,11 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510" t="str">
-        <f t="shared" ref="A510:A551" si="21">IFERROR(IF(FIND("appics",C510)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A510:A573" si="21">IFERROR(IF(FIND("appics",C510)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B510" t="str">
-        <f t="shared" ref="B510:B551" si="22">IF(A510="other","N/A",IF(A510="appics",MID(C510,29,LEN(C510)-26-28),MID(C510,30,FIND("/actifit-",C510)-30)))</f>
+        <f t="shared" ref="B510:B573" si="22">IF(A510="other","N/A",IF(A510="appics",MID(C510,29,LEN(C510)-26-28),MID(C510,30,FIND("/actifit-",C510)-30)))</f>
         <v>chrisparis</v>
       </c>
       <c r="C510" t="s">
@@ -14211,6 +14475,1150 @@
       </c>
       <c r="C551" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A552" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B552" t="str">
+        <f t="shared" si="22"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C552" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A553" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B553" t="str">
+        <f t="shared" si="22"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C553" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A554" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B554" t="str">
+        <f t="shared" si="22"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C554" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A555" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B555" t="str">
+        <f t="shared" si="22"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C555" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A556" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B556" t="str">
+        <f>IF(A556="other","N/A",IF(A556="appics",MID(C556,29,LEN(C556)-26-28),MID(C556,34,FIND("/actifit-",C556)-34)))</f>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C556" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A557" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B557" t="str">
+        <f t="shared" si="22"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C557" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A558" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B558" t="str">
+        <f t="shared" si="22"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C558" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A559" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B559" t="str">
+        <f t="shared" si="22"/>
+        <v>photobook</v>
+      </c>
+      <c r="C559" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A560" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B560" t="str">
+        <f t="shared" si="22"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C560" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A561" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B561" t="str">
+        <f t="shared" si="22"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C561" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A562" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B562" t="str">
+        <f t="shared" si="22"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C562" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A563" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B563" t="str">
+        <f t="shared" si="22"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C563" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A564" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B564" t="str">
+        <f t="shared" si="22"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C564" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A565" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B565" t="str">
+        <f t="shared" si="22"/>
+        <v>bbaspring</v>
+      </c>
+      <c r="C565" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A566" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B566" t="str">
+        <f t="shared" si="22"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C566" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A567" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B567" t="str">
+        <f t="shared" si="22"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C567" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A568" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B568" t="str">
+        <f t="shared" si="22"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C568" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A569" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B569" t="str">
+        <f t="shared" si="22"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C569" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A570" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B570" t="str">
+        <f t="shared" si="22"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C570" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A571" t="str">
+        <f t="shared" si="21"/>
+        <v>actifit</v>
+      </c>
+      <c r="B571" t="str">
+        <f>IF(A571="other","N/A",IF(A571="appics",MID(C571,29,LEN(C571)-26-28),MID(C571,34,FIND("/actifit-",C571)-34)))</f>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C571" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A572" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B572" t="str">
+        <f>IF(A572="other","N/A",IF(A572="appics",MID(C572,29,LEN(C572)-26-28),MID(C572,34,FIND("/actifit-",C572)-34)))</f>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C572" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A573" t="str">
+        <f t="shared" si="21"/>
+        <v>appics</v>
+      </c>
+      <c r="B573" t="str">
+        <f>IF(A573="other","N/A",IF(A573="appics",MID(C573,29,LEN(C573)-26-28),MID(C573,34,FIND("/actifit-",C573)-34)))</f>
+        <v>alexvanaken</v>
+      </c>
+      <c r="C573" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A574" t="str">
+        <f t="shared" ref="A574:A637" si="23">IFERROR(IF(FIND("appics",C574)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B574" t="str">
+        <f>IF(A574="other","N/A",IF(A574="appics",MID(C574,29,LEN(C574)-26-28),MID(C574,34,FIND("/actifit-",C574)-34)))</f>
+        <v>sereze</v>
+      </c>
+      <c r="C574" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A575" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B575" t="str">
+        <f>IF(A575="other","N/A",IF(A575="appics",MID(C575,29,LEN(C575)-26-28),MID(C575,34,FIND("/actifit-",C575)-34)))</f>
+        <v>appics</v>
+      </c>
+      <c r="C575" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A576" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B576" t="str">
+        <f>IF(A576="other","N/A",IF(A576="appics",MID(C576,29,LEN(C576)-26-28),MID(C576,34,FIND("/actifit-",C576)-34)))</f>
+        <v>chrisparis</v>
+      </c>
+      <c r="C576" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A577" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B577" t="str">
+        <f>IF(A577="other","N/A",IF(A577="appics",MID(C577,29,LEN(C577)-26-28),MID(C577,34,FIND("/actifit-",C577)-34)))</f>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C577" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A578" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B578" t="str">
+        <f>IF(A578="other","N/A",IF(A578="appics",MID(C578,29,LEN(C578)-26-28),MID(C578,34,FIND("/actifit-",C578)-34)))</f>
+        <v>alex-hm</v>
+      </c>
+      <c r="C578" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A579" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B579" t="str">
+        <f>IF(A579="other","N/A",IF(A579="appics",MID(C579,29,LEN(C579)-26-28),MID(C579,34,FIND("/actifit-",C579)-34)))</f>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C579" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A580" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B580" t="str">
+        <f>IF(A580="other","N/A",IF(A580="appics",MID(C580,29,LEN(C580)-26-28),MID(C580,34,FIND("/actifit-",C580)-34)))</f>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C580" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A581" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B581" t="str">
+        <f>IF(A581="other","N/A",IF(A581="appics",MID(C581,29,LEN(C581)-26-28),MID(C581,34,FIND("/actifit-",C581)-34)))</f>
+        <v>geekdancing</v>
+      </c>
+      <c r="C581" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A582" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B582" t="str">
+        <f>IF(A582="other","N/A",IF(A582="appics",MID(C582,29,LEN(C582)-26-28),MID(C582,34,FIND("/actifit-",C582)-34)))</f>
+        <v>drugelis</v>
+      </c>
+      <c r="C582" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A583" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B583" t="str">
+        <f>IF(A583="other","N/A",IF(A583="appics",MID(C583,29,LEN(C583)-26-28),MID(C583,34,FIND("/actifit-",C583)-34)))</f>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C583" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A584" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B584" t="str">
+        <f>IF(A584="other","N/A",IF(A584="appics",MID(C584,29,LEN(C584)-26-28),MID(C584,34,FIND("/actifit-",C584)-34)))</f>
+        <v>yanipetkov</v>
+      </c>
+      <c r="C584" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A585" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B585" t="str">
+        <f>IF(A585="other","N/A",IF(A585="appics",MID(C585,29,LEN(C585)-26-28),MID(C585,34,FIND("/actifit-",C585)-34)))</f>
+        <v>rookielector</v>
+      </c>
+      <c r="C585" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A586" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B586" t="str">
+        <f>IF(A586="other","N/A",IF(A586="appics",MID(C586,29,LEN(C586)-26-28),MID(C586,34,FIND("/actifit-",C586)-34)))</f>
+        <v>uyobong</v>
+      </c>
+      <c r="C586" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A587" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B587" t="str">
+        <f>IF(A587="other","N/A",IF(A587="appics",MID(C587,29,LEN(C587)-26-28),MID(C587,34,FIND("/actifit-",C587)-34)))</f>
+        <v>street.yoga</v>
+      </c>
+      <c r="C587" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A588" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B588" t="str">
+        <f>IF(A588="other","N/A",IF(A588="appics",MID(C588,29,LEN(C588)-26-28),MID(C588,34,FIND("/actifit-",C588)-34)))</f>
+        <v>street.yoga</v>
+      </c>
+      <c r="C588" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A589" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B589" t="str">
+        <f>IF(A589="other","N/A",IF(A589="appics",MID(C589,29,LEN(C589)-26-28),MID(C589,34,FIND("/actifit-",C589)-34)))</f>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C589" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A590" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B590" t="str">
+        <f>IF(A590="other","N/A",IF(A590="appics",MID(C590,29,LEN(C590)-26-28),MID(C590,34,FIND("/actifit-",C590)-34)))</f>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C590" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A591" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B591" t="str">
+        <f>IF(A591="other","N/A",IF(A591="appics",MID(C591,29,LEN(C591)-26-28),MID(C591,34,FIND("/actifit-",C591)-34)))</f>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C591" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A592" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B592" t="str">
+        <f>IF(A592="other","N/A",IF(A592="appics",MID(C592,29,LEN(C592)-26-28),MID(C592,34,FIND("/actifit-",C592)-34)))</f>
+        <v>runridefly</v>
+      </c>
+      <c r="C592" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A593" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B593" t="str">
+        <f>IF(A593="other","N/A",IF(A593="appics",MID(C593,29,LEN(C593)-26-28),MID(C593,34,FIND("/actifit-",C593)-34)))</f>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C593" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A594" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B594" t="str">
+        <f>IF(A594="other","N/A",IF(A594="appics",MID(C594,29,LEN(C594)-26-28),MID(C594,34,FIND("/actifit-",C594)-34)))</f>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C594" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A595" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B595" t="str">
+        <f>IF(A595="other","N/A",IF(A595="appics",MID(C595,29,LEN(C595)-26-28),MID(C595,34,FIND("/actifit-",C595)-34)))</f>
+        <v>runridefly</v>
+      </c>
+      <c r="C595" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A596" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B596" t="str">
+        <f>IF(A596="other","N/A",IF(A596="appics",MID(C596,29,LEN(C596)-26-28),MID(C596,34,FIND("/actifit-",C596)-34)))</f>
+        <v>alexvanaken</v>
+      </c>
+      <c r="C596" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A597" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B597" t="str">
+        <f>IF(A597="other","N/A",IF(A597="appics",MID(C597,29,LEN(C597)-26-28),MID(C597,34,FIND("/actifit-",C597)-34)))</f>
+        <v>geekdancing</v>
+      </c>
+      <c r="C597" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A598" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B598" t="str">
+        <f>IF(A598="other","N/A",IF(A598="appics",MID(C598,29,LEN(C598)-26-28),MID(C598,34,FIND("/actifit-",C598)-34)))</f>
+        <v>photobook</v>
+      </c>
+      <c r="C598" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A599" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B599" t="str">
+        <f>IF(A599="other","N/A",IF(A599="appics",MID(C599,29,LEN(C599)-26-28),MID(C599,34,FIND("/actifit-",C599)-34)))</f>
+        <v>laura.appics</v>
+      </c>
+      <c r="C599" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A600" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B600" t="str">
+        <f>IF(A600="other","N/A",IF(A600="appics",MID(C600,29,LEN(C600)-26-29),MID(C600,34,FIND("/actifit-",C600)-34)))</f>
+        <v>hdelosrios</v>
+      </c>
+      <c r="C600" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A601" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B601" t="str">
+        <f>IF(A601="other","N/A",IF(A601="appics",MID(C601,29,LEN(C601)-26-29),MID(C601,34,FIND("/actifit-",C601)-34)))</f>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C601" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A602" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B602" t="str">
+        <f>IF(A602="other","N/A",IF(A602="appics",MID(C602,29,LEN(C602)-26-29),MID(C602,34,FIND("/actifit-",C602)-34)))</f>
+        <v>purepinay</v>
+      </c>
+      <c r="C602" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A603" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B603" t="str">
+        <f>IF(A603="other","N/A",IF(A603="appics",MID(C603,29,LEN(C603)-26-29),MID(C603,34,FIND("/actifit-",C603)-34)))</f>
+        <v>imagine.colours</v>
+      </c>
+      <c r="C603" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A604" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B604" t="str">
+        <f>IF(A604="other","N/A",IF(A604="appics",MID(C604,29,LEN(C604)-26-29),MID(C604,34,FIND("/actifit-",C604)-34)))</f>
+        <v>bbaspring</v>
+      </c>
+      <c r="C604" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A605" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B605" t="str">
+        <f>IF(A605="other","N/A",IF(A605="appics",MID(C605,29,LEN(C605)-26-29),MID(C605,34,FIND("/actifit-",C605)-34)))</f>
+        <v>krazypoet</v>
+      </c>
+      <c r="C605" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A606" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B606" t="str">
+        <f>IF(A606="other","N/A",IF(A606="appics",MID(C606,29,LEN(C606)-26-29),MID(C606,34,FIND("/actifit-",C606)-34)))</f>
+        <v>aniestudio</v>
+      </c>
+      <c r="C606" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A607" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B607" t="str">
+        <f>IF(A607="other","N/A",IF(A607="appics",MID(C607,29,LEN(C607)-26-29),MID(C607,34,FIND("/actifit-",C607)-34)))</f>
+        <v>zanoni</v>
+      </c>
+      <c r="C607" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A608" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B608" t="str">
+        <f>IF(A608="other","N/A",IF(A608="appics",MID(C608,29,LEN(C608)-26-29),MID(C608,34,FIND("/actifit-",C608)-34)))</f>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C608" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A609" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B609" t="str">
+        <f>IF(A609="other","N/A",IF(A609="appics",MID(C609,29,LEN(C609)-26-29),MID(C609,34,FIND("/actifit-",C609)-34)))</f>
+        <v>geekdancing</v>
+      </c>
+      <c r="C609" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A610" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B610" t="str">
+        <f>IF(A610="other","N/A",IF(A610="appics",MID(C610,29,LEN(C610)-26-29),MID(C610,34,FIND("/actifit-",C610)-34)))</f>
+        <v>krazypoet</v>
+      </c>
+      <c r="C610" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A611" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B611" t="str">
+        <f>IF(A611="other","N/A",IF(A611="appics",MID(C611,29,LEN(C611)-26-29),MID(C611,34,FIND("/actifit-",C611)-34)))</f>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C611" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A612" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B612" t="str">
+        <f>IF(A612="other","N/A",IF(A612="appics",MID(C612,29,LEN(C612)-26-29),MID(C612,34,FIND("/actifit-",C612)-34)))</f>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C612" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A613" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B613" t="str">
+        <f>IF(A613="other","N/A",IF(A613="appics",MID(C613,29,LEN(C613)-26-29),MID(C613,34,FIND("/actifit-",C613)-34)))</f>
+        <v>sereze</v>
+      </c>
+      <c r="C613" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A614" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B614" t="str">
+        <f>IF(A614="other","N/A",IF(A614="appics",MID(C614,29,LEN(C614)-26-29),MID(C614,34,FIND("/actifit-",C614)-34)))</f>
+        <v>woe-is-meme</v>
+      </c>
+      <c r="C614" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A615" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B615" t="str">
+        <f>IF(A615="other","N/A",IF(A615="appics",MID(C615,29,LEN(C615)-26-29),MID(C615,34,FIND("/actifit-",C615)-34)))</f>
+        <v>blumela</v>
+      </c>
+      <c r="C615" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A616" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B616" t="str">
+        <f>IF(A616="other","N/A",IF(A616="appics",MID(C616,29,LEN(C616)-26-29),MID(C616,34,FIND("/actifit-",C616)-34)))</f>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C616" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A617" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B617" t="str">
+        <f>IF(A617="other","N/A",IF(A617="appics",MID(C617,29,LEN(C617)-26-29),MID(C617,34,FIND("/actifit-",C617)-34)))</f>
+        <v>chrisparis</v>
+      </c>
+      <c r="C617" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A618" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B618" t="str">
+        <f>IF(A618="other","N/A",IF(A618="appics",MID(C618,29,LEN(C618)-26-29),MID(C618,34,FIND("/actifit-",C618)-34)))</f>
+        <v>robibasa</v>
+      </c>
+      <c r="C618" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A619" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B619" t="str">
+        <f>IF(A619="other","N/A",IF(A619="appics",MID(C619,29,LEN(C619)-26-29),MID(C619,34,FIND("/actifit-",C619)-34)))</f>
+        <v>dailyspam</v>
+      </c>
+      <c r="C619" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A620" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B620" t="str">
+        <f>IF(A620="other","N/A",IF(A620="appics",MID(C620,29,LEN(C620)-26-29),MID(C620,34,FIND("/actifit-",C620)-34)))</f>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C620" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A621" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B621" t="str">
+        <f>IF(A621="other","N/A",IF(A621="appics",MID(C621,29,LEN(C621)-26-29),MID(C621,34,FIND("/actifit-",C621)-34)))</f>
+        <v>onealfa</v>
+      </c>
+      <c r="C621" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A622" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B622" t="str">
+        <f>IF(A622="other","N/A",IF(A622="appics",MID(C622,29,LEN(C622)-26-29),MID(C622,34,FIND("/actifit-",C622)-34)))</f>
+        <v>andreacastaneda</v>
+      </c>
+      <c r="C622" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A623" t="str">
+        <f t="shared" si="23"/>
+        <v>appics</v>
+      </c>
+      <c r="B623" t="str">
+        <f>IF(A623="other","N/A",IF(A623="appics",MID(C623,29,LEN(C623)-26-29),MID(C623,34,FIND("/actifit-",C623)-34)))</f>
+        <v>dailyspam</v>
+      </c>
+      <c r="C623" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A624" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B624" t="str">
+        <f t="shared" ref="B624:B631" si="24">IF(A624="other","N/A",IF(A624="appics",MID(C624,29,LEN(C624)-26-29),MID(C624,34,FIND("/actifit-",C624)-34)))</f>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C624" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A625" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B625" t="str">
+        <f t="shared" si="24"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C625" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A626" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B626" t="str">
+        <f t="shared" si="24"/>
+        <v>griega</v>
+      </c>
+      <c r="C626" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A627" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B627" t="str">
+        <f t="shared" si="24"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C627" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A628" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B628" t="str">
+        <f t="shared" si="24"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C628" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A629" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B629" t="str">
+        <f t="shared" si="24"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C629" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A630" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B630" t="str">
+        <f t="shared" si="24"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C630" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A631" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B631" t="str">
+        <f t="shared" si="24"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C631" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A632" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B632" t="str">
+        <f>IF(A632="other","N/A",IF(A632="appics",MID(C632,29,LEN(C632)-26-29),MID(C632,34,FIND("/actifit-",C632)-34)))</f>
+        <v>krazypoet</v>
+      </c>
+      <c r="C632" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A633" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B633" t="str">
+        <f>IF(A633="other","N/A",IF(A633="appics",MID(C633,29,LEN(C633)-26-29),MID(C633,34,FIND("/actifit-",C633)-34)))</f>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C633" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A634" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B634" t="str">
+        <f>IF(A634="other","N/A",IF(A634="appics",MID(C634,29,LEN(C634)-26-29),MID(C634,34,FIND("/actifit-",C634)-34)))</f>
+        <v>alexvanaken</v>
+      </c>
+      <c r="C634" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A635" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B635" t="str">
+        <f>IF(A635="other","N/A",IF(A635="appics",MID(C635,29,LEN(C635)-26-29),MID(C635,34,FIND("/actifit-",C635)-34)))</f>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C635" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A636" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B636" t="str">
+        <f t="shared" ref="B636:B639" si="25">IF(A636="other","N/A",IF(A636="appics",MID(C636,29,LEN(C636)-26-29),MID(C636,34,FIND("/actifit-",C636)-34)))</f>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C636" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A637" t="str">
+        <f t="shared" si="23"/>
+        <v>actifit</v>
+      </c>
+      <c r="B637" t="str">
+        <f t="shared" si="25"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C637" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A638" t="str">
+        <f t="shared" ref="A638:A639" si="26">IFERROR(IF(FIND("appics",C638)&gt;0,"appics"),"actifit")</f>
+        <v>appics</v>
+      </c>
+      <c r="B638" t="str">
+        <f t="shared" si="25"/>
+        <v>joetunex</v>
+      </c>
+      <c r="C638" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A639" t="str">
+        <f t="shared" si="26"/>
+        <v>actifit</v>
+      </c>
+      <c r="B639" t="str">
+        <f t="shared" si="25"/>
+        <v>photobook</v>
+      </c>
+      <c r="C639" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD023F0E-9222-4AFF-A553-E98289FFE839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C007590A-CA7A-46A9-80DD-A048DB1A12FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="761">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2307,6 +2307,21 @@
   </si>
   <si>
     <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200222t075432340z</t>
+  </si>
+  <si>
+    <t>woe-is-meme</t>
+  </si>
+  <si>
+    <t>andreacastaneda</t>
+  </si>
+  <si>
+    <t>laura.appics</t>
+  </si>
+  <si>
+    <t>bbaspring</t>
+  </si>
+  <si>
+    <t>blumela</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2409,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43881.01712916667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="551" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43883.415961689818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="639" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2408,7 +2423,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="112">
+      <sharedItems containsBlank="1" count="117">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2518,8 +2533,13 @@
         <s v="griega"/>
         <s v="flemingfarm"/>
         <s v="warhead61"/>
+        <s v="bbaspring"/>
+        <s v="appics"/>
+        <s v="laura.appics"/>
+        <s v="woe-is-meme"/>
+        <s v="blumela"/>
+        <s v="andreacastaneda"/>
         <m/>
-        <s v="appics" u="1"/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2536,7 +2556,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="551">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="639">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5288,16 +5308,456 @@
     <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-99091"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/actifit/@mhm-philippines/actifit-mhm-philippines-20200220t000435119z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/actifit/@mrsbozz/actifit-mrsbozz-20200220t004423308z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/actifit/@bozz.sports/actifit-bozz-sports-20200220t010724160z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/actifit/@runridefly/actifit-runridefly-20200220t021453220z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-99127"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/actifit/@krazypoet/actifit-krazypoet-20200220t042205049z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="108"/>
+    <s v="https://steemit.com/actifit/@warhead61/actifit-warhead61-20200220t063934570z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/actifit/@photobook/actifit-photobook-20200220t071925339z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="https://steemit.com/appics/@runridefly/appics-v1-appics-im-99279"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-99308"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/actifit/@faraicelebr8/actifit-faraicelebr8-20200220t105441918z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/actifit/@purepinay/actifit-purepinay-20200220t123757861z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="https://steemit.com/appics/@dailyspam/appics-v1-appics-im-99410"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="109"/>
+    <s v="https://steemit.com/actifit/@bbaspring/actifit-bbaspring-20200220t131536034z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/actifit/@robibasa/actifit-robibasa-20200220t151018548z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/actifit/@alex-hm/actifit-alex-hm-20200220t155416808z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/actifit/@bluengel/actifit-bluengel-20200220t160114716z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/actifit/@zanoni/actifit-zanoni-20200220t161540932z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/actifit/@dailyspam/actifit-dailyspam-20200220t175042441z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200220t183516512z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-99631"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="https://steemit.com/appics/@alexvanaken/appics-v1-appics-im-99645"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200220t192930753z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="110"/>
+    <s v="https://steemit.com/appics/@appics/appics-v1-appics-im-99677"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200220t203849870z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200220t210758309z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-99691"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-99702"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200220t215129514z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-99710"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200220t221303232z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200220t222150279z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="72"/>
+    <s v="https://steemit.com/hive-193552/@yanipetkov/actifit-yanipetkov-20200220t222535862z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="41"/>
+    <s v="https://steemit.com/appics/@rookielector/appics-v1-appics-im-99721"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="101"/>
+    <s v="https://steemit.com/hive-193552/@uyobong/actifit-uyobong-20200220t225157692z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200220t230055899z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200220t231403396z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200220t235520535z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200221t001939783z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200221t011354041z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="https://steemit.com/appics/@runridefly/appics-v1-appics-im-99819"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200221t033757978z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-99876"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200221t051043104z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://steemit.com/hive-193552/@alexvanaken/actifit-alexvanaken-20200221t063903824z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200221t064505613z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200221t072828973z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="111"/>
+    <s v="https://steemit.com/appics/@laura.appics/appics-v1-appics-im-99970"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="105"/>
+    <s v="https://steemit.com/appics/@hdelosrios/appics-v1-appics-im-100047"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-100059"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200221t124115015z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="86"/>
+    <s v="https://steemit.com/appics/@imagine.colours/appics-v1-appics-im-100148"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="109"/>
+    <s v="https://steemit.com/hive-193552/@bbaspring/actifit-bbaspring-20200221t151025294z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200221t154505580z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="42"/>
+    <s v="https://steemit.com/appics/@aniestudio/appics-v1-appics-im-100175"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200221t155924296z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200221t164910451z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-100263"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-100264"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-100276"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200221t183751251z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200221t191248181z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="112"/>
+    <s v="https://steemit.com/appics/@woe-is-meme/appics-v1-appics-im-100307"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200221t195939477z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="https://steemit.com/appics/@enormeanimal/appics-v1-appics-im-100321"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200221t201115699z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200221t202255829z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200221t213224507z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200221t215204900z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="https://steemit.com/hive-193552/@onealfa/actifit-onealfa-20200221t215258344z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="114"/>
+    <s v="https://steemit.com/appics/@andreacastaneda/appics-v1-appics-im-100380"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="https://steemit.com/appics/@dailyspam/appics-v1-appics-im-100382"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200221t221634550z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200221t222928565z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="106"/>
+    <s v="https://steemit.com/hive-193552/@griega/actifit-griega-20200221t223915711z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200221t225444734z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200221t234640555z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200222t012406458z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200222t013242742z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200222t023731073z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200222t024826062z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200222t025032894z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://steemit.com/hive-193552/@alexvanaken/actifit-alexvanaken-20200222t025452008z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200222t025946008z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200222t033645047z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200222t044539221z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="92"/>
+    <s v="https://steemit.com/appics/@joetunex/appics-v1-appics-im-100532"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200222t075432340z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="109"/>
+    <x v="115"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -5309,7 +5769,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="113">
+      <items count="118">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -5319,7 +5779,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="110"/>
+        <item x="110"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -5327,7 +5787,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="111"/>
+        <item m="1" x="116"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -5402,7 +5862,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="109"/>
+        <item x="115"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -5422,6 +5882,11 @@
         <item x="106"/>
         <item x="107"/>
         <item x="108"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -5439,7 +5904,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="68">
+  <rowItems count="72">
     <i>
       <x v="42"/>
     </i>
@@ -5459,10 +5924,13 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="34"/>
+    </i>
+    <i>
       <x v="27"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="69"/>
     </i>
     <i>
       <x v="45"/>
@@ -5471,34 +5939,25 @@
       <x v="44"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="50"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="22"/>
     </i>
     <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
       <x v="63"/>
-    </i>
-    <i>
-      <x v="53"/>
     </i>
     <i>
       <x v="59"/>
@@ -5507,49 +5966,64 @@
       <x v="49"/>
     </i>
     <i>
-      <x v="58"/>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="40"/>
     </i>
     <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="29"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="25"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="47"/>
     </i>
     <i>
       <x v="32"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="95"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="65"/>
-    </i>
-    <i>
       <x v="108"/>
     </i>
     <i>
-      <x v="83"/>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="65"/>
     </i>
     <i>
       <x v="78"/>
@@ -5558,88 +6032,91 @@
       <x v="54"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="72"/>
     </i>
     <i>
       <x v="56"/>
     </i>
     <i>
-      <x v="38"/>
+      <x v="74"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="75"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="113"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="35"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="82"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="66"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="74"/>
     </i>
     <i t="grand">
       <x/>
@@ -5667,8 +6144,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -5680,7 +6157,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="113">
+      <items count="118">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -5690,7 +6167,7 @@
         <item x="57"/>
         <item x="42"/>
         <item x="11"/>
-        <item m="1" x="110"/>
+        <item x="110"/>
         <item x="68"/>
         <item x="47"/>
         <item x="20"/>
@@ -5698,7 +6175,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="111"/>
+        <item m="1" x="116"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -5773,7 +6250,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="109"/>
+        <item x="115"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -5793,6 +6270,11 @@
         <item x="106"/>
         <item x="107"/>
         <item x="108"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -5810,7 +6292,10 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="65">
+  <rowItems count="67">
+    <i>
+      <x v="13"/>
+    </i>
     <i>
       <x v="71"/>
     </i>
@@ -5818,25 +6303,22 @@
       <x v="55"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="90"/>
     </i>
     <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="90"/>
+      <x/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
-      <x/>
+      <x v="68"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="79"/>
     </i>
     <i>
       <x v="88"/>
@@ -5848,13 +6330,7 @@
       <x v="73"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="69"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="31"/>
@@ -5863,10 +6339,28 @@
       <x v="46"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="20"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="51"/>
     </i>
     <i>
       <x v="85"/>
@@ -5875,49 +6369,37 @@
       <x v="81"/>
     </i>
     <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="87"/>
     </i>
     <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="51"/>
+      <x v="70"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
       <x v="53"/>
     </i>
     <i>
-      <x v="103"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="48"/>
@@ -5926,7 +6408,19 @@
       <x v="78"/>
     </i>
     <i>
+      <x v="103"/>
+    </i>
+    <i>
       <x v="8"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="104"/>
     </i>
     <i>
       <x v="6"/>
@@ -5935,70 +6429,64 @@
       <x v="110"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
       <x v="41"/>
     </i>
     <i>
       <x v="109"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="107"/>
     </i>
     <i>
       <x v="101"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="21"/>
     </i>
     <i>
       <x v="102"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
       <x v="91"/>
     </i>
     <i>
-      <x v="107"/>
+      <x v="86"/>
     </i>
     <i>
       <x v="96"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="86"/>
     </i>
     <i>
       <x v="52"/>
@@ -6325,10 +6813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6336,7 +6824,7 @@
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="84" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -6372,72 +6860,72 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B5" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="B6" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E6" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E7" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="B8" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6445,27 +6933,27 @@
         <v>362</v>
       </c>
       <c r="B9" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>343</v>
       </c>
       <c r="E9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="B10" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -6473,10 +6961,10 @@
         <v>352</v>
       </c>
       <c r="B11" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -6484,13 +6972,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B12" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -6501,10 +6989,10 @@
         <v>427</v>
       </c>
       <c r="B13" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
@@ -6515,13 +7003,13 @@
         <v>401</v>
       </c>
       <c r="B14" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -6529,24 +7017,24 @@
         <v>412</v>
       </c>
       <c r="B15" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B16" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -6554,27 +7042,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B17" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B18" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -6582,13 +7070,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B19" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="E19" s="3">
         <v>4</v>
@@ -6596,27 +7084,27 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B20" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B21" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -6624,13 +7112,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="B22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -6638,13 +7126,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="B23" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -6652,13 +7140,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="B24" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -6666,13 +7154,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>365</v>
+        <v>532</v>
       </c>
       <c r="B25" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -6680,27 +7168,27 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -6708,10 +7196,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>415</v>
@@ -6722,13 +7210,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -6736,13 +7224,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -6750,13 +7238,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>532</v>
+        <v>365</v>
       </c>
       <c r="B31" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -6764,13 +7252,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -6778,13 +7266,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -6792,13 +7280,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -6806,13 +7294,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -6826,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>530</v>
+        <v>386</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -6834,13 +7322,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -6854,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -6862,16 +7350,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -6882,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -6896,49 +7384,49 @@
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>417</v>
+        <v>619</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>348</v>
+        <v>572</v>
       </c>
       <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E42" s="3">
         <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>665</v>
+        <v>356</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -6946,13 +7434,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -6960,13 +7448,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>398</v>
+        <v>571</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -6974,13 +7462,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -6988,13 +7476,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>386</v>
+        <v>665</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -7008,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -7019,10 +7507,10 @@
         <v>666</v>
       </c>
       <c r="B50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -7030,13 +7518,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -7044,13 +7532,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>534</v>
+        <v>667</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7058,13 +7546,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>355</v>
+        <v>759</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -7072,13 +7560,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>622</v>
+        <v>428</v>
       </c>
       <c r="B54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>347</v>
+        <v>531</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -7086,13 +7574,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>378</v>
+        <v>756</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -7100,13 +7588,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -7114,13 +7602,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>419</v>
+        <v>757</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -7128,13 +7616,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>533</v>
+        <v>372</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -7142,13 +7630,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -7156,13 +7644,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>571</v>
+        <v>760</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -7170,13 +7658,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -7190,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -7198,13 +7686,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>471</v>
+        <v>357</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -7212,13 +7700,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -7226,13 +7714,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -7240,13 +7728,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -7254,13 +7742,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>620</v>
+        <v>413</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -7268,29 +7756,41 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="B68" s="3">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>411</v>
+        <v>620</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="3">
+        <v>410</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>413</v>
+        <v>758</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -7298,10 +7798,42 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D71" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D72" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D73" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D74" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D75" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E71" s="3">
-        <v>195</v>
+      <c r="E75" s="3">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7313,7 +7845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
   <dimension ref="A1:C639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
+    <sheetView topLeftCell="A624" workbookViewId="0">
       <selection activeCell="B638" sqref="B638"/>
     </sheetView>
   </sheetViews>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C007590A-CA7A-46A9-80DD-A048DB1A12FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637986F-9781-4EC5-BBE7-0363CC5410F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="772">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2322,6 +2322,39 @@
   </si>
   <si>
     <t>blumela</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200222t095535148z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200222t111359100z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200222t132359827z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-100769</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200222t133004605z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200222t133844898z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200222t160205371z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200222t173609908z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-100920</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-100974</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200222t203141337z</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2442,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43883.415961689818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="639" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43883.920708564816" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="650" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2556,7 +2589,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="639">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="650">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5746,6 +5779,61 @@
     <x v="1"/>
     <x v="97"/>
     <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200222t075432340z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200222t095535148z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200222t111359100z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200222t132359827z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-100769"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200222t133004605z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200222t133844898z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200222t160205371z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200222t173609908z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-100920"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-100974"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="94"/>
+    <s v="https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200222t203141337z"/>
   </r>
   <r>
     <x v="3"/>
@@ -5756,7 +5844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -5918,10 +6006,10 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="46"/>
     </i>
     <i>
       <x v="34"/>
@@ -5930,103 +6018,103 @@
       <x v="27"/>
     </i>
     <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
       <x v="69"/>
     </i>
     <i>
       <x v="45"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="50"/>
+      <x v="22"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="90"/>
+      <x v="28"/>
     </i>
     <i>
       <x v="63"/>
     </i>
     <i>
+      <x v="60"/>
+    </i>
+    <i>
       <x v="59"/>
+    </i>
+    <i>
+      <x v="53"/>
     </i>
     <i>
       <x v="49"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="98"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="98"/>
+      <x/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="81"/>
     </i>
     <i>
       <x v="40"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="95"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="108"/>
+      <x v="64"/>
     </i>
     <i>
       <x v="58"/>
     </i>
     <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="78"/>
+      <x v="39"/>
     </i>
     <i>
       <x v="54"/>
@@ -6035,37 +6123,37 @@
       <x v="83"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="38"/>
     </i>
     <i>
       <x v="61"/>
     </i>
     <i>
+      <x v="35"/>
+    </i>
+    <i>
       <x v="26"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="30"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="99"/>
     </i>
     <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="99"/>
+      <x v="19"/>
     </i>
     <i>
       <x v="114"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="116"/>
+      <x v="66"/>
     </i>
     <i>
       <x v="80"/>
@@ -6077,13 +6165,13 @@
       <x v="82"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="84"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="94"/>
@@ -6107,16 +6195,16 @@
       <x v="113"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="116"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="66"/>
+      <x v="78"/>
     </i>
     <i t="grand">
       <x/>
@@ -6144,7 +6232,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -6306,13 +6394,13 @@
       <x v="90"/>
     </i>
     <i>
-      <x/>
+      <x v="68"/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="68"/>
+      <x/>
     </i>
     <i>
       <x v="12"/>
@@ -6321,22 +6409,25 @@
       <x v="79"/>
     </i>
     <i>
-      <x v="88"/>
-    </i>
-    <i>
       <x v="62"/>
     </i>
     <i>
       <x v="73"/>
     </i>
     <i>
+      <x v="88"/>
+    </i>
+    <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="46"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="24"/>
@@ -6345,13 +6436,7 @@
       <x v="63"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
       <x v="69"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="97"/>
@@ -6360,13 +6445,16 @@
       <x v="100"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="51"/>
     </i>
     <i>
       <x v="85"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="50"/>
@@ -6375,7 +6463,7 @@
       <x v="80"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="57"/>
@@ -6816,7 +6904,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6883,7 +6971,7 @@
         <v>341</v>
       </c>
       <c r="E5" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -6905,24 +6993,24 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E7" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="B8" s="3">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="E8" s="3">
         <v>9</v>
@@ -6936,7 +7024,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="E9" s="3">
         <v>9</v>
@@ -6944,10 +7032,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="B10" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>373</v>
@@ -6961,7 +7049,7 @@
         <v>352</v>
       </c>
       <c r="B11" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>366</v>
@@ -6978,21 +7066,21 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B13" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
@@ -7000,13 +7088,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -7014,13 +7102,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B15" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -7034,7 +7122,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -7042,13 +7130,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B17" s="3">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -7062,7 +7150,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -7070,7 +7158,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B19" s="3">
         <v>11</v>
@@ -7084,13 +7172,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B20" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="E20" s="3">
         <v>4</v>
@@ -7098,13 +7186,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="B21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -7118,7 +7206,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -7126,13 +7214,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="B23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -7140,13 +7228,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="B24" s="3">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -7154,13 +7242,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>532</v>
+        <v>343</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -7174,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -7196,13 +7284,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -7216,7 +7304,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -7230,7 +7318,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -7238,13 +7326,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -7258,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -7272,7 +7360,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -7297,10 +7385,10 @@
         <v>375</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -7314,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -7328,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -7342,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -7370,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -7398,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -7412,7 +7500,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -7426,7 +7514,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -7468,7 +7556,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -7482,7 +7570,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -7510,7 +7598,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -7524,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -7538,7 +7626,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7552,7 +7640,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -7580,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>756</v>
+        <v>358</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -7594,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>350</v>
+        <v>756</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -7608,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>757</v>
+        <v>405</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -7664,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -7692,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -7787,7 +7875,7 @@
         <v>431</v>
       </c>
       <c r="B70" s="3">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>758</v>
@@ -7798,7 +7886,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D71" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -7806,7 +7894,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D72" s="2" t="s">
-        <v>346</v>
+        <v>757</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -7822,7 +7910,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -7833,7 +7921,7 @@
         <v>431</v>
       </c>
       <c r="E75" s="3">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7843,10 +7931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C639"/>
+  <dimension ref="A1:C650"/>
   <sheetViews>
-    <sheetView topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="B638" sqref="B638"/>
+    <sheetView topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="B649" sqref="B649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14470,7 +14558,7 @@
         <v>actifit</v>
       </c>
       <c r="B510" t="str">
-        <f t="shared" ref="B510:B573" si="22">IF(A510="other","N/A",IF(A510="appics",MID(C510,29,LEN(C510)-26-28),MID(C510,30,FIND("/actifit-",C510)-30)))</f>
+        <f t="shared" ref="B510:B570" si="22">IF(A510="other","N/A",IF(A510="appics",MID(C510,29,LEN(C510)-26-28),MID(C510,30,FIND("/actifit-",C510)-30)))</f>
         <v>chrisparis</v>
       </c>
       <c r="C510" t="s">
@@ -15262,7 +15350,7 @@
         <v>actifit</v>
       </c>
       <c r="B571" t="str">
-        <f>IF(A571="other","N/A",IF(A571="appics",MID(C571,29,LEN(C571)-26-28),MID(C571,34,FIND("/actifit-",C571)-34)))</f>
+        <f t="shared" ref="B571:B599" si="23">IF(A571="other","N/A",IF(A571="appics",MID(C571,29,LEN(C571)-26-28),MID(C571,34,FIND("/actifit-",C571)-34)))</f>
         <v>enormeanimal</v>
       </c>
       <c r="C571" t="s">
@@ -15275,7 +15363,7 @@
         <v>appics</v>
       </c>
       <c r="B572" t="str">
-        <f>IF(A572="other","N/A",IF(A572="appics",MID(C572,29,LEN(C572)-26-28),MID(C572,34,FIND("/actifit-",C572)-34)))</f>
+        <f t="shared" si="23"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C572" t="s">
@@ -15288,7 +15376,7 @@
         <v>appics</v>
       </c>
       <c r="B573" t="str">
-        <f>IF(A573="other","N/A",IF(A573="appics",MID(C573,29,LEN(C573)-26-28),MID(C573,34,FIND("/actifit-",C573)-34)))</f>
+        <f t="shared" si="23"/>
         <v>alexvanaken</v>
       </c>
       <c r="C573" t="s">
@@ -15297,11 +15385,11 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A574" t="str">
-        <f t="shared" ref="A574:A637" si="23">IFERROR(IF(FIND("appics",C574)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A574:A637" si="24">IFERROR(IF(FIND("appics",C574)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B574" t="str">
-        <f>IF(A574="other","N/A",IF(A574="appics",MID(C574,29,LEN(C574)-26-28),MID(C574,34,FIND("/actifit-",C574)-34)))</f>
+        <f t="shared" si="23"/>
         <v>sereze</v>
       </c>
       <c r="C574" t="s">
@@ -15310,11 +15398,11 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A575" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B575" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B575" t="str">
-        <f>IF(A575="other","N/A",IF(A575="appics",MID(C575,29,LEN(C575)-26-28),MID(C575,34,FIND("/actifit-",C575)-34)))</f>
         <v>appics</v>
       </c>
       <c r="C575" t="s">
@@ -15323,11 +15411,11 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A576" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B576" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B576" t="str">
-        <f>IF(A576="other","N/A",IF(A576="appics",MID(C576,29,LEN(C576)-26-28),MID(C576,34,FIND("/actifit-",C576)-34)))</f>
         <v>chrisparis</v>
       </c>
       <c r="C576" t="s">
@@ -15336,11 +15424,11 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A577" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B577" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B577" t="str">
-        <f>IF(A577="other","N/A",IF(A577="appics",MID(C577,29,LEN(C577)-26-28),MID(C577,34,FIND("/actifit-",C577)-34)))</f>
         <v>ynwa.andree</v>
       </c>
       <c r="C577" t="s">
@@ -15349,11 +15437,11 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A578" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B578" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B578" t="str">
-        <f>IF(A578="other","N/A",IF(A578="appics",MID(C578,29,LEN(C578)-26-28),MID(C578,34,FIND("/actifit-",C578)-34)))</f>
         <v>alex-hm</v>
       </c>
       <c r="C578" t="s">
@@ -15362,11 +15450,11 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A579" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B579" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B579" t="str">
-        <f>IF(A579="other","N/A",IF(A579="appics",MID(C579,29,LEN(C579)-26-28),MID(C579,34,FIND("/actifit-",C579)-34)))</f>
         <v>fredrikaa</v>
       </c>
       <c r="C579" t="s">
@@ -15375,11 +15463,11 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A580" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B580" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B580" t="str">
-        <f>IF(A580="other","N/A",IF(A580="appics",MID(C580,29,LEN(C580)-26-28),MID(C580,34,FIND("/actifit-",C580)-34)))</f>
         <v>actifit-peter</v>
       </c>
       <c r="C580" t="s">
@@ -15388,11 +15476,11 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A581" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B581" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B581" t="str">
-        <f>IF(A581="other","N/A",IF(A581="appics",MID(C581,29,LEN(C581)-26-28),MID(C581,34,FIND("/actifit-",C581)-34)))</f>
         <v>geekdancing</v>
       </c>
       <c r="C581" t="s">
@@ -15401,11 +15489,11 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A582" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B582" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B582" t="str">
-        <f>IF(A582="other","N/A",IF(A582="appics",MID(C582,29,LEN(C582)-26-28),MID(C582,34,FIND("/actifit-",C582)-34)))</f>
         <v>drugelis</v>
       </c>
       <c r="C582" t="s">
@@ -15414,11 +15502,11 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A583" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B583" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B583" t="str">
-        <f>IF(A583="other","N/A",IF(A583="appics",MID(C583,29,LEN(C583)-26-28),MID(C583,34,FIND("/actifit-",C583)-34)))</f>
         <v>electronicsworld</v>
       </c>
       <c r="C583" t="s">
@@ -15427,11 +15515,11 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A584" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B584" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B584" t="str">
-        <f>IF(A584="other","N/A",IF(A584="appics",MID(C584,29,LEN(C584)-26-28),MID(C584,34,FIND("/actifit-",C584)-34)))</f>
         <v>yanipetkov</v>
       </c>
       <c r="C584" t="s">
@@ -15440,11 +15528,11 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A585" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B585" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B585" t="str">
-        <f>IF(A585="other","N/A",IF(A585="appics",MID(C585,29,LEN(C585)-26-28),MID(C585,34,FIND("/actifit-",C585)-34)))</f>
         <v>rookielector</v>
       </c>
       <c r="C585" t="s">
@@ -15453,11 +15541,11 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A586" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B586" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B586" t="str">
-        <f>IF(A586="other","N/A",IF(A586="appics",MID(C586,29,LEN(C586)-26-28),MID(C586,34,FIND("/actifit-",C586)-34)))</f>
         <v>uyobong</v>
       </c>
       <c r="C586" t="s">
@@ -15466,11 +15554,11 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A587" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B587" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B587" t="str">
-        <f>IF(A587="other","N/A",IF(A587="appics",MID(C587,29,LEN(C587)-26-28),MID(C587,34,FIND("/actifit-",C587)-34)))</f>
         <v>street.yoga</v>
       </c>
       <c r="C587" t="s">
@@ -15479,11 +15567,11 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A588" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B588" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B588" t="str">
-        <f>IF(A588="other","N/A",IF(A588="appics",MID(C588,29,LEN(C588)-26-28),MID(C588,34,FIND("/actifit-",C588)-34)))</f>
         <v>street.yoga</v>
       </c>
       <c r="C588" t="s">
@@ -15492,11 +15580,11 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A589" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B589" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B589" t="str">
-        <f>IF(A589="other","N/A",IF(A589="appics",MID(C589,29,LEN(C589)-26-28),MID(C589,34,FIND("/actifit-",C589)-34)))</f>
         <v>mhm-philippines</v>
       </c>
       <c r="C589" t="s">
@@ -15505,11 +15593,11 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A590" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B590" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B590" t="str">
-        <f>IF(A590="other","N/A",IF(A590="appics",MID(C590,29,LEN(C590)-26-28),MID(C590,34,FIND("/actifit-",C590)-34)))</f>
         <v>mrsbozz</v>
       </c>
       <c r="C590" t="s">
@@ -15518,11 +15606,11 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A591" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B591" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B591" t="str">
-        <f>IF(A591="other","N/A",IF(A591="appics",MID(C591,29,LEN(C591)-26-28),MID(C591,34,FIND("/actifit-",C591)-34)))</f>
         <v>bozz.sports</v>
       </c>
       <c r="C591" t="s">
@@ -15531,11 +15619,11 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A592" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B592" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B592" t="str">
-        <f>IF(A592="other","N/A",IF(A592="appics",MID(C592,29,LEN(C592)-26-28),MID(C592,34,FIND("/actifit-",C592)-34)))</f>
         <v>runridefly</v>
       </c>
       <c r="C592" t="s">
@@ -15544,11 +15632,11 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A593" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B593" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B593" t="str">
-        <f>IF(A593="other","N/A",IF(A593="appics",MID(C593,29,LEN(C593)-26-28),MID(C593,34,FIND("/actifit-",C593)-34)))</f>
         <v>mcoinz79</v>
       </c>
       <c r="C593" t="s">
@@ -15557,11 +15645,11 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A594" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B594" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B594" t="str">
-        <f>IF(A594="other","N/A",IF(A594="appics",MID(C594,29,LEN(C594)-26-28),MID(C594,34,FIND("/actifit-",C594)-34)))</f>
         <v>ajinkyajagtap</v>
       </c>
       <c r="C594" t="s">
@@ -15570,11 +15658,11 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A595" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B595" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B595" t="str">
-        <f>IF(A595="other","N/A",IF(A595="appics",MID(C595,29,LEN(C595)-26-28),MID(C595,34,FIND("/actifit-",C595)-34)))</f>
         <v>runridefly</v>
       </c>
       <c r="C595" t="s">
@@ -15583,11 +15671,11 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A596" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B596" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B596" t="str">
-        <f>IF(A596="other","N/A",IF(A596="appics",MID(C596,29,LEN(C596)-26-28),MID(C596,34,FIND("/actifit-",C596)-34)))</f>
         <v>alexvanaken</v>
       </c>
       <c r="C596" t="s">
@@ -15596,11 +15684,11 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A597" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B597" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B597" t="str">
-        <f>IF(A597="other","N/A",IF(A597="appics",MID(C597,29,LEN(C597)-26-28),MID(C597,34,FIND("/actifit-",C597)-34)))</f>
         <v>geekdancing</v>
       </c>
       <c r="C597" t="s">
@@ -15609,11 +15697,11 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A598" t="str">
+        <f t="shared" si="24"/>
+        <v>actifit</v>
+      </c>
+      <c r="B598" t="str">
         <f t="shared" si="23"/>
-        <v>actifit</v>
-      </c>
-      <c r="B598" t="str">
-        <f>IF(A598="other","N/A",IF(A598="appics",MID(C598,29,LEN(C598)-26-28),MID(C598,34,FIND("/actifit-",C598)-34)))</f>
         <v>photobook</v>
       </c>
       <c r="C598" t="s">
@@ -15622,11 +15710,11 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A599" t="str">
+        <f t="shared" si="24"/>
+        <v>appics</v>
+      </c>
+      <c r="B599" t="str">
         <f t="shared" si="23"/>
-        <v>appics</v>
-      </c>
-      <c r="B599" t="str">
-        <f>IF(A599="other","N/A",IF(A599="appics",MID(C599,29,LEN(C599)-26-28),MID(C599,34,FIND("/actifit-",C599)-34)))</f>
         <v>laura.appics</v>
       </c>
       <c r="C599" t="s">
@@ -15635,11 +15723,11 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A600" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B600" t="str">
-        <f>IF(A600="other","N/A",IF(A600="appics",MID(C600,29,LEN(C600)-26-29),MID(C600,34,FIND("/actifit-",C600)-34)))</f>
+        <f t="shared" ref="B600:B623" si="25">IF(A600="other","N/A",IF(A600="appics",MID(C600,29,LEN(C600)-26-29),MID(C600,34,FIND("/actifit-",C600)-34)))</f>
         <v>hdelosrios</v>
       </c>
       <c r="C600" t="s">
@@ -15648,11 +15736,11 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A601" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B601" t="str">
-        <f>IF(A601="other","N/A",IF(A601="appics",MID(C601,29,LEN(C601)-26-29),MID(C601,34,FIND("/actifit-",C601)-34)))</f>
+        <f t="shared" si="25"/>
         <v>ajinkyajagtap</v>
       </c>
       <c r="C601" t="s">
@@ -15661,11 +15749,11 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A602" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B602" t="str">
-        <f>IF(A602="other","N/A",IF(A602="appics",MID(C602,29,LEN(C602)-26-29),MID(C602,34,FIND("/actifit-",C602)-34)))</f>
+        <f t="shared" si="25"/>
         <v>purepinay</v>
       </c>
       <c r="C602" t="s">
@@ -15674,11 +15762,11 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A603" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B603" t="str">
-        <f>IF(A603="other","N/A",IF(A603="appics",MID(C603,29,LEN(C603)-26-29),MID(C603,34,FIND("/actifit-",C603)-34)))</f>
+        <f t="shared" si="25"/>
         <v>imagine.colours</v>
       </c>
       <c r="C603" t="s">
@@ -15687,11 +15775,11 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A604" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B604" t="str">
-        <f>IF(A604="other","N/A",IF(A604="appics",MID(C604,29,LEN(C604)-26-29),MID(C604,34,FIND("/actifit-",C604)-34)))</f>
+        <f t="shared" si="25"/>
         <v>bbaspring</v>
       </c>
       <c r="C604" t="s">
@@ -15700,11 +15788,11 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A605" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B605" t="str">
-        <f>IF(A605="other","N/A",IF(A605="appics",MID(C605,29,LEN(C605)-26-29),MID(C605,34,FIND("/actifit-",C605)-34)))</f>
+        <f t="shared" si="25"/>
         <v>krazypoet</v>
       </c>
       <c r="C605" t="s">
@@ -15713,11 +15801,11 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A606" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B606" t="str">
-        <f>IF(A606="other","N/A",IF(A606="appics",MID(C606,29,LEN(C606)-26-29),MID(C606,34,FIND("/actifit-",C606)-34)))</f>
+        <f t="shared" si="25"/>
         <v>aniestudio</v>
       </c>
       <c r="C606" t="s">
@@ -15726,11 +15814,11 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A607" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B607" t="str">
-        <f>IF(A607="other","N/A",IF(A607="appics",MID(C607,29,LEN(C607)-26-29),MID(C607,34,FIND("/actifit-",C607)-34)))</f>
+        <f t="shared" si="25"/>
         <v>zanoni</v>
       </c>
       <c r="C607" t="s">
@@ -15739,11 +15827,11 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A608" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B608" t="str">
-        <f>IF(A608="other","N/A",IF(A608="appics",MID(C608,29,LEN(C608)-26-29),MID(C608,34,FIND("/actifit-",C608)-34)))</f>
+        <f t="shared" si="25"/>
         <v>faraicelebr8</v>
       </c>
       <c r="C608" t="s">
@@ -15752,11 +15840,11 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A609" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B609" t="str">
-        <f>IF(A609="other","N/A",IF(A609="appics",MID(C609,29,LEN(C609)-26-29),MID(C609,34,FIND("/actifit-",C609)-34)))</f>
+        <f t="shared" si="25"/>
         <v>geekdancing</v>
       </c>
       <c r="C609" t="s">
@@ -15765,11 +15853,11 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A610" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B610" t="str">
-        <f>IF(A610="other","N/A",IF(A610="appics",MID(C610,29,LEN(C610)-26-29),MID(C610,34,FIND("/actifit-",C610)-34)))</f>
+        <f t="shared" si="25"/>
         <v>krazypoet</v>
       </c>
       <c r="C610" t="s">
@@ -15778,11 +15866,11 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A611" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B611" t="str">
-        <f>IF(A611="other","N/A",IF(A611="appics",MID(C611,29,LEN(C611)-26-29),MID(C611,34,FIND("/actifit-",C611)-34)))</f>
+        <f t="shared" si="25"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C611" t="s">
@@ -15791,11 +15879,11 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A612" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B612" t="str">
-        <f>IF(A612="other","N/A",IF(A612="appics",MID(C612,29,LEN(C612)-26-29),MID(C612,34,FIND("/actifit-",C612)-34)))</f>
+        <f t="shared" si="25"/>
         <v>enormeanimal</v>
       </c>
       <c r="C612" t="s">
@@ -15804,11 +15892,11 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A613" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B613" t="str">
-        <f>IF(A613="other","N/A",IF(A613="appics",MID(C613,29,LEN(C613)-26-29),MID(C613,34,FIND("/actifit-",C613)-34)))</f>
+        <f t="shared" si="25"/>
         <v>sereze</v>
       </c>
       <c r="C613" t="s">
@@ -15817,11 +15905,11 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A614" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B614" t="str">
-        <f>IF(A614="other","N/A",IF(A614="appics",MID(C614,29,LEN(C614)-26-29),MID(C614,34,FIND("/actifit-",C614)-34)))</f>
+        <f t="shared" si="25"/>
         <v>woe-is-meme</v>
       </c>
       <c r="C614" t="s">
@@ -15830,11 +15918,11 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A615" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B615" t="str">
-        <f>IF(A615="other","N/A",IF(A615="appics",MID(C615,29,LEN(C615)-26-29),MID(C615,34,FIND("/actifit-",C615)-34)))</f>
+        <f t="shared" si="25"/>
         <v>blumela</v>
       </c>
       <c r="C615" t="s">
@@ -15843,11 +15931,11 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A616" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B616" t="str">
-        <f>IF(A616="other","N/A",IF(A616="appics",MID(C616,29,LEN(C616)-26-29),MID(C616,34,FIND("/actifit-",C616)-34)))</f>
+        <f t="shared" si="25"/>
         <v>enormeanimal</v>
       </c>
       <c r="C616" t="s">
@@ -15856,11 +15944,11 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A617" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B617" t="str">
-        <f>IF(A617="other","N/A",IF(A617="appics",MID(C617,29,LEN(C617)-26-29),MID(C617,34,FIND("/actifit-",C617)-34)))</f>
+        <f t="shared" si="25"/>
         <v>chrisparis</v>
       </c>
       <c r="C617" t="s">
@@ -15869,11 +15957,11 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A618" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B618" t="str">
-        <f>IF(A618="other","N/A",IF(A618="appics",MID(C618,29,LEN(C618)-26-29),MID(C618,34,FIND("/actifit-",C618)-34)))</f>
+        <f t="shared" si="25"/>
         <v>robibasa</v>
       </c>
       <c r="C618" t="s">
@@ -15882,11 +15970,11 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A619" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B619" t="str">
-        <f>IF(A619="other","N/A",IF(A619="appics",MID(C619,29,LEN(C619)-26-29),MID(C619,34,FIND("/actifit-",C619)-34)))</f>
+        <f t="shared" si="25"/>
         <v>dailyspam</v>
       </c>
       <c r="C619" t="s">
@@ -15895,11 +15983,11 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A620" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B620" t="str">
-        <f>IF(A620="other","N/A",IF(A620="appics",MID(C620,29,LEN(C620)-26-29),MID(C620,34,FIND("/actifit-",C620)-34)))</f>
+        <f t="shared" si="25"/>
         <v>ynwa.andree</v>
       </c>
       <c r="C620" t="s">
@@ -15908,11 +15996,11 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A621" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B621" t="str">
-        <f>IF(A621="other","N/A",IF(A621="appics",MID(C621,29,LEN(C621)-26-29),MID(C621,34,FIND("/actifit-",C621)-34)))</f>
+        <f t="shared" si="25"/>
         <v>onealfa</v>
       </c>
       <c r="C621" t="s">
@@ -15921,11 +16009,11 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A622" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B622" t="str">
-        <f>IF(A622="other","N/A",IF(A622="appics",MID(C622,29,LEN(C622)-26-29),MID(C622,34,FIND("/actifit-",C622)-34)))</f>
+        <f t="shared" si="25"/>
         <v>andreacastaneda</v>
       </c>
       <c r="C622" t="s">
@@ -15934,11 +16022,11 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A623" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>appics</v>
       </c>
       <c r="B623" t="str">
-        <f>IF(A623="other","N/A",IF(A623="appics",MID(C623,29,LEN(C623)-26-29),MID(C623,34,FIND("/actifit-",C623)-34)))</f>
+        <f t="shared" si="25"/>
         <v>dailyspam</v>
       </c>
       <c r="C623" t="s">
@@ -15947,11 +16035,11 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A624" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B624" t="str">
-        <f t="shared" ref="B624:B631" si="24">IF(A624="other","N/A",IF(A624="appics",MID(C624,29,LEN(C624)-26-29),MID(C624,34,FIND("/actifit-",C624)-34)))</f>
+        <f t="shared" ref="B624:B631" si="26">IF(A624="other","N/A",IF(A624="appics",MID(C624,29,LEN(C624)-26-29),MID(C624,34,FIND("/actifit-",C624)-34)))</f>
         <v>actifit-peter</v>
       </c>
       <c r="C624" t="s">
@@ -15960,11 +16048,11 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A625" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B625" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>drugelis</v>
       </c>
       <c r="C625" t="s">
@@ -15973,11 +16061,11 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A626" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B626" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>griega</v>
       </c>
       <c r="C626" t="s">
@@ -15986,11 +16074,11 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A627" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B627" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>street.yoga</v>
       </c>
       <c r="C627" t="s">
@@ -15999,11 +16087,11 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A628" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B628" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>mhm-philippines</v>
       </c>
       <c r="C628" t="s">
@@ -16012,11 +16100,11 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A629" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B629" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>btcsam</v>
       </c>
       <c r="C629" t="s">
@@ -16025,11 +16113,11 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A630" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B630" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>alex-hm</v>
       </c>
       <c r="C630" t="s">
@@ -16038,11 +16126,11 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A631" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B631" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>mrsbozz</v>
       </c>
       <c r="C631" t="s">
@@ -16051,7 +16139,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A632" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B632" t="str">
@@ -16064,7 +16152,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A633" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B633" t="str">
@@ -16077,7 +16165,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A634" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B634" t="str">
@@ -16090,7 +16178,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A635" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B635" t="str">
@@ -16103,11 +16191,11 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A636" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B636" t="str">
-        <f t="shared" ref="B636:B639" si="25">IF(A636="other","N/A",IF(A636="appics",MID(C636,29,LEN(C636)-26-29),MID(C636,34,FIND("/actifit-",C636)-34)))</f>
+        <f t="shared" ref="B636:B639" si="27">IF(A636="other","N/A",IF(A636="appics",MID(C636,29,LEN(C636)-26-29),MID(C636,34,FIND("/actifit-",C636)-34)))</f>
         <v>enormeanimal</v>
       </c>
       <c r="C636" t="s">
@@ -16116,11 +16204,11 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A637" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>actifit</v>
       </c>
       <c r="B637" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>runridefly</v>
       </c>
       <c r="C637" t="s">
@@ -16129,11 +16217,11 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A638" t="str">
-        <f t="shared" ref="A638:A639" si="26">IFERROR(IF(FIND("appics",C638)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A638:A639" si="28">IFERROR(IF(FIND("appics",C638)&gt;0,"appics"),"actifit")</f>
         <v>appics</v>
       </c>
       <c r="B638" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>joetunex</v>
       </c>
       <c r="C638" t="s">
@@ -16142,15 +16230,158 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A639" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>actifit</v>
       </c>
       <c r="B639" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>photobook</v>
       </c>
       <c r="C639" t="s">
         <v>755</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A640" t="str">
+        <f t="shared" ref="A640:A650" si="29">IFERROR(IF(FIND("appics",C640)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B640" t="str">
+        <f t="shared" ref="B640:B650" si="30">IF(A640="other","N/A",IF(A640="appics",MID(C640,29,LEN(C640)-26-29),MID(C640,34,FIND("/actifit-",C640)-34)))</f>
+        <v>dailyspam</v>
+      </c>
+      <c r="C640" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A641" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B641" t="str">
+        <f t="shared" si="30"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C641" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A642" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B642" t="str">
+        <f t="shared" si="30"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C642" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A643" t="str">
+        <f t="shared" si="29"/>
+        <v>appics</v>
+      </c>
+      <c r="B643" t="str">
+        <f t="shared" si="30"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C643" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A644" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B644" t="str">
+        <f t="shared" si="30"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C644" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A645" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B645" t="str">
+        <f t="shared" si="30"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C645" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A646" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B646" t="str">
+        <f t="shared" si="30"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C646" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A647" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B647" t="str">
+        <f t="shared" si="30"/>
+        <v>sereze</v>
+      </c>
+      <c r="C647" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A648" t="str">
+        <f t="shared" si="29"/>
+        <v>appics</v>
+      </c>
+      <c r="B648" t="str">
+        <f t="shared" si="30"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C648" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A649" t="str">
+        <f t="shared" si="29"/>
+        <v>appics</v>
+      </c>
+      <c r="B649" t="str">
+        <f t="shared" si="30"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C649" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A650" t="str">
+        <f t="shared" si="29"/>
+        <v>actifit</v>
+      </c>
+      <c r="B650" t="str">
+        <f t="shared" si="30"/>
+        <v>chrisparis</v>
+      </c>
+      <c r="C650" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3637986F-9781-4EC5-BBE7-0363CC5410F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27E869F-692A-465D-BE86-6D318EDCB6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="46" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="803">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2355,6 +2355,99 @@
   </si>
   <si>
     <t>https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200222t203141337z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sn0n/actifit-sn0n-20200222t211808174z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200222t212205539z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200222t212509844z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200222t213321497z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200222t214032506z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200222t230150949z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-101100</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200223t023042063z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200223t031514093z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200223t032908337z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fycee/appics-v1-appics-im-101146</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-101150</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@apprentice001/appics-v1-appics-im-101156</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200223t060149395z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-101204</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200223t091512431z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200223t101115367z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200223t104540889z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200223t121826390z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-101360</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200223t133713084z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200223t150253127z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200223t160318137z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200223t161955970z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200223t193349152z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200223t202053125z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sn0n/actifit-sn0n-20200223t202842536z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200223t204450987z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200223t204653974z</t>
+  </si>
+  <si>
+    <t>apprentice001</t>
+  </si>
+  <si>
+    <t>fycee</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2535,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43883.920708564816" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="650" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43884.910625578705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="679" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2456,7 +2549,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="117">
+      <sharedItems containsBlank="1" count="119">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2572,6 +2665,8 @@
         <s v="woe-is-meme"/>
         <s v="blumela"/>
         <s v="andreacastaneda"/>
+        <s v="fycee"/>
+        <s v="apprentice001"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -2589,7 +2684,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="650">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="679">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5836,16 +5931,161 @@
     <s v="https://steemit.com/hive-193552/@chrisparis/actifit-chrisparis-20200222t203141337z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="https://steemit.com/hive-193552/@sn0n/actifit-sn0n-20200222t211808174z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200222t212205539z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200222t212509844z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200222t213321497z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200222t214032506z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200222t230150949z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-101100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200223t023042063z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200223t031514093z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200223t032908337z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="115"/>
+    <s v="https://steemit.com/appics/@fycee/appics-v1-appics-im-101146"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-101150"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="https://steemit.com/appics/@apprentice001/appics-v1-appics-im-101156"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="116"/>
+    <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200223t060149395z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-101204"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200223t091512431z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200223t101115367z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200223t104540889z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200223t121826390z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="https://steemit.com/appics/@ajinkyajagtap/appics-v1-appics-im-101360"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200223t133713084z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200223t150253127z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200223t160318137z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200223t161955970z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200223t193349152z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200223t202053125z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="https://steemit.com/hive-193552/@sn0n/actifit-sn0n-20200223t202842536z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200223t204450987z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200223t204653974z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="115"/>
+    <x v="117"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -5857,7 +6097,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="118">
+      <items count="120">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -5875,7 +6115,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="116"/>
+        <item m="1" x="118"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -5950,7 +6190,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="115"/>
+        <item x="117"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -5975,6 +6215,8 @@
         <item x="112"/>
         <item x="113"/>
         <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -5992,12 +6234,12 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="72">
+  <rowItems count="74">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="42"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="71"/>
@@ -6015,13 +6257,10 @@
       <x v="34"/>
     </i>
     <i>
-      <x v="27"/>
-    </i>
-    <i>
       <x v="50"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="27"/>
     </i>
     <i>
       <x v="69"/>
@@ -6030,7 +6269,7 @@
       <x v="45"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="44"/>
     </i>
     <i>
       <x v="4"/>
@@ -6039,19 +6278,25 @@
       <x v="90"/>
     </i>
     <i>
+      <x v="22"/>
+    </i>
+    <i>
       <x v="20"/>
     </i>
     <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="28"/>
-    </i>
-    <i>
       <x v="63"/>
     </i>
     <i>
+      <x v="49"/>
+    </i>
+    <i>
       <x v="60"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i>
       <x v="59"/>
@@ -6060,37 +6305,16 @@
       <x v="53"/>
     </i>
     <i>
-      <x v="49"/>
-    </i>
-    <i>
       <x v="98"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="11"/>
     </i>
     <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="81"/>
@@ -6099,22 +6323,40 @@
       <x v="40"/>
     </i>
     <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
       <x v="95"/>
     </i>
     <i>
-      <x v="7"/>
+      <x/>
     </i>
     <i>
       <x v="108"/>
     </i>
     <i>
-      <x v="64"/>
-    </i>
-    <i>
       <x v="58"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="78"/>
     </i>
     <i>
       <x v="54"/>
@@ -6123,55 +6365,55 @@
       <x v="83"/>
     </i>
     <i>
+      <x v="19"/>
+    </i>
+    <i>
       <x v="18"/>
+    </i>
+    <i>
+      <x v="61"/>
     </i>
     <i>
       <x v="38"/>
     </i>
     <i>
-      <x v="61"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="114"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="66"/>
+      <x v="116"/>
     </i>
     <i>
       <x v="80"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="118"/>
     </i>
     <i>
       <x v="82"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="39"/>
     </i>
     <i>
       <x v="84"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="94"/>
@@ -6195,16 +6437,22 @@
       <x v="113"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="116"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="117"/>
     </i>
     <i>
-      <x v="78"/>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="67"/>
     </i>
     <i t="grand">
       <x/>
@@ -6232,8 +6480,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -6245,7 +6493,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="118">
+      <items count="120">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6263,7 +6511,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="116"/>
+        <item m="1" x="118"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6338,7 +6586,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="115"/>
+        <item x="117"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6363,6 +6611,8 @@
         <item x="112"/>
         <item x="113"/>
         <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6380,7 +6630,10 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="67">
+  <rowItems count="68">
+    <i>
+      <x v="55"/>
+    </i>
     <i>
       <x v="13"/>
     </i>
@@ -6388,13 +6641,7 @@
       <x v="71"/>
     </i>
     <i>
-      <x v="55"/>
-    </i>
-    <i>
       <x v="90"/>
-    </i>
-    <i>
-      <x v="68"/>
     </i>
     <i>
       <x v="23"/>
@@ -6406,7 +6653,7 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="68"/>
     </i>
     <i>
       <x v="62"/>
@@ -6418,94 +6665,106 @@
       <x v="88"/>
     </i>
     <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
       <x v="29"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
       <x v="31"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="69"/>
     </i>
     <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="100"/>
     </i>
     <i>
       <x v="97"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="76"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="81"/>
     </i>
     <i>
       <x v="85"/>
     </i>
     <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
       <x v="87"/>
     </i>
     <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="36"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="70"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="53"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="109"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="41"/>
     </i>
     <i>
       <x v="104"/>
@@ -6517,58 +6776,46 @@
       <x v="110"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="59"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="47"/>
     </i>
     <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
       <x v="89"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="107"/>
     </i>
     <i>
-      <x v="105"/>
+      <x v="91"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="52"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
       <x v="101"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="102"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="37"/>
     </i>
     <i>
       <x v="86"/>
@@ -6577,7 +6824,13 @@
       <x v="96"/>
     </i>
     <i>
-      <x v="52"/>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -6901,7 +7154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -6948,13 +7201,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="B4" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="E4" s="3">
         <v>19</v>
@@ -6962,21 +7215,21 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="B5" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="E5" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B6" s="3">
         <v>18</v>
@@ -6993,7 +7246,7 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>375</v>
@@ -7004,24 +7257,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="B8" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>343</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B9" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
@@ -7032,7 +7285,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B10" s="3">
         <v>16</v>
@@ -7046,13 +7299,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="B11" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -7060,13 +7313,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E12" s="3">
         <v>7</v>
@@ -7074,13 +7327,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B13" s="3">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
@@ -7088,13 +7341,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B14" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -7102,13 +7355,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -7116,13 +7369,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B16" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -7130,13 +7383,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B17" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -7144,21 +7397,21 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B19" s="3">
         <v>11</v>
@@ -7172,7 +7425,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B20" s="3">
         <v>11</v>
@@ -7186,13 +7439,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -7200,13 +7453,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -7214,7 +7467,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="B23" s="3">
         <v>9</v>
@@ -7228,13 +7481,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="B24" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -7242,13 +7495,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -7256,13 +7509,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -7270,10 +7523,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>530</v>
@@ -7284,13 +7537,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="B28" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -7301,10 +7554,10 @@
         <v>389</v>
       </c>
       <c r="B29" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -7312,13 +7565,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -7326,13 +7579,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -7340,13 +7593,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -7354,13 +7607,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B33" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -7368,13 +7621,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B34" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -7382,13 +7635,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -7396,13 +7649,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -7410,13 +7663,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -7424,13 +7677,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -7438,7 +7691,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>760</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
@@ -7458,7 +7711,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -7466,7 +7719,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
@@ -7486,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -7494,13 +7747,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -7508,13 +7761,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -7522,7 +7775,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>355</v>
+        <v>666</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
@@ -7536,7 +7789,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>571</v>
+        <v>356</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
@@ -7550,13 +7803,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>346</v>
+        <v>667</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -7564,13 +7817,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>665</v>
+        <v>380</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -7578,7 +7831,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>380</v>
+        <v>571</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
@@ -7592,13 +7845,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>666</v>
+        <v>346</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -7606,13 +7859,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>386</v>
+        <v>665</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -7620,13 +7873,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>667</v>
+        <v>398</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7640,7 +7893,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -7648,7 +7901,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -7662,13 +7915,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>358</v>
+        <v>756</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -7676,13 +7929,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>622</v>
+        <v>428</v>
       </c>
       <c r="B56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>756</v>
+        <v>365</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -7690,13 +7943,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>376</v>
+        <v>621</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>405</v>
+        <v>757</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -7704,7 +7957,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -7718,13 +7971,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>406</v>
+        <v>801</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -7732,7 +7985,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>760</v>
+        <v>391</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -7746,13 +7999,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -7760,7 +8013,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -7774,13 +8027,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>534</v>
+        <v>342</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -7788,7 +8041,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -7802,7 +8055,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>533</v>
+        <v>376</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -7816,7 +8069,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
@@ -7830,7 +8083,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -7844,7 +8097,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>474</v>
+        <v>382</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -7858,7 +8111,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>391</v>
+        <v>622</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -7872,10 +8125,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>431</v>
+        <v>360</v>
       </c>
       <c r="B70" s="3">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>758</v>
@@ -7885,8 +8138,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" s="3">
+        <v>441</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -7894,7 +8153,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D72" s="2" t="s">
-        <v>757</v>
+        <v>374</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -7902,7 +8161,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D73" s="2" t="s">
-        <v>345</v>
+        <v>802</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -7910,7 +8169,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -7918,10 +8177,26 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D76" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D77" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E75" s="3">
-        <v>224</v>
+      <c r="E77" s="3">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7931,10 +8206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C650"/>
+  <dimension ref="A1:C679"/>
   <sheetViews>
-    <sheetView topLeftCell="A633" workbookViewId="0">
-      <selection activeCell="B649" sqref="B649"/>
+    <sheetView topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="A650" sqref="A650:B679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16382,6 +16657,383 @@
       </c>
       <c r="C650" t="s">
         <v>771</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A651" t="str">
+        <f t="shared" ref="A651:A679" si="31">IFERROR(IF(FIND("appics",C651)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B651" t="str">
+        <f t="shared" ref="B651:B679" si="32">IF(A651="other","N/A",IF(A651="appics",MID(C651,29,LEN(C651)-26-29),MID(C651,34,FIND("/actifit-",C651)-34)))</f>
+        <v>sn0n</v>
+      </c>
+      <c r="C651" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A652" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B652" t="str">
+        <f t="shared" si="32"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C652" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A653" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B653" t="str">
+        <f t="shared" si="32"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C653" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A654" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B654" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C654" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A655" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B655" t="str">
+        <f t="shared" si="32"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C655" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A656" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B656" t="str">
+        <f t="shared" si="32"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C656" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A657" t="str">
+        <f t="shared" si="31"/>
+        <v>appics</v>
+      </c>
+      <c r="B657" t="str">
+        <f t="shared" si="32"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C657" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A658" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B658" t="str">
+        <f t="shared" si="32"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C658" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A659" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B659" t="str">
+        <f t="shared" si="32"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C659" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A660" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B660" t="str">
+        <f t="shared" si="32"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C660" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A661" t="str">
+        <f t="shared" si="31"/>
+        <v>appics</v>
+      </c>
+      <c r="B661" t="str">
+        <f t="shared" si="32"/>
+        <v>fycee</v>
+      </c>
+      <c r="C661" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A662" t="str">
+        <f t="shared" si="31"/>
+        <v>appics</v>
+      </c>
+      <c r="B662" t="str">
+        <f t="shared" si="32"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C662" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A663" t="str">
+        <f t="shared" si="31"/>
+        <v>appics</v>
+      </c>
+      <c r="B663" t="str">
+        <f t="shared" si="32"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C663" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A664" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B664" t="str">
+        <f t="shared" si="32"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C664" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A665" t="str">
+        <f t="shared" si="31"/>
+        <v>appics</v>
+      </c>
+      <c r="B665" t="str">
+        <f t="shared" si="32"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C665" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A666" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B666" t="str">
+        <f t="shared" si="32"/>
+        <v>blumela</v>
+      </c>
+      <c r="C666" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A667" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B667" t="str">
+        <f t="shared" si="32"/>
+        <v>photobook</v>
+      </c>
+      <c r="C667" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A668" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B668" t="str">
+        <f t="shared" si="32"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C668" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A669" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B669" t="str">
+        <f t="shared" si="32"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C669" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A670" t="str">
+        <f t="shared" si="31"/>
+        <v>appics</v>
+      </c>
+      <c r="B670" t="str">
+        <f t="shared" si="32"/>
+        <v>ajinkyajagtap</v>
+      </c>
+      <c r="C670" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A671" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B671" t="str">
+        <f t="shared" si="32"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C671" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A672" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B672" t="str">
+        <f t="shared" si="32"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C672" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A673" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B673" t="str">
+        <f t="shared" si="32"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C673" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A674" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B674" t="str">
+        <f t="shared" si="32"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C674" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A675" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B675" t="str">
+        <f t="shared" si="32"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C675" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A676" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B676" t="str">
+        <f t="shared" si="32"/>
+        <v>sereze</v>
+      </c>
+      <c r="C676" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A677" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B677" t="str">
+        <f t="shared" si="32"/>
+        <v>sn0n</v>
+      </c>
+      <c r="C677" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A678" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B678" t="str">
+        <f t="shared" si="32"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C678" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A679" t="str">
+        <f t="shared" si="31"/>
+        <v>actifit</v>
+      </c>
+      <c r="B679" t="str">
+        <f t="shared" si="32"/>
+        <v>blumela</v>
+      </c>
+      <c r="C679" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27E869F-692A-465D-BE86-6D318EDCB6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C06868-0570-4B68-A268-614CE0F88501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId4"/>
+    <pivotCache cacheId="38" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="831">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2448,6 +2448,90 @@
   </si>
   <si>
     <t>fycee</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@apprentice001/appics-v1-appics-im-101572</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@btcsam/appics-v1-appics-im-101581</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200223t212634740z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-101586</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200223t220151814z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200223t223802191z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200223t224842542z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200223t225536706z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-101630</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200224t004831684z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200224t023222388z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-101681</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@karenmckersie/appics-v1-appics-im-101698</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200224t033552149z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200224t035517758z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200224t061243708z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200224t090123469z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200224t093711426z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200224t123416470z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200224t123723524z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@moderndayhippie/actifit-moderndayhippie-20200224t135508756z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200224t154459900z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200224t160213960z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@yogajill/actifit-yogajill-20200224t182751216z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200224t192941797z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sn0n/actifit-sn0n-20200224t202418898z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazypoet/appics-v1-appics-im-102209</t>
+  </si>
+  <si>
+    <t>newtechblog</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2619,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43884.910625578705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="679" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43885.914229629627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="706" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2549,7 +2633,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="119">
+      <sharedItems containsBlank="1" count="120">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2667,6 +2751,7 @@
         <s v="andreacastaneda"/>
         <s v="fycee"/>
         <s v="apprentice001"/>
+        <s v="newtechblog"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -2684,7 +2769,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="679">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="706">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6076,16 +6161,151 @@
     <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200223t204653974z"/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="https://steemit.com/appics/@apprentice001/appics-v1-appics-im-101572"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="73"/>
+    <s v="https://steemit.com/appics/@btcsam/appics-v1-appics-im-101581"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200223t212634740z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-101586"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="117"/>
+    <s v="https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200223t220151814z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200223t223802191z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200223t224842542z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200223t225536706z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-101630"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200224t004831684z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200224t023222388z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-101681"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="https://steemit.com/appics/@karenmckersie/appics-v1-appics-im-101698"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200224t033552149z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200224t035517758z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200224t061243708z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200224t090123469z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200224t093711426z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200224t123416470z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200224t123723524z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="56"/>
+    <s v="https://steemit.com/hive-193552/@moderndayhippie/actifit-moderndayhippie-20200224t135508756z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="117"/>
+    <s v="https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200224t154459900z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200224t160213960z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="66"/>
+    <s v="https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200224t192941797z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="54"/>
+    <s v="https://steemit.com/hive-193552/@yogajill/actifit-yogajill-20200224t182751216z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="https://steemit.com/hive-193552/@sn0n/actifit-sn0n-20200224t202418898z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-102209"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="117"/>
+    <x v="118"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -6097,7 +6317,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="120">
+      <items count="121">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6115,7 +6335,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="118"/>
+        <item m="1" x="119"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6190,7 +6410,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="117"/>
+        <item x="118"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6217,6 +6437,7 @@
         <item x="114"/>
         <item x="115"/>
         <item x="116"/>
+        <item x="117"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6234,225 +6455,210 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="74">
+  <rowItems count="69">
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="42"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="80"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="51"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="85"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="48"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="77"/>
+      <x v="115"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="111"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="109"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="104"/>
     </i>
     <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="112"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="119"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="52"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="91"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="101"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="80"/>
+      <x v="21"/>
     </i>
     <i>
       <x v="118"/>
     </i>
     <i>
-      <x v="82"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="102"/>
     </i>
     <i>
-      <x v="84"/>
+      <x v="107"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="67"/>
+      <x v="86"/>
     </i>
     <i t="grand">
       <x/>
@@ -6462,7 +6668,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -6480,8 +6686,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -6493,7 +6699,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="120">
+      <items count="121">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6511,7 +6717,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="118"/>
+        <item m="1" x="119"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6586,7 +6792,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="117"/>
+        <item x="118"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6613,6 +6819,7 @@
         <item x="114"/>
         <item x="115"/>
         <item x="116"/>
+        <item x="117"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6630,207 +6837,225 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="68">
+  <rowItems count="74">
     <i>
-      <x v="55"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="42"/>
     </i>
     <i>
       <x v="71"/>
     </i>
     <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="81"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="95"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="58"/>
     </i>
     <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="46"/>
+      <x v="108"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="51"/>
+      <x v="118"/>
     </i>
     <i>
       <x v="80"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="84"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="114"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="70"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="78"/>
     </i>
     <i>
-      <x v="115"/>
+      <x v="67"/>
     </i>
     <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="21"/>
+      <x v="30"/>
     </i>
     <i t="grand">
       <x/>
@@ -6840,7 +7065,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -7201,10 +7426,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>341</v>
@@ -7215,7 +7440,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="B5" s="3">
         <v>19</v>
@@ -7229,10 +7454,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="B6" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>410</v>
@@ -7246,18 +7471,18 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E7" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B8" s="3">
         <v>18</v>
@@ -7266,21 +7491,21 @@
         <v>343</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B9" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7288,13 +7513,13 @@
         <v>352</v>
       </c>
       <c r="B10" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -7316,7 +7541,7 @@
         <v>401</v>
       </c>
       <c r="B12" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>366</v>
@@ -7327,21 +7552,21 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B13" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B14" s="3">
         <v>14</v>
@@ -7361,7 +7586,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -7372,7 +7597,7 @@
         <v>385</v>
       </c>
       <c r="B16" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>344</v>
@@ -7397,10 +7622,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B18" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>361</v>
@@ -7425,7 +7650,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B20" s="3">
         <v>11</v>
@@ -7439,13 +7664,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>408</v>
+        <v>532</v>
       </c>
       <c r="B21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -7453,13 +7678,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -7467,13 +7692,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>532</v>
+        <v>402</v>
       </c>
       <c r="B23" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -7487,7 +7712,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -7495,13 +7720,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B25" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -7509,13 +7734,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="B26" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -7523,16 +7748,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B27" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>530</v>
+        <v>392</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -7540,10 +7765,10 @@
         <v>343</v>
       </c>
       <c r="B28" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -7551,13 +7776,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -7565,13 +7790,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B30" s="3">
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -7585,7 +7810,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -7593,13 +7818,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -7627,7 +7852,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -7641,7 +7866,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -7655,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -7669,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -7677,13 +7902,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="B38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -7691,13 +7916,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>760</v>
+        <v>428</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -7711,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -7719,13 +7944,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>619</v>
+        <v>397</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -7733,13 +7958,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>572</v>
+        <v>417</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>397</v>
+        <v>619</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -7747,13 +7972,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>344</v>
+        <v>572</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -7767,21 +7992,21 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>417</v>
+        <v>801</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>666</v>
+        <v>760</v>
       </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -7789,13 +8014,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -7809,7 +8034,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -7817,13 +8042,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>380</v>
+        <v>666</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -7831,13 +8056,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>400</v>
+        <v>758</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -7845,13 +8070,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -7859,13 +8084,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>665</v>
+        <v>348</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -7873,13 +8098,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>398</v>
+        <v>571</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7887,13 +8112,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>759</v>
+        <v>398</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -7901,13 +8126,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>348</v>
+        <v>665</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>531</v>
+        <v>378</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -7915,13 +8140,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>756</v>
+        <v>620</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -7929,13 +8154,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>428</v>
+        <v>759</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -7943,10 +8168,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>621</v>
+        <v>356</v>
       </c>
       <c r="B57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>757</v>
@@ -7957,13 +8182,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>430</v>
+        <v>830</v>
       </c>
       <c r="B58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>419</v>
+        <v>802</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -7971,13 +8196,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>801</v>
+        <v>391</v>
       </c>
       <c r="B59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>801</v>
+        <v>357</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -7985,13 +8210,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -7999,13 +8224,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -8019,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -8027,13 +8252,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -8041,13 +8266,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>533</v>
+        <v>474</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -8055,13 +8280,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -8069,13 +8294,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>425</v>
+        <v>801</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -8083,13 +8308,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>474</v>
+        <v>622</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>413</v>
+        <v>531</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -8097,13 +8322,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>382</v>
+        <v>533</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>620</v>
+        <v>414</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -8111,13 +8336,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8125,13 +8350,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>758</v>
+        <v>365</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -8139,21 +8364,27 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B71" s="3">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>346</v>
+        <v>756</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72" s="3">
+        <v>461</v>
+      </c>
       <c r="D72" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -8161,7 +8392,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D73" s="2" t="s">
-        <v>802</v>
+        <v>350</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -8169,7 +8400,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -8177,7 +8408,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75" s="2" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -8185,7 +8416,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -8196,7 +8427,7 @@
         <v>431</v>
       </c>
       <c r="E77" s="3">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8206,10 +8437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C679"/>
+  <dimension ref="A1:C706"/>
   <sheetViews>
-    <sheetView topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="A650" sqref="A650:B679"/>
+    <sheetView topLeftCell="A683" workbookViewId="0">
+      <selection activeCell="A679" sqref="A679:B706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17034,6 +17265,357 @@
       </c>
       <c r="C679" t="s">
         <v>800</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A680" t="str">
+        <f t="shared" ref="A680:A706" si="33">IFERROR(IF(FIND("appics",C680)&gt;0,"appics"),"actifit")</f>
+        <v>appics</v>
+      </c>
+      <c r="B680" t="str">
+        <f t="shared" ref="B680:B706" si="34">IF(A680="other","N/A",IF(A680="appics",MID(C680,29,LEN(C680)-26-29),MID(C680,34,FIND("/actifit-",C680)-34)))</f>
+        <v>apprentice001</v>
+      </c>
+      <c r="C680" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A681" t="str">
+        <f t="shared" si="33"/>
+        <v>appics</v>
+      </c>
+      <c r="B681" t="str">
+        <f t="shared" si="34"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C681" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A682" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B682" t="str">
+        <f t="shared" si="34"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C682" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A683" t="str">
+        <f t="shared" si="33"/>
+        <v>appics</v>
+      </c>
+      <c r="B683" t="str">
+        <f t="shared" si="34"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C683" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A684" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B684" t="str">
+        <f t="shared" si="34"/>
+        <v>newtechblog</v>
+      </c>
+      <c r="C684" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A685" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B685" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C685" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A686" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B686" t="str">
+        <f t="shared" si="34"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C686" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A687" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B687" t="str">
+        <f t="shared" si="34"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C687" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A688" t="str">
+        <f t="shared" si="33"/>
+        <v>appics</v>
+      </c>
+      <c r="B688" t="str">
+        <f t="shared" si="34"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C688" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A689" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B689" t="str">
+        <f t="shared" si="34"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C689" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A690" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B690" t="str">
+        <f t="shared" si="34"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C690" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A691" t="str">
+        <f t="shared" si="33"/>
+        <v>appics</v>
+      </c>
+      <c r="B691" t="str">
+        <f t="shared" si="34"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C691" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A692" t="str">
+        <f t="shared" si="33"/>
+        <v>appics</v>
+      </c>
+      <c r="B692" t="str">
+        <f t="shared" si="34"/>
+        <v>karenmckersie</v>
+      </c>
+      <c r="C692" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A693" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B693" t="str">
+        <f t="shared" si="34"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C693" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A694" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B694" t="str">
+        <f t="shared" si="34"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C694" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A695" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B695" t="str">
+        <f t="shared" si="34"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C695" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A696" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B696" t="str">
+        <f t="shared" si="34"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C696" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A697" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B697" t="str">
+        <f t="shared" si="34"/>
+        <v>photobook</v>
+      </c>
+      <c r="C697" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A698" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B698" t="str">
+        <f t="shared" si="34"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C698" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A699" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B699" t="str">
+        <f t="shared" si="34"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C699" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A700" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B700" t="str">
+        <f t="shared" si="34"/>
+        <v>moderndayhippie</v>
+      </c>
+      <c r="C700" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A701" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B701" t="str">
+        <f t="shared" si="34"/>
+        <v>newtechblog</v>
+      </c>
+      <c r="C701" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A702" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B702" t="str">
+        <f t="shared" si="34"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C702" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A703" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B703" t="str">
+        <f t="shared" si="34"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C703" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A704" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B704" t="str">
+        <f t="shared" si="34"/>
+        <v>yogajill</v>
+      </c>
+      <c r="C704" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A705" t="str">
+        <f t="shared" si="33"/>
+        <v>actifit</v>
+      </c>
+      <c r="B705" t="str">
+        <f t="shared" si="34"/>
+        <v>sn0n</v>
+      </c>
+      <c r="C705" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A706" t="str">
+        <f t="shared" si="33"/>
+        <v>appics</v>
+      </c>
+      <c r="B706" t="str">
+        <f t="shared" si="34"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C706" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C06868-0570-4B68-A268-614CE0F88501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9B99FA-01AF-4B46-8D52-9D8C20013865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="38" r:id="rId4"/>
+    <pivotCache cacheId="59" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="874">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2532,6 +2532,135 @@
   </si>
   <si>
     <t>newtechblog</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200224t212332236z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200224t212933783z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@street.yoga/appics-v1-appics-im-102233</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200224t213942845z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200224t220108315z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200224t220505875z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200224t231426237z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200224t232215022z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200224t233516519z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200225t001918223z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alex-hm/appics-v1-appics-im-102281</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200225t011508344z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-102296</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200225t023926169z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@enormeanimal/appics-v1-appics-im-102319</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200225t041728192z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200225t052112454z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@wil.metcalfe/actifit-wil-metcalfe-20200225t065936078z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@alexvanaken/appics-v1-appics-im-102413</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200225t083956563z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200225t110031904z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200225t110449036z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@afril/actifit-afril-20200225t113636508z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200225t122347804z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200225t125727716z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazypoet/appics-v1-appics-im-102643</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200225t154535100z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200225t160109904z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200225t164033838z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-102684</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@soldier/appics-v1-appics-im-102760</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@spurisna/appics-v1-appics-im-102761</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-102776</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200225t191225797z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-102790</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-102791</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-102819</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@rabihfarhat/appics-v1-appics-im-102827</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-102832</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@apprentice001/appics-v1-appics-im-102833</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200225t213336249z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200225t213846620z</t>
+  </si>
+  <si>
+    <t>afril</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2748,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43885.914229629627" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="706" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43886.952851620372" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="748" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2633,7 +2762,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="120">
+      <sharedItems containsBlank="1" count="121">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2752,6 +2881,7 @@
         <s v="fycee"/>
         <s v="apprentice001"/>
         <s v="newtechblog"/>
+        <s v="afril"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -2769,7 +2899,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="706">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="748">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6296,16 +6426,226 @@
     <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-102209"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200224t212332236z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200224t212933783z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="40"/>
+    <s v="https://steemit.com/appics/@street.yoga/appics-v1-appics-im-102233"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200224t213942845z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200224t220108315z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200224t220505875z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200224t231426237z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200224t232215022z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200224t233516519z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200225t001918223z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="84"/>
+    <s v="https://steemit.com/appics/@alex-hm/appics-v1-appics-im-102281"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200225t011508344z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-102296"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200225t023926169z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="https://steemit.com/appics/@enormeanimal/appics-v1-appics-im-102319"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200225t041728192z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200225t052112454z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="77"/>
+    <s v="https://steemit.com/hive-193552/@wil.metcalfe/actifit-wil-metcalfe-20200225t065936078z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="https://steemit.com/appics/@alexvanaken/appics-v1-appics-im-102413"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200225t083956563z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200225t110031904z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200225t110449036z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="118"/>
+    <s v="https://steemit.com/hive-193552/@afril/actifit-afril-20200225t113636508z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200225t122347804z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200225t125727716z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-102643"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200225t154535100z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200225t160109904z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="117"/>
+    <s v="https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200225t164033838z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-102684"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="https://steemit.com/appics/@soldier/appics-v1-appics-im-102760"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="82"/>
+    <s v="https://steemit.com/appics/@spurisna/appics-v1-appics-im-102761"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-102776"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200225t191225797z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-102790"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-102791"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-102819"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="https://steemit.com/appics/@rabihfarhat/appics-v1-appics-im-102827"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-102832"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="https://steemit.com/appics/@apprentice001/appics-v1-appics-im-102833"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200225t213336249z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200225t213846620z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="118"/>
+    <x v="119"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -6317,7 +6657,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="121">
+      <items count="122">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6335,7 +6675,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="119"/>
+        <item m="1" x="120"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6410,7 +6750,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="118"/>
+        <item x="119"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6438,6 +6778,7 @@
         <item x="115"/>
         <item x="116"/>
         <item x="117"/>
+        <item x="118"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6455,12 +6796,12 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="69">
+  <rowItems count="70">
     <i>
       <x v="13"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="23"/>
     </i>
     <i>
       <x v="55"/>
@@ -6469,22 +6810,22 @@
       <x v="90"/>
     </i>
     <i>
-      <x/>
+      <x v="71"/>
     </i>
     <i>
-      <x v="23"/>
+      <x/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="88"/>
     </i>
     <i>
       <x v="62"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="68"/>
     </i>
     <i>
       <x v="73"/>
@@ -6499,37 +6840,37 @@
       <x v="29"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="24"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="31"/>
     </i>
     <i>
       <x v="100"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="69"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="50"/>
     </i>
     <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="97"/>
-    </i>
-    <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="97"/>
     </i>
     <i>
       <x v="51"/>
@@ -6538,13 +6879,13 @@
       <x v="36"/>
     </i>
     <i>
+      <x v="81"/>
+    </i>
+    <i>
       <x v="57"/>
     </i>
     <i>
       <x v="26"/>
-    </i>
-    <i>
-      <x v="81"/>
     </i>
     <i>
       <x v="85"/>
@@ -6553,19 +6894,25 @@
       <x v="87"/>
     </i>
     <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x v="14"/>
     </i>
     <i>
       <x v="70"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="89"/>
+      <x v="115"/>
     </i>
     <i>
       <x v="48"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="119"/>
     </i>
     <i>
       <x v="4"/>
@@ -6574,16 +6921,13 @@
       <x v="78"/>
     </i>
     <i>
-      <x v="103"/>
-    </i>
-    <i>
       <x v="53"/>
     </i>
     <i>
-      <x v="115"/>
+      <x v="89"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="47"/>
     </i>
     <i>
       <x v="111"/>
@@ -6592,49 +6936,64 @@
       <x v="109"/>
     </i>
     <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="110"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="110"/>
+      <x v="112"/>
     </i>
     <i>
       <x v="41"/>
     </i>
     <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="119"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="52"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="118"/>
     </i>
     <i>
       <x v="91"/>
     </i>
     <i>
-      <x v="101"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="102"/>
     </i>
     <i>
       <x v="96"/>
@@ -6643,22 +7002,7 @@
       <x v="21"/>
     </i>
     <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="86"/>
+      <x v="101"/>
     </i>
     <i t="grand">
       <x/>
@@ -6686,7 +7030,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -6699,7 +7043,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="121">
+      <items count="122">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6717,7 +7061,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="119"/>
+        <item m="1" x="120"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6792,7 +7136,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="118"/>
+        <item x="119"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6820,6 +7164,7 @@
         <item x="115"/>
         <item x="116"/>
         <item x="117"/>
+        <item x="118"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6839,16 +7184,16 @@
   </rowFields>
   <rowItems count="74">
     <i>
+      <x v="42"/>
+    </i>
+    <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="42"/>
+      <x v="36"/>
     </i>
     <i>
       <x v="71"/>
-    </i>
-    <i>
-      <x v="36"/>
     </i>
     <i>
       <x v="3"/>
@@ -6869,43 +7214,49 @@
       <x v="44"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="45"/>
     </i>
     <i>
       <x v="90"/>
     </i>
     <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
       <x v="22"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="77"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="29"/>
     </i>
     <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="28"/>
+      <x v="118"/>
     </i>
     <i>
       <x v="53"/>
@@ -6914,7 +7265,7 @@
       <x v="98"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="78"/>
     </i>
     <i>
       <x v="65"/>
@@ -6923,7 +7274,7 @@
       <x v="40"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="7"/>
@@ -6932,16 +7283,16 @@
       <x v="64"/>
     </i>
     <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
       <x v="47"/>
     </i>
     <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="81"/>
+      <x v="80"/>
     </i>
     <i>
       <x/>
@@ -6956,106 +7307,100 @@
       <x v="108"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="118"/>
+      <x v="32"/>
     </i>
     <i>
-      <x v="80"/>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="56"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
       <x v="33"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="30"/>
     </i>
     <i t="grand">
       <x/>
@@ -7382,7 +7727,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7429,24 +7774,24 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="B5" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="E5" s="3">
         <v>19</v>
@@ -7457,13 +7802,13 @@
         <v>394</v>
       </c>
       <c r="B6" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="E6" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -7471,10 +7816,10 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="E7" s="3">
         <v>13</v>
@@ -7482,30 +7827,30 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="B8" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>343</v>
       </c>
       <c r="E8" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B9" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7513,21 +7858,21 @@
         <v>352</v>
       </c>
       <c r="B10" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B11" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>389</v>
@@ -7541,7 +7886,7 @@
         <v>401</v>
       </c>
       <c r="B12" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>366</v>
@@ -7552,10 +7897,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B13" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>383</v>
@@ -7569,10 +7914,10 @@
         <v>412</v>
       </c>
       <c r="B14" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -7597,13 +7942,13 @@
         <v>385</v>
       </c>
       <c r="B16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -7611,24 +7956,24 @@
         <v>368</v>
       </c>
       <c r="B17" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>429</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B18" s="3">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -7639,27 +7984,27 @@
         <v>359</v>
       </c>
       <c r="B19" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B20" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -7667,38 +8012,38 @@
         <v>532</v>
       </c>
       <c r="B21" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="B22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B23" s="3">
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -7706,13 +8051,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="B24" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -7720,13 +8065,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="B25" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -7734,13 +8079,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B26" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -7748,13 +8093,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B27" s="3">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -7762,16 +8107,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="B28" s="3">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>530</v>
+        <v>801</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -7779,13 +8124,13 @@
         <v>390</v>
       </c>
       <c r="B29" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -7793,10 +8138,10 @@
         <v>375</v>
       </c>
       <c r="B30" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -7804,13 +8149,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -7818,13 +8163,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -7832,13 +8177,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -7852,7 +8197,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -7866,7 +8211,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -7874,13 +8219,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -7888,7 +8233,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
@@ -7902,13 +8247,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -7916,13 +8261,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>428</v>
+        <v>760</v>
       </c>
       <c r="B39" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -7936,7 +8281,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -7944,13 +8289,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>344</v>
+        <v>572</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -7958,13 +8303,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>417</v>
+        <v>830</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -7972,13 +8317,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -7986,13 +8331,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>801</v>
+        <v>619</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -8000,41 +8345,41 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>760</v>
+        <v>392</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E46" s="3">
         <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>667</v>
+        <v>386</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -8042,13 +8387,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -8056,13 +8401,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>372</v>
+        <v>666</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>758</v>
+        <v>471</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -8070,13 +8415,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -8084,13 +8429,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>421</v>
+        <v>757</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -8098,13 +8443,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>571</v>
+        <v>398</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -8112,13 +8457,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>398</v>
+        <v>571</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -8126,13 +8471,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>665</v>
+        <v>425</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -8140,13 +8485,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>380</v>
+        <v>665</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>620</v>
+        <v>346</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -8154,13 +8499,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>759</v>
+        <v>348</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -8168,13 +8513,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>356</v>
+        <v>759</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -8182,13 +8527,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>830</v>
+        <v>380</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>802</v>
+        <v>357</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -8196,13 +8541,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -8210,13 +8555,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="B60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -8224,7 +8569,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>430</v>
+        <v>873</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -8238,13 +8583,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>534</v>
+        <v>376</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -8252,13 +8597,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>376</v>
+        <v>801</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -8266,13 +8611,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -8280,13 +8625,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -8294,13 +8639,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>801</v>
+        <v>622</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -8308,7 +8653,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>622</v>
+        <v>342</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -8322,13 +8667,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>533</v>
+        <v>621</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -8336,13 +8681,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>621</v>
+        <v>533</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8350,13 +8695,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -8364,7 +8709,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -8378,21 +8723,27 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>431</v>
+        <v>534</v>
       </c>
       <c r="B72" s="3">
-        <v>461</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73" s="3">
+        <v>487</v>
+      </c>
       <c r="D73" s="2" t="s">
-        <v>350</v>
+        <v>802</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -8400,7 +8751,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="2" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -8408,7 +8759,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -8416,7 +8767,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -8427,7 +8778,7 @@
         <v>431</v>
       </c>
       <c r="E77" s="3">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -8437,10 +8788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C706"/>
+  <dimension ref="A1:C748"/>
   <sheetViews>
-    <sheetView topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="A679" sqref="A679:B706"/>
+    <sheetView topLeftCell="A728" workbookViewId="0">
+      <selection activeCell="A706" sqref="A706:B748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17616,6 +17967,552 @@
       </c>
       <c r="C706" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A707" t="str">
+        <f t="shared" ref="A707:A748" si="35">IFERROR(IF(FIND("appics",C707)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B707" t="str">
+        <f t="shared" ref="B707:B748" si="36">IF(A707="other","N/A",IF(A707="appics",MID(C707,29,LEN(C707)-26-29),MID(C707,34,FIND("/actifit-",C707)-34)))</f>
+        <v>dailyspam</v>
+      </c>
+      <c r="C707" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A708" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B708" t="str">
+        <f t="shared" si="36"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C708" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A709" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B709" t="str">
+        <f t="shared" si="36"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C709" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A710" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B710" t="str">
+        <f t="shared" si="36"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C710" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A711" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B711" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C711" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A712" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B712" t="str">
+        <f t="shared" si="36"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C712" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A713" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B713" t="str">
+        <f t="shared" si="36"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C713" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A714" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B714" t="str">
+        <f t="shared" si="36"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C714" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A715" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B715" t="str">
+        <f t="shared" si="36"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C715" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A716" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B716" t="str">
+        <f t="shared" si="36"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C716" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A717" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B717" t="str">
+        <f t="shared" si="36"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C717" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A718" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B718" t="str">
+        <f t="shared" si="36"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C718" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A719" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B719" t="str">
+        <f t="shared" si="36"/>
+        <v>mauriciovite</v>
+      </c>
+      <c r="C719" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A720" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B720" t="str">
+        <f t="shared" si="36"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C720" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A721" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B721" t="str">
+        <f t="shared" si="36"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C721" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A722" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B722" t="str">
+        <f t="shared" si="36"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C722" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A723" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B723" t="str">
+        <f t="shared" si="36"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C723" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A724" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B724" t="str">
+        <f t="shared" si="36"/>
+        <v>wil.metcalfe</v>
+      </c>
+      <c r="C724" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A725" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B725" t="str">
+        <f t="shared" si="36"/>
+        <v>alexvanaken</v>
+      </c>
+      <c r="C725" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A726" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B726" t="str">
+        <f t="shared" si="36"/>
+        <v>photobook</v>
+      </c>
+      <c r="C726" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A727" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B727" t="str">
+        <f t="shared" si="36"/>
+        <v>blumela</v>
+      </c>
+      <c r="C727" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A728" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B728" t="str">
+        <f t="shared" si="36"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C728" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A729" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B729" t="str">
+        <f t="shared" si="36"/>
+        <v>afril</v>
+      </c>
+      <c r="C729" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A730" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B730" t="str">
+        <f t="shared" si="36"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C730" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A731" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B731" t="str">
+        <f t="shared" si="36"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C731" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A732" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B732" t="str">
+        <f t="shared" si="36"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C732" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A733" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B733" t="str">
+        <f t="shared" si="36"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C733" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A734" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B734" t="str">
+        <f t="shared" si="36"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C734" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A735" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B735" t="str">
+        <f t="shared" si="36"/>
+        <v>newtechblog</v>
+      </c>
+      <c r="C735" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A736" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B736" t="str">
+        <f t="shared" si="36"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C736" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A737" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B737" t="str">
+        <f t="shared" si="36"/>
+        <v>soldier</v>
+      </c>
+      <c r="C737" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A738" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B738" t="str">
+        <f t="shared" si="36"/>
+        <v>spurisna</v>
+      </c>
+      <c r="C738" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A739" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B739" t="str">
+        <f t="shared" si="36"/>
+        <v>mauriciovite</v>
+      </c>
+      <c r="C739" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A740" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B740" t="str">
+        <f t="shared" si="36"/>
+        <v>sereze</v>
+      </c>
+      <c r="C740" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A741" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B741" t="str">
+        <f t="shared" si="36"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C741" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A742" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B742" t="str">
+        <f t="shared" si="36"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C742" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A743" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B743" t="str">
+        <f t="shared" si="36"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C743" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A744" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B744" t="str">
+        <f t="shared" si="36"/>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C744" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A745" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B745" t="str">
+        <f t="shared" si="36"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C745" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A746" t="str">
+        <f t="shared" si="35"/>
+        <v>appics</v>
+      </c>
+      <c r="B746" t="str">
+        <f t="shared" si="36"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C746" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A747" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B747" t="str">
+        <f t="shared" si="36"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C747" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A748" t="str">
+        <f t="shared" si="35"/>
+        <v>actifit</v>
+      </c>
+      <c r="B748" t="str">
+        <f t="shared" si="36"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C748" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9B99FA-01AF-4B46-8D52-9D8C20013865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5428A74-46B3-4C9D-9281-388349BF956B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="59" r:id="rId4"/>
+    <pivotCache cacheId="45" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="898">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2661,6 +2661,78 @@
   </si>
   <si>
     <t>afril</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200225t223215192z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200225t224634535z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200225t234409791z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200225t235925447z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200226t001917696z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200226t011418084z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200226t031451599z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200226t034252101z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200226t051429079z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200226t111543626z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200226t121518497z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200226t122450315z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@imagine.colours/appics-v1-appics-im-103194</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200226t133653353z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@afril/actifit-afril-20200226t145216653z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200226t161400404z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200226t170124107z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200226t175152285z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@moderndayhippie/actifit-moderndayhippie-20200226t180257002z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-103374</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazypoet/appics-v1-appics-im-103388</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@poldianslinger/appics-v1-appics-im-103398</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200226t201421009z</t>
+  </si>
+  <si>
+    <t>poldianslinger</t>
   </si>
 </sst>
 </file>
@@ -2748,7 +2820,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43886.952851620372" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="748" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43887.924969675929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="771" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2762,7 +2834,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="121">
+      <sharedItems containsBlank="1" count="122">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2882,6 +2954,7 @@
         <s v="apprentice001"/>
         <s v="newtechblog"/>
         <s v="afril"/>
+        <s v="poldianslinger"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -2899,7 +2972,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="748">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="771">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6636,16 +6709,131 @@
     <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200225t213846620z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200225t223215192z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200225t224634535z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200225t234409791z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200225t235925447z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200226t001917696z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200226t011418084z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200226t031451599z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="84"/>
+    <s v="https://steemit.com/hive-193552/@alex-hm/actifit-alex-hm-20200226t034252101z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200226t051429079z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200226t121518497z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200226t111543626z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200226t122450315z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="86"/>
+    <s v="https://steemit.com/appics/@imagine.colours/appics-v1-appics-im-103194"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200226t133653353z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="118"/>
+    <s v="https://steemit.com/hive-193552/@afril/actifit-afril-20200226t145216653z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="117"/>
+    <s v="https://steemit.com/hive-193552/@newtechblog/actifit-newtechblog-20200226t161400404z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200226t170124107z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200226t175152285z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="56"/>
+    <s v="https://steemit.com/hive-193552/@moderndayhippie/actifit-moderndayhippie-20200226t180257002z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-103374"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-103388"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="119"/>
+    <s v="https://steemit.com/appics/@poldianslinger/appics-v1-appics-im-103398"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200226t201421009z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="119"/>
+    <x v="120"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -6657,7 +6845,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="122">
+      <items count="123">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6675,7 +6863,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="120"/>
+        <item m="1" x="121"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6750,7 +6938,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="119"/>
+        <item x="120"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6779,6 +6967,7 @@
         <item x="116"/>
         <item x="117"/>
         <item x="118"/>
+        <item x="119"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6796,213 +6985,228 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="70">
+  <rowItems count="75">
     <i>
-      <x v="13"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="90"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="76"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
       <x v="80"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="58"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="95"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="32"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="82"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="87"/>
+      <x v="84"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="61"/>
     </i>
     <i>
-      <x v="70"/>
+      <x v="113"/>
     </i>
     <i>
-      <x v="115"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="48"/>
+      <x v="116"/>
     </i>
     <i>
-      <x v="103"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="119"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="83"/>
     </i>
     <i>
-      <x v="78"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="74"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="111"/>
+      <x v="75"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="99"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="117"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="121"/>
     </i>
     <i>
-      <x v="104"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="101"/>
+      <x v="72"/>
     </i>
     <i t="grand">
       <x/>
@@ -7012,7 +7216,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -7030,8 +7234,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E77" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -7043,7 +7247,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="122">
+      <items count="123">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -7061,7 +7265,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="120"/>
+        <item m="1" x="121"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -7136,7 +7340,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="119"/>
+        <item x="120"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -7165,6 +7369,7 @@
         <item x="116"/>
         <item x="117"/>
         <item x="118"/>
+        <item x="119"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7182,225 +7387,213 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="74">
+  <rowItems count="70">
     <i>
-      <x v="42"/>
+      <x v="13"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="55"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="97"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="85"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="87"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="89"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="77"/>
+      <x v="48"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="52"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="109"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="120"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="111"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="104"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i>
       <x v="59"/>
     </i>
     <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
       <x v="118"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="91"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="78"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="33"/>
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -7410,7 +7603,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -7724,10 +7917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7774,21 +7967,21 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B5" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
@@ -7799,10 +7992,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>375</v>
@@ -7816,7 +8009,7 @@
         <v>429</v>
       </c>
       <c r="B7" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>410</v>
@@ -7830,10 +8023,10 @@
         <v>410</v>
       </c>
       <c r="B8" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="E8" s="3">
         <v>12</v>
@@ -7841,16 +8034,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B9" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="E9" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7858,7 +8051,7 @@
         <v>352</v>
       </c>
       <c r="B10" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>373</v>
@@ -7914,10 +8107,10 @@
         <v>412</v>
       </c>
       <c r="B14" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -7931,7 +8124,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -7945,7 +8138,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="E16" s="3">
         <v>6</v>
@@ -7959,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -7967,13 +8160,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>363</v>
+        <v>532</v>
       </c>
       <c r="B18" s="3">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -7981,13 +8174,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -8001,7 +8194,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -8009,13 +8202,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>532</v>
+        <v>359</v>
       </c>
       <c r="B21" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -8023,13 +8216,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="B22" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -8037,13 +8230,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="B23" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -8051,13 +8244,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="B24" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -8065,13 +8258,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B25" s="3">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -8079,13 +8272,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -8093,13 +8286,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B27" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -8107,7 +8300,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="B28" s="3">
         <v>9</v>
@@ -8121,13 +8314,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -8138,24 +8331,24 @@
         <v>375</v>
       </c>
       <c r="B30" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>530</v>
+        <v>392</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>417</v>
+        <v>530</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -8163,13 +8356,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -8177,13 +8370,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -8191,13 +8384,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -8211,7 +8404,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -8222,10 +8415,10 @@
         <v>355</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -8233,13 +8426,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>354</v>
+        <v>760</v>
       </c>
       <c r="B37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -8247,13 +8440,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>409</v>
+        <v>830</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -8261,13 +8454,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>760</v>
+        <v>409</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -8275,13 +8468,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B40" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -8289,13 +8482,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>572</v>
+        <v>344</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -8303,13 +8496,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>830</v>
+        <v>428</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -8317,13 +8510,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -8331,13 +8524,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>619</v>
+        <v>351</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -8345,13 +8538,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>392</v>
+        <v>572</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -8359,13 +8552,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>371</v>
+        <v>619</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -8373,10 +8566,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>421</v>
@@ -8387,13 +8580,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>620</v>
+        <v>349</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -8401,7 +8594,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>666</v>
+        <v>873</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
@@ -8415,13 +8608,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>356</v>
+        <v>667</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -8429,13 +8622,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>757</v>
+        <v>365</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -8443,13 +8636,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>398</v>
+        <v>571</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -8457,7 +8650,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>571</v>
+        <v>346</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
@@ -8471,13 +8664,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>425</v>
+        <v>665</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>405</v>
+        <v>620</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -8485,13 +8678,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>665</v>
+        <v>356</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -8499,13 +8692,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>348</v>
+        <v>759</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>406</v>
+        <v>758</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -8513,13 +8706,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>759</v>
+        <v>348</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>758</v>
+        <v>395</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -8527,13 +8720,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>357</v>
+        <v>757</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -8541,13 +8734,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -8555,7 +8748,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
@@ -8569,10 +8762,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>873</v>
+        <v>425</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>422</v>
@@ -8583,13 +8776,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -8597,13 +8790,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>801</v>
+        <v>382</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -8611,7 +8804,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -8625,13 +8818,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>382</v>
+        <v>622</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -8639,7 +8832,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>622</v>
+        <v>342</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
@@ -8653,7 +8846,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>342</v>
+        <v>621</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -8667,13 +8860,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>621</v>
+        <v>801</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -8681,13 +8874,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8695,13 +8888,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -8709,7 +8902,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -8723,13 +8916,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -8740,7 +8933,7 @@
         <v>431</v>
       </c>
       <c r="B73" s="3">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>802</v>
@@ -8751,7 +8944,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D74" s="2" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -8759,7 +8952,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D75" s="2" t="s">
-        <v>358</v>
+        <v>897</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -8767,7 +8960,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -8775,10 +8968,18 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D78" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E77" s="3">
-        <v>253</v>
+      <c r="E78" s="3">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8788,10 +8989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C748"/>
+  <dimension ref="A1:C771"/>
   <sheetViews>
-    <sheetView topLeftCell="A728" workbookViewId="0">
-      <selection activeCell="A706" sqref="A706:B748"/>
+    <sheetView topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="B771" sqref="B771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18513,6 +18714,305 @@
       </c>
       <c r="C748" t="s">
         <v>872</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A749" t="str">
+        <f t="shared" ref="A749:A771" si="37">IFERROR(IF(FIND("appics",C749)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B749" t="str">
+        <f t="shared" ref="B749:B771" si="38">IF(A749="other","N/A",IF(A749="appics",MID(C749,29,LEN(C749)-26-29),MID(C749,34,FIND("/actifit-",C749)-34)))</f>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C749" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A750" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B750" t="str">
+        <f t="shared" si="38"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C750" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A751" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B751" t="str">
+        <f t="shared" si="38"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C751" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A752" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B752" t="str">
+        <f t="shared" si="38"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C752" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A753" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B753" t="str">
+        <f t="shared" si="38"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C753" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A754" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B754" t="str">
+        <f t="shared" si="38"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C754" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A755" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B755" t="str">
+        <f t="shared" si="38"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C755" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A756" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B756" t="str">
+        <f t="shared" si="38"/>
+        <v>alex-hm</v>
+      </c>
+      <c r="C756" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A757" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B757" t="str">
+        <f t="shared" si="38"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C757" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A758" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B758" t="str">
+        <f t="shared" si="38"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C758" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A759" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B759" t="str">
+        <f t="shared" si="38"/>
+        <v>photobook</v>
+      </c>
+      <c r="C759" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A760" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B760" t="str">
+        <f t="shared" si="38"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C760" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A761" t="str">
+        <f t="shared" si="37"/>
+        <v>appics</v>
+      </c>
+      <c r="B761" t="str">
+        <f t="shared" si="38"/>
+        <v>imagine.colours</v>
+      </c>
+      <c r="C761" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A762" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B762" t="str">
+        <f t="shared" si="38"/>
+        <v>blumela</v>
+      </c>
+      <c r="C762" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A763" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B763" t="str">
+        <f t="shared" si="38"/>
+        <v>afril</v>
+      </c>
+      <c r="C763" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A764" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B764" t="str">
+        <f t="shared" si="38"/>
+        <v>newtechblog</v>
+      </c>
+      <c r="C764" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A765" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B765" t="str">
+        <f t="shared" si="38"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C765" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A766" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B766" t="str">
+        <f t="shared" si="38"/>
+        <v>sereze</v>
+      </c>
+      <c r="C766" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A767" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B767" t="str">
+        <f t="shared" si="38"/>
+        <v>moderndayhippie</v>
+      </c>
+      <c r="C767" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A768" t="str">
+        <f t="shared" si="37"/>
+        <v>appics</v>
+      </c>
+      <c r="B768" t="str">
+        <f t="shared" si="38"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C768" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A769" t="str">
+        <f t="shared" si="37"/>
+        <v>appics</v>
+      </c>
+      <c r="B769" t="str">
+        <f t="shared" si="38"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C769" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A770" t="str">
+        <f t="shared" si="37"/>
+        <v>appics</v>
+      </c>
+      <c r="B770" t="str">
+        <f t="shared" si="38"/>
+        <v>poldianslinger</v>
+      </c>
+      <c r="C770" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A771" t="str">
+        <f t="shared" si="37"/>
+        <v>actifit</v>
+      </c>
+      <c r="B771" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C771" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5428A74-46B3-4C9D-9281-388349BF956B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3B283-6D98-4FE8-83A1-1A4E194CA34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId4"/>
+    <pivotCache cacheId="57" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="933">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2733,6 +2733,111 @@
   </si>
   <si>
     <t>poldianslinger</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-103449</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200226t213741707z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200226t214252911z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alfamano/actifit-alfamano-20200226t220108062z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200226t220741515z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200226t221445680z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-103488</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200226t234007714z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200226t234708805z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200227t001120414z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200227t005729786z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200227t024305613z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fycee/appics-v1-appics-im-103579</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@alexvanaken/actifit-alexvanaken-20200227t043346235z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200227t074112934z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200227t100928476z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-146620/@robibasa/visto-che-i-bambini-si-annoiano</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-103831</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200227t145845214z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200227t151221661z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@hdelosrios/appics-v1-appics-im-103880</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200227t155125548z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200227t160248916z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@afril/actifit-afril-20200227t165424784z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@toushik/appics-v1-appics-im-103958</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-103963</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200227t185907421z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-103991</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@apprentice001/appics-v1-appics-im-104017</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-104031</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-104041</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mysteryreader/actifit-mysteryreader-20200227t210113610z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200227t213259757z</t>
+  </si>
+  <si>
+    <t>mysteryreader</t>
+  </si>
+  <si>
+    <t>alfamano</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2925,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43887.924969675929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="771" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43888.953703703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="804" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -2834,7 +2939,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="122">
+      <sharedItems containsBlank="1" count="124">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -2955,6 +3060,8 @@
         <s v="newtechblog"/>
         <s v="afril"/>
         <s v="poldianslinger"/>
+        <s v="alfamano"/>
+        <s v="mysteryreader"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -2972,7 +3079,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="771">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="804">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6824,16 +6931,181 @@
     <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200226t201421009z"/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-103449"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200226t213741707z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200226t214252911z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="120"/>
+    <s v="https://steemit.com/hive-193552/@alfamano/actifit-alfamano-20200226t220108062z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200226t220741515z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200226t221445680z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200226t234007714z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-103488"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200226t234708805z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200227t001120414z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200227t005729786z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200227t024305613z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="115"/>
+    <s v="https://steemit.com/appics/@fycee/appics-v1-appics-im-103579"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://steemit.com/hive-193552/@alexvanaken/actifit-alexvanaken-20200227t043346235z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200227t074112934z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200227t100928476z"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="46"/>
+    <s v="https://steemit.com/hive-146620/@robibasa/visto-che-i-bambini-si-annoiano"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-103831"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200227t145845214z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200227t151221661z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="105"/>
+    <s v="https://steemit.com/appics/@hdelosrios/appics-v1-appics-im-103880"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200227t155125548z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200227t160248916z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="118"/>
+    <s v="https://steemit.com/hive-193552/@afril/actifit-afril-20200227t165424784z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="70"/>
+    <s v="https://steemit.com/appics/@toushik/appics-v1-appics-im-103958"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-103963"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200227t185907421z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-103991"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="https://steemit.com/appics/@apprentice001/appics-v1-appics-im-104017"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-104031"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-104041"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="121"/>
+    <s v="https://steemit.com/hive-193552/@mysteryreader/actifit-mysteryreader-20200227t210113610z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="116"/>
+    <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200227t213259757z"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="120"/>
+    <x v="122"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -6845,7 +7117,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="123">
+      <items count="125">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -6863,7 +7135,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="121"/>
+        <item m="1" x="123"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -6938,7 +7210,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="120"/>
+        <item x="122"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -6968,6 +7240,8 @@
         <item x="117"/>
         <item x="118"/>
         <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6985,228 +7259,219 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="75">
+  <rowItems count="72">
     <i>
-      <x v="42"/>
+      <x v="13"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="97"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="76"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="34"/>
+      <x v="85"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="115"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="70"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="48"/>
     </i>
     <i>
-      <x v="77"/>
+      <x v="89"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="52"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="120"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="109"/>
     </i>
     <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="111"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="86"/>
     </i>
     <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="64"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="47"/>
     </i>
     <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="117"/>
+      <x v="104"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="121"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="102"/>
     </i>
     <i>
-      <x v="72"/>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="91"/>
     </i>
     <i t="grand">
       <x/>
@@ -7216,7 +7481,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -7234,8 +7499,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -7247,7 +7512,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="123">
+      <items count="125">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -7265,7 +7530,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="121"/>
+        <item m="1" x="123"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -7340,7 +7605,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="120"/>
+        <item x="122"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -7370,6 +7635,8 @@
         <item x="117"/>
         <item x="118"/>
         <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7387,213 +7654,228 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="70">
+  <rowItems count="75">
     <i>
-      <x v="13"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="117"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="58"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="11"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="95"/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="32"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="65"/>
     </i>
     <i>
-      <x v="73"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="54"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="99"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="82"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="94"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="114"/>
     </i>
     <i>
-      <x v="80"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="61"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="121"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="83"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="74"/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="85"/>
+      <x v="75"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="110"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="112"/>
+      <x v="66"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="116"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="86"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="21"/>
+      <x v="72"/>
     </i>
     <i t="grand">
       <x/>
@@ -7603,7 +7885,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
@@ -7920,7 +8202,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7967,21 +8249,21 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="B5" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
@@ -7992,21 +8274,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="B6" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E6" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="B7" s="3">
         <v>21</v>
@@ -8020,13 +8302,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="E8" s="3">
         <v>12</v>
@@ -8034,13 +8316,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B9" s="3">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="E9" s="3">
         <v>12</v>
@@ -8048,24 +8330,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="B10" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B11" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>389</v>
@@ -8076,10 +8358,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B12" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>366</v>
@@ -8090,13 +8372,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B13" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="E13" s="3">
         <v>7</v>
@@ -8104,27 +8386,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B14" s="3">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="B15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -8132,13 +8414,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="E16" s="3">
         <v>6</v>
@@ -8146,13 +8428,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>368</v>
+        <v>532</v>
       </c>
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -8160,13 +8442,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>532</v>
+        <v>363</v>
       </c>
       <c r="B18" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -8174,13 +8456,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B19" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -8188,7 +8470,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B20" s="3">
         <v>12</v>
@@ -8202,13 +8484,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B21" s="3">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -8219,10 +8501,10 @@
         <v>419</v>
       </c>
       <c r="B22" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -8230,27 +8512,27 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="B23" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>399</v>
+        <v>801</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="B24" s="3">
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
@@ -8258,10 +8540,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B25" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>398</v>
@@ -8272,13 +8554,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -8286,13 +8568,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B27" s="3">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -8300,13 +8582,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="B28" s="3">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>801</v>
+        <v>619</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -8314,7 +8596,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>473</v>
+        <v>375</v>
       </c>
       <c r="B29" s="3">
         <v>9</v>
@@ -8328,13 +8610,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="B30" s="3">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -8342,16 +8624,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>530</v>
+        <v>392</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -8362,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -8370,13 +8652,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -8384,13 +8666,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>347</v>
+        <v>530</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -8398,13 +8680,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="B35" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -8412,13 +8694,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>355</v>
+        <v>760</v>
       </c>
       <c r="B36" s="3">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -8426,13 +8708,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>760</v>
+        <v>426</v>
       </c>
       <c r="B37" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -8446,7 +8728,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -8454,13 +8736,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -8468,13 +8750,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>340</v>
+        <v>802</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -8485,10 +8767,10 @@
         <v>344</v>
       </c>
       <c r="B41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -8496,13 +8778,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -8510,13 +8792,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -8524,13 +8806,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -8538,13 +8820,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>572</v>
+        <v>391</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -8552,13 +8834,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>619</v>
+        <v>472</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -8566,41 +8848,41 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>391</v>
+        <v>873</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>666</v>
+        <v>392</v>
       </c>
       <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" s="3">
         <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>873</v>
+        <v>665</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>471</v>
+        <v>350</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -8608,13 +8890,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>667</v>
+        <v>801</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
@@ -8622,13 +8904,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>380</v>
+        <v>759</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -8636,13 +8918,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>571</v>
+        <v>380</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>346</v>
+        <v>531</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -8650,13 +8932,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>346</v>
+        <v>666</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -8664,13 +8946,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>665</v>
+        <v>398</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>620</v>
+        <v>377</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -8678,13 +8960,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>356</v>
+        <v>667</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -8692,13 +8974,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>759</v>
+        <v>425</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -8712,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -8720,13 +9002,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>757</v>
+        <v>395</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -8734,13 +9016,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -8748,13 +9030,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>386</v>
+        <v>571</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>377</v>
+        <v>897</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -8762,7 +9044,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
@@ -8776,13 +9058,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>534</v>
+        <v>356</v>
       </c>
       <c r="B62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -8790,7 +9072,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>382</v>
+        <v>533</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -8804,13 +9086,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -8818,13 +9100,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>622</v>
+        <v>931</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -8832,13 +9114,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>342</v>
+        <v>621</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -8846,13 +9128,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>531</v>
+        <v>374</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -8860,13 +9142,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>801</v>
+        <v>376</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>393</v>
+        <v>620</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -8874,13 +9156,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -8888,13 +9170,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>405</v>
+        <v>758</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -8902,13 +9184,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>474</v>
+        <v>932</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>756</v>
+        <v>406</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -8916,13 +9198,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>406</v>
+        <v>757</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -8930,29 +9212,41 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>431</v>
+        <v>360</v>
       </c>
       <c r="B73" s="3">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>802</v>
+        <v>372</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B75" s="3">
+        <v>527</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>897</v>
+        <v>345</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -8960,7 +9254,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -8979,7 +9273,7 @@
         <v>431</v>
       </c>
       <c r="E78" s="3">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -8989,10 +9283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C771"/>
+  <dimension ref="A1:C804"/>
   <sheetViews>
-    <sheetView topLeftCell="A751" workbookViewId="0">
-      <selection activeCell="B771" sqref="B771"/>
+    <sheetView topLeftCell="A792" workbookViewId="0">
+      <selection activeCell="B804" sqref="B804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19013,6 +19307,434 @@
       </c>
       <c r="C771" t="s">
         <v>896</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A772" t="str">
+        <f t="shared" ref="A772:A804" si="39">IFERROR(IF(FIND("appics",C772)&gt;0,"appics"),"actifit")</f>
+        <v>appics</v>
+      </c>
+      <c r="B772" t="str">
+        <f t="shared" ref="B772:B804" si="40">IF(A772="other","N/A",IF(A772="appics",MID(C772,29,LEN(C772)-26-29),MID(C772,34,FIND("/actifit-",C772)-34)))</f>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C772" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A773" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B773" t="str">
+        <f t="shared" si="40"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C773" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A774" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B774" t="str">
+        <f t="shared" si="40"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C774" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A775" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B775" t="str">
+        <f t="shared" si="40"/>
+        <v>alfamano</v>
+      </c>
+      <c r="C775" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A776" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B776" t="str">
+        <f t="shared" si="40"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C776" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A777" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B777" t="str">
+        <f t="shared" si="40"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C777" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A778" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B778" t="str">
+        <f t="shared" si="40"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C778" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A779" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B779" t="str">
+        <f t="shared" si="40"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C779" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A780" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B780" t="str">
+        <f t="shared" si="40"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C780" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A781" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B781" t="str">
+        <f t="shared" si="40"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C781" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A782" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B782" t="str">
+        <f t="shared" si="40"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C782" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A783" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B783" t="str">
+        <f t="shared" si="40"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C783" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A784" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B784" t="str">
+        <f t="shared" si="40"/>
+        <v>fycee</v>
+      </c>
+      <c r="C784" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A785" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B785" t="str">
+        <f t="shared" si="40"/>
+        <v>alexvanaken</v>
+      </c>
+      <c r="C785" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A786" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B786" t="str">
+        <f t="shared" si="40"/>
+        <v>photobook</v>
+      </c>
+      <c r="C786" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A787" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B787" t="str">
+        <f t="shared" si="40"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C787" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>434</v>
+      </c>
+      <c r="B788" t="str">
+        <f t="shared" si="40"/>
+        <v>N/A</v>
+      </c>
+      <c r="C788" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A789" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B789" t="str">
+        <f t="shared" si="40"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C789" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A790" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B790" t="str">
+        <f t="shared" si="40"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C790" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A791" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B791" t="str">
+        <f t="shared" si="40"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C791" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A792" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B792" t="str">
+        <f t="shared" si="40"/>
+        <v>hdelosrios</v>
+      </c>
+      <c r="C792" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A793" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B793" t="str">
+        <f t="shared" si="40"/>
+        <v>blumela</v>
+      </c>
+      <c r="C793" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A794" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B794" t="str">
+        <f t="shared" si="40"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C794" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A795" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B795" t="str">
+        <f t="shared" si="40"/>
+        <v>afril</v>
+      </c>
+      <c r="C795" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A796" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B796" t="str">
+        <f t="shared" si="40"/>
+        <v>toushik</v>
+      </c>
+      <c r="C796" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A797" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B797" t="str">
+        <f t="shared" si="40"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C797" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A798" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B798" t="str">
+        <f t="shared" si="40"/>
+        <v>sereze</v>
+      </c>
+      <c r="C798" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A799" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B799" t="str">
+        <f t="shared" si="40"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C799" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A800" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B800" t="str">
+        <f t="shared" si="40"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C800" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A801" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B801" t="str">
+        <f t="shared" si="40"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C801" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A802" t="str">
+        <f t="shared" si="39"/>
+        <v>appics</v>
+      </c>
+      <c r="B802" t="str">
+        <f t="shared" si="40"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C802" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A803" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B803" t="str">
+        <f t="shared" si="40"/>
+        <v>mysteryreader</v>
+      </c>
+      <c r="C803" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A804" t="str">
+        <f t="shared" si="39"/>
+        <v>actifit</v>
+      </c>
+      <c r="B804" t="str">
+        <f t="shared" si="40"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C804" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3B283-6D98-4FE8-83A1-1A4E194CA34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11272EE0-0780-44AB-9297-06422AD159DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="57" r:id="rId4"/>
+    <pivotCache cacheId="130" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="959">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2838,6 +2838,84 @@
   </si>
   <si>
     <t>alfamano</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200227t215634438z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-104065</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200227t215819909z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200227t221554224z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200227t223612553z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200227t224501222z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200227t231540492z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200228t000008463z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200228t002720097z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200228t012830909z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-104211</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200228t062710006z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200228t072253183z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200228t074016227z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200228t085446794z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200228t103848154z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-104343</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200228t135459485z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200228t151059554z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@afril/actifit-afril-20200228t155230883z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200228t161816987z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200228t173212254z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-104540</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200228t190147467z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@imagine.colours/appics-v1-appics-im-104571</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-104574</t>
   </si>
 </sst>
 </file>
@@ -2925,7 +3003,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43888.953703703701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="804" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43889.914737500003" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="830" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -3079,7 +3157,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="804">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="830">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7094,6 +7172,136 @@
     <x v="1"/>
     <x v="116"/>
     <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200227t213259757z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200227t215634438z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-104065"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200227t215819909z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200227t221554224z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200227t223612553z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200227t224501222z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200227t231540492z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200228t000008463z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200228t002720097z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200228t012830909z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-104211"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200228t062710006z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200228t072253183z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="108"/>
+    <s v="https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200228t074016227z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200228t085446794z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200228t103848154z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-104343"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200228t135459485z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200228t151059554z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="118"/>
+    <s v="https://steemit.com/hive-193552/@afril/actifit-afril-20200228t155230883z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200228t161816987z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200228t173212254z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-104540"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200228t190147467z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="86"/>
+    <s v="https://steemit.com/appics/@imagine.colours/appics-v1-appics-im-104571"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-104574"/>
   </r>
   <r>
     <x v="3"/>
@@ -7104,7 +7312,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -7267,13 +7475,13 @@
       <x v="90"/>
     </i>
     <i>
+      <x/>
+    </i>
+    <i>
       <x v="55"/>
     </i>
     <i>
       <x v="23"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="12"/>
@@ -7282,10 +7490,10 @@
       <x v="71"/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="88"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="62"/>
     </i>
     <i>
       <x v="73"/>
@@ -7297,9 +7505,6 @@
       <x v="46"/>
     </i>
     <i>
-      <x v="79"/>
-    </i>
-    <i>
       <x v="100"/>
     </i>
     <i>
@@ -7307,6 +7512,9 @@
     </i>
     <i>
       <x v="29"/>
+    </i>
+    <i>
+      <x v="79"/>
     </i>
     <i>
       <x v="20"/>
@@ -7321,43 +7529,43 @@
       <x v="50"/>
     </i>
     <i>
+      <x v="51"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="36"/>
     </i>
     <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="69"/>
-    </i>
-    <i>
       <x v="97"/>
-    </i>
-    <i>
-      <x v="36"/>
     </i>
     <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="85"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="115"/>
     </i>
     <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="115"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="87"/>
@@ -7366,7 +7574,7 @@
       <x v="119"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="120"/>
     </i>
     <i>
       <x v="70"/>
@@ -7375,28 +7583,31 @@
       <x v="4"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
       <x v="78"/>
+    </i>
+    <i>
+      <x v="53"/>
     </i>
     <i>
       <x v="48"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="103"/>
     </i>
     <i>
       <x v="52"/>
     </i>
     <i>
-      <x v="103"/>
+      <x v="89"/>
     </i>
     <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="110"/>
+      <x v="109"/>
     </i>
     <i>
       <x v="118"/>
@@ -7408,16 +7619,13 @@
       <x v="41"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="86"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="86"/>
+      <x v="110"/>
     </i>
     <i>
       <x v="8"/>
@@ -7426,40 +7634,40 @@
       <x v="47"/>
     </i>
     <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
       <x v="6"/>
     </i>
     <i>
       <x v="104"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="91"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="107"/>
     </i>
     <i>
       <x v="102"/>
     </i>
     <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="101"/>
+      <x v="43"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="96"/>
+      <x v="21"/>
     </i>
     <i>
       <x v="122"/>
@@ -7468,10 +7676,10 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="101"/>
     </i>
     <i t="grand">
       <x/>
@@ -7499,7 +7707,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -7665,37 +7873,37 @@
       <x v="36"/>
     </i>
     <i>
+      <x v="34"/>
+    </i>
+    <i>
       <x v="71"/>
+    </i>
+    <i>
+      <x v="46"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="50"/>
     </i>
     <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="50"/>
+      <x v="90"/>
     </i>
     <i>
       <x v="27"/>
     </i>
     <i>
-      <x v="90"/>
-    </i>
-    <i>
       <x v="44"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="45"/>
     </i>
     <i>
       <x v="22"/>
@@ -7707,6 +7915,9 @@
       <x v="49"/>
     </i>
     <i>
+      <x v="40"/>
+    </i>
+    <i>
       <x v="63"/>
     </i>
     <i>
@@ -7716,22 +7927,19 @@
       <x v="118"/>
     </i>
     <i>
-      <x v="60"/>
-    </i>
-    <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="60"/>
     </i>
     <i>
       <x v="28"/>
     </i>
     <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="40"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="29"/>
@@ -8202,7 +8410,7 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8249,7 +8457,7 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
@@ -8263,7 +8471,7 @@
         <v>429</v>
       </c>
       <c r="B5" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
@@ -8274,10 +8482,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="B6" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>375</v>
@@ -8288,30 +8496,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B7" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="E7" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B8" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="E8" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -8319,7 +8527,7 @@
         <v>352</v>
       </c>
       <c r="B9" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
@@ -8336,38 +8544,38 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="E10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B11" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E11" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="E12" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -8378,7 +8586,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="E13" s="3">
         <v>7</v>
@@ -8406,7 +8614,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -8414,7 +8622,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
@@ -8428,13 +8636,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>532</v>
+        <v>363</v>
       </c>
       <c r="B17" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -8442,10 +8650,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B18" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>361</v>
@@ -8456,10 +8664,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B19" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>416</v>
@@ -8473,7 +8681,7 @@
         <v>359</v>
       </c>
       <c r="B20" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>388</v>
@@ -8487,10 +8695,10 @@
         <v>370</v>
       </c>
       <c r="B21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -8501,10 +8709,10 @@
         <v>419</v>
       </c>
       <c r="B22" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -8518,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>801</v>
+        <v>359</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -8526,21 +8734,21 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="B24" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>399</v>
+        <v>801</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="B25" s="3">
         <v>11</v>
@@ -8554,13 +8762,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B26" s="3">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>355</v>
+        <v>619</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -8568,13 +8776,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="B27" s="3">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -8582,13 +8790,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="B28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>619</v>
+        <v>367</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -8596,13 +8804,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>375</v>
+        <v>473</v>
       </c>
       <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -8624,10 +8832,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="B31" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>392</v>
@@ -8638,7 +8846,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="B32" s="3">
         <v>7</v>
@@ -8652,7 +8860,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="B33" s="3">
         <v>7</v>
@@ -8666,7 +8874,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>396</v>
+        <v>760</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
@@ -8680,7 +8888,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
@@ -8694,10 +8902,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>760</v>
+        <v>420</v>
       </c>
       <c r="B36" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>419</v>
@@ -8736,7 +8944,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>354</v>
+        <v>873</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -8778,10 +8986,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="B42" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>417</v>
@@ -8792,7 +9000,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>387</v>
+        <v>667</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -8806,7 +9014,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -8820,7 +9028,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -8834,7 +9042,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>572</v>
+        <v>387</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
@@ -8848,7 +9056,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>873</v>
+        <v>572</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
@@ -8862,7 +9070,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
@@ -8876,10 +9084,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>665</v>
+        <v>428</v>
       </c>
       <c r="B49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>350</v>
@@ -8890,7 +9098,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>801</v>
+        <v>666</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -8904,7 +9112,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="B51" s="3">
         <v>2</v>
@@ -8918,7 +9126,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>380</v>
+        <v>759</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -8932,7 +9140,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>666</v>
+        <v>380</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
@@ -8946,7 +9154,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
@@ -8960,7 +9168,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>667</v>
+        <v>372</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
@@ -8974,7 +9182,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>665</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -9016,7 +9224,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -9030,7 +9238,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>571</v>
+        <v>398</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
@@ -9044,7 +9252,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
@@ -9058,7 +9266,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>356</v>
+        <v>571</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
@@ -9072,7 +9280,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -9086,7 +9294,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>622</v>
+        <v>931</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
@@ -9100,7 +9308,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>931</v>
+        <v>474</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -9128,7 +9336,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -9142,7 +9350,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -9156,7 +9364,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -9170,7 +9378,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -9212,7 +9420,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>360</v>
+        <v>622</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -9226,7 +9434,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>430</v>
+        <v>534</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -9243,7 +9451,7 @@
         <v>431</v>
       </c>
       <c r="B75" s="3">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>345</v>
@@ -9273,7 +9481,7 @@
         <v>431</v>
       </c>
       <c r="E78" s="3">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -9283,10 +9491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C804"/>
+  <dimension ref="A1:C830"/>
   <sheetViews>
-    <sheetView topLeftCell="A792" workbookViewId="0">
-      <selection activeCell="B804" sqref="B804"/>
+    <sheetView topLeftCell="A810" workbookViewId="0">
+      <selection activeCell="A804" sqref="A804:B830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19735,6 +19943,344 @@
       </c>
       <c r="C804" t="s">
         <v>930</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A805" t="str">
+        <f t="shared" ref="A805:A830" si="41">IFERROR(IF(FIND("appics",C805)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B805" t="str">
+        <f t="shared" ref="B805:B830" si="42">IF(A805="other","N/A",IF(A805="appics",MID(C805,29,LEN(C805)-26-29),MID(C805,34,FIND("/actifit-",C805)-34)))</f>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C805" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A806" t="str">
+        <f t="shared" si="41"/>
+        <v>appics</v>
+      </c>
+      <c r="B806" t="str">
+        <f t="shared" si="42"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C806" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A807" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B807" t="str">
+        <f t="shared" si="42"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C807" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A808" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B808" t="str">
+        <f t="shared" si="42"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C808" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A809" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B809" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C809" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A810" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B810" t="str">
+        <f t="shared" si="42"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C810" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A811" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B811" t="str">
+        <f t="shared" si="42"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C811" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A812" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B812" t="str">
+        <f t="shared" si="42"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C812" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A813" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B813" t="str">
+        <f t="shared" si="42"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C813" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A814" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B814" t="str">
+        <f t="shared" si="42"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C814" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A815" t="str">
+        <f t="shared" si="41"/>
+        <v>appics</v>
+      </c>
+      <c r="B815" t="str">
+        <f t="shared" si="42"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C815" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A816" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B816" t="str">
+        <f t="shared" si="42"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C816" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A817" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B817" t="str">
+        <f t="shared" si="42"/>
+        <v>photobook</v>
+      </c>
+      <c r="C817" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A818" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B818" t="str">
+        <f t="shared" si="42"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C818" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A819" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B819" t="str">
+        <f t="shared" si="42"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C819" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A820" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B820" t="str">
+        <f t="shared" si="42"/>
+        <v>blumela</v>
+      </c>
+      <c r="C820" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A821" t="str">
+        <f t="shared" si="41"/>
+        <v>appics</v>
+      </c>
+      <c r="B821" t="str">
+        <f t="shared" si="42"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C821" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A822" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B822" t="str">
+        <f t="shared" si="42"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C822" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A823" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B823" t="str">
+        <f t="shared" si="42"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C823" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A824" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B824" t="str">
+        <f t="shared" si="42"/>
+        <v>afril</v>
+      </c>
+      <c r="C824" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A825" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B825" t="str">
+        <f t="shared" si="42"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C825" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A826" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B826" t="str">
+        <f t="shared" si="42"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C826" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A827" t="str">
+        <f t="shared" si="41"/>
+        <v>appics</v>
+      </c>
+      <c r="B827" t="str">
+        <f t="shared" si="42"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C827" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A828" t="str">
+        <f t="shared" si="41"/>
+        <v>actifit</v>
+      </c>
+      <c r="B828" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C828" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A829" t="str">
+        <f t="shared" si="41"/>
+        <v>appics</v>
+      </c>
+      <c r="B829" t="str">
+        <f t="shared" si="42"/>
+        <v>imagine.colours</v>
+      </c>
+      <c r="C829" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A830" t="str">
+        <f t="shared" si="41"/>
+        <v>appics</v>
+      </c>
+      <c r="B830" t="str">
+        <f t="shared" si="42"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C830" t="s">
+        <v>958</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11272EE0-0780-44AB-9297-06422AD159DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD863AAE-F431-49F8-90CB-6D50C38D4001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,8 +22,9 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="130" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="989">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -2916,6 +2917,96 @@
   </si>
   <si>
     <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-104574</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200228t215222737z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200228t220415450z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200228t224600936z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200229t005018480z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200229t025414067z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200229t030528727z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200229t031301242z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200229t035421648z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200229t043159106z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bbaspring/actifit-bbaspring-20200229t061837977z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200229t080040570z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200229t080515879z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200229t102533442z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200229t112609171z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200229t113623603z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@apprentice001/appics-v1-appics-im-104936</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200229t144055181z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200229t160224970z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@sirwinchester/appics-v1-appics-im-104985</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200229t163410833z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@afril/actifit-afril-20200229t164234576z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-104997</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@funnyman/appics-v1-appics-im-105023</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200229t181043025z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200229t183010039z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200229t185241991z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200229t201120607z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@poldianslinger/appics-v1-appics-im-105106</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200229t211041793z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200229t211440269z</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3094,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43889.914737500003" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="830" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43890.956151851853" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="860" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -3157,7 +3248,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="830">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="860">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7302,6 +7393,156 @@
     <x v="0"/>
     <x v="9"/>
     <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-104574"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200228t215222737z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200228t220415450z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="40"/>
+    <s v="https://steemit.com/hive-193552/@street.yoga/actifit-street-yoga-20200228t224600936z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200229t005018480z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200229t025414067z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200229t030528727z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200229t031301242z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="116"/>
+    <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200229t035421648z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200229t043159106z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="109"/>
+    <s v="https://steemit.com/hive-193552/@bbaspring/actifit-bbaspring-20200229t061837977z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200229t080040570z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="108"/>
+    <s v="https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200229t080515879z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200229t102533442z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200229t112609171z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200229t113623603z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="https://steemit.com/appics/@apprentice001/appics-v1-appics-im-104936"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200229t144055181z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200229t160224970z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="45"/>
+    <s v="https://steemit.com/appics/@sirwinchester/appics-v1-appics-im-104985"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200229t163410833z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="118"/>
+    <s v="https://steemit.com/hive-193552/@afril/actifit-afril-20200229t164234576z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-104997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="48"/>
+    <s v="https://steemit.com/appics/@funnyman/appics-v1-appics-im-105023"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200229t181043025z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="66"/>
+    <s v="https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200229t183010039z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200229t185241991z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200229t201120607z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="119"/>
+    <s v="https://steemit.com/appics/@poldianslinger/appics-v1-appics-im-105106"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="116"/>
+    <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200229t211041793z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200229t211440269z"/>
   </r>
   <r>
     <x v="3"/>
@@ -7312,7 +7553,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -7472,25 +7713,25 @@
       <x v="13"/>
     </i>
     <i>
+      <x/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
-      <x/>
+      <x v="23"/>
     </i>
     <i>
       <x v="55"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
       <x v="12"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="88"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="71"/>
     </i>
     <i>
       <x v="62"/>
@@ -7502,10 +7743,10 @@
       <x v="68"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="100"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="46"/>
     </i>
     <i>
       <x v="24"/>
@@ -7514,16 +7755,16 @@
       <x v="29"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="79"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="80"/>
     </i>
     <i>
       <x v="31"/>
-    </i>
-    <i>
-      <x v="80"/>
     </i>
     <i>
       <x v="50"/>
@@ -7535,10 +7776,10 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="69"/>
     </i>
     <i>
       <x v="63"/>
@@ -7547,58 +7788,67 @@
       <x v="97"/>
     </i>
     <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="57"/>
     </i>
     <i>
       <x v="85"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="87"/>
     </i>
     <i>
-      <x v="115"/>
+      <x v="120"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="118"/>
     </i>
     <i>
-      <x v="87"/>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="70"/>
     </i>
     <i>
       <x v="119"/>
     </i>
     <i>
-      <x v="120"/>
+      <x v="112"/>
     </i>
     <i>
-      <x v="70"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="111"/>
+      <x v="103"/>
     </i>
     <i>
       <x v="78"/>
     </i>
     <i>
-      <x v="53"/>
-    </i>
-    <i>
       <x v="48"/>
-    </i>
-    <i>
-      <x v="103"/>
     </i>
     <i>
       <x v="52"/>
@@ -7607,31 +7857,13 @@
       <x v="89"/>
     </i>
     <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
       <x v="86"/>
     </i>
     <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="110"/>
+      <x v="47"/>
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x v="47"/>
     </i>
     <i>
       <x v="16"/>
@@ -7643,43 +7875,52 @@
       <x v="6"/>
     </i>
     <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
       <x v="104"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="123"/>
     </i>
     <i>
       <x v="91"/>
     </i>
     <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
       <x v="43"/>
     </i>
     <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="105"/>
-    </i>
-    <i>
-      <x v="101"/>
     </i>
     <i t="grand">
       <x/>
@@ -7707,7 +7948,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -7897,34 +8138,34 @@
       <x v="44"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="69"/>
     </i>
     <i>
       <x v="45"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="49"/>
     </i>
     <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="40"/>
     </i>
     <i>
       <x v="63"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="118"/>
     </i>
     <i>
       <x v="59"/>
@@ -7948,25 +8189,25 @@
       <x v="53"/>
     </i>
     <i>
-      <x v="84"/>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i>
       <x v="76"/>
     </i>
     <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
       <x v="25"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="47"/>
@@ -7978,82 +8219,82 @@
       <x/>
     </i>
     <i>
-      <x v="78"/>
+      <x v="75"/>
     </i>
     <i>
       <x v="58"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="35"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="80"/>
     </i>
     <i>
       <x v="32"/>
     </i>
     <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
       <x v="65"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="99"/>
     </i>
     <i>
       <x v="30"/>
     </i>
     <i>
-      <x v="54"/>
+      <x v="94"/>
     </i>
     <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="94"/>
+      <x v="61"/>
     </i>
     <i>
       <x v="114"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="35"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="106"/>
@@ -8457,7 +8698,7 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
@@ -8468,10 +8709,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="B5" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
@@ -8482,10 +8723,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="B6" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>375</v>
@@ -8496,10 +8737,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B7" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>373</v>
@@ -8510,10 +8751,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B8" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>410</v>
@@ -8527,7 +8768,7 @@
         <v>352</v>
       </c>
       <c r="B9" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
@@ -8538,10 +8779,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B10" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>343</v>
@@ -8552,16 +8793,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B11" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -8583,7 +8824,7 @@
         <v>412</v>
       </c>
       <c r="B13" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>366</v>
@@ -8608,13 +8849,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -8622,13 +8863,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
       <c r="B16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E16" s="3">
         <v>6</v>
@@ -8642,7 +8883,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -8656,7 +8897,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -8664,7 +8905,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="B19" s="3">
         <v>14</v>
@@ -8678,13 +8919,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="B20" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -8692,27 +8933,27 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="B21" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>379</v>
+        <v>801</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="B22" s="3">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -8723,10 +8964,10 @@
         <v>389</v>
       </c>
       <c r="B23" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -8737,10 +8978,10 @@
         <v>390</v>
       </c>
       <c r="B24" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>801</v>
+        <v>402</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
@@ -8762,10 +9003,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="B26" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>619</v>
@@ -8776,7 +9017,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="B27" s="3">
         <v>10</v>
@@ -8818,7 +9059,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="B30" s="3">
         <v>9</v>
@@ -8832,10 +9073,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="B31" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>392</v>
@@ -8846,13 +9087,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>424</v>
+        <v>760</v>
       </c>
       <c r="B32" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -8866,7 +9107,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>415</v>
+        <v>897</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -8874,13 +9115,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>760</v>
+        <v>420</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -8902,13 +9143,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -8930,13 +9171,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -8944,7 +9185,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>873</v>
+        <v>354</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -8958,7 +9199,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>409</v>
+        <v>801</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
@@ -8972,7 +9213,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
@@ -8986,13 +9227,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -9000,10 +9241,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>667</v>
+        <v>409</v>
       </c>
       <c r="B43" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>397</v>
@@ -9014,13 +9255,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>417</v>
+        <v>830</v>
       </c>
       <c r="B44" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -9028,7 +9269,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>392</v>
+        <v>759</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -9042,13 +9283,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -9056,7 +9297,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>572</v>
+        <v>392</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
@@ -9070,13 +9311,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>391</v>
+        <v>572</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -9084,55 +9325,55 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>666</v>
+        <v>387</v>
       </c>
       <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E50" s="3">
         <v>2</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>801</v>
+        <v>391</v>
       </c>
       <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="3">
         <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>759</v>
+        <v>428</v>
       </c>
       <c r="B52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>531</v>
+        <v>377</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -9140,13 +9381,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -9154,13 +9395,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -9168,13 +9409,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>471</v>
+        <v>395</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -9182,13 +9423,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>665</v>
+        <v>356</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>756</v>
+        <v>357</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -9196,13 +9437,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -9210,13 +9451,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -9224,13 +9465,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -9238,13 +9479,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>398</v>
+        <v>666</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>897</v>
+        <v>421</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -9252,13 +9493,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>346</v>
+        <v>665</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -9272,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>413</v>
+        <v>531</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -9280,13 +9521,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -9294,13 +9535,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>931</v>
+        <v>376</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -9308,13 +9549,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>474</v>
+        <v>932</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -9328,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>346</v>
+        <v>756</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -9336,13 +9577,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -9350,7 +9591,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -9364,7 +9605,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -9392,7 +9633,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -9406,7 +9647,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -9420,7 +9661,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>622</v>
+        <v>382</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -9434,7 +9675,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -9451,7 +9692,7 @@
         <v>431</v>
       </c>
       <c r="B75" s="3">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>345</v>
@@ -9481,7 +9722,7 @@
         <v>431</v>
       </c>
       <c r="E78" s="3">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9491,10 +9732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C830"/>
+  <dimension ref="A1:C860"/>
   <sheetViews>
-    <sheetView topLeftCell="A810" workbookViewId="0">
-      <selection activeCell="A804" sqref="A804:B830"/>
+    <sheetView topLeftCell="A847" workbookViewId="0">
+      <selection activeCell="A861" sqref="A861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17703,7 +17944,7 @@
         <v>actifit</v>
       </c>
       <c r="B632" t="str">
-        <f>IF(A632="other","N/A",IF(A632="appics",MID(C632,29,LEN(C632)-26-29),MID(C632,34,FIND("/actifit-",C632)-34)))</f>
+        <f t="shared" ref="B632:B639" si="27">IF(A632="other","N/A",IF(A632="appics",MID(C632,29,LEN(C632)-26-29),MID(C632,34,FIND("/actifit-",C632)-34)))</f>
         <v>krazypoet</v>
       </c>
       <c r="C632" t="s">
@@ -17716,7 +17957,7 @@
         <v>actifit</v>
       </c>
       <c r="B633" t="str">
-        <f>IF(A633="other","N/A",IF(A633="appics",MID(C633,29,LEN(C633)-26-29),MID(C633,34,FIND("/actifit-",C633)-34)))</f>
+        <f t="shared" si="27"/>
         <v>bozz.sports</v>
       </c>
       <c r="C633" t="s">
@@ -17729,7 +17970,7 @@
         <v>actifit</v>
       </c>
       <c r="B634" t="str">
-        <f>IF(A634="other","N/A",IF(A634="appics",MID(C634,29,LEN(C634)-26-29),MID(C634,34,FIND("/actifit-",C634)-34)))</f>
+        <f t="shared" si="27"/>
         <v>alexvanaken</v>
       </c>
       <c r="C634" t="s">
@@ -17742,7 +17983,7 @@
         <v>actifit</v>
       </c>
       <c r="B635" t="str">
-        <f>IF(A635="other","N/A",IF(A635="appics",MID(C635,29,LEN(C635)-26-29),MID(C635,34,FIND("/actifit-",C635)-34)))</f>
+        <f t="shared" si="27"/>
         <v>mcoinz79</v>
       </c>
       <c r="C635" t="s">
@@ -17755,7 +17996,7 @@
         <v>actifit</v>
       </c>
       <c r="B636" t="str">
-        <f t="shared" ref="B636:B639" si="27">IF(A636="other","N/A",IF(A636="appics",MID(C636,29,LEN(C636)-26-29),MID(C636,34,FIND("/actifit-",C636)-34)))</f>
+        <f t="shared" si="27"/>
         <v>enormeanimal</v>
       </c>
       <c r="C636" t="s">
@@ -17777,7 +18018,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A638" t="str">
-        <f t="shared" ref="A638:A639" si="28">IFERROR(IF(FIND("appics",C638)&gt;0,"appics"),"actifit")</f>
+        <f>IFERROR(IF(FIND("appics",C638)&gt;0,"appics"),"actifit")</f>
         <v>appics</v>
       </c>
       <c r="B638" t="str">
@@ -17790,7 +18031,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A639" t="str">
-        <f t="shared" si="28"/>
+        <f>IFERROR(IF(FIND("appics",C639)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B639" t="str">
@@ -17803,11 +18044,11 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A640" t="str">
-        <f t="shared" ref="A640:A650" si="29">IFERROR(IF(FIND("appics",C640)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A640:A650" si="28">IFERROR(IF(FIND("appics",C640)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B640" t="str">
-        <f t="shared" ref="B640:B650" si="30">IF(A640="other","N/A",IF(A640="appics",MID(C640,29,LEN(C640)-26-29),MID(C640,34,FIND("/actifit-",C640)-34)))</f>
+        <f t="shared" ref="B640:B650" si="29">IF(A640="other","N/A",IF(A640="appics",MID(C640,29,LEN(C640)-26-29),MID(C640,34,FIND("/actifit-",C640)-34)))</f>
         <v>dailyspam</v>
       </c>
       <c r="C640" t="s">
@@ -17816,11 +18057,11 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A641" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B641" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B641" t="str">
-        <f t="shared" si="30"/>
         <v>robibasa</v>
       </c>
       <c r="C641" t="s">
@@ -17829,11 +18070,11 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A642" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B642" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B642" t="str">
-        <f t="shared" si="30"/>
         <v>geekdancing</v>
       </c>
       <c r="C642" t="s">
@@ -17842,11 +18083,11 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A643" t="str">
+        <f t="shared" si="28"/>
+        <v>appics</v>
+      </c>
+      <c r="B643" t="str">
         <f t="shared" si="29"/>
-        <v>appics</v>
-      </c>
-      <c r="B643" t="str">
-        <f t="shared" si="30"/>
         <v>ajinkyajagtap</v>
       </c>
       <c r="C643" t="s">
@@ -17855,11 +18096,11 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A644" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B644" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B644" t="str">
-        <f t="shared" si="30"/>
         <v>purepinay</v>
       </c>
       <c r="C644" t="s">
@@ -17868,11 +18109,11 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A645" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B645" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B645" t="str">
-        <f t="shared" si="30"/>
         <v>zanoni</v>
       </c>
       <c r="C645" t="s">
@@ -17881,11 +18122,11 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A646" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B646" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B646" t="str">
-        <f t="shared" si="30"/>
         <v>bluengel</v>
       </c>
       <c r="C646" t="s">
@@ -17894,11 +18135,11 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A647" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B647" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B647" t="str">
-        <f t="shared" si="30"/>
         <v>sereze</v>
       </c>
       <c r="C647" t="s">
@@ -17907,11 +18148,11 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A648" t="str">
+        <f t="shared" si="28"/>
+        <v>appics</v>
+      </c>
+      <c r="B648" t="str">
         <f t="shared" si="29"/>
-        <v>appics</v>
-      </c>
-      <c r="B648" t="str">
-        <f t="shared" si="30"/>
         <v>geekdancing</v>
       </c>
       <c r="C648" t="s">
@@ -17920,11 +18161,11 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A649" t="str">
+        <f t="shared" si="28"/>
+        <v>appics</v>
+      </c>
+      <c r="B649" t="str">
         <f t="shared" si="29"/>
-        <v>appics</v>
-      </c>
-      <c r="B649" t="str">
-        <f t="shared" si="30"/>
         <v>mcoinz79</v>
       </c>
       <c r="C649" t="s">
@@ -17933,11 +18174,11 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A650" t="str">
+        <f t="shared" si="28"/>
+        <v>actifit</v>
+      </c>
+      <c r="B650" t="str">
         <f t="shared" si="29"/>
-        <v>actifit</v>
-      </c>
-      <c r="B650" t="str">
-        <f t="shared" si="30"/>
         <v>chrisparis</v>
       </c>
       <c r="C650" t="s">
@@ -17946,11 +18187,11 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A651" t="str">
-        <f t="shared" ref="A651:A679" si="31">IFERROR(IF(FIND("appics",C651)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A651:A679" si="30">IFERROR(IF(FIND("appics",C651)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B651" t="str">
-        <f t="shared" ref="B651:B679" si="32">IF(A651="other","N/A",IF(A651="appics",MID(C651,29,LEN(C651)-26-29),MID(C651,34,FIND("/actifit-",C651)-34)))</f>
+        <f t="shared" ref="B651:B679" si="31">IF(A651="other","N/A",IF(A651="appics",MID(C651,29,LEN(C651)-26-29),MID(C651,34,FIND("/actifit-",C651)-34)))</f>
         <v>sn0n</v>
       </c>
       <c r="C651" t="s">
@@ -17959,11 +18200,11 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A652" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B652" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B652" t="str">
-        <f t="shared" si="32"/>
         <v>drugelis</v>
       </c>
       <c r="C652" t="s">
@@ -17972,11 +18213,11 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A653" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B653" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B653" t="str">
-        <f t="shared" si="32"/>
         <v>street.yoga</v>
       </c>
       <c r="C653" t="s">
@@ -17985,11 +18226,11 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A654" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B654" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B654" t="str">
-        <f t="shared" si="32"/>
         <v>actifit-peter</v>
       </c>
       <c r="C654" t="s">
@@ -17998,11 +18239,11 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A655" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B655" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B655" t="str">
-        <f t="shared" si="32"/>
         <v>ynwa.andree</v>
       </c>
       <c r="C655" t="s">
@@ -18011,11 +18252,11 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A656" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B656" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B656" t="str">
-        <f t="shared" si="32"/>
         <v>btcsam</v>
       </c>
       <c r="C656" t="s">
@@ -18024,11 +18265,11 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A657" t="str">
+        <f t="shared" si="30"/>
+        <v>appics</v>
+      </c>
+      <c r="B657" t="str">
         <f t="shared" si="31"/>
-        <v>appics</v>
-      </c>
-      <c r="B657" t="str">
-        <f t="shared" si="32"/>
         <v>alex-hm</v>
       </c>
       <c r="C657" t="s">
@@ -18037,11 +18278,11 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A658" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B658" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B658" t="str">
-        <f t="shared" si="32"/>
         <v>mrsbozz</v>
       </c>
       <c r="C658" t="s">
@@ -18050,11 +18291,11 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A659" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B659" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B659" t="str">
-        <f t="shared" si="32"/>
         <v>mcoinz79</v>
       </c>
       <c r="C659" t="s">
@@ -18063,11 +18304,11 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A660" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B660" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B660" t="str">
-        <f t="shared" si="32"/>
         <v>bozz.sports</v>
       </c>
       <c r="C660" t="s">
@@ -18076,11 +18317,11 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A661" t="str">
+        <f t="shared" si="30"/>
+        <v>appics</v>
+      </c>
+      <c r="B661" t="str">
         <f t="shared" si="31"/>
-        <v>appics</v>
-      </c>
-      <c r="B661" t="str">
-        <f t="shared" si="32"/>
         <v>fycee</v>
       </c>
       <c r="C661" t="s">
@@ -18089,11 +18330,11 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A662" t="str">
+        <f t="shared" si="30"/>
+        <v>appics</v>
+      </c>
+      <c r="B662" t="str">
         <f t="shared" si="31"/>
-        <v>appics</v>
-      </c>
-      <c r="B662" t="str">
-        <f t="shared" si="32"/>
         <v>ajinkyajagtap</v>
       </c>
       <c r="C662" t="s">
@@ -18102,11 +18343,11 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A663" t="str">
+        <f t="shared" si="30"/>
+        <v>appics</v>
+      </c>
+      <c r="B663" t="str">
         <f t="shared" si="31"/>
-        <v>appics</v>
-      </c>
-      <c r="B663" t="str">
-        <f t="shared" si="32"/>
         <v>apprentice001</v>
       </c>
       <c r="C663" t="s">
@@ -18115,11 +18356,11 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A664" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B664" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B664" t="str">
-        <f t="shared" si="32"/>
         <v>apprentice001</v>
       </c>
       <c r="C664" t="s">
@@ -18128,11 +18369,11 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A665" t="str">
+        <f t="shared" si="30"/>
+        <v>appics</v>
+      </c>
+      <c r="B665" t="str">
         <f t="shared" si="31"/>
-        <v>appics</v>
-      </c>
-      <c r="B665" t="str">
-        <f t="shared" si="32"/>
         <v>zanoni</v>
       </c>
       <c r="C665" t="s">
@@ -18141,11 +18382,11 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A666" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B666" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B666" t="str">
-        <f t="shared" si="32"/>
         <v>blumela</v>
       </c>
       <c r="C666" t="s">
@@ -18154,11 +18395,11 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A667" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B667" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B667" t="str">
-        <f t="shared" si="32"/>
         <v>photobook</v>
       </c>
       <c r="C667" t="s">
@@ -18167,11 +18408,11 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A668" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B668" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B668" t="str">
-        <f t="shared" si="32"/>
         <v>mhm-philippines</v>
       </c>
       <c r="C668" t="s">
@@ -18180,11 +18421,11 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A669" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B669" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B669" t="str">
-        <f t="shared" si="32"/>
         <v>zanoni</v>
       </c>
       <c r="C669" t="s">
@@ -18193,11 +18434,11 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A670" t="str">
+        <f t="shared" si="30"/>
+        <v>appics</v>
+      </c>
+      <c r="B670" t="str">
         <f t="shared" si="31"/>
-        <v>appics</v>
-      </c>
-      <c r="B670" t="str">
-        <f t="shared" si="32"/>
         <v>ajinkyajagtap</v>
       </c>
       <c r="C670" t="s">
@@ -18206,11 +18447,11 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A671" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B671" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B671" t="str">
-        <f t="shared" si="32"/>
         <v>purepinay</v>
       </c>
       <c r="C671" t="s">
@@ -18219,11 +18460,11 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A672" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B672" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B672" t="str">
-        <f t="shared" si="32"/>
         <v>enormeanimal</v>
       </c>
       <c r="C672" t="s">
@@ -18232,11 +18473,11 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A673" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B673" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B673" t="str">
-        <f t="shared" si="32"/>
         <v>bluengel</v>
       </c>
       <c r="C673" t="s">
@@ -18245,11 +18486,11 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A674" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B674" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B674" t="str">
-        <f t="shared" si="32"/>
         <v>geekdancing</v>
       </c>
       <c r="C674" t="s">
@@ -18258,11 +18499,11 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A675" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B675" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B675" t="str">
-        <f t="shared" si="32"/>
         <v>krazypoet</v>
       </c>
       <c r="C675" t="s">
@@ -18271,11 +18512,11 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A676" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B676" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B676" t="str">
-        <f t="shared" si="32"/>
         <v>sereze</v>
       </c>
       <c r="C676" t="s">
@@ -18284,11 +18525,11 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A677" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B677" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B677" t="str">
-        <f t="shared" si="32"/>
         <v>sn0n</v>
       </c>
       <c r="C677" t="s">
@@ -18297,11 +18538,11 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A678" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B678" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B678" t="str">
-        <f t="shared" si="32"/>
         <v>drugelis</v>
       </c>
       <c r="C678" t="s">
@@ -18310,11 +18551,11 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A679" t="str">
+        <f t="shared" si="30"/>
+        <v>actifit</v>
+      </c>
+      <c r="B679" t="str">
         <f t="shared" si="31"/>
-        <v>actifit</v>
-      </c>
-      <c r="B679" t="str">
-        <f t="shared" si="32"/>
         <v>blumela</v>
       </c>
       <c r="C679" t="s">
@@ -18323,11 +18564,11 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A680" t="str">
-        <f t="shared" ref="A680:A706" si="33">IFERROR(IF(FIND("appics",C680)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A680:A706" si="32">IFERROR(IF(FIND("appics",C680)&gt;0,"appics"),"actifit")</f>
         <v>appics</v>
       </c>
       <c r="B680" t="str">
-        <f t="shared" ref="B680:B706" si="34">IF(A680="other","N/A",IF(A680="appics",MID(C680,29,LEN(C680)-26-29),MID(C680,34,FIND("/actifit-",C680)-34)))</f>
+        <f t="shared" ref="B680:B706" si="33">IF(A680="other","N/A",IF(A680="appics",MID(C680,29,LEN(C680)-26-29),MID(C680,34,FIND("/actifit-",C680)-34)))</f>
         <v>apprentice001</v>
       </c>
       <c r="C680" t="s">
@@ -18336,11 +18577,11 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A681" t="str">
+        <f t="shared" si="32"/>
+        <v>appics</v>
+      </c>
+      <c r="B681" t="str">
         <f t="shared" si="33"/>
-        <v>appics</v>
-      </c>
-      <c r="B681" t="str">
-        <f t="shared" si="34"/>
         <v>btcsam</v>
       </c>
       <c r="C681" t="s">
@@ -18349,11 +18590,11 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A682" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B682" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B682" t="str">
-        <f t="shared" si="34"/>
         <v>ynwa.andree</v>
       </c>
       <c r="C682" t="s">
@@ -18362,11 +18603,11 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A683" t="str">
+        <f t="shared" si="32"/>
+        <v>appics</v>
+      </c>
+      <c r="B683" t="str">
         <f t="shared" si="33"/>
-        <v>appics</v>
-      </c>
-      <c r="B683" t="str">
-        <f t="shared" si="34"/>
         <v>fredrikaa</v>
       </c>
       <c r="C683" t="s">
@@ -18375,11 +18616,11 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A684" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B684" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B684" t="str">
-        <f t="shared" si="34"/>
         <v>newtechblog</v>
       </c>
       <c r="C684" t="s">
@@ -18388,11 +18629,11 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A685" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B685" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B685" t="str">
-        <f t="shared" si="34"/>
         <v>actifit-peter</v>
       </c>
       <c r="C685" t="s">
@@ -18401,11 +18642,11 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A686" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B686" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B686" t="str">
-        <f t="shared" si="34"/>
         <v>street.yoga</v>
       </c>
       <c r="C686" t="s">
@@ -18414,11 +18655,11 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A687" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B687" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B687" t="str">
-        <f t="shared" si="34"/>
         <v>btcsam</v>
       </c>
       <c r="C687" t="s">
@@ -18427,11 +18668,11 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A688" t="str">
+        <f t="shared" si="32"/>
+        <v>appics</v>
+      </c>
+      <c r="B688" t="str">
         <f t="shared" si="33"/>
-        <v>appics</v>
-      </c>
-      <c r="B688" t="str">
-        <f t="shared" si="34"/>
         <v>geekdancing</v>
       </c>
       <c r="C688" t="s">
@@ -18440,11 +18681,11 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A689" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B689" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B689" t="str">
-        <f t="shared" si="34"/>
         <v>bozz.sports</v>
       </c>
       <c r="C689" t="s">
@@ -18453,11 +18694,11 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A690" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B690" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B690" t="str">
-        <f t="shared" si="34"/>
         <v>alex-hm</v>
       </c>
       <c r="C690" t="s">
@@ -18466,11 +18707,11 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A691" t="str">
+        <f t="shared" si="32"/>
+        <v>appics</v>
+      </c>
+      <c r="B691" t="str">
         <f t="shared" si="33"/>
-        <v>appics</v>
-      </c>
-      <c r="B691" t="str">
-        <f t="shared" si="34"/>
         <v>alex-hm</v>
       </c>
       <c r="C691" t="s">
@@ -18479,11 +18720,11 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A692" t="str">
+        <f t="shared" si="32"/>
+        <v>appics</v>
+      </c>
+      <c r="B692" t="str">
         <f t="shared" si="33"/>
-        <v>appics</v>
-      </c>
-      <c r="B692" t="str">
-        <f t="shared" si="34"/>
         <v>karenmckersie</v>
       </c>
       <c r="C692" t="s">
@@ -18492,11 +18733,11 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A693" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B693" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B693" t="str">
-        <f t="shared" si="34"/>
         <v>mcoinz79</v>
       </c>
       <c r="C693" t="s">
@@ -18505,11 +18746,11 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A694" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B694" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B694" t="str">
-        <f t="shared" si="34"/>
         <v>runridefly</v>
       </c>
       <c r="C694" t="s">
@@ -18518,11 +18759,11 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A695" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B695" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B695" t="str">
-        <f t="shared" si="34"/>
         <v>krazypoet</v>
       </c>
       <c r="C695" t="s">
@@ -18531,11 +18772,11 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A696" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B696" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B696" t="str">
-        <f t="shared" si="34"/>
         <v>faraicelebr8</v>
       </c>
       <c r="C696" t="s">
@@ -18544,11 +18785,11 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A697" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B697" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B697" t="str">
-        <f t="shared" si="34"/>
         <v>photobook</v>
       </c>
       <c r="C697" t="s">
@@ -18557,11 +18798,11 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A698" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B698" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B698" t="str">
-        <f t="shared" si="34"/>
         <v>zanoni</v>
       </c>
       <c r="C698" t="s">
@@ -18570,11 +18811,11 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A699" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B699" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B699" t="str">
-        <f t="shared" si="34"/>
         <v>purepinay</v>
       </c>
       <c r="C699" t="s">
@@ -18583,11 +18824,11 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A700" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B700" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B700" t="str">
-        <f t="shared" si="34"/>
         <v>moderndayhippie</v>
       </c>
       <c r="C700" t="s">
@@ -18596,11 +18837,11 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A701" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B701" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B701" t="str">
-        <f t="shared" si="34"/>
         <v>newtechblog</v>
       </c>
       <c r="C701" t="s">
@@ -18609,11 +18850,11 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A702" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B702" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B702" t="str">
-        <f t="shared" si="34"/>
         <v>bluengel</v>
       </c>
       <c r="C702" t="s">
@@ -18622,11 +18863,11 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A703" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B703" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B703" t="str">
-        <f t="shared" si="34"/>
         <v>fitbyrobi</v>
       </c>
       <c r="C703" t="s">
@@ -18635,11 +18876,11 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A704" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B704" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B704" t="str">
-        <f t="shared" si="34"/>
         <v>yogajill</v>
       </c>
       <c r="C704" t="s">
@@ -18648,11 +18889,11 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A705" t="str">
+        <f t="shared" si="32"/>
+        <v>actifit</v>
+      </c>
+      <c r="B705" t="str">
         <f t="shared" si="33"/>
-        <v>actifit</v>
-      </c>
-      <c r="B705" t="str">
-        <f t="shared" si="34"/>
         <v>sn0n</v>
       </c>
       <c r="C705" t="s">
@@ -18661,11 +18902,11 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A706" t="str">
+        <f t="shared" si="32"/>
+        <v>appics</v>
+      </c>
+      <c r="B706" t="str">
         <f t="shared" si="33"/>
-        <v>appics</v>
-      </c>
-      <c r="B706" t="str">
-        <f t="shared" si="34"/>
         <v>krazypoet</v>
       </c>
       <c r="C706" t="s">
@@ -18674,11 +18915,11 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A707" t="str">
-        <f t="shared" ref="A707:A748" si="35">IFERROR(IF(FIND("appics",C707)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A707:A748" si="34">IFERROR(IF(FIND("appics",C707)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B707" t="str">
-        <f t="shared" ref="B707:B748" si="36">IF(A707="other","N/A",IF(A707="appics",MID(C707,29,LEN(C707)-26-29),MID(C707,34,FIND("/actifit-",C707)-34)))</f>
+        <f t="shared" ref="B707:B748" si="35">IF(A707="other","N/A",IF(A707="appics",MID(C707,29,LEN(C707)-26-29),MID(C707,34,FIND("/actifit-",C707)-34)))</f>
         <v>dailyspam</v>
       </c>
       <c r="C707" t="s">
@@ -18687,11 +18928,11 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A708" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B708" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B708" t="str">
-        <f t="shared" si="36"/>
         <v>ynwa.andree</v>
       </c>
       <c r="C708" t="s">
@@ -18700,11 +18941,11 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A709" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B709" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B709" t="str">
-        <f t="shared" si="36"/>
         <v>street.yoga</v>
       </c>
       <c r="C709" t="s">
@@ -18713,11 +18954,11 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A710" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B710" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B710" t="str">
-        <f t="shared" si="36"/>
         <v>drugelis</v>
       </c>
       <c r="C710" t="s">
@@ -18726,11 +18967,11 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A711" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B711" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B711" t="str">
-        <f t="shared" si="36"/>
         <v>actifit-peter</v>
       </c>
       <c r="C711" t="s">
@@ -18739,11 +18980,11 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A712" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B712" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B712" t="str">
-        <f t="shared" si="36"/>
         <v>street.yoga</v>
       </c>
       <c r="C712" t="s">
@@ -18752,11 +18993,11 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A713" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B713" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B713" t="str">
-        <f t="shared" si="36"/>
         <v>mhm-philippines</v>
       </c>
       <c r="C713" t="s">
@@ -18765,11 +19006,11 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A714" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B714" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B714" t="str">
-        <f t="shared" si="36"/>
         <v>btcsam</v>
       </c>
       <c r="C714" t="s">
@@ -18778,11 +19019,11 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A715" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B715" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B715" t="str">
-        <f t="shared" si="36"/>
         <v>mrsbozz</v>
       </c>
       <c r="C715" t="s">
@@ -18791,11 +19032,11 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A716" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B716" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B716" t="str">
-        <f t="shared" si="36"/>
         <v>alex-hm</v>
       </c>
       <c r="C716" t="s">
@@ -18804,11 +19045,11 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A717" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B717" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B717" t="str">
-        <f t="shared" si="36"/>
         <v>alex-hm</v>
       </c>
       <c r="C717" t="s">
@@ -18817,11 +19058,11 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A718" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B718" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B718" t="str">
-        <f t="shared" si="36"/>
         <v>bozz.sports</v>
       </c>
       <c r="C718" t="s">
@@ -18830,11 +19071,11 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A719" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B719" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B719" t="str">
-        <f t="shared" si="36"/>
         <v>mauriciovite</v>
       </c>
       <c r="C719" t="s">
@@ -18843,11 +19084,11 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A720" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B720" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B720" t="str">
-        <f t="shared" si="36"/>
         <v>enormeanimal</v>
       </c>
       <c r="C720" t="s">
@@ -18856,11 +19097,11 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A721" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B721" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B721" t="str">
-        <f t="shared" si="36"/>
         <v>enormeanimal</v>
       </c>
       <c r="C721" t="s">
@@ -18869,11 +19110,11 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A722" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B722" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B722" t="str">
-        <f t="shared" si="36"/>
         <v>krazypoet</v>
       </c>
       <c r="C722" t="s">
@@ -18882,11 +19123,11 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A723" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B723" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B723" t="str">
-        <f t="shared" si="36"/>
         <v>mcoinz79</v>
       </c>
       <c r="C723" t="s">
@@ -18895,11 +19136,11 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A724" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B724" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B724" t="str">
-        <f t="shared" si="36"/>
         <v>wil.metcalfe</v>
       </c>
       <c r="C724" t="s">
@@ -18908,11 +19149,11 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A725" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B725" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B725" t="str">
-        <f t="shared" si="36"/>
         <v>alexvanaken</v>
       </c>
       <c r="C725" t="s">
@@ -18921,11 +19162,11 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A726" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B726" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B726" t="str">
-        <f t="shared" si="36"/>
         <v>photobook</v>
       </c>
       <c r="C726" t="s">
@@ -18934,11 +19175,11 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A727" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B727" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B727" t="str">
-        <f t="shared" si="36"/>
         <v>blumela</v>
       </c>
       <c r="C727" t="s">
@@ -18947,11 +19188,11 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A728" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B728" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B728" t="str">
-        <f t="shared" si="36"/>
         <v>electronicsworld</v>
       </c>
       <c r="C728" t="s">
@@ -18960,11 +19201,11 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A729" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B729" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B729" t="str">
-        <f t="shared" si="36"/>
         <v>afril</v>
       </c>
       <c r="C729" t="s">
@@ -18973,11 +19214,11 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A730" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B730" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B730" t="str">
-        <f t="shared" si="36"/>
         <v>purepinay</v>
       </c>
       <c r="C730" t="s">
@@ -18986,11 +19227,11 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A731" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B731" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B731" t="str">
-        <f t="shared" si="36"/>
         <v>geekdancing</v>
       </c>
       <c r="C731" t="s">
@@ -18999,11 +19240,11 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A732" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B732" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B732" t="str">
-        <f t="shared" si="36"/>
         <v>krazypoet</v>
       </c>
       <c r="C732" t="s">
@@ -19012,11 +19253,11 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A733" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B733" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B733" t="str">
-        <f t="shared" si="36"/>
         <v>zanoni</v>
       </c>
       <c r="C733" t="s">
@@ -19025,11 +19266,11 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A734" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B734" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B734" t="str">
-        <f t="shared" si="36"/>
         <v>bluengel</v>
       </c>
       <c r="C734" t="s">
@@ -19038,11 +19279,11 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A735" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B735" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B735" t="str">
-        <f t="shared" si="36"/>
         <v>newtechblog</v>
       </c>
       <c r="C735" t="s">
@@ -19051,11 +19292,11 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A736" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B736" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B736" t="str">
-        <f t="shared" si="36"/>
         <v>zanoni</v>
       </c>
       <c r="C736" t="s">
@@ -19064,11 +19305,11 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A737" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B737" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B737" t="str">
-        <f t="shared" si="36"/>
         <v>soldier</v>
       </c>
       <c r="C737" t="s">
@@ -19077,11 +19318,11 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A738" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B738" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B738" t="str">
-        <f t="shared" si="36"/>
         <v>spurisna</v>
       </c>
       <c r="C738" t="s">
@@ -19090,11 +19331,11 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A739" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B739" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B739" t="str">
-        <f t="shared" si="36"/>
         <v>mauriciovite</v>
       </c>
       <c r="C739" t="s">
@@ -19103,11 +19344,11 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A740" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B740" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B740" t="str">
-        <f t="shared" si="36"/>
         <v>sereze</v>
       </c>
       <c r="C740" t="s">
@@ -19116,11 +19357,11 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A741" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B741" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B741" t="str">
-        <f t="shared" si="36"/>
         <v>geekdancing</v>
       </c>
       <c r="C741" t="s">
@@ -19129,11 +19370,11 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A742" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B742" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B742" t="str">
-        <f t="shared" si="36"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C742" t="s">
@@ -19142,11 +19383,11 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A743" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B743" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B743" t="str">
-        <f t="shared" si="36"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C743" t="s">
@@ -19155,11 +19396,11 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A744" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B744" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B744" t="str">
-        <f t="shared" si="36"/>
         <v>rabihfarhat</v>
       </c>
       <c r="C744" t="s">
@@ -19168,11 +19409,11 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A745" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B745" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B745" t="str">
-        <f t="shared" si="36"/>
         <v>fredrikaa</v>
       </c>
       <c r="C745" t="s">
@@ -19181,11 +19422,11 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A746" t="str">
+        <f t="shared" si="34"/>
+        <v>appics</v>
+      </c>
+      <c r="B746" t="str">
         <f t="shared" si="35"/>
-        <v>appics</v>
-      </c>
-      <c r="B746" t="str">
-        <f t="shared" si="36"/>
         <v>apprentice001</v>
       </c>
       <c r="C746" t="s">
@@ -19194,11 +19435,11 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A747" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B747" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B747" t="str">
-        <f t="shared" si="36"/>
         <v>drugelis</v>
       </c>
       <c r="C747" t="s">
@@ -19207,11 +19448,11 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A748" t="str">
+        <f t="shared" si="34"/>
+        <v>actifit</v>
+      </c>
+      <c r="B748" t="str">
         <f t="shared" si="35"/>
-        <v>actifit</v>
-      </c>
-      <c r="B748" t="str">
-        <f t="shared" si="36"/>
         <v>ynwa.andree</v>
       </c>
       <c r="C748" t="s">
@@ -19220,11 +19461,11 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A749" t="str">
-        <f t="shared" ref="A749:A771" si="37">IFERROR(IF(FIND("appics",C749)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A749:A771" si="36">IFERROR(IF(FIND("appics",C749)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B749" t="str">
-        <f t="shared" ref="B749:B771" si="38">IF(A749="other","N/A",IF(A749="appics",MID(C749,29,LEN(C749)-26-29),MID(C749,34,FIND("/actifit-",C749)-34)))</f>
+        <f t="shared" ref="B749:B771" si="37">IF(A749="other","N/A",IF(A749="appics",MID(C749,29,LEN(C749)-26-29),MID(C749,34,FIND("/actifit-",C749)-34)))</f>
         <v>actifit-peter</v>
       </c>
       <c r="C749" t="s">
@@ -19233,11 +19474,11 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A750" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B750" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B750" t="str">
-        <f t="shared" si="38"/>
         <v>street.yoga</v>
       </c>
       <c r="C750" t="s">
@@ -19246,11 +19487,11 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A751" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B751" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B751" t="str">
-        <f t="shared" si="38"/>
         <v>mhm-philippines</v>
       </c>
       <c r="C751" t="s">
@@ -19259,11 +19500,11 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A752" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B752" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B752" t="str">
-        <f t="shared" si="38"/>
         <v>btcsam</v>
       </c>
       <c r="C752" t="s">
@@ -19272,11 +19513,11 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A753" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B753" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B753" t="str">
-        <f t="shared" si="38"/>
         <v>mrsbozz</v>
       </c>
       <c r="C753" t="s">
@@ -19285,11 +19526,11 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A754" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B754" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B754" t="str">
-        <f t="shared" si="38"/>
         <v>bozz.sports</v>
       </c>
       <c r="C754" t="s">
@@ -19298,11 +19539,11 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A755" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B755" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B755" t="str">
-        <f t="shared" si="38"/>
         <v>mcoinz79</v>
       </c>
       <c r="C755" t="s">
@@ -19311,11 +19552,11 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A756" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B756" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B756" t="str">
-        <f t="shared" si="38"/>
         <v>alex-hm</v>
       </c>
       <c r="C756" t="s">
@@ -19324,11 +19565,11 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A757" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B757" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B757" t="str">
-        <f t="shared" si="38"/>
         <v>runridefly</v>
       </c>
       <c r="C757" t="s">
@@ -19337,11 +19578,11 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A758" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B758" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B758" t="str">
-        <f t="shared" si="38"/>
         <v>zanoni</v>
       </c>
       <c r="C758" t="s">
@@ -19350,11 +19591,11 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A759" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B759" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B759" t="str">
-        <f t="shared" si="38"/>
         <v>photobook</v>
       </c>
       <c r="C759" t="s">
@@ -19363,11 +19604,11 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A760" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B760" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B760" t="str">
-        <f t="shared" si="38"/>
         <v>geekdancing</v>
       </c>
       <c r="C760" t="s">
@@ -19376,11 +19617,11 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A761" t="str">
+        <f t="shared" si="36"/>
+        <v>appics</v>
+      </c>
+      <c r="B761" t="str">
         <f t="shared" si="37"/>
-        <v>appics</v>
-      </c>
-      <c r="B761" t="str">
-        <f t="shared" si="38"/>
         <v>imagine.colours</v>
       </c>
       <c r="C761" t="s">
@@ -19389,11 +19630,11 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A762" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B762" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B762" t="str">
-        <f t="shared" si="38"/>
         <v>blumela</v>
       </c>
       <c r="C762" t="s">
@@ -19402,11 +19643,11 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A763" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B763" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B763" t="str">
-        <f t="shared" si="38"/>
         <v>afril</v>
       </c>
       <c r="C763" t="s">
@@ -19415,11 +19656,11 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A764" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B764" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B764" t="str">
-        <f t="shared" si="38"/>
         <v>newtechblog</v>
       </c>
       <c r="C764" t="s">
@@ -19428,11 +19669,11 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A765" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B765" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B765" t="str">
-        <f t="shared" si="38"/>
         <v>bluengel</v>
       </c>
       <c r="C765" t="s">
@@ -19441,11 +19682,11 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A766" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B766" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B766" t="str">
-        <f t="shared" si="38"/>
         <v>sereze</v>
       </c>
       <c r="C766" t="s">
@@ -19454,11 +19695,11 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A767" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B767" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B767" t="str">
-        <f t="shared" si="38"/>
         <v>moderndayhippie</v>
       </c>
       <c r="C767" t="s">
@@ -19467,11 +19708,11 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A768" t="str">
+        <f t="shared" si="36"/>
+        <v>appics</v>
+      </c>
+      <c r="B768" t="str">
         <f t="shared" si="37"/>
-        <v>appics</v>
-      </c>
-      <c r="B768" t="str">
-        <f t="shared" si="38"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C768" t="s">
@@ -19480,11 +19721,11 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A769" t="str">
+        <f t="shared" si="36"/>
+        <v>appics</v>
+      </c>
+      <c r="B769" t="str">
         <f t="shared" si="37"/>
-        <v>appics</v>
-      </c>
-      <c r="B769" t="str">
-        <f t="shared" si="38"/>
         <v>krazypoet</v>
       </c>
       <c r="C769" t="s">
@@ -19493,11 +19734,11 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A770" t="str">
+        <f t="shared" si="36"/>
+        <v>appics</v>
+      </c>
+      <c r="B770" t="str">
         <f t="shared" si="37"/>
-        <v>appics</v>
-      </c>
-      <c r="B770" t="str">
-        <f t="shared" si="38"/>
         <v>poldianslinger</v>
       </c>
       <c r="C770" t="s">
@@ -19506,11 +19747,11 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A771" t="str">
+        <f t="shared" si="36"/>
+        <v>actifit</v>
+      </c>
+      <c r="B771" t="str">
         <f t="shared" si="37"/>
-        <v>actifit</v>
-      </c>
-      <c r="B771" t="str">
-        <f t="shared" si="38"/>
         <v>actifit-peter</v>
       </c>
       <c r="C771" t="s">
@@ -19519,11 +19760,11 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A772" t="str">
-        <f t="shared" ref="A772:A804" si="39">IFERROR(IF(FIND("appics",C772)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A772:A804" si="38">IFERROR(IF(FIND("appics",C772)&gt;0,"appics"),"actifit")</f>
         <v>appics</v>
       </c>
       <c r="B772" t="str">
-        <f t="shared" ref="B772:B804" si="40">IF(A772="other","N/A",IF(A772="appics",MID(C772,29,LEN(C772)-26-29),MID(C772,34,FIND("/actifit-",C772)-34)))</f>
+        <f t="shared" ref="B772:B804" si="39">IF(A772="other","N/A",IF(A772="appics",MID(C772,29,LEN(C772)-26-29),MID(C772,34,FIND("/actifit-",C772)-34)))</f>
         <v>fredrikaa</v>
       </c>
       <c r="C772" t="s">
@@ -19532,11 +19773,11 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A773" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B773" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B773" t="str">
-        <f t="shared" si="40"/>
         <v>drugelis</v>
       </c>
       <c r="C773" t="s">
@@ -19545,11 +19786,11 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A774" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B774" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B774" t="str">
-        <f t="shared" si="40"/>
         <v>ynwa.andree</v>
       </c>
       <c r="C774" t="s">
@@ -19558,11 +19799,11 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A775" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B775" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B775" t="str">
-        <f t="shared" si="40"/>
         <v>alfamano</v>
       </c>
       <c r="C775" t="s">
@@ -19571,11 +19812,11 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A776" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B776" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B776" t="str">
-        <f t="shared" si="40"/>
         <v>electronicsworld</v>
       </c>
       <c r="C776" t="s">
@@ -19584,11 +19825,11 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A777" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B777" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B777" t="str">
-        <f t="shared" si="40"/>
         <v>street.yoga</v>
       </c>
       <c r="C777" t="s">
@@ -19597,11 +19838,11 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A778" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B778" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B778" t="str">
-        <f t="shared" si="40"/>
         <v>btcsam</v>
       </c>
       <c r="C778" t="s">
@@ -19610,11 +19851,11 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A779" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B779" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B779" t="str">
-        <f t="shared" si="40"/>
         <v>geekdancing</v>
       </c>
       <c r="C779" t="s">
@@ -19623,11 +19864,11 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A780" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B780" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B780" t="str">
-        <f t="shared" si="40"/>
         <v>mrsbozz</v>
       </c>
       <c r="C780" t="s">
@@ -19636,11 +19877,11 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A781" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B781" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B781" t="str">
-        <f t="shared" si="40"/>
         <v>mhm-philippines</v>
       </c>
       <c r="C781" t="s">
@@ -19649,11 +19890,11 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A782" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B782" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B782" t="str">
-        <f t="shared" si="40"/>
         <v>bozz.sports</v>
       </c>
       <c r="C782" t="s">
@@ -19662,11 +19903,11 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A783" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B783" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B783" t="str">
-        <f t="shared" si="40"/>
         <v>mcoinz79</v>
       </c>
       <c r="C783" t="s">
@@ -19675,11 +19916,11 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A784" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B784" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B784" t="str">
-        <f t="shared" si="40"/>
         <v>fycee</v>
       </c>
       <c r="C784" t="s">
@@ -19688,11 +19929,11 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A785" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B785" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B785" t="str">
-        <f t="shared" si="40"/>
         <v>alexvanaken</v>
       </c>
       <c r="C785" t="s">
@@ -19701,11 +19942,11 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A786" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B786" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B786" t="str">
-        <f t="shared" si="40"/>
         <v>photobook</v>
       </c>
       <c r="C786" t="s">
@@ -19714,11 +19955,11 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A787" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B787" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B787" t="str">
-        <f t="shared" si="40"/>
         <v>zanoni</v>
       </c>
       <c r="C787" t="s">
@@ -19730,7 +19971,7 @@
         <v>434</v>
       </c>
       <c r="B788" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>N/A</v>
       </c>
       <c r="C788" t="s">
@@ -19739,11 +19980,11 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A789" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B789" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B789" t="str">
-        <f t="shared" si="40"/>
         <v>zanoni</v>
       </c>
       <c r="C789" t="s">
@@ -19752,11 +19993,11 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A790" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B790" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B790" t="str">
-        <f t="shared" si="40"/>
         <v>purepinay</v>
       </c>
       <c r="C790" t="s">
@@ -19765,11 +20006,11 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A791" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B791" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B791" t="str">
-        <f t="shared" si="40"/>
         <v>krazypoet</v>
       </c>
       <c r="C791" t="s">
@@ -19778,11 +20019,11 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A792" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B792" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B792" t="str">
-        <f t="shared" si="40"/>
         <v>hdelosrios</v>
       </c>
       <c r="C792" t="s">
@@ -19791,11 +20032,11 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A793" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B793" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B793" t="str">
-        <f t="shared" si="40"/>
         <v>blumela</v>
       </c>
       <c r="C793" t="s">
@@ -19804,11 +20045,11 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A794" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B794" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B794" t="str">
-        <f t="shared" si="40"/>
         <v>bluengel</v>
       </c>
       <c r="C794" t="s">
@@ -19817,11 +20058,11 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A795" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B795" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B795" t="str">
-        <f t="shared" si="40"/>
         <v>afril</v>
       </c>
       <c r="C795" t="s">
@@ -19830,11 +20071,11 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A796" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B796" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B796" t="str">
-        <f t="shared" si="40"/>
         <v>toushik</v>
       </c>
       <c r="C796" t="s">
@@ -19843,11 +20084,11 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A797" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B797" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B797" t="str">
-        <f t="shared" si="40"/>
         <v>geekdancing</v>
       </c>
       <c r="C797" t="s">
@@ -19856,11 +20097,11 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A798" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B798" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B798" t="str">
-        <f t="shared" si="40"/>
         <v>sereze</v>
       </c>
       <c r="C798" t="s">
@@ -19869,11 +20110,11 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A799" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B799" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B799" t="str">
-        <f t="shared" si="40"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C799" t="s">
@@ -19882,11 +20123,11 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A800" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B800" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B800" t="str">
-        <f t="shared" si="40"/>
         <v>apprentice001</v>
       </c>
       <c r="C800" t="s">
@@ -19895,11 +20136,11 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A801" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B801" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B801" t="str">
-        <f t="shared" si="40"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C801" t="s">
@@ -19908,11 +20149,11 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A802" t="str">
+        <f t="shared" si="38"/>
+        <v>appics</v>
+      </c>
+      <c r="B802" t="str">
         <f t="shared" si="39"/>
-        <v>appics</v>
-      </c>
-      <c r="B802" t="str">
-        <f t="shared" si="40"/>
         <v>jboogzofficial</v>
       </c>
       <c r="C802" t="s">
@@ -19921,11 +20162,11 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A803" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B803" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B803" t="str">
-        <f t="shared" si="40"/>
         <v>mysteryreader</v>
       </c>
       <c r="C803" t="s">
@@ -19934,11 +20175,11 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A804" t="str">
+        <f t="shared" si="38"/>
+        <v>actifit</v>
+      </c>
+      <c r="B804" t="str">
         <f t="shared" si="39"/>
-        <v>actifit</v>
-      </c>
-      <c r="B804" t="str">
-        <f t="shared" si="40"/>
         <v>apprentice001</v>
       </c>
       <c r="C804" t="s">
@@ -19947,11 +20188,11 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A805" t="str">
-        <f t="shared" ref="A805:A830" si="41">IFERROR(IF(FIND("appics",C805)&gt;0,"appics"),"actifit")</f>
+        <f t="shared" ref="A805:A830" si="40">IFERROR(IF(FIND("appics",C805)&gt;0,"appics"),"actifit")</f>
         <v>actifit</v>
       </c>
       <c r="B805" t="str">
-        <f t="shared" ref="B805:B830" si="42">IF(A805="other","N/A",IF(A805="appics",MID(C805,29,LEN(C805)-26-29),MID(C805,34,FIND("/actifit-",C805)-34)))</f>
+        <f t="shared" ref="B805:B830" si="41">IF(A805="other","N/A",IF(A805="appics",MID(C805,29,LEN(C805)-26-29),MID(C805,34,FIND("/actifit-",C805)-34)))</f>
         <v>ynwa.andree</v>
       </c>
       <c r="C805" t="s">
@@ -19960,11 +20201,11 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A806" t="str">
+        <f t="shared" si="40"/>
+        <v>appics</v>
+      </c>
+      <c r="B806" t="str">
         <f t="shared" si="41"/>
-        <v>appics</v>
-      </c>
-      <c r="B806" t="str">
-        <f t="shared" si="42"/>
         <v>fredrikaa</v>
       </c>
       <c r="C806" t="s">
@@ -19973,11 +20214,11 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A807" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B807" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B807" t="str">
-        <f t="shared" si="42"/>
         <v>drugelis</v>
       </c>
       <c r="C807" t="s">
@@ -19986,11 +20227,11 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A808" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B808" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B808" t="str">
-        <f t="shared" si="42"/>
         <v>street.yoga</v>
       </c>
       <c r="C808" t="s">
@@ -19999,11 +20240,11 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A809" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B809" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B809" t="str">
-        <f t="shared" si="42"/>
         <v>actifit-peter</v>
       </c>
       <c r="C809" t="s">
@@ -20012,11 +20253,11 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A810" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B810" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B810" t="str">
-        <f t="shared" si="42"/>
         <v>btcsam</v>
       </c>
       <c r="C810" t="s">
@@ -20025,11 +20266,11 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A811" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B811" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B811" t="str">
-        <f t="shared" si="42"/>
         <v>electronicsworld</v>
       </c>
       <c r="C811" t="s">
@@ -20038,11 +20279,11 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A812" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B812" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B812" t="str">
-        <f t="shared" si="42"/>
         <v>mhm-philippines</v>
       </c>
       <c r="C812" t="s">
@@ -20051,11 +20292,11 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A813" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B813" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B813" t="str">
-        <f t="shared" si="42"/>
         <v>mrsbozz</v>
       </c>
       <c r="C813" t="s">
@@ -20064,11 +20305,11 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A814" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B814" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B814" t="str">
-        <f t="shared" si="42"/>
         <v>bozz.sports</v>
       </c>
       <c r="C814" t="s">
@@ -20077,11 +20318,11 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A815" t="str">
+        <f t="shared" si="40"/>
+        <v>appics</v>
+      </c>
+      <c r="B815" t="str">
         <f t="shared" si="41"/>
-        <v>appics</v>
-      </c>
-      <c r="B815" t="str">
-        <f t="shared" si="42"/>
         <v>zanoni</v>
       </c>
       <c r="C815" t="s">
@@ -20090,11 +20331,11 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A816" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B816" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B816" t="str">
-        <f t="shared" si="42"/>
         <v>enormeanimal</v>
       </c>
       <c r="C816" t="s">
@@ -20103,11 +20344,11 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A817" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B817" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B817" t="str">
-        <f t="shared" si="42"/>
         <v>photobook</v>
       </c>
       <c r="C817" t="s">
@@ -20116,11 +20357,11 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A818" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B818" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B818" t="str">
-        <f t="shared" si="42"/>
         <v>warhead61</v>
       </c>
       <c r="C818" t="s">
@@ -20129,11 +20370,11 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A819" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B819" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B819" t="str">
-        <f t="shared" si="42"/>
         <v>dailyspam</v>
       </c>
       <c r="C819" t="s">
@@ -20142,11 +20383,11 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A820" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B820" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B820" t="str">
-        <f t="shared" si="42"/>
         <v>blumela</v>
       </c>
       <c r="C820" t="s">
@@ -20155,11 +20396,11 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A821" t="str">
+        <f t="shared" si="40"/>
+        <v>appics</v>
+      </c>
+      <c r="B821" t="str">
         <f t="shared" si="41"/>
-        <v>appics</v>
-      </c>
-      <c r="B821" t="str">
-        <f t="shared" si="42"/>
         <v>fredrikaa</v>
       </c>
       <c r="C821" t="s">
@@ -20168,11 +20409,11 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A822" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B822" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B822" t="str">
-        <f t="shared" si="42"/>
         <v>zanoni</v>
       </c>
       <c r="C822" t="s">
@@ -20181,11 +20422,11 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A823" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B823" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B823" t="str">
-        <f t="shared" si="42"/>
         <v>geekdancing</v>
       </c>
       <c r="C823" t="s">
@@ -20194,11 +20435,11 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A824" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B824" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B824" t="str">
-        <f t="shared" si="42"/>
         <v>afril</v>
       </c>
       <c r="C824" t="s">
@@ -20207,11 +20448,11 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A825" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B825" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B825" t="str">
-        <f t="shared" si="42"/>
         <v>bluengel</v>
       </c>
       <c r="C825" t="s">
@@ -20220,11 +20461,11 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A826" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B826" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B826" t="str">
-        <f t="shared" si="42"/>
         <v>faraicelebr8</v>
       </c>
       <c r="C826" t="s">
@@ -20233,11 +20474,11 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A827" t="str">
+        <f t="shared" si="40"/>
+        <v>appics</v>
+      </c>
+      <c r="B827" t="str">
         <f t="shared" si="41"/>
-        <v>appics</v>
-      </c>
-      <c r="B827" t="str">
-        <f t="shared" si="42"/>
         <v>fredrikaa</v>
       </c>
       <c r="C827" t="s">
@@ -20246,11 +20487,11 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A828" t="str">
+        <f t="shared" si="40"/>
+        <v>actifit</v>
+      </c>
+      <c r="B828" t="str">
         <f t="shared" si="41"/>
-        <v>actifit</v>
-      </c>
-      <c r="B828" t="str">
-        <f t="shared" si="42"/>
         <v>actifit-peter</v>
       </c>
       <c r="C828" t="s">
@@ -20259,11 +20500,11 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A829" t="str">
+        <f t="shared" si="40"/>
+        <v>appics</v>
+      </c>
+      <c r="B829" t="str">
         <f t="shared" si="41"/>
-        <v>appics</v>
-      </c>
-      <c r="B829" t="str">
-        <f t="shared" si="42"/>
         <v>imagine.colours</v>
       </c>
       <c r="C829" t="s">
@@ -20272,15 +20513,405 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A830" t="str">
+        <f t="shared" si="40"/>
+        <v>appics</v>
+      </c>
+      <c r="B830" t="str">
         <f t="shared" si="41"/>
-        <v>appics</v>
-      </c>
-      <c r="B830" t="str">
-        <f t="shared" si="42"/>
         <v>mcoinz79</v>
       </c>
       <c r="C830" t="s">
         <v>958</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A831" t="str">
+        <f t="shared" ref="A831:A860" si="42">IFERROR(IF(FIND("appics",C831)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B831" t="str">
+        <f t="shared" ref="B831:B860" si="43">IF(A831="other","N/A",IF(A831="appics",MID(C831,29,LEN(C831)-26-29),MID(C831,34,FIND("/actifit-",C831)-34)))</f>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C831" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A832" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B832" t="str">
+        <f t="shared" si="43"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C832" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A833" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B833" t="str">
+        <f t="shared" si="43"/>
+        <v>street.yoga</v>
+      </c>
+      <c r="C833" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A834" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B834" t="str">
+        <f t="shared" si="43"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C834" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A835" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B835" t="str">
+        <f t="shared" si="43"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C835" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A836" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B836" t="str">
+        <f t="shared" si="43"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C836" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A837" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B837" t="str">
+        <f t="shared" si="43"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C837" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A838" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B838" t="str">
+        <f t="shared" si="43"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C838" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A839" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B839" t="str">
+        <f t="shared" si="43"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C839" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A840" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B840" t="str">
+        <f t="shared" si="43"/>
+        <v>bbaspring</v>
+      </c>
+      <c r="C840" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A841" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B841" t="str">
+        <f t="shared" si="43"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C841" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A842" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B842" t="str">
+        <f t="shared" si="43"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C842" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A843" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B843" t="str">
+        <f t="shared" si="43"/>
+        <v>photobook</v>
+      </c>
+      <c r="C843" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A844" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B844" t="str">
+        <f t="shared" si="43"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C844" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A845" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B845" t="str">
+        <f t="shared" si="43"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C845" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A846" t="str">
+        <f t="shared" si="42"/>
+        <v>appics</v>
+      </c>
+      <c r="B846" t="str">
+        <f t="shared" si="43"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C846" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A847" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B847" t="str">
+        <f t="shared" si="43"/>
+        <v>blumela</v>
+      </c>
+      <c r="C847" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A848" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B848" t="str">
+        <f t="shared" si="43"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C848" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A849" t="str">
+        <f t="shared" si="42"/>
+        <v>appics</v>
+      </c>
+      <c r="B849" t="str">
+        <f t="shared" si="43"/>
+        <v>sirwinchester</v>
+      </c>
+      <c r="C849" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A850" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B850" t="str">
+        <f t="shared" si="43"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C850" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A851" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B851" t="str">
+        <f t="shared" si="43"/>
+        <v>afril</v>
+      </c>
+      <c r="C851" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A852" t="str">
+        <f t="shared" si="42"/>
+        <v>appics</v>
+      </c>
+      <c r="B852" t="str">
+        <f t="shared" si="43"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C852" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A853" t="str">
+        <f t="shared" si="42"/>
+        <v>appics</v>
+      </c>
+      <c r="B853" t="str">
+        <f t="shared" si="43"/>
+        <v>funnyman</v>
+      </c>
+      <c r="C853" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A854" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B854" t="str">
+        <f t="shared" si="43"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C854" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A855" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B855" t="str">
+        <f t="shared" si="43"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C855" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A856" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B856" t="str">
+        <f t="shared" si="43"/>
+        <v>sereze</v>
+      </c>
+      <c r="C856" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A857" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B857" t="str">
+        <f t="shared" si="43"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C857" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A858" t="str">
+        <f t="shared" si="42"/>
+        <v>appics</v>
+      </c>
+      <c r="B858" t="str">
+        <f t="shared" si="43"/>
+        <v>poldianslinger</v>
+      </c>
+      <c r="C858" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A859" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B859" t="str">
+        <f t="shared" si="43"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C859" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A860" t="str">
+        <f t="shared" si="42"/>
+        <v>actifit</v>
+      </c>
+      <c r="B860" t="str">
+        <f t="shared" si="43"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C860" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD863AAE-F431-49F8-90CB-6D50C38D4001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492DAB3-DF5A-48E2-9B92-283BEAD4B8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,9 +22,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="50" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1013">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -3007,6 +3006,78 @@
   </si>
   <si>
     <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200229t211440269z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200229t225709733z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200229t231754101z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@yanipetkov/actifit-yanipetkov-20200229t234355044z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@apprentice001/appics-v1-appics-im-105258</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@vesytz/actifit-vesytz-20200301t074341905z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200301t083311623z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200301t093221649z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-105376</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200301t100554392z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200301t130948354z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200301t133619457z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200301t160130940z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@afril/actifit-afril-20200301t160712488z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-105639</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200301t181405405z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@dailyspam/appics-v1-appics-im-105643</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200301t182907486z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@karenmckersie/appics-v1-appics-im-105704</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@chrissysworld/appics-v1-appics-im-105711</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200301t201004174z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200301t202814802z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mysteryreader/actifit-mysteryreader-20200301t210136107z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@griega/actifit-griega-20200301t211243498z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@btcsam/appics-v1-appics-im-105760</t>
   </si>
 </sst>
 </file>
@@ -3094,7 +3165,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43890.956151851853" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="860" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43891.934786689817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="884" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -3248,7 +3319,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="860">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="884">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7543,6 +7614,126 @@
     <x v="1"/>
     <x v="71"/>
     <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200229t211440269z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200229t225709733z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200229t231754101z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="72"/>
+    <s v="https://steemit.com/hive-193552/@yanipetkov/actifit-yanipetkov-20200229t234355044z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="116"/>
+    <s v="https://steemit.com/appics/@apprentice001/appics-v1-appics-im-105258"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="https://steemit.com/hive-193552/@vesytz/actifit-vesytz-20200301t074341905z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200301t083311623z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="108"/>
+    <s v="https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200301t093221649z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-105376"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200301t100554392z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200301t130948354z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200301t133619457z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200301t160130940z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="118"/>
+    <s v="https://steemit.com/hive-193552/@afril/actifit-afril-20200301t160712488z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-105639"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="66"/>
+    <s v="https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200301t181405405z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="https://steemit.com/appics/@dailyspam/appics-v1-appics-im-105643"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200301t182907486z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="https://steemit.com/appics/@karenmckersie/appics-v1-appics-im-105704"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="39"/>
+    <s v="https://steemit.com/appics/@chrissysworld/appics-v1-appics-im-105711"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200301t201004174z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200301t202814802z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="121"/>
+    <s v="https://steemit.com/hive-193552/@mysteryreader/actifit-mysteryreader-20200301t210136107z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="106"/>
+    <s v="https://steemit.com/hive-193552/@griega/actifit-griega-20200301t211243498z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="73"/>
+    <s v="https://steemit.com/appics/@btcsam/appics-v1-appics-im-105760"/>
   </r>
   <r>
     <x v="3"/>
@@ -7553,7 +7744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -7710,16 +7901,16 @@
   </rowFields>
   <rowItems count="72">
     <i>
-      <x v="13"/>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="23"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="55"/>
@@ -7734,16 +7925,16 @@
       <x v="71"/>
     </i>
     <i>
+      <x v="73"/>
+    </i>
+    <i>
       <x v="62"/>
     </i>
     <i>
-      <x v="73"/>
+      <x v="100"/>
     </i>
     <i>
       <x v="68"/>
-    </i>
-    <i>
-      <x v="100"/>
     </i>
     <i>
       <x v="46"/>
@@ -7752,34 +7943,37 @@
       <x v="24"/>
     </i>
     <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
       <x v="29"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="80"/>
+      <x v="50"/>
     </i>
     <i>
       <x v="31"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
+      <x v="36"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="69"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="63"/>
@@ -7788,76 +7982,85 @@
       <x v="97"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
       <x v="76"/>
     </i>
     <i>
       <x v="115"/>
     </i>
     <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
       <x v="26"/>
+    </i>
+    <i>
+      <x v="87"/>
     </i>
     <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="120"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="111"/>
     </i>
     <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="120"/>
+      <x v="118"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="111"/>
+      <x v="70"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="70"/>
+      <x v="119"/>
     </i>
     <i>
-      <x v="119"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="89"/>
     </i>
     <i>
       <x v="112"/>
     </i>
     <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
       <x v="78"/>
     </i>
     <i>
-      <x v="48"/>
+      <x v="86"/>
     </i>
     <i>
-      <x v="52"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="86"/>
+      <x v="59"/>
     </i>
     <i>
       <x v="47"/>
@@ -7866,61 +8069,49 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="41"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="110"/>
     </i>
     <i>
       <x v="104"/>
     </i>
     <i>
-      <x v="102"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="107"/>
+      <x v="91"/>
     </i>
     <i>
       <x v="101"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="43"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="43"/>
+      <x v="102"/>
     </i>
     <i>
       <x v="105"/>
+    </i>
+    <i>
+      <x v="107"/>
     </i>
     <i t="grand">
       <x/>
@@ -7948,7 +8139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -8132,10 +8323,10 @@
       <x v="90"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="27"/>
     </i>
     <i>
       <x v="69"/>
@@ -8147,19 +8338,19 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="118"/>
     </i>
     <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="118"/>
+      <x v="49"/>
     </i>
     <i>
       <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="40"/>
@@ -8168,160 +8359,160 @@
       <x v="63"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="108"/>
     </i>
     <i>
-      <x v="60"/>
-    </i>
-    <i>
       <x v="28"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="59"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
+      <x v="60"/>
+    </i>
+    <i>
       <x v="53"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="58"/>
     </i>
     <i>
       <x v="78"/>
     </i>
     <i>
-      <x v="121"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i>
       <x v="95"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="47"/>
+      <x v="64"/>
     </i>
     <i>
       <x v="117"/>
     </i>
     <i>
-      <x/>
+      <x v="65"/>
     </i>
     <i>
-      <x v="75"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="58"/>
+      <x v="67"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="113"/>
     </i>
     <i>
-      <x v="80"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="94"/>
     </i>
     <i>
-      <x v="84"/>
+      <x v="74"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="65"/>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="38"/>
     </i>
     <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="74"/>
+      <x v="114"/>
     </i>
     <i>
       <x v="82"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="83"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="54"/>
     </i>
     <i>
       <x v="72"/>
@@ -8695,7 +8886,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="B4" s="3">
         <v>25</v>
@@ -8709,10 +8900,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B5" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
@@ -8723,10 +8914,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="B6" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>375</v>
@@ -8737,16 +8928,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B7" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E7" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -8768,7 +8959,7 @@
         <v>352</v>
       </c>
       <c r="B9" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
@@ -8807,41 +8998,41 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B12" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>429</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B13" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="E13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>407</v>
+        <v>532</v>
       </c>
       <c r="B14" s="3">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E14" s="3">
         <v>7</v>
@@ -8849,10 +9040,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>532</v>
+        <v>407</v>
       </c>
       <c r="B15" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>408</v>
@@ -8880,7 +9071,7 @@
         <v>363</v>
       </c>
       <c r="B17" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>344</v>
@@ -8891,21 +9082,21 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>388</v>
+        <v>801</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B19" s="3">
         <v>14</v>
@@ -8925,7 +9116,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -8933,13 +9124,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>801</v>
+        <v>359</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -8947,16 +9138,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B22" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -8975,7 +9166,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B24" s="3">
         <v>13</v>
@@ -8989,21 +9180,21 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="B25" s="3">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B26" s="3">
         <v>11</v>
@@ -9023,7 +9214,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -9031,13 +9222,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -9045,13 +9236,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="B29" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -9059,13 +9250,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="B30" s="3">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -9093,7 +9284,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -9101,13 +9292,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="B33" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>897</v>
+        <v>414</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -9115,13 +9306,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -9129,7 +9320,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
@@ -9143,13 +9334,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -9157,10 +9348,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B37" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>364</v>
@@ -9174,10 +9365,10 @@
         <v>873</v>
       </c>
       <c r="B38" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -9185,10 +9376,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>354</v>
+        <v>667</v>
       </c>
       <c r="B39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>386</v>
@@ -9205,7 +9396,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -9213,7 +9404,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>667</v>
+        <v>354</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
@@ -9227,13 +9418,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -9241,7 +9432,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -9261,7 +9452,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -9269,10 +9460,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>759</v>
+        <v>372</v>
       </c>
       <c r="B45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>351</v>
@@ -9283,13 +9474,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>372</v>
+        <v>572</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -9311,13 +9502,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>572</v>
+        <v>391</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -9325,7 +9516,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>417</v>
+        <v>666</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
@@ -9345,7 +9536,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>530</v>
+        <v>802</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -9353,7 +9544,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -9367,27 +9558,27 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>428</v>
+        <v>759</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B53" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -9395,13 +9586,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -9409,13 +9600,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>348</v>
+        <v>665</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>395</v>
+        <v>758</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -9423,13 +9614,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -9443,7 +9634,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>346</v>
+        <v>471</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -9451,13 +9642,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -9465,13 +9656,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>413</v>
+        <v>620</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -9479,13 +9670,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>666</v>
+        <v>380</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -9493,13 +9684,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>665</v>
+        <v>571</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>349</v>
+        <v>757</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -9507,13 +9698,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>571</v>
+        <v>356</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>531</v>
+        <v>349</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -9521,13 +9712,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>533</v>
+        <v>931</v>
       </c>
       <c r="B63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -9535,13 +9726,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>376</v>
+        <v>932</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -9549,13 +9740,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>932</v>
+        <v>474</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -9563,13 +9754,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>621</v>
+        <v>360</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>756</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -9577,13 +9768,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>534</v>
+        <v>376</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>350</v>
+        <v>531</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -9591,13 +9782,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>620</v>
+        <v>350</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -9605,13 +9796,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>342</v>
+        <v>534</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -9619,13 +9810,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>758</v>
+        <v>365</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -9633,13 +9824,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>931</v>
+        <v>342</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>406</v>
+        <v>756</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -9647,13 +9838,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>757</v>
+        <v>421</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -9661,7 +9852,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>382</v>
+        <v>622</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -9675,13 +9866,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -9692,7 +9883,7 @@
         <v>431</v>
       </c>
       <c r="B75" s="3">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>345</v>
@@ -9703,7 +9894,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -9722,7 +9913,7 @@
         <v>431</v>
       </c>
       <c r="E78" s="3">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -9732,10 +9923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C860"/>
+  <dimension ref="A1:C884"/>
   <sheetViews>
-    <sheetView topLeftCell="A847" workbookViewId="0">
-      <selection activeCell="A861" sqref="A861"/>
+    <sheetView topLeftCell="A864" workbookViewId="0">
+      <selection activeCell="A860" sqref="A860:B884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20914,10 +21105,325 @@
         <v>988</v>
       </c>
     </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A861" t="str">
+        <f t="shared" ref="A861:A884" si="44">IFERROR(IF(FIND("appics",C861)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B861" t="str">
+        <f t="shared" ref="B861:B884" si="45">IF(A861="other","N/A",IF(A861="appics",MID(C861,29,LEN(C861)-26-29),MID(C861,34,FIND("/actifit-",C861)-34)))</f>
+        <v>btcsam</v>
+      </c>
+      <c r="C861" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A862" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B862" t="str">
+        <f t="shared" si="45"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C862" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A863" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B863" t="str">
+        <f t="shared" si="45"/>
+        <v>yanipetkov</v>
+      </c>
+      <c r="C863" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A864" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B864" t="str">
+        <f t="shared" si="45"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C864" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A865" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B865" t="str">
+        <f t="shared" si="45"/>
+        <v>vesytz</v>
+      </c>
+      <c r="C865" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A866" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B866" t="str">
+        <f t="shared" si="45"/>
+        <v>photobook</v>
+      </c>
+      <c r="C866" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A867" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B867" t="str">
+        <f t="shared" si="45"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C867" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A868" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B868" t="str">
+        <f t="shared" si="45"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C868" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A869" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B869" t="str">
+        <f t="shared" si="45"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C869" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A870" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B870" t="str">
+        <f t="shared" si="45"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C870" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A871" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B871" t="str">
+        <f t="shared" si="45"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C871" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A872" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B872" t="str">
+        <f t="shared" si="45"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A873" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B873" t="str">
+        <f t="shared" si="45"/>
+        <v>afril</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A874" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B874" t="str">
+        <f t="shared" si="45"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A875" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B875" t="str">
+        <f t="shared" si="45"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A876" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B876" t="str">
+        <f t="shared" si="45"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A877" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B877" t="str">
+        <f t="shared" si="45"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A878" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B878" t="str">
+        <f t="shared" si="45"/>
+        <v>karenmckersie</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A879" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B879" t="str">
+        <f t="shared" si="45"/>
+        <v>chrissysworld</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A880" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B880" t="str">
+        <f t="shared" si="45"/>
+        <v>sereze</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A881" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B881" t="str">
+        <f t="shared" si="45"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A882" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B882" t="str">
+        <f t="shared" si="45"/>
+        <v>mysteryreader</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A883" t="str">
+        <f t="shared" si="44"/>
+        <v>actifit</v>
+      </c>
+      <c r="B883" t="str">
+        <f t="shared" si="45"/>
+        <v>griega</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A884" t="str">
+        <f t="shared" si="44"/>
+        <v>appics</v>
+      </c>
+      <c r="B884" t="str">
+        <f t="shared" si="45"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1012</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C427" xr:uid="{AE833E5A-FC5E-4347-9C7F-0BDDBB0B7EA4}"/>
+  <hyperlinks>
+    <hyperlink ref="C864" r:id="rId1" xr:uid="{07238352-2ADA-4B91-B9EC-718ED4EFAB8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492DAB3-DF5A-48E2-9B92-283BEAD4B8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31791FCE-D7DE-4F75-ADAC-7D0EA4BFDB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId4"/>
+    <pivotCache cacheId="56" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="1058">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -3078,6 +3078,141 @@
   </si>
   <si>
     <t>https://steemit.com/appics/@btcsam/appics-v1-appics-im-105760</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200301t214124466z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-105781</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200301t233815684z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200302t004400189z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200302t040724615z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200302t042747383z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200302t064413374z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200302t121521465z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@moderndayhippie/actifit-moderndayhippie-20200302t122508491z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200302t123740319z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200302t132115766z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200302t143749172z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200302t165958890z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200302t184756929z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200302t185228529z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@warhead61/appics-v1-appics-im-106325</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-106330</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-106332</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200302t194617614z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200302t202248792z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-106429</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@verticallife2/actifit-verticallife2-20200302t212036299z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200302t212144476z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200302t212541883z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200302t221523168z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-106494</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200302t231645363z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fycee/appics-v1-appics-im-106505</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@enormeanimal/appics-v1-appics-im-106511</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200303t005537302z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200303t011527424z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200303t024557942z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200303t052444417z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200303t061502944z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200303t083736514z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200303t122021059z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200303t124935648z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200303t150340202z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200303t160114116z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200303t171817006z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-106916</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200303t182953642z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200303t194919388z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@griega/actifit-griega-20200303t202244267z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200303t204646761z</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3300,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43891.934786689817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="884" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43893.922720254632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="929" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -3319,7 +3454,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="884">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="929">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7734,6 +7869,231 @@
     <x v="0"/>
     <x v="73"/>
     <s v="https://steemit.com/appics/@btcsam/appics-v1-appics-im-105760"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200301t214124466z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="https://steemit.com/appics/@runridefly/appics-v1-appics-im-105781"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200301t233815684z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200302t004400189z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="https://steemit.com/hive-193552/@runridefly/actifit-runridefly-20200302t040724615z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200302t042747383z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200302t064413374z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200302t121521465z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="56"/>
+    <s v="https://steemit.com/hive-193552/@moderndayhippie/actifit-moderndayhippie-20200302t122508491z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200302t123740319z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="https://steemit.com/hive-193552/@faraicelebr8/actifit-faraicelebr8-20200302t132115766z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200302t143749172z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200302t165958890z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="108"/>
+    <s v="https://steemit.com/hive-193552/@warhead61/actifit-warhead61-20200302t184756929z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200302t185228529z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="108"/>
+    <s v="https://steemit.com/appics/@warhead61/appics-v1-appics-im-106325"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-106330"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-106332"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200302t194617614z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="66"/>
+    <s v="https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200302t202248792z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-106429"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="99"/>
+    <s v="https://steemit.com/hive-193552/@verticallife2/actifit-verticallife2-20200302t212036299z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200302t212144476z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200302t212541883z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200302t221523168z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="https://steemit.com/appics/@mcoinz79/appics-v1-appics-im-106494"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200302t231645363z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="115"/>
+    <s v="https://steemit.com/appics/@fycee/appics-v1-appics-im-106505"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="https://steemit.com/appics/@enormeanimal/appics-v1-appics-im-106511"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="73"/>
+    <s v="https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200303t005537302z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200303t011527424z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200303t024557942z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200303t052444417z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200303t061502944z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200303t083736514z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200303t122021059z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200303t124935648z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200303t150340202z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200303t160114116z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200303t171817006z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-106916"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200303t182953642z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="69"/>
+    <s v="https://steemit.com/hive-193552/@sereze/actifit-sereze-20200303t194919388z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="106"/>
+    <s v="https://steemit.com/hive-193552/@griega/actifit-griega-20200303t202244267z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200303t204646761z"/>
   </r>
   <r>
     <x v="3"/>
@@ -7744,7 +8104,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -7901,22 +8261,22 @@
   </rowFields>
   <rowItems count="72">
     <i>
+      <x v="13"/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
       <x v="55"/>
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i>
       <x v="88"/>
@@ -7934,16 +8294,28 @@
       <x v="100"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="29"/>
     </i>
     <i>
       <x v="46"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="50"/>
     </i>
     <i>
       <x v="80"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="51"/>
@@ -7952,28 +8324,19 @@
       <x v="79"/>
     </i>
     <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
       <x v="36"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
+      <x v="15"/>
+    </i>
+    <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="115"/>
     </i>
     <i>
       <x v="63"/>
@@ -7985,64 +8348,49 @@
       <x v="76"/>
     </i>
     <i>
-      <x v="115"/>
+      <x v="85"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
     <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="81"/>
+      <x v="111"/>
     </i>
     <i>
       <x v="120"/>
     </i>
     <i>
-      <x v="111"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="118"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="119"/>
     </i>
     <i>
       <x v="70"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
       <x v="52"/>
     </i>
     <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="89"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="112"/>
@@ -8051,10 +8399,31 @@
       <x v="78"/>
     </i>
     <i>
-      <x v="86"/>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="103"/>
     </i>
     <i>
       <x v="110"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="6"/>
@@ -8063,40 +8432,28 @@
       <x v="59"/>
     </i>
     <i>
+      <x v="102"/>
+    </i>
+    <i>
       <x v="47"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="16"/>
+      <x v="86"/>
     </i>
     <i>
       <x v="123"/>
     </i>
     <i>
-      <x v="122"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="122"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="101"/>
+      <x v="96"/>
     </i>
     <i>
       <x v="43"/>
@@ -8105,7 +8462,10 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="102"/>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="101"/>
     </i>
     <i>
       <x v="105"/>
@@ -8139,8 +8499,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -8294,7 +8654,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="75">
+  <rowItems count="76">
     <i>
       <x v="42"/>
     </i>
@@ -8317,10 +8677,10 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="90"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="50"/>
     </i>
     <i>
       <x v="44"/>
@@ -8335,25 +8695,25 @@
       <x v="45"/>
     </i>
     <i>
+      <x v="118"/>
+    </i>
+    <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="118"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="77"/>
     </i>
     <i>
+      <x v="22"/>
+    </i>
+    <i>
       <x v="49"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="40"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="63"/>
@@ -8362,19 +8722,22 @@
       <x v="15"/>
     </i>
     <i>
-      <x v="108"/>
+      <x v="40"/>
     </i>
     <i>
       <x v="28"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="117"/>
     </i>
     <i>
       <x v="60"/>
+    </i>
+    <i>
+      <x v="59"/>
     </i>
     <i>
       <x v="53"/>
@@ -8404,94 +8767,61 @@
       <x v="47"/>
     </i>
     <i>
+      <x v="65"/>
+    </i>
+    <i>
       <x v="121"/>
+    </i>
+    <i>
+      <x v="76"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="76"/>
+      <x v="78"/>
     </i>
     <i>
       <x v="58"/>
     </i>
     <i>
-      <x v="78"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="95"/>
     </i>
     <i>
       <x v="32"/>
     </i>
     <i>
-      <x v="95"/>
-    </i>
-    <i>
       <x v="64"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="65"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="111"/>
     </i>
     <i>
       <x v="39"/>
     </i>
     <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
       <x v="94"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="106"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="38"/>
+      <x v="106"/>
     </i>
     <i>
       <x v="26"/>
@@ -8500,22 +8830,55 @@
       <x v="114"/>
     </i>
     <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
       <x v="82"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="116"/>
     </i>
     <i>
       <x v="83"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="74"/>
     </i>
     <i>
       <x v="54"/>
-    </i>
-    <i>
-      <x v="72"/>
     </i>
     <i t="grand">
       <x/>
@@ -8839,10 +9202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8886,24 +9249,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="B5" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>341</v>
@@ -8914,24 +9277,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B6" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E6" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="B7" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>373</v>
@@ -8942,24 +9305,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B8" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E8" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B9" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
@@ -8973,7 +9336,7 @@
         <v>427</v>
       </c>
       <c r="B10" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>343</v>
@@ -8987,13 +9350,13 @@
         <v>410</v>
       </c>
       <c r="B11" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="E11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -9001,13 +9364,13 @@
         <v>412</v>
       </c>
       <c r="B12" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="E12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -9015,7 +9378,7 @@
         <v>401</v>
       </c>
       <c r="B13" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>383</v>
@@ -9029,7 +9392,7 @@
         <v>532</v>
       </c>
       <c r="B14" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>366</v>
@@ -9040,7 +9403,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="B15" s="3">
         <v>16</v>
@@ -9054,10 +9417,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>384</v>
@@ -9068,13 +9431,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>344</v>
+        <v>801</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -9082,13 +9445,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B18" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>801</v>
+        <v>344</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -9096,13 +9459,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="B19" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -9110,13 +9473,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B20" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -9124,13 +9487,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -9138,13 +9501,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B22" s="3">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -9152,13 +9515,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B23" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -9166,10 +9529,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="B24" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>402</v>
@@ -9183,7 +9546,7 @@
         <v>375</v>
       </c>
       <c r="B25" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>355</v>
@@ -9200,18 +9563,18 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>619</v>
+        <v>379</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="B27" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>367</v>
@@ -9222,13 +9585,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="B28" s="3">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -9236,13 +9599,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>402</v>
+        <v>760</v>
       </c>
       <c r="B29" s="3">
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>368</v>
+        <v>802</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -9250,10 +9613,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="B30" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>399</v>
@@ -9264,13 +9627,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="B31" s="3">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -9278,16 +9641,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>760</v>
+        <v>415</v>
       </c>
       <c r="B32" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -9298,7 +9661,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E33" s="3">
         <v>2</v>
@@ -9306,13 +9669,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>530</v>
+        <v>414</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -9326,7 +9689,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>347</v>
+        <v>530</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -9334,13 +9697,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -9354,7 +9717,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -9362,13 +9725,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>873</v>
+        <v>667</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -9376,13 +9739,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -9390,13 +9753,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>801</v>
+        <v>372</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>897</v>
+        <v>386</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -9404,13 +9767,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>354</v>
+        <v>666</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -9418,13 +9781,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>415</v>
+        <v>897</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -9432,13 +9795,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>344</v>
+        <v>801</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -9452,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -9460,13 +9823,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -9474,13 +9837,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>572</v>
+        <v>391</v>
       </c>
       <c r="B46" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -9488,13 +9851,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="B47" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -9502,13 +9865,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>391</v>
+        <v>759</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>472</v>
+        <v>351</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -9516,13 +9879,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>666</v>
+        <v>417</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -9530,13 +9893,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>802</v>
+        <v>371</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -9550,7 +9913,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -9558,7 +9921,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>759</v>
+        <v>387</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -9572,13 +9935,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>417</v>
+        <v>572</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
@@ -9586,13 +9949,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>425</v>
+        <v>665</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -9600,13 +9963,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>665</v>
+        <v>571</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>758</v>
+        <v>667</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -9614,13 +9977,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -9628,7 +9991,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
@@ -9642,13 +10005,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -9656,7 +10019,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -9670,13 +10033,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -9684,13 +10047,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -9698,13 +10061,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -9712,7 +10075,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>931</v>
+        <v>425</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
@@ -9726,13 +10089,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -9740,13 +10103,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -9754,13 +10117,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>360</v>
+        <v>932</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -9768,7 +10131,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -9782,13 +10145,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -9796,7 +10159,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>534</v>
+        <v>382</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -9810,13 +10173,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -9824,13 +10187,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -9838,7 +10201,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -9858,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>372</v>
+        <v>757</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -9883,10 +10246,10 @@
         <v>431</v>
       </c>
       <c r="B75" s="3">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -9894,7 +10257,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -9902,7 +10265,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
@@ -9910,10 +10273,18 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D78" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D79" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="3">
-        <v>286</v>
+      <c r="E79" s="3">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -9923,10 +10294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C884"/>
+  <dimension ref="A1:C929"/>
   <sheetViews>
-    <sheetView topLeftCell="A864" workbookViewId="0">
-      <selection activeCell="A860" sqref="A860:B884"/>
+    <sheetView topLeftCell="A873" workbookViewId="0">
+      <selection activeCell="B890" sqref="B890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21415,6 +21786,591 @@
       </c>
       <c r="C884" t="s">
         <v>1012</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A885" t="str">
+        <f t="shared" ref="A885:A929" si="46">IFERROR(IF(FIND("appics",C885)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B885" t="str">
+        <f t="shared" ref="B885:B929" si="47">IF(A885="other","N/A",IF(A885="appics",MID(C885,29,LEN(C885)-26-29),MID(C885,34,FIND("/actifit-",C885)-34)))</f>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A886" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B886" t="str">
+        <f t="shared" si="47"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A887" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B887" t="str">
+        <f t="shared" si="47"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A888" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B888" t="str">
+        <f t="shared" si="47"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A889" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B889" t="str">
+        <f t="shared" si="47"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A890" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B890" t="str">
+        <f t="shared" si="47"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A891" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B891" t="str">
+        <f t="shared" si="47"/>
+        <v>photobook</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A892" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B892" t="str">
+        <f t="shared" si="47"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A893" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B893" t="str">
+        <f t="shared" si="47"/>
+        <v>moderndayhippie</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A894" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B894" t="str">
+        <f t="shared" si="47"/>
+        <v>blumela</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A895" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B895" t="str">
+        <f t="shared" si="47"/>
+        <v>faraicelebr8</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A896" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B896" t="str">
+        <f t="shared" si="47"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A897" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B897" t="str">
+        <f t="shared" si="47"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A898" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B898" t="str">
+        <f t="shared" si="47"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A899" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B899" t="str">
+        <f t="shared" si="47"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A900" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B900" t="str">
+        <f t="shared" si="47"/>
+        <v>warhead61</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A901" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B901" t="str">
+        <f t="shared" si="47"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A902" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B902" t="str">
+        <f t="shared" si="47"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A903" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B903" t="str">
+        <f t="shared" si="47"/>
+        <v>sereze</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A904" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B904" t="str">
+        <f t="shared" si="47"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A905" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B905" t="str">
+        <f t="shared" si="47"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A906" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B906" t="str">
+        <f t="shared" si="47"/>
+        <v>verticallife2</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A907" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B907" t="str">
+        <f t="shared" si="47"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A908" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B908" t="str">
+        <f t="shared" si="47"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A909" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B909" t="str">
+        <f t="shared" si="47"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A910" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B910" t="str">
+        <f t="shared" si="47"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A911" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B911" t="str">
+        <f t="shared" si="47"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A912" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B912" t="str">
+        <f t="shared" si="47"/>
+        <v>fycee</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A913" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B913" t="str">
+        <f t="shared" si="47"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A914" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B914" t="str">
+        <f t="shared" si="47"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A915" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B915" t="str">
+        <f t="shared" si="47"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A916" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B916" t="str">
+        <f t="shared" si="47"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A917" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B917" t="str">
+        <f t="shared" si="47"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A918" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B918" t="str">
+        <f t="shared" si="47"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A919" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B919" t="str">
+        <f t="shared" si="47"/>
+        <v>photobook</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A920" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B920" t="str">
+        <f t="shared" si="47"/>
+        <v>blumela</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A921" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B921" t="str">
+        <f t="shared" si="47"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A922" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B922" t="str">
+        <f t="shared" si="47"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A923" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B923" t="str">
+        <f t="shared" si="47"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A924" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B924" t="str">
+        <f t="shared" si="47"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A925" t="str">
+        <f t="shared" si="46"/>
+        <v>appics</v>
+      </c>
+      <c r="B925" t="str">
+        <f t="shared" si="47"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A926" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B926" t="str">
+        <f t="shared" si="47"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A927" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B927" t="str">
+        <f t="shared" si="47"/>
+        <v>sereze</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A928" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B928" t="str">
+        <f t="shared" si="47"/>
+        <v>griega</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A929" t="str">
+        <f t="shared" si="46"/>
+        <v>actifit</v>
+      </c>
+      <c r="B929" t="str">
+        <f t="shared" si="47"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1057</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31791FCE-D7DE-4F75-ADAC-7D0EA4BFDB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56217C7-71F5-488C-8819-B1FCFE5640F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="56" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1097">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -3213,6 +3213,123 @@
   </si>
   <si>
     <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200303t204646761z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@rabihfarhat/actifit-rabihfarhat-20200303t213935026z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200303t215245799z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200303t215319101z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200303t215545599z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200303t223405123z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200304t011136023z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@karenmckersie/appics-v1-appics-im-107090</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200304t063852276z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200304t092701325z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fycee/appics-v1-appics-im-107209</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200304t122110129z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200304t131711787z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200304t141430577z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200304t141918668z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200304t160209451z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-107431</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-107434</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200304t195432450z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@travelssteem/appics-v1-appics-im-107473</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200304t201213028z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fitbyrobi/appics-v1-appics-im-107477</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200304t210803553z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200304t211204579z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@wild.monk/appics-v1-appics-im-107494</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@omahe/appics-v1-appics-im-107501</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200304t215625330z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@poldianslinger/appics-v1-appics-im-107522</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-107525</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@geekdancing/appics-v1-appics-im-107547</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200304t233418223z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200305t010542247z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200305t021020439z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200305t032942950z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@krazypoet/appics-v1-appics-im-107622</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@betterthanhome/appics-v1-appics-im-107643</t>
+  </si>
+  <si>
+    <t>omahe</t>
+  </si>
+  <si>
+    <t>travelssteem</t>
+  </si>
+  <si>
+    <t>wild.monk</t>
+  </si>
+  <si>
+    <t>betterthanhome</t>
   </si>
 </sst>
 </file>
@@ -3300,7 +3417,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43893.922720254632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="929" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43895.314789699078" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="964" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -3314,7 +3431,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="124">
+      <sharedItems containsBlank="1" count="128">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -3437,6 +3554,10 @@
         <s v="poldianslinger"/>
         <s v="alfamano"/>
         <s v="mysteryreader"/>
+        <s v="travelssteem"/>
+        <s v="wild.monk"/>
+        <s v="omahe"/>
+        <s v="betterthanhome"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -3454,7 +3575,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="929">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="964">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8096,15 +8217,190 @@
     <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200303t204646761z"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="https://steemit.com/hive-193552/@rabihfarhat/actifit-rabihfarhat-20200303t213935026z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="116"/>
+    <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200303t215245799z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200303t215319101z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200303t215545599z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200303t223405123z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200304t011136023z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="https://steemit.com/appics/@karenmckersie/appics-v1-appics-im-107090"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="97"/>
+    <s v="https://steemit.com/hive-193552/@photobook/actifit-photobook-20200304t063852276z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200304t092701325z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="115"/>
+    <s v="https://steemit.com/appics/@fycee/appics-v1-appics-im-107209"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200304t122110129z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200304t131711787z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200304t141430577z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200304t141918668z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200304t160209451z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-107431"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="https://steemit.com/appics/@zanoni/appics-v1-appics-im-107434"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="66"/>
+    <s v="https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200304t195432450z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="122"/>
+    <s v="https://steemit.com/appics/@travelssteem/appics-v1-appics-im-107473"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200304t201213028z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="116"/>
+    <s v="https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200304t210803553z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="66"/>
+    <s v="https://steemit.com/appics/@fitbyrobi/appics-v1-appics-im-107477"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="60"/>
+    <s v="https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200304t211204579z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="123"/>
+    <s v="https://steemit.com/appics/@wild.monk/appics-v1-appics-im-107494"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="124"/>
+    <s v="https://steemit.com/appics/@omahe/appics-v1-appics-im-107501"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="71"/>
+    <s v="https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200304t215625330z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="119"/>
+    <s v="https://steemit.com/appics/@poldianslinger/appics-v1-appics-im-107522"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="36"/>
+    <s v="https://steemit.com/appics/@fredrikaa/appics-v1-appics-im-107525"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="https://steemit.com/appics/@geekdancing/appics-v1-appics-im-107547"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="https://steemit.com/hive-193552/@mrsbozz/actifit-mrsbozz-20200304t233418223z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <s v="https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200305t010542247z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="https://steemit.com/hive-193552/@krazypoet/actifit-krazypoet-20200305t021020439z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200305t032942950z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="https://steemit.com/appics/@krazypoet/appics-v1-appics-im-107622"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="125"/>
+    <s v="https://steemit.com/appics/@betterthanhome/appics-v1-appics-im-107643"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="122"/>
+    <x v="126"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -8117,7 +8413,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="125">
+      <items count="129">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -8135,7 +8431,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="123"/>
+        <item m="1" x="127"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -8210,7 +8506,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="122"/>
+        <item x="126"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -8242,6 +8538,10 @@
         <item x="119"/>
         <item x="120"/>
         <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8264,19 +8564,19 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="90"/>
     </i>
     <i>
       <x v="55"/>
     </i>
     <i>
-      <x v="12"/>
+      <x/>
     </i>
     <i>
-      <x/>
+      <x v="12"/>
     </i>
     <i>
       <x v="88"/>
@@ -8285,13 +8585,16 @@
       <x v="71"/>
     </i>
     <i>
+      <x v="62"/>
+    </i>
+    <i>
       <x v="73"/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="100"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="46"/>
     </i>
     <i>
       <x v="24"/>
@@ -8300,7 +8603,10 @@
       <x v="29"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="50"/>
     </i>
     <i>
       <x v="68"/>
@@ -8309,37 +8615,31 @@
       <x v="20"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="31"/>
     </i>
     <i>
       <x v="80"/>
     </i>
     <i>
-      <x v="31"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="15"/>
     </i>
     <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="36"/>
+      <x v="115"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="63"/>
     </i>
     <i>
       <x v="69"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="63"/>
     </i>
     <i>
       <x v="97"/>
@@ -8354,43 +8654,46 @@
       <x v="87"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="118"/>
     </i>
     <i>
       <x v="111"/>
     </i>
     <i>
+      <x v="33"/>
+    </i>
+    <i>
       <x v="120"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="70"/>
     </i>
     <i>
       <x v="109"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="118"/>
+      <x v="14"/>
     </i>
     <i>
       <x v="119"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
       <x v="52"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="53"/>
     </i>
     <i>
       <x v="112"/>
@@ -8399,19 +8702,28 @@
       <x v="78"/>
     </i>
     <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
       <x v="48"/>
     </i>
     <i>
       <x v="103"/>
     </i>
     <i>
-      <x v="110"/>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="59"/>
     </i>
     <i>
       <x v="104"/>
@@ -8423,37 +8735,31 @@
       <x v="16"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
       <x v="102"/>
     </i>
     <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="86"/>
+      <x v="110"/>
     </i>
     <i>
       <x v="123"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="122"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="101"/>
     </i>
     <i>
       <x v="43"/>
@@ -8465,13 +8771,7 @@
       <x v="91"/>
     </i>
     <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="107"/>
+      <x v="96"/>
     </i>
     <i t="grand">
       <x/>
@@ -8499,8 +8799,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -8512,7 +8812,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="125">
+      <items count="129">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -8530,7 +8830,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="123"/>
+        <item m="1" x="127"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -8605,7 +8905,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="122"/>
+        <item x="126"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -8637,6 +8937,10 @@
         <item x="119"/>
         <item x="120"/>
         <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8654,15 +8958,15 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="76">
+  <rowItems count="80">
     <i>
       <x v="42"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="34"/>
@@ -8689,16 +8993,19 @@
       <x v="27"/>
     </i>
     <i>
+      <x v="45"/>
+    </i>
+    <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="118"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="22"/>
     </i>
     <i>
       <x v="20"/>
@@ -8707,22 +9014,28 @@
       <x v="77"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="49"/>
     </i>
     <i>
-      <x v="49"/>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="40"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="117"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="59"/>
     </i>
     <i>
       <x v="28"/>
@@ -8731,61 +9044,43 @@
       <x v="108"/>
     </i>
     <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="59"/>
+      <x v="121"/>
     </i>
     <i>
       <x v="53"/>
     </i>
     <i>
-      <x v="80"/>
+      <x v="98"/>
     </i>
     <i>
-      <x v="75"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="80"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
       <x v="84"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="81"/>
     </i>
     <i>
       <x v="11"/>
@@ -8794,91 +9089,112 @@
       <x v="95"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="75"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="76"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="5"/>
+      <x/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="111"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="125"/>
     </i>
     <i>
       <x v="94"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="106"/>
+      <x v="127"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
       <x v="18"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="54"/>
     </i>
     <i t="grand">
       <x/>
@@ -9202,7 +9518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -9252,24 +9568,24 @@
         <v>353</v>
       </c>
       <c r="B4" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E4" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="B5" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="E5" s="3">
         <v>19</v>
@@ -9277,16 +9593,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="B6" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="E6" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -9294,21 +9610,21 @@
         <v>394</v>
       </c>
       <c r="B7" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B8" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>410</v>
@@ -9319,16 +9635,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B9" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E9" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -9336,7 +9652,7 @@
         <v>427</v>
       </c>
       <c r="B10" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>343</v>
@@ -9356,15 +9672,15 @@
         <v>429</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B12" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>389</v>
@@ -9375,7 +9691,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B13" s="3">
         <v>21</v>
@@ -9384,7 +9700,7 @@
         <v>383</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -9392,7 +9708,7 @@
         <v>532</v>
       </c>
       <c r="B14" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>366</v>
@@ -9403,13 +9719,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B15" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -9417,13 +9733,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E16" s="3">
         <v>6</v>
@@ -9431,13 +9747,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>801</v>
+        <v>344</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -9445,13 +9761,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>344</v>
+        <v>801</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -9459,13 +9775,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="B19" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
@@ -9473,13 +9789,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B20" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -9487,13 +9803,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="B21" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -9501,7 +9817,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="B22" s="3">
         <v>14</v>
@@ -9515,13 +9831,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B23" s="3">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -9529,13 +9845,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B24" s="3">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
@@ -9546,10 +9862,10 @@
         <v>375</v>
       </c>
       <c r="B25" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E25" s="3">
         <v>4</v>
@@ -9557,13 +9873,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B26" s="3">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>379</v>
+        <v>802</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
@@ -9571,27 +9887,27 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>355</v>
+        <v>760</v>
       </c>
       <c r="B27" s="3">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="B28" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>619</v>
+        <v>399</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -9599,13 +9915,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>760</v>
+        <v>402</v>
       </c>
       <c r="B29" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>802</v>
+        <v>398</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -9613,13 +9929,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B30" s="3">
         <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -9633,7 +9949,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -9647,7 +9963,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>392</v>
+        <v>897</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -9661,10 +9977,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="E33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -9675,7 +9991,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>414</v>
+        <v>530</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -9683,13 +9999,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -9703,7 +10019,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -9711,13 +10027,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="B37" s="3">
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -9725,13 +10041,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>667</v>
+        <v>801</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -9739,13 +10055,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>873</v>
+        <v>667</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -9756,10 +10072,10 @@
         <v>372</v>
       </c>
       <c r="B40" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -9767,10 +10083,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>666</v>
+        <v>873</v>
       </c>
       <c r="B41" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>404</v>
@@ -9781,13 +10097,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>897</v>
+        <v>419</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -9795,13 +10111,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>801</v>
+        <v>666</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -9809,13 +10125,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>830</v>
+        <v>344</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -9823,13 +10139,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -9837,13 +10153,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>391</v>
+        <v>830</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -9851,13 +10167,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -9865,13 +10181,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>759</v>
+        <v>392</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -9879,13 +10195,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>417</v>
+        <v>759</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -9893,13 +10209,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -9907,13 +10223,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -9921,13 +10237,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -9935,27 +10251,27 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>572</v>
+        <v>428</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>665</v>
+        <v>386</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>345</v>
+        <v>531</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -9963,13 +10279,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>571</v>
+        <v>346</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>667</v>
+        <v>349</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -9977,13 +10293,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>378</v>
+        <v>758</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
@@ -9991,13 +10307,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -10005,13 +10321,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>346</v>
+        <v>1093</v>
       </c>
       <c r="E58" s="3">
         <v>1</v>
@@ -10019,13 +10335,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>620</v>
+        <v>378</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -10033,13 +10349,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -10047,13 +10363,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>533</v>
+        <v>356</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>756</v>
+        <v>393</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -10061,13 +10377,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>386</v>
+        <v>533</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>369</v>
+        <v>757</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -10075,13 +10391,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>425</v>
+        <v>665</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -10095,7 +10411,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>400</v>
+        <v>1094</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -10103,13 +10419,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>376</v>
+        <v>621</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -10117,13 +10433,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>932</v>
+        <v>360</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -10131,13 +10447,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>360</v>
+        <v>932</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -10145,13 +10461,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>395</v>
+        <v>620</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -10159,13 +10475,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>382</v>
+        <v>622</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -10173,13 +10489,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>342</v>
+        <v>534</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -10187,13 +10503,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>758</v>
+        <v>421</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -10201,13 +10517,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>534</v>
+        <v>342</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>421</v>
+        <v>756</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -10215,13 +10531,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>622</v>
+        <v>430</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>757</v>
+        <v>422</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -10229,13 +10545,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>621</v>
+        <v>474</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -10246,10 +10562,10 @@
         <v>431</v>
       </c>
       <c r="B75" s="3">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -10257,7 +10573,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -10265,7 +10581,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77" s="2" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
@@ -10273,7 +10589,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D78" s="2" t="s">
-        <v>393</v>
+        <v>1095</v>
       </c>
       <c r="E78" s="3">
         <v>1</v>
@@ -10281,10 +10597,42 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D80" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D82" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D83" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E79" s="3">
-        <v>295</v>
+      <c r="E83" s="3">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -10294,10 +10642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C929"/>
+  <dimension ref="A1:C964"/>
   <sheetViews>
-    <sheetView topLeftCell="A873" workbookViewId="0">
-      <selection activeCell="B890" sqref="B890"/>
+    <sheetView topLeftCell="A945" workbookViewId="0">
+      <selection activeCell="B961" sqref="B961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22371,6 +22719,461 @@
       </c>
       <c r="C929" t="s">
         <v>1057</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A930" t="str">
+        <f t="shared" ref="A930:A964" si="48">IFERROR(IF(FIND("appics",C930)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B930" t="str">
+        <f t="shared" ref="B930:B964" si="49">IF(A930="other","N/A",IF(A930="appics",MID(C930,29,LEN(C930)-26-29),MID(C930,34,FIND("/actifit-",C930)-34)))</f>
+        <v>rabihfarhat</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A931" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B931" t="str">
+        <f t="shared" si="49"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A932" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B932" t="str">
+        <f t="shared" si="49"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A933" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B933" t="str">
+        <f t="shared" si="49"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A934" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B934" t="str">
+        <f t="shared" si="49"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A935" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B935" t="str">
+        <f t="shared" si="49"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A936" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B936" t="str">
+        <f t="shared" si="49"/>
+        <v>karenmckersie</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A937" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B937" t="str">
+        <f t="shared" si="49"/>
+        <v>photobook</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A938" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B938" t="str">
+        <f t="shared" si="49"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A939" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B939" t="str">
+        <f t="shared" si="49"/>
+        <v>fycee</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A940" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B940" t="str">
+        <f t="shared" si="49"/>
+        <v>blumela</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A941" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B941" t="str">
+        <f t="shared" si="49"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A942" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B942" t="str">
+        <f t="shared" si="49"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C942" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A943" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B943" t="str">
+        <f t="shared" si="49"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C943" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A944" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B944" t="str">
+        <f t="shared" si="49"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A945" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B945" t="str">
+        <f t="shared" si="49"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A946" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B946" t="str">
+        <f t="shared" si="49"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A947" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B947" t="str">
+        <f t="shared" si="49"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A948" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B948" t="str">
+        <f t="shared" si="49"/>
+        <v>travelssteem</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A949" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B949" t="str">
+        <f t="shared" si="49"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A950" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B950" t="str">
+        <f t="shared" si="49"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A951" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B951" t="str">
+        <f t="shared" si="49"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A952" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B952" t="str">
+        <f t="shared" si="49"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A953" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B953" t="str">
+        <f t="shared" si="49"/>
+        <v>wild.monk</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A954" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B954" t="str">
+        <f t="shared" si="49"/>
+        <v>omahe</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A955" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B955" t="str">
+        <f t="shared" si="49"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A956" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B956" t="str">
+        <f t="shared" si="49"/>
+        <v>poldianslinger</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A957" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B957" t="str">
+        <f t="shared" si="49"/>
+        <v>fredrikaa</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A958" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B958" t="str">
+        <f t="shared" si="49"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A959" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B959" t="str">
+        <f t="shared" si="49"/>
+        <v>mrsbozz</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A960" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B960" t="str">
+        <f t="shared" si="49"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A961" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B961" t="str">
+        <f t="shared" si="49"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A962" t="str">
+        <f t="shared" si="48"/>
+        <v>actifit</v>
+      </c>
+      <c r="B962" t="str">
+        <f t="shared" si="49"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A963" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B963" t="str">
+        <f t="shared" si="49"/>
+        <v>krazypoet</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A964" t="str">
+        <f t="shared" si="48"/>
+        <v>appics</v>
+      </c>
+      <c r="B964" t="str">
+        <f t="shared" si="49"/>
+        <v>betterthanhome</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56217C7-71F5-488C-8819-B1FCFE5640F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DCF60-FBE5-4429-B843-C556E317F797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1110">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -3330,6 +3330,45 @@
   </si>
   <si>
     <t>betterthanhome</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200305t085349820z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200305t094415926z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200305t113028358z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fitbyrobi/appics-v1-appics-im-107802</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200305t133432187z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200305t141921355z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200305t160105594z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mijafit94/appics-v1-appics-im-107915</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@markom021/appics-v1-appics-im-107964</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200305t191524457z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-107991</t>
+  </si>
+  <si>
+    <t>mijafit94</t>
+  </si>
+  <si>
+    <t>markom021</t>
   </si>
 </sst>
 </file>
@@ -3417,7 +3456,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43895.314789699078" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="964" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43895.939047222222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="975" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -3431,7 +3470,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="128">
+      <sharedItems containsBlank="1" count="130">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -3558,6 +3597,8 @@
         <s v="wild.monk"/>
         <s v="omahe"/>
         <s v="betterthanhome"/>
+        <s v="mijafit94"/>
+        <s v="markom021"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -3575,7 +3616,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="964">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="975">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8392,15 +8433,70 @@
     <s v="https://steemit.com/appics/@betterthanhome/appics-v1-appics-im-107643"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="16"/>
+    <s v="https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200305t085349820z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="55"/>
+    <s v="https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200305t094415926z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="113"/>
+    <s v="https://steemit.com/hive-193552/@blumela/actifit-blumela-20200305t113028358z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="66"/>
+    <s v="https://steemit.com/appics/@fitbyrobi/appics-v1-appics-im-107802"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="64"/>
+    <s v="https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200305t133432187z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="https://steemit.com/hive-193552/@enormeanimal/actifit-enormeanimal-20200305t141921355z"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200305t160105594z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="126"/>
+    <s v="https://steemit.com/appics/@mijafit94/appics-v1-appics-im-107915"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="127"/>
+    <s v="https://steemit.com/appics/@markom021/appics-v1-appics-im-107964"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200305t191524457z"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="https://steemit.com/appics/@mauriciovite/appics-v1-appics-im-107991"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="126"/>
+    <x v="128"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B75" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -8413,7 +8509,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="129">
+      <items count="131">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -8431,7 +8527,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="127"/>
+        <item m="1" x="129"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -8506,7 +8602,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="126"/>
+        <item x="128"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -8542,6 +8638,8 @@
         <item x="123"/>
         <item x="124"/>
         <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8564,10 +8662,13 @@
       <x v="13"/>
     </i>
     <i>
+      <x v="90"/>
+    </i>
+    <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="55"/>
@@ -8576,16 +8677,13 @@
       <x/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
       <x v="88"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="62"/>
     </i>
     <i>
-      <x v="62"/>
+      <x v="71"/>
     </i>
     <i>
       <x v="73"/>
@@ -8594,28 +8692,25 @@
       <x v="100"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
       <x v="24"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="68"/>
     </i>
     <i>
       <x v="50"/>
     </i>
     <i>
-      <x v="68"/>
+      <x v="51"/>
     </i>
     <i>
       <x v="20"/>
-    </i>
-    <i>
-      <x v="79"/>
     </i>
     <i>
       <x v="31"/>
@@ -8627,16 +8722,19 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="79"/>
     </i>
     <i>
       <x v="115"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="63"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="69"/>
@@ -8654,13 +8752,16 @@
       <x v="87"/>
     </i>
     <i>
+      <x v="57"/>
+    </i>
+    <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="120"/>
     </i>
     <i>
       <x v="118"/>
@@ -8672,25 +8773,22 @@
       <x v="33"/>
     </i>
     <i>
-      <x v="120"/>
+      <x v="52"/>
     </i>
     <i>
       <x v="70"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="109"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="52"/>
     </i>
     <i>
       <x v="53"/>
@@ -8702,16 +8800,19 @@
       <x v="78"/>
     </i>
     <i>
+      <x v="89"/>
+    </i>
+    <i>
       <x v="48"/>
     </i>
     <i>
       <x v="103"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="102"/>
     </i>
     <i>
       <x v="6"/>
@@ -8720,7 +8821,16 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="86"/>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="110"/>
     </i>
     <i>
       <x v="59"/>
@@ -8729,22 +8839,22 @@
       <x v="104"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="86"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="123"/>
+      <x v="43"/>
     </i>
     <i>
       <x v="107"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="91"/>
     </i>
     <i>
       <x v="21"/>
@@ -8753,25 +8863,13 @@
       <x v="122"/>
     </i>
     <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
       <x v="101"/>
     </i>
     <i>
-      <x v="43"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="96"/>
+      <x v="37"/>
     </i>
     <i t="grand">
       <x/>
@@ -8799,8 +8897,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -8812,7 +8910,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="129">
+      <items count="131">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -8830,7 +8928,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="127"/>
+        <item m="1" x="129"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -8905,7 +9003,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="126"/>
+        <item x="128"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -8941,6 +9039,8 @@
         <item x="123"/>
         <item x="124"/>
         <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8958,15 +9058,15 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="80">
+  <rowItems count="82">
     <i>
       <x v="42"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="36"/>
     </i>
     <i>
       <x v="34"/>
@@ -8993,13 +9093,16 @@
       <x v="27"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="49"/>
     </i>
     <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="45"/>
     </i>
     <i>
       <x v="118"/>
@@ -9014,28 +9117,19 @@
       <x v="77"/>
     </i>
     <i>
-      <x v="49"/>
-    </i>
-    <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="29"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="40"/>
     </i>
     <i>
       <x v="117"/>
     </i>
     <i>
       <x v="15"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="59"/>
     </i>
     <i>
       <x v="28"/>
@@ -9047,73 +9141,79 @@
       <x v="121"/>
     </i>
     <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
       <x v="53"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="64"/>
     </i>
     <i>
       <x v="98"/>
     </i>
     <i>
-      <x v="81"/>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="35"/>
     </i>
     <i>
       <x v="78"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="72"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="9"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="113"/>
@@ -9125,37 +9225,37 @@
       <x v="126"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="39"/>
     </i>
     <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="54"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="116"/>
     </i>
     <i>
-      <x v="56"/>
+      <x v="61"/>
     </i>
     <i>
       <x v="124"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="72"/>
+      <x v="128"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="106"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="54"/>
     </i>
     <i>
       <x v="111"/>
@@ -9170,16 +9270,16 @@
       <x v="83"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="61"/>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="38"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i>
       <x v="125"/>
@@ -9191,10 +9291,16 @@
       <x v="127"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="66"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="99"/>
     </i>
     <i t="grand">
       <x/>
@@ -9518,7 +9624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -9579,13 +9685,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="B5" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="E5" s="3">
         <v>19</v>
@@ -9593,13 +9699,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="B6" s="3">
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="E6" s="3">
         <v>19</v>
@@ -9607,7 +9713,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B7" s="3">
         <v>27</v>
@@ -9621,10 +9727,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="B8" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>410</v>
@@ -9635,7 +9741,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B9" s="3">
         <v>26</v>
@@ -9663,10 +9769,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B11" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>429</v>
@@ -9677,7 +9783,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
@@ -9719,13 +9825,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="B15" s="3">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
@@ -9733,13 +9839,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B16" s="3">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="E16" s="3">
         <v>6</v>
@@ -9747,13 +9853,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -9761,13 +9867,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>801</v>
+        <v>384</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -9781,21 +9887,21 @@
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>361</v>
+        <v>801</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -9809,7 +9915,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
@@ -9817,13 +9923,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="B22" s="3">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E22" s="3">
         <v>5</v>
@@ -9831,7 +9937,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="B23" s="3">
         <v>14</v>
@@ -9845,13 +9951,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B24" s="3">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
@@ -9859,13 +9965,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="B25" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E25" s="3">
         <v>4</v>
@@ -9873,10 +9979,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>355</v>
+        <v>760</v>
       </c>
       <c r="B26" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>802</v>
@@ -9887,7 +9993,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>760</v>
+        <v>402</v>
       </c>
       <c r="B27" s="3">
         <v>11</v>
@@ -9901,13 +10007,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B28" s="3">
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -9915,13 +10021,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="B29" s="3">
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>398</v>
+        <v>619</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -9935,7 +10041,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>367</v>
+        <v>897</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -9949,7 +10055,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>619</v>
+        <v>399</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -9963,7 +10069,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>897</v>
+        <v>372</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -9991,21 +10097,21 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="E35" s="3">
         <v>2</v>
@@ -10013,13 +10119,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
@@ -10033,7 +10139,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -10041,13 +10147,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>801</v>
+        <v>873</v>
       </c>
       <c r="B38" s="3">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -10055,13 +10161,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>667</v>
+        <v>801</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -10069,13 +10175,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>372</v>
+        <v>667</v>
       </c>
       <c r="B40" s="3">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -10083,13 +10189,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>873</v>
+        <v>372</v>
       </c>
       <c r="B41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -10097,13 +10203,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
@@ -10111,13 +10217,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>666</v>
+        <v>409</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -10125,13 +10231,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>344</v>
+        <v>830</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -10145,7 +10251,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -10153,13 +10259,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>830</v>
+        <v>666</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>472</v>
+        <v>371</v>
       </c>
       <c r="E46" s="3">
         <v>2</v>
@@ -10167,13 +10273,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -10187,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
@@ -10201,7 +10307,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -10215,7 +10321,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -10223,13 +10329,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -10237,13 +10343,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>572</v>
+        <v>387</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -10251,13 +10357,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>428</v>
+        <v>572</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E53" s="3">
         <v>2</v>
@@ -10265,13 +10371,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -10279,13 +10385,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>346</v>
+        <v>533</v>
       </c>
       <c r="B55" s="3">
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -10293,7 +10399,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B56" s="3">
         <v>2</v>
@@ -10307,7 +10413,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="B57" s="3">
         <v>2</v>
@@ -10321,7 +10427,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>398</v>
+        <v>931</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -10335,13 +10441,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>571</v>
+        <v>356</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -10349,13 +10455,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -10363,13 +10469,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>356</v>
+        <v>665</v>
       </c>
       <c r="B61" s="3">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -10377,7 +10483,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>533</v>
+        <v>398</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
@@ -10391,13 +10497,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>665</v>
+        <v>571</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -10405,7 +10511,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>931</v>
+        <v>425</v>
       </c>
       <c r="B64" s="3">
         <v>2</v>
@@ -10419,13 +10525,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -10433,13 +10539,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>411</v>
+        <v>1108</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -10447,13 +10553,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>932</v>
+        <v>621</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -10461,7 +10567,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -10475,13 +10581,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>622</v>
+        <v>430</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -10489,7 +10595,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -10503,7 +10609,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>382</v>
+        <v>932</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -10517,7 +10623,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>342</v>
+        <v>534</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -10531,7 +10637,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -10545,13 +10651,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="E74" s="3">
         <v>1</v>
@@ -10562,10 +10668,10 @@
         <v>431</v>
       </c>
       <c r="B75" s="3">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E75" s="3">
         <v>1</v>
@@ -10573,7 +10679,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D76" s="2" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
@@ -10581,7 +10687,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D77" s="2" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
@@ -10613,7 +10719,7 @@
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81" s="2" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="E81" s="3">
         <v>1</v>
@@ -10621,7 +10727,7 @@
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82" s="2" t="s">
-        <v>357</v>
+        <v>1109</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -10629,10 +10735,26 @@
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D84" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D85" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E83" s="3">
-        <v>308</v>
+      <c r="E85" s="3">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -10642,10 +10764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:C964"/>
+  <dimension ref="A1:C975"/>
   <sheetViews>
-    <sheetView topLeftCell="A945" workbookViewId="0">
-      <selection activeCell="B961" sqref="B961"/>
+    <sheetView topLeftCell="A954" workbookViewId="0">
+      <selection activeCell="B975" sqref="B975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23174,6 +23296,149 @@
       </c>
       <c r="C964" t="s">
         <v>1092</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A965" t="str">
+        <f t="shared" ref="A965:A975" si="50">IFERROR(IF(FIND("appics",C965)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B965" t="str">
+        <f t="shared" ref="B965:B975" si="51">IF(A965="other","N/A",IF(A965="appics",MID(C965,29,LEN(C965)-26-29),MID(C965,34,FIND("/actifit-",C965)-34)))</f>
+        <v>robibasa</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A966" t="str">
+        <f t="shared" si="50"/>
+        <v>actifit</v>
+      </c>
+      <c r="B966" t="str">
+        <f t="shared" si="51"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A967" t="str">
+        <f t="shared" si="50"/>
+        <v>actifit</v>
+      </c>
+      <c r="B967" t="str">
+        <f t="shared" si="51"/>
+        <v>blumela</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A968" t="str">
+        <f t="shared" si="50"/>
+        <v>appics</v>
+      </c>
+      <c r="B968" t="str">
+        <f t="shared" si="51"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A969" t="str">
+        <f t="shared" si="50"/>
+        <v>actifit</v>
+      </c>
+      <c r="B969" t="str">
+        <f t="shared" si="51"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A970" t="str">
+        <f t="shared" si="50"/>
+        <v>actifit</v>
+      </c>
+      <c r="B970" t="str">
+        <f t="shared" si="51"/>
+        <v>enormeanimal</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A971" t="str">
+        <f t="shared" si="50"/>
+        <v>actifit</v>
+      </c>
+      <c r="B971" t="str">
+        <f t="shared" si="51"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A972" t="str">
+        <f t="shared" si="50"/>
+        <v>appics</v>
+      </c>
+      <c r="B972" t="str">
+        <f t="shared" si="51"/>
+        <v>mijafit94</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A973" t="str">
+        <f t="shared" si="50"/>
+        <v>appics</v>
+      </c>
+      <c r="B973" t="str">
+        <f t="shared" si="51"/>
+        <v>markom021</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A974" t="str">
+        <f t="shared" si="50"/>
+        <v>actifit</v>
+      </c>
+      <c r="B974" t="str">
+        <f t="shared" si="51"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A975" t="str">
+        <f t="shared" si="50"/>
+        <v>appics</v>
+      </c>
+      <c r="B975" t="str">
+        <f t="shared" si="51"/>
+        <v>mauriciovite</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -2,31 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E2D5F-635B-45D3-B5B2-2553AC137FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9E75B5-0BC9-4D3A-A04F-501BF86F7BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="5" r:id="rId1"/>
     <sheet name="Posts" sheetId="1" r:id="rId2"/>
     <sheet name="Link" sheetId="2" r:id="rId3"/>
+    <sheet name="Rewards" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Posts!$A$1:$F$1024</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="21" r:id="rId5"/>
-    <pivotCache cacheId="32" r:id="rId6"/>
-    <pivotCache cacheId="35" r:id="rId7"/>
-    <pivotCache cacheId="37" r:id="rId8"/>
+    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="27" r:id="rId6"/>
+    <pivotCache cacheId="28" r:id="rId7"/>
+    <pivotCache cacheId="32" r:id="rId8"/>
+    <pivotCache cacheId="36" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="2161">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -6394,6 +6395,138 @@
   </si>
   <si>
     <t>Max of Daily AC</t>
+  </si>
+  <si>
+    <t>Appics</t>
+  </si>
+  <si>
+    <t>Actifit</t>
+  </si>
+  <si>
+    <t>AFIT</t>
+  </si>
+  <si>
+    <t>APX</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Extra rewards</t>
+  </si>
+  <si>
+    <t>Actifit reports</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200313t160124695z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200313t163537369z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-111968</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200313t192534046z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200313t211611542z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200313t212711323z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200313t213608823z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200313t215744344z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200313t224147709z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@btcsam/actifit-btcsam-20200314t005308206z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200314t024025883z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200314t045054382z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mijafit94/appics-v1-appics-im-112259</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200314t092133088z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@dailyspam/actifit-dailyspam-20200314t112831104z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200314t132624626z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@titan-c/appics-v1-appics-im-112365</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200314t142511659z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200314t160256339z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mysteryreader/actifit-mysteryreader-20200314t180815356z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@markom021/appics-v1-appics-im-112481</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mhm-philippines/actifit-mhm-philippines-20200314t184214456z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200314t194233628z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@geekdancing/actifit-geekdancing-20200314t195306654z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200314t201923379z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200314t204334256z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@electronicsworld/actifit-electronicsworld-20200314t213821962z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200314t215805542z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200314t221321318z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/getinshapechallenge/@truelovemom/coronavirus-global-health-challenge</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200314t234141802z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bozz.sports/actifit-bozz-sports-20200315t020807928z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mcoinz79/actifit-mcoinz79-20200315t040125265z</t>
+  </si>
+  <si>
+    <t>titan-c</t>
+  </si>
+  <si>
+    <t>3 Appics progress reports &amp; 12 Actifit activity reports-  50 APX + 500 AFIT tokens.</t>
+  </si>
+  <si>
+    <t>5 Appics progress reports &amp; 20 Actifit activity reports - 100 APX + 1,000 AFIT tokens.</t>
+  </si>
+  <si>
+    <t>6 Appics progress reports &amp; 24 Actifit activity reports - 200 APX + 2,000 AFIT tokens.</t>
   </si>
 </sst>
 </file>
@@ -6431,7 +6564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6441,6 +6574,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6458,7 +6603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6470,6 +6615,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6489,173 +6647,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Paul Jansen" refreshedDate="43903.710790972225" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1162" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C9992" sheet="Posts"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="App" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="appics"/>
-        <s v="actifit"/>
-        <s v="other"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="137">
-        <s v="jboogzofficial"/>
-        <s v="alexvanaken"/>
-        <s v="onealfa"/>
-        <s v="onealfa.appics"/>
-        <s v="faraicelebr8"/>
-        <s v="dailyspam"/>
-        <s v="soldier"/>
-        <s v="runridefly"/>
-        <s v="krazypoet"/>
-        <s v="mcoinz79"/>
-        <s v="elima"/>
-        <s v="animeshsingh452"/>
-        <s v="enormeanimal"/>
-        <s v="karenmckersie"/>
-        <s v="zanoni"/>
-        <s v="lonistellina"/>
-        <s v="robibasa"/>
-        <s v="actifit-peter"/>
-        <s v="sn0n"/>
-        <s v="alauddinsee"/>
-        <s v="bluengel"/>
-        <s v="rabihfarhat"/>
-        <s v="browery"/>
-        <s v="vesytz"/>
-        <s v="drugelis"/>
-        <s v="mauriciovite"/>
-        <s v="steemmillionaire"/>
-        <s v="electronicsworld"/>
-        <s v="mrsbozz"/>
-        <s v="sumatranate"/>
-        <s v="bozz.sports"/>
-        <s v="gikitiki"/>
-        <s v="exzadria"/>
-        <s v="elikast"/>
-        <s v="charline.cherie"/>
-        <s v="cgames"/>
-        <s v="fredrikaa"/>
-        <s v="ruhrsearch"/>
-        <s v="anahilarski"/>
-        <s v="chrissysworld"/>
-        <s v="street.yoga"/>
-        <s v="rookielector"/>
-        <s v="aniestudio"/>
-        <s v="rajan1995"/>
-        <s v="paulnulty"/>
-        <s v="sirwinchester"/>
-        <s v="N/A"/>
-        <s v="bitcoinkings"/>
-        <s v="funnyman"/>
-        <s v="zua-khan-sports"/>
-        <s v="ravelb"/>
-        <s v="krazy.steeph"/>
-        <s v="mrconquer"/>
-        <s v="technologix"/>
-        <s v="yogajill"/>
-        <s v="geekdancing"/>
-        <s v="moderndayhippie"/>
-        <s v="ange.nkuru"/>
-        <s v="kapitanrosomak"/>
-        <s v="demstreets"/>
-        <s v="mhm-philippines"/>
-        <s v="im-ridd"/>
-        <s v="ajinkyajagtap"/>
-        <s v="pele23"/>
-        <s v="purepinay"/>
-        <s v="elenahornfilm"/>
-        <s v="fitbyrobi"/>
-        <s v="tatiana21"/>
-        <s v="bigtakosensei"/>
-        <s v="sereze"/>
-        <s v="toushik"/>
-        <s v="ynwa.andree"/>
-        <s v="yanipetkov"/>
-        <s v="btcsam"/>
-        <s v="hammaraxx"/>
-        <s v="dejan.vuckovic"/>
-        <s v="mrnightmare89"/>
-        <s v="wil.metcalfe"/>
-        <s v="recondites"/>
-        <s v="relaxkim"/>
-        <s v="sampraise"/>
-        <s v="neche2020"/>
-        <s v="spurisna"/>
-        <s v="praditya"/>
-        <s v="alex-hm"/>
-        <s v="shahinalom1"/>
-        <s v="imagine.colours"/>
-        <s v="mattuk"/>
-        <s v="felixsander"/>
-        <s v="elteamgordo"/>
-        <s v="highko"/>
-        <s v="vrukshathon"/>
-        <s v="joetunex"/>
-        <s v="pardinus"/>
-        <s v="chrisparis"/>
-        <s v="danielschmunk"/>
-        <s v="taug"/>
-        <s v="photobook"/>
-        <s v="yousafharoonkhan"/>
-        <s v="verticallife2"/>
-        <s v="happybea"/>
-        <s v="uyobong"/>
-        <s v="toofasteddie"/>
-        <s v="samgiset"/>
-        <s v="camiloferrua"/>
-        <s v="hdelosrios"/>
-        <s v="griega"/>
-        <s v="flemingfarm"/>
-        <s v="warhead61"/>
-        <s v="bbaspring"/>
-        <s v="appics"/>
-        <s v="laura.appics"/>
-        <s v="woe-is-meme"/>
-        <s v="blumela"/>
-        <s v="andreacastaneda"/>
-        <s v="fycee"/>
-        <s v="apprentice001"/>
-        <s v="newtechblog"/>
-        <s v="afril"/>
-        <s v="poldianslinger"/>
-        <s v="alfamano"/>
-        <s v="mysteryreader"/>
-        <s v="travelssteem"/>
-        <s v="wild.monk"/>
-        <s v="omahe"/>
-        <s v="betterthanhome"/>
-        <s v="mijafit94"/>
-        <s v="markom021"/>
-        <s v="yogeshvictory"/>
-        <s v="gingbabida"/>
-        <s v="faisalamin"/>
-        <s v="umaofficial"/>
-        <s v="biangkerok"/>
-        <s v="elfman2018"/>
-        <s v="sipahikara"/>
-        <m/>
-        <s v="charlesfuchs" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="url" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43904.450318287039" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1162" xr:uid="{B5474098-7D23-4788-B490-28A4B5BFEE84}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F11162" sheet="Posts"/>
@@ -6830,173 +6821,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Paul Jansen" refreshedDate="43904.451568171295" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1162" xr:uid="{A604FB88-08EE-42A0-9051-257E0909BA81}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C10000" sheet="Posts"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="App" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="appics"/>
-        <s v="actifit"/>
-        <s v="other"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="136">
-        <s v="jboogzofficial"/>
-        <s v="alexvanaken"/>
-        <s v="onealfa"/>
-        <s v="onealfa.appics"/>
-        <s v="faraicelebr8"/>
-        <s v="dailyspam"/>
-        <s v="soldier"/>
-        <s v="runridefly"/>
-        <s v="krazypoet"/>
-        <s v="mcoinz79"/>
-        <s v="elima"/>
-        <s v="animeshsingh452"/>
-        <s v="enormeanimal"/>
-        <s v="karenmckersie"/>
-        <s v="zanoni"/>
-        <s v="lonistellina"/>
-        <s v="robibasa"/>
-        <s v="actifit-peter"/>
-        <s v="sn0n"/>
-        <s v="alauddinsee"/>
-        <s v="bluengel"/>
-        <s v="rabihfarhat"/>
-        <s v="browery"/>
-        <s v="vesytz"/>
-        <s v="drugelis"/>
-        <s v="mauriciovite"/>
-        <s v="steemmillionaire"/>
-        <s v="electronicsworld"/>
-        <s v="mrsbozz"/>
-        <s v="sumatranate"/>
-        <s v="bozz.sports"/>
-        <s v="gikitiki"/>
-        <s v="exzadria"/>
-        <s v="elikast"/>
-        <s v="charline.cherie"/>
-        <s v="cgames"/>
-        <s v="fredrikaa"/>
-        <s v="ruhrsearch"/>
-        <s v="anahilarski"/>
-        <s v="chrissysworld"/>
-        <s v="street.yoga"/>
-        <s v="rookielector"/>
-        <s v="aniestudio"/>
-        <s v="rajan1995"/>
-        <s v="paulnulty"/>
-        <s v="sirwinchester"/>
-        <s v="N/A"/>
-        <s v="bitcoinkings"/>
-        <s v="funnyman"/>
-        <s v="zua-khan-sports"/>
-        <s v="ravelb"/>
-        <s v="krazy.steeph"/>
-        <s v="mrconquer"/>
-        <s v="technologix"/>
-        <s v="yogajill"/>
-        <s v="geekdancing"/>
-        <s v="moderndayhippie"/>
-        <s v="ange.nkuru"/>
-        <s v="kapitanrosomak"/>
-        <s v="demstreets"/>
-        <s v="mhm-philippines"/>
-        <s v="im-ridd"/>
-        <s v="ajinkyajagtap"/>
-        <s v="pele23"/>
-        <s v="purepinay"/>
-        <s v="elenahornfilm"/>
-        <s v="fitbyrobi"/>
-        <s v="tatiana21"/>
-        <s v="bigtakosensei"/>
-        <s v="sereze"/>
-        <s v="toushik"/>
-        <s v="ynwa.andree"/>
-        <s v="yanipetkov"/>
-        <s v="btcsam"/>
-        <s v="hammaraxx"/>
-        <s v="dejan.vuckovic"/>
-        <s v="mrnightmare89"/>
-        <s v="wil.metcalfe"/>
-        <s v="recondites"/>
-        <s v="relaxkim"/>
-        <s v="sampraise"/>
-        <s v="neche2020"/>
-        <s v="spurisna"/>
-        <s v="praditya"/>
-        <s v="alex-hm"/>
-        <s v="shahinalom1"/>
-        <s v="imagine.colours"/>
-        <s v="mattuk"/>
-        <s v="felixsander"/>
-        <s v="elteamgordo"/>
-        <s v="highko"/>
-        <s v="vrukshathon"/>
-        <s v="joetunex"/>
-        <s v="pardinus"/>
-        <s v="chrisparis"/>
-        <s v="danielschmunk"/>
-        <s v="taug"/>
-        <s v="photobook"/>
-        <s v="yousafharoonkhan"/>
-        <s v="verticallife2"/>
-        <s v="happybea"/>
-        <s v="uyobong"/>
-        <s v="toofasteddie"/>
-        <s v="samgiset"/>
-        <s v="camiloferrua"/>
-        <s v="hdelosrios"/>
-        <s v="griega"/>
-        <s v="flemingfarm"/>
-        <s v="warhead61"/>
-        <s v="bbaspring"/>
-        <s v="appics"/>
-        <s v="laura.appics"/>
-        <s v="woe-is-meme"/>
-        <s v="blumela"/>
-        <s v="andreacastaneda"/>
-        <s v="fycee"/>
-        <s v="apprentice001"/>
-        <s v="newtechblog"/>
-        <s v="afril"/>
-        <s v="poldianslinger"/>
-        <s v="alfamano"/>
-        <s v="mysteryreader"/>
-        <s v="travelssteem"/>
-        <s v="wild.monk"/>
-        <s v="omahe"/>
-        <s v="betterthanhome"/>
-        <s v="mijafit94"/>
-        <s v="markom021"/>
-        <s v="yogeshvictory"/>
-        <s v="gingbabida"/>
-        <s v="faisalamin"/>
-        <s v="umaofficial"/>
-        <s v="biangkerok"/>
-        <s v="elfman2018"/>
-        <s v="sipahikara"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="url" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43904.452134027779" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1145" xr:uid="{EBFB37AD-7DD5-4A3D-84F3-D10BB5523A31}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1146" sheet="Posts"/>
@@ -7169,7 +6994,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paul Jansen" refreshedDate="43904.452398148147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1145" xr:uid="{14122369-DC87-4B19-8B2B-2C346E446964}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:F1146" sheet="Posts"/>
@@ -7335,6 +7160,340 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Paul Jansen" refreshedDate="43905.473178587963" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1162" xr:uid="{A604FB88-08EE-42A0-9051-257E0909BA81}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C10000" sheet="Posts"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="App" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="appics"/>
+        <s v="actifit"/>
+        <s v="other"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Account" numFmtId="0">
+      <sharedItems containsBlank="1" count="136">
+        <s v="jboogzofficial"/>
+        <s v="alexvanaken"/>
+        <s v="onealfa"/>
+        <s v="onealfa.appics"/>
+        <s v="faraicelebr8"/>
+        <s v="dailyspam"/>
+        <s v="soldier"/>
+        <s v="runridefly"/>
+        <s v="krazypoet"/>
+        <s v="mcoinz79"/>
+        <s v="elima"/>
+        <s v="animeshsingh452"/>
+        <s v="enormeanimal"/>
+        <s v="karenmckersie"/>
+        <s v="zanoni"/>
+        <s v="lonistellina"/>
+        <s v="robibasa"/>
+        <s v="actifit-peter"/>
+        <s v="sn0n"/>
+        <s v="alauddinsee"/>
+        <s v="bluengel"/>
+        <s v="rabihfarhat"/>
+        <s v="browery"/>
+        <s v="vesytz"/>
+        <s v="drugelis"/>
+        <s v="mauriciovite"/>
+        <s v="steemmillionaire"/>
+        <s v="electronicsworld"/>
+        <s v="mrsbozz"/>
+        <s v="sumatranate"/>
+        <s v="bozz.sports"/>
+        <s v="gikitiki"/>
+        <s v="exzadria"/>
+        <s v="elikast"/>
+        <s v="charline.cherie"/>
+        <s v="cgames"/>
+        <s v="fredrikaa"/>
+        <s v="ruhrsearch"/>
+        <s v="anahilarski"/>
+        <s v="chrissysworld"/>
+        <s v="street.yoga"/>
+        <s v="rookielector"/>
+        <s v="aniestudio"/>
+        <s v="rajan1995"/>
+        <s v="paulnulty"/>
+        <s v="sirwinchester"/>
+        <s v="N/A"/>
+        <s v="bitcoinkings"/>
+        <s v="funnyman"/>
+        <s v="zua-khan-sports"/>
+        <s v="ravelb"/>
+        <s v="krazy.steeph"/>
+        <s v="mrconquer"/>
+        <s v="technologix"/>
+        <s v="yogajill"/>
+        <s v="geekdancing"/>
+        <s v="moderndayhippie"/>
+        <s v="ange.nkuru"/>
+        <s v="kapitanrosomak"/>
+        <s v="demstreets"/>
+        <s v="mhm-philippines"/>
+        <s v="im-ridd"/>
+        <s v="ajinkyajagtap"/>
+        <s v="pele23"/>
+        <s v="purepinay"/>
+        <s v="elenahornfilm"/>
+        <s v="fitbyrobi"/>
+        <s v="tatiana21"/>
+        <s v="bigtakosensei"/>
+        <s v="sereze"/>
+        <s v="toushik"/>
+        <s v="ynwa.andree"/>
+        <s v="yanipetkov"/>
+        <s v="btcsam"/>
+        <s v="hammaraxx"/>
+        <s v="dejan.vuckovic"/>
+        <s v="mrnightmare89"/>
+        <s v="wil.metcalfe"/>
+        <s v="recondites"/>
+        <s v="relaxkim"/>
+        <s v="sampraise"/>
+        <s v="neche2020"/>
+        <s v="spurisna"/>
+        <s v="praditya"/>
+        <s v="alex-hm"/>
+        <s v="shahinalom1"/>
+        <s v="imagine.colours"/>
+        <s v="mattuk"/>
+        <s v="felixsander"/>
+        <s v="elteamgordo"/>
+        <s v="highko"/>
+        <s v="vrukshathon"/>
+        <s v="joetunex"/>
+        <s v="pardinus"/>
+        <s v="chrisparis"/>
+        <s v="danielschmunk"/>
+        <s v="taug"/>
+        <s v="photobook"/>
+        <s v="yousafharoonkhan"/>
+        <s v="verticallife2"/>
+        <s v="happybea"/>
+        <s v="uyobong"/>
+        <s v="toofasteddie"/>
+        <s v="samgiset"/>
+        <s v="camiloferrua"/>
+        <s v="hdelosrios"/>
+        <s v="griega"/>
+        <s v="flemingfarm"/>
+        <s v="warhead61"/>
+        <s v="bbaspring"/>
+        <s v="appics"/>
+        <s v="laura.appics"/>
+        <s v="woe-is-meme"/>
+        <s v="blumela"/>
+        <s v="andreacastaneda"/>
+        <s v="fycee"/>
+        <s v="apprentice001"/>
+        <s v="newtechblog"/>
+        <s v="afril"/>
+        <s v="poldianslinger"/>
+        <s v="alfamano"/>
+        <s v="mysteryreader"/>
+        <s v="travelssteem"/>
+        <s v="wild.monk"/>
+        <s v="omahe"/>
+        <s v="betterthanhome"/>
+        <s v="mijafit94"/>
+        <s v="markom021"/>
+        <s v="yogeshvictory"/>
+        <s v="gingbabida"/>
+        <s v="faisalamin"/>
+        <s v="umaofficial"/>
+        <s v="biangkerok"/>
+        <s v="elfman2018"/>
+        <s v="sipahikara"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="url" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Paul Jansen" refreshedDate="43905.521571412035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1195" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C9992" sheet="Posts"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="App" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="appics"/>
+        <s v="actifit"/>
+        <s v="other"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Account" numFmtId="0">
+      <sharedItems containsBlank="1" count="138">
+        <s v="jboogzofficial"/>
+        <s v="alexvanaken"/>
+        <s v="onealfa"/>
+        <s v="onealfa.appics"/>
+        <s v="faraicelebr8"/>
+        <s v="dailyspam"/>
+        <s v="soldier"/>
+        <s v="runridefly"/>
+        <s v="krazypoet"/>
+        <s v="mcoinz79"/>
+        <s v="elima"/>
+        <s v="animeshsingh452"/>
+        <s v="enormeanimal"/>
+        <s v="karenmckersie"/>
+        <s v="zanoni"/>
+        <s v="lonistellina"/>
+        <s v="robibasa"/>
+        <s v="actifit-peter"/>
+        <s v="sn0n"/>
+        <s v="alauddinsee"/>
+        <s v="bluengel"/>
+        <s v="rabihfarhat"/>
+        <s v="browery"/>
+        <s v="vesytz"/>
+        <s v="drugelis"/>
+        <s v="mauriciovite"/>
+        <s v="steemmillionaire"/>
+        <s v="electronicsworld"/>
+        <s v="mrsbozz"/>
+        <s v="sumatranate"/>
+        <s v="bozz.sports"/>
+        <s v="gikitiki"/>
+        <s v="exzadria"/>
+        <s v="elikast"/>
+        <s v="charline.cherie"/>
+        <s v="cgames"/>
+        <s v="fredrikaa"/>
+        <s v="ruhrsearch"/>
+        <s v="anahilarski"/>
+        <s v="chrissysworld"/>
+        <s v="street.yoga"/>
+        <s v="rookielector"/>
+        <s v="aniestudio"/>
+        <s v="rajan1995"/>
+        <s v="paulnulty"/>
+        <s v="sirwinchester"/>
+        <s v="N/A"/>
+        <s v="bitcoinkings"/>
+        <s v="funnyman"/>
+        <s v="zua-khan-sports"/>
+        <s v="ravelb"/>
+        <s v="krazy.steeph"/>
+        <s v="mrconquer"/>
+        <s v="technologix"/>
+        <s v="yogajill"/>
+        <s v="geekdancing"/>
+        <s v="moderndayhippie"/>
+        <s v="ange.nkuru"/>
+        <s v="kapitanrosomak"/>
+        <s v="demstreets"/>
+        <s v="mhm-philippines"/>
+        <s v="im-ridd"/>
+        <s v="ajinkyajagtap"/>
+        <s v="pele23"/>
+        <s v="purepinay"/>
+        <s v="elenahornfilm"/>
+        <s v="fitbyrobi"/>
+        <s v="tatiana21"/>
+        <s v="bigtakosensei"/>
+        <s v="sereze"/>
+        <s v="toushik"/>
+        <s v="ynwa.andree"/>
+        <s v="yanipetkov"/>
+        <s v="btcsam"/>
+        <s v="hammaraxx"/>
+        <s v="dejan.vuckovic"/>
+        <s v="mrnightmare89"/>
+        <s v="wil.metcalfe"/>
+        <s v="recondites"/>
+        <s v="relaxkim"/>
+        <s v="sampraise"/>
+        <s v="neche2020"/>
+        <s v="spurisna"/>
+        <s v="praditya"/>
+        <s v="alex-hm"/>
+        <s v="shahinalom1"/>
+        <s v="imagine.colours"/>
+        <s v="mattuk"/>
+        <s v="felixsander"/>
+        <s v="elteamgordo"/>
+        <s v="highko"/>
+        <s v="vrukshathon"/>
+        <s v="joetunex"/>
+        <s v="pardinus"/>
+        <s v="chrisparis"/>
+        <s v="danielschmunk"/>
+        <s v="taug"/>
+        <s v="photobook"/>
+        <s v="yousafharoonkhan"/>
+        <s v="verticallife2"/>
+        <s v="happybea"/>
+        <s v="uyobong"/>
+        <s v="toofasteddie"/>
+        <s v="samgiset"/>
+        <s v="camiloferrua"/>
+        <s v="hdelosrios"/>
+        <s v="griega"/>
+        <s v="flemingfarm"/>
+        <s v="warhead61"/>
+        <s v="bbaspring"/>
+        <s v="appics"/>
+        <s v="laura.appics"/>
+        <s v="woe-is-meme"/>
+        <s v="blumela"/>
+        <s v="andreacastaneda"/>
+        <s v="fycee"/>
+        <s v="apprentice001"/>
+        <s v="newtechblog"/>
+        <s v="afril"/>
+        <s v="poldianslinger"/>
+        <s v="alfamano"/>
+        <s v="mysteryreader"/>
+        <s v="travelssteem"/>
+        <s v="wild.monk"/>
+        <s v="omahe"/>
+        <s v="betterthanhome"/>
+        <s v="mijafit94"/>
+        <s v="markom021"/>
+        <s v="yogeshvictory"/>
+        <s v="gingbabida"/>
+        <s v="faisalamin"/>
+        <s v="umaofficial"/>
+        <s v="biangkerok"/>
+        <s v="elfman2018"/>
+        <s v="sipahikara"/>
+        <s v="titan-c"/>
+        <m/>
+        <s v="charlesfuchs" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="url" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1162">
   <r>
@@ -33822,603 +33981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6726ADED-D03C-4AE6-8CD0-05E0275D2F37}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="137">
-        <item x="17"/>
-        <item x="118"/>
-        <item x="62"/>
-        <item x="19"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="120"/>
-        <item x="38"/>
-        <item x="114"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="110"/>
-        <item x="116"/>
-        <item x="109"/>
-        <item x="125"/>
-        <item x="68"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="113"/>
-        <item x="30"/>
-        <item x="22"/>
-        <item x="73"/>
-        <item x="104"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="94"/>
-        <item x="39"/>
-        <item x="5"/>
-        <item x="95"/>
-        <item x="75"/>
-        <item x="59"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="10"/>
-        <item x="89"/>
-        <item x="12"/>
-        <item x="32"/>
-        <item x="4"/>
-        <item x="88"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="36"/>
-        <item x="48"/>
-        <item x="115"/>
-        <item x="55"/>
-        <item x="31"/>
-        <item x="106"/>
-        <item x="74"/>
-        <item x="100"/>
-        <item x="105"/>
-        <item x="90"/>
-        <item x="86"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="92"/>
-        <item x="58"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="8"/>
-        <item x="111"/>
-        <item x="15"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="60"/>
-        <item x="126"/>
-        <item x="56"/>
-        <item x="52"/>
-        <item x="76"/>
-        <item x="28"/>
-        <item x="121"/>
-        <item x="46"/>
-        <item x="81"/>
-        <item x="117"/>
-        <item x="124"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="93"/>
-        <item x="44"/>
-        <item x="63"/>
-        <item x="97"/>
-        <item x="119"/>
-        <item x="83"/>
-        <item x="64"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="50"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="16"/>
-        <item x="41"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="103"/>
-        <item x="80"/>
-        <item x="69"/>
-        <item x="85"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="82"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="67"/>
-        <item x="96"/>
-        <item x="53"/>
-        <item x="102"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="101"/>
-        <item x="99"/>
-        <item x="23"/>
-        <item x="91"/>
-        <item x="108"/>
-        <item x="77"/>
-        <item x="123"/>
-        <item x="112"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="54"/>
-        <item x="98"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="135"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="135">
-    <i>
-      <x v="126"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D5:E81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -34431,7 +33994,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="138">
+      <items count="139">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -34449,7 +34012,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="136"/>
+        <item m="1" x="137"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -34524,7 +34087,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="135"/>
+        <item x="136"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -34569,6 +34132,7 @@
         <item x="132"/>
         <item x="133"/>
         <item x="134"/>
+        <item x="135"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -34594,13 +34158,13 @@
       <x v="23"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="90"/>
     </i>
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="12"/>
     </i>
     <i>
       <x v="88"/>
@@ -34624,22 +34188,22 @@
       <x v="51"/>
     </i>
     <i>
+      <x v="50"/>
+    </i>
+    <i>
       <x v="71"/>
     </i>
     <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
       <x v="115"/>
     </i>
     <i>
       <x v="36"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="24"/>
@@ -34663,6 +34227,9 @@
       <x v="3"/>
     </i>
     <i>
+      <x v="118"/>
+    </i>
+    <i>
       <x v="63"/>
     </i>
     <i>
@@ -34672,31 +34239,31 @@
       <x v="76"/>
     </i>
     <i>
-      <x v="118"/>
-    </i>
-    <i>
       <x v="97"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
+      <x v="87"/>
+    </i>
+    <i>
       <x v="85"/>
     </i>
     <i>
-      <x v="87"/>
+      <x v="81"/>
     </i>
     <i>
       <x v="112"/>
     </i>
     <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="26"/>
+      <x v="109"/>
     </i>
     <i>
       <x v="120"/>
@@ -34705,19 +34272,16 @@
       <x v="111"/>
     </i>
     <i>
-      <x v="109"/>
+      <x v="102"/>
     </i>
     <i>
-      <x v="102"/>
+      <x v="123"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
       <x v="119"/>
-    </i>
-    <i>
-      <x v="123"/>
     </i>
     <i>
       <x v="52"/>
@@ -34837,9 +34401,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -34851,7 +34415,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="138">
+      <items count="139">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -34869,7 +34433,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="136"/>
+        <item m="1" x="137"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -34944,7 +34508,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="135"/>
+        <item x="136"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -34989,6 +34553,7 @@
         <item x="132"/>
         <item x="133"/>
         <item x="134"/>
+        <item x="135"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -35006,7 +34571,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="86">
+  <rowItems count="87">
     <i>
       <x v="42"/>
     </i>
@@ -35023,10 +34588,10 @@
       <x v="90"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="71"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="46"/>
     </i>
     <i>
       <x v="3"/>
@@ -35038,10 +34603,10 @@
       <x v="45"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="128"/>
     </i>
     <i>
-      <x v="128"/>
+      <x v="44"/>
     </i>
     <i>
       <x v="49"/>
@@ -35050,10 +34615,13 @@
       <x v="27"/>
     </i>
     <i>
+      <x v="69"/>
+    </i>
+    <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="118"/>
@@ -35062,19 +34630,19 @@
       <x v="20"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="117"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
+      <x v="22"/>
+    </i>
+    <i>
       <x v="63"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="40"/>
@@ -35083,118 +34651,115 @@
       <x v="33"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="59"/>
     </i>
     <i>
       <x v="121"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="64"/>
     </i>
     <i>
-      <x v="59"/>
+      <x v="47"/>
     </i>
     <i>
-      <x v="108"/>
+      <x v="81"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="65"/>
     </i>
     <i>
-      <x v="60"/>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="58"/>
     </i>
     <i>
       <x v="95"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="125"/>
     </i>
     <i>
       <x v="25"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="78"/>
+      <x v="75"/>
     </i>
     <i>
       <x/>
     </i>
     <i>
-      <x v="84"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="74"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="56"/>
     </i>
     <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="114"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="137"/>
     </i>
     <i>
-      <x v="74"/>
+      <x v="72"/>
     </i>
     <i>
       <x v="82"/>
@@ -35209,13 +34774,13 @@
       <x v="133"/>
     </i>
     <i>
-      <x v="66"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="113"/>
     </i>
     <i>
-      <x v="38"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="116"/>
@@ -35224,16 +34789,16 @@
       <x v="94"/>
     </i>
     <i>
-      <x v="72"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="38"/>
     </i>
     <i>
       <x v="124"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="66"/>
     </i>
     <i>
       <x v="126"/>
@@ -35242,7 +34807,7 @@
       <x v="99"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="54"/>
     </i>
     <i>
       <x v="100"/>
@@ -35254,10 +34819,13 @@
       <x v="106"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="134"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="111"/>
     </i>
     <i>
       <x v="61"/>
@@ -35287,8 +34855,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F35C15A-71D4-4E31-90A7-A96A56BB3566}" name="PivotTable7" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F35C15A-71D4-4E31-90A7-A96A56BB3566}" name="PivotTable7" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P5:Q141" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -35876,8 +35444,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9039A971-46CC-4BDD-8177-1FA68F4C8295}" name="PivotTable6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9039A971-46CC-4BDD-8177-1FA68F4C8295}" name="PivotTable6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M5:N141" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -36476,8 +36044,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3946A767-5631-47A2-AA52-D3AD9CD9CDBD}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3946A767-5631-47A2-AA52-D3AD9CD9CDBD}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:K81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -36898,6 +36466,602 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6726ADED-D03C-4AE6-8CD0-05E0275D2F37}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="137">
+        <item x="17"/>
+        <item x="118"/>
+        <item x="62"/>
+        <item x="19"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="120"/>
+        <item x="38"/>
+        <item x="114"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item x="110"/>
+        <item x="116"/>
+        <item x="109"/>
+        <item x="125"/>
+        <item x="68"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="113"/>
+        <item x="30"/>
+        <item x="22"/>
+        <item x="73"/>
+        <item x="104"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="94"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="95"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="89"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="88"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="115"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="106"/>
+        <item x="74"/>
+        <item x="100"/>
+        <item x="105"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="92"/>
+        <item x="58"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="8"/>
+        <item x="111"/>
+        <item x="15"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="60"/>
+        <item x="126"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="76"/>
+        <item x="28"/>
+        <item x="121"/>
+        <item x="46"/>
+        <item x="81"/>
+        <item x="117"/>
+        <item x="124"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="93"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="97"/>
+        <item x="119"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="50"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="103"/>
+        <item x="80"/>
+        <item x="69"/>
+        <item x="85"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="96"/>
+        <item x="53"/>
+        <item x="102"/>
+        <item x="70"/>
+        <item x="122"/>
+        <item x="101"/>
+        <item x="99"/>
+        <item x="23"/>
+        <item x="91"/>
+        <item x="108"/>
+        <item x="77"/>
+        <item x="123"/>
+        <item x="112"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="54"/>
+        <item x="98"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="135"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="135">
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -37197,8 +37361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37336,13 +37500,13 @@
         <v>353</v>
       </c>
       <c r="E6" s="3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>381</v>
       </c>
       <c r="H6" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>352</v>
@@ -37374,7 +37538,7 @@
         <v>362</v>
       </c>
       <c r="E7" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>375</v>
@@ -37409,10 +37573,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="E8" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>373</v>
@@ -37447,10 +37611,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="E9" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>341</v>
@@ -37485,10 +37649,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E10" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>429</v>
@@ -37526,10 +37690,10 @@
         <v>427</v>
       </c>
       <c r="E11" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="H11" s="3">
         <v>14</v>
@@ -37564,10 +37728,10 @@
         <v>401</v>
       </c>
       <c r="E12" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="H12" s="3">
         <v>14</v>
@@ -37640,7 +37804,7 @@
         <v>412</v>
       </c>
       <c r="E14" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>389</v>
@@ -37678,7 +37842,7 @@
         <v>532</v>
       </c>
       <c r="E15" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>384</v>
@@ -37716,10 +37880,10 @@
         <v>407</v>
       </c>
       <c r="E16" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>383</v>
+        <v>1108</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
@@ -37754,13 +37918,13 @@
         <v>390</v>
       </c>
       <c r="E17" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1108</v>
+        <v>383</v>
       </c>
       <c r="H17" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>389</v>
@@ -37789,10 +37953,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E18" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>388</v>
@@ -37827,10 +37991,10 @@
         <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="E19" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>366</v>
@@ -37865,13 +38029,13 @@
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E20" s="3">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H20" s="3">
         <v>6</v>
@@ -37903,13 +38067,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>359</v>
+        <v>760</v>
       </c>
       <c r="E21" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H21" s="3">
         <v>6</v>
@@ -37941,13 +38105,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>760</v>
+        <v>375</v>
       </c>
       <c r="E22" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>801</v>
+        <v>344</v>
       </c>
       <c r="H22" s="3">
         <v>6</v>
@@ -37979,13 +38143,13 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E23" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>359</v>
+        <v>801</v>
       </c>
       <c r="H23" s="3">
         <v>6</v>
@@ -38020,10 +38184,10 @@
         <v>363</v>
       </c>
       <c r="E24" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H24" s="3">
         <v>6</v>
@@ -38058,7 +38222,7 @@
         <v>355</v>
       </c>
       <c r="E25" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>802</v>
@@ -38137,7 +38301,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="H27" s="3">
         <v>5</v>
@@ -38175,7 +38339,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="H28" s="3">
         <v>5</v>
@@ -38213,7 +38377,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H29" s="3">
         <v>4</v>
@@ -38251,7 +38415,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H30" s="3">
         <v>4</v>
@@ -38283,13 +38447,13 @@
         <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>402</v>
+        <v>801</v>
       </c>
       <c r="E31" s="3">
         <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H31" s="3">
         <v>4</v>
@@ -38321,13 +38485,13 @@
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E32" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>897</v>
+        <v>399</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
@@ -38359,10 +38523,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E33" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>367</v>
@@ -38397,13 +38561,13 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>801</v>
+        <v>415</v>
       </c>
       <c r="E34" s="3">
         <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>398</v>
+        <v>1109</v>
       </c>
       <c r="H34" s="3">
         <v>3</v>
@@ -38441,7 +38605,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>619</v>
+        <v>392</v>
       </c>
       <c r="H35" s="3">
         <v>3</v>
@@ -38479,7 +38643,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>392</v>
+        <v>619</v>
       </c>
       <c r="H36" s="3">
         <v>3</v>
@@ -38511,13 +38675,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H37" s="3">
         <v>3</v>
@@ -38549,16 +38713,16 @@
         <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E38" s="3">
         <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>472</v>
+        <v>897</v>
       </c>
       <c r="H38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>354</v>
@@ -38587,13 +38751,13 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>759</v>
+        <v>420</v>
       </c>
       <c r="E39" s="3">
         <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -38625,13 +38789,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>396</v>
+        <v>759</v>
       </c>
       <c r="E40" s="3">
         <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H40" s="3">
         <v>2</v>
@@ -38663,13 +38827,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="E41" s="3">
         <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="H41" s="3">
         <v>2</v>
@@ -38701,13 +38865,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H42" s="3">
         <v>2</v>
@@ -38739,13 +38903,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>873</v>
+        <v>666</v>
       </c>
       <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>351</v>
+        <v>530</v>
       </c>
       <c r="H43" s="3">
         <v>2</v>
@@ -38777,13 +38941,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="E44" s="3">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="H44" s="3">
         <v>2</v>
@@ -38815,13 +38979,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E45" s="3">
         <v>6</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="H45" s="3">
         <v>2</v>
@@ -38859,7 +39023,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1109</v>
+        <v>374</v>
       </c>
       <c r="H46" s="3">
         <v>2</v>
@@ -38891,13 +39055,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>344</v>
+        <v>931</v>
       </c>
       <c r="E47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="H47" s="3">
         <v>2</v>
@@ -38929,13 +39093,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>830</v>
+        <v>344</v>
       </c>
       <c r="E48" s="3">
         <v>4</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="H48" s="3">
         <v>2</v>
@@ -38967,13 +39131,13 @@
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>931</v>
+        <v>830</v>
       </c>
       <c r="E49" s="3">
         <v>4</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>340</v>
+        <v>472</v>
       </c>
       <c r="H49" s="3">
         <v>2</v>
@@ -39011,7 +39175,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H50" s="3">
         <v>2</v>
@@ -39049,7 +39213,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="H51" s="3">
         <v>2</v>
@@ -39087,7 +39251,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>530</v>
+        <v>378</v>
       </c>
       <c r="H52" s="3">
         <v>2</v>
@@ -39125,7 +39289,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="H53" s="3">
         <v>2</v>
@@ -39201,7 +39365,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>374</v>
+        <v>1095</v>
       </c>
       <c r="H55" s="3">
         <v>2</v>
@@ -39239,7 +39403,7 @@
         <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1095</v>
+        <v>364</v>
       </c>
       <c r="H56" s="3">
         <v>2</v>
@@ -39277,7 +39441,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="H57" s="3">
         <v>2</v>
@@ -39315,7 +39479,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H58" s="3">
         <v>2</v>
@@ -39353,7 +39517,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="H59" s="3">
         <v>2</v>
@@ -39391,7 +39555,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>667</v>
+        <v>346</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -39429,7 +39593,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>2006</v>
+        <v>413</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -39467,7 +39631,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -39505,7 +39669,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -39543,7 +39707,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -39581,7 +39745,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
@@ -39657,7 +39821,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>349</v>
+        <v>2157</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -39693,7 +39857,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
@@ -39873,7 +40037,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -39945,7 +40109,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -40053,7 +40217,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -40089,7 +40253,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -40156,10 +40320,10 @@
         <v>431</v>
       </c>
       <c r="E81" s="3">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -40237,7 +40401,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
@@ -40331,7 +40495,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>345</v>
+        <v>2006</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
@@ -40355,7 +40519,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
@@ -40379,7 +40543,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -40403,10 +40567,10 @@
         <v>2</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="H91" s="3">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>357</v>
@@ -40425,6 +40589,12 @@
       </c>
       <c r="B92" s="3">
         <v>2</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H92" s="3">
+        <v>362</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>416</v>
@@ -41324,10 +41494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:F1162"/>
+  <dimension ref="A1:F1195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1146" sqref="E2:F1146"/>
+    <sheetView topLeftCell="A1175" workbookViewId="0">
+      <selection activeCell="A1192" sqref="A1192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64657,6 +64827,434 @@
       <c r="D1162" t="str">
         <f t="shared" si="60"/>
         <v/>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1163" t="str">
+        <f t="shared" ref="A1163:A1195" si="61">IFERROR(IF(FIND("appics",C1163)&gt;0,"appics"),"actifit")</f>
+        <v>actifit</v>
+      </c>
+      <c r="B1163" t="str">
+        <f t="shared" ref="B1163:B1195" si="62">IF(A1163="other","N/A",IF(A1163="appics",MID(C1163,29,LEN(C1163)-26-29),MID(C1163,34,FIND("/actifit-",C1163)-34)))</f>
+        <v>bluengel</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1164" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1164" t="str">
+        <f t="shared" si="62"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1165" t="str">
+        <f t="shared" si="61"/>
+        <v>appics</v>
+      </c>
+      <c r="B1165" t="str">
+        <f t="shared" si="62"/>
+        <v>jboogzofficial</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1166" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1166" t="str">
+        <f t="shared" si="62"/>
+        <v>sereze</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1167" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1167" t="str">
+        <f t="shared" si="62"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1168" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1168" t="str">
+        <f t="shared" si="62"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1169" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1169" t="str">
+        <f t="shared" si="62"/>
+        <v>blumela</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1170" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1170" t="str">
+        <f t="shared" si="62"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1171" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1171" t="str">
+        <f t="shared" si="62"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1172" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1172" t="str">
+        <f t="shared" si="62"/>
+        <v>btcsam</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1173" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1173" t="str">
+        <f t="shared" si="62"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1174" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1174" t="str">
+        <f t="shared" si="62"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1175" t="str">
+        <f t="shared" si="61"/>
+        <v>appics</v>
+      </c>
+      <c r="B1175" t="str">
+        <f t="shared" si="62"/>
+        <v>mijafit94</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1176" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1176" t="str">
+        <f t="shared" si="62"/>
+        <v>photobook</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1177" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1177" t="str">
+        <f t="shared" si="62"/>
+        <v>dailyspam</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1178" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1178" t="str">
+        <f t="shared" si="62"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1179" t="str">
+        <f t="shared" si="61"/>
+        <v>appics</v>
+      </c>
+      <c r="B1179" t="str">
+        <f t="shared" si="62"/>
+        <v>titan-c</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1180" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1180" t="str">
+        <f t="shared" si="62"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1181" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1181" t="str">
+        <f t="shared" si="62"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1182" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1182" t="str">
+        <f t="shared" si="62"/>
+        <v>mysteryreader</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1183" t="str">
+        <f t="shared" si="61"/>
+        <v>appics</v>
+      </c>
+      <c r="B1183" t="str">
+        <f t="shared" si="62"/>
+        <v>markom021</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1184" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1184" t="str">
+        <f t="shared" si="62"/>
+        <v>mhm-philippines</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1185" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1185" t="str">
+        <f t="shared" si="62"/>
+        <v>sereze</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1186" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1186" t="str">
+        <f t="shared" si="62"/>
+        <v>geekdancing</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1187" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1187" t="str">
+        <f t="shared" si="62"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1188" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1188" t="str">
+        <f t="shared" si="62"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1189" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1189" t="str">
+        <f t="shared" si="62"/>
+        <v>electronicsworld</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1190" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1190" t="str">
+        <f t="shared" si="62"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1191" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1191" t="str">
+        <f t="shared" si="62"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1192" t="str">
+        <f t="shared" si="62"/>
+        <v>N/A</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1193" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1193" t="str">
+        <f t="shared" si="62"/>
+        <v>blumela</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1194" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1194" t="str">
+        <f t="shared" si="62"/>
+        <v>bozz.sports</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1195" t="str">
+        <f t="shared" si="61"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1195" t="str">
+        <f t="shared" si="62"/>
+        <v>mcoinz79</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -64693,4 +65291,2070 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397501C8-85C1-49EF-B6DA-9080A0166B84}">
+  <dimension ref="A1:J88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="3.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E1" s="10" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2122</v>
+      </c>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="11">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11">
+        <f>IFERROR(VLOOKUP(D3,$A$3:$B$51,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="11">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F34" si="0">IFERROR(VLOOKUP(D4,$A$3:$B$51,2,FALSE),0)</f>
+        <v>20</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="11">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="11">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="11">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>200</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="11">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G8" s="11">
+        <v>500</v>
+      </c>
+      <c r="H8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E9" s="11">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="11">
+        <v>500</v>
+      </c>
+      <c r="H9" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="11">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="11">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="11">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E13" s="11">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="11">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="11">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" s="11">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="11">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>760</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" s="11">
+        <v>6</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>801</v>
+      </c>
+      <c r="E20" s="11">
+        <v>6</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" s="11">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E22" s="11">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>385</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" s="11">
+        <v>5</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G23" s="11">
+        <v>500</v>
+      </c>
+      <c r="H23" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>402</v>
+      </c>
+      <c r="E25" s="11">
+        <v>5</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G26" s="11">
+        <v>500</v>
+      </c>
+      <c r="H26" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="11">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>801</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="11">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E31" s="11">
+        <v>3</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>619</v>
+      </c>
+      <c r="E33" s="11">
+        <v>3</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>398</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>424</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>897</v>
+      </c>
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" ref="F35:F61" si="1">IFERROR(VLOOKUP(D35,$A$3:$B$51,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>403</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>759</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>404</v>
+      </c>
+      <c r="E39" s="11">
+        <v>2</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>666</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>530</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>873</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>667</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>931</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" s="11">
+        <v>2</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>830</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>472</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>391</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>415</v>
+      </c>
+      <c r="E47" s="11">
+        <v>2</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" s="11">
+        <v>2</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" s="11">
+        <v>2</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E52" s="11">
+        <v>2</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>572</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" s="11">
+        <v>2</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>398</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55" s="11">
+        <v>2</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>346</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>413</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>425</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>665</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" ref="F62:F87" si="2">IFERROR(VLOOKUP(D62,$A$3:$B$51,2,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>756</v>
+      </c>
+      <c r="E63" s="11">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>571</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>411</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>421</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>474</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>360</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>422</v>
+      </c>
+      <c r="E68" s="11">
+        <v>1</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>932</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>357</v>
+      </c>
+      <c r="E70" s="11">
+        <v>1</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>430</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>758</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>349</v>
+      </c>
+      <c r="E72" s="11">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>757</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>534</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>471</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>369</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>622</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>621</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>405</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>531</v>
+      </c>
+      <c r="E80" s="11">
+        <v>1</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" s="11">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>532</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E83" s="11">
+        <v>1</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>620</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E85" s="11">
+        <v>1</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>406</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>667</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>400</v>
+      </c>
+      <c r="E88" s="11">
+        <v>1</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" ref="F88" si="3">IFERROR(VLOOKUP(D88,$A$3:$B$51,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9E75B5-0BC9-4D3A-A04F-501BF86F7BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9383A-8E83-4054-A5F0-5F2CAA920DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -19,15 +19,15 @@
     <sheet name="Rewards" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Posts!$A$1:$F$1024</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Posts!$A$1:$F$1225</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId5"/>
-    <pivotCache cacheId="27" r:id="rId6"/>
-    <pivotCache cacheId="28" r:id="rId7"/>
-    <pivotCache cacheId="32" r:id="rId8"/>
-    <pivotCache cacheId="36" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="12" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="2193">
   <si>
     <t>https://steemit.com/appics/@jboogzofficial/appics-v1-appics-im-89502</t>
   </si>
@@ -6527,13 +6527,109 @@
   </si>
   <si>
     <t>6 Appics progress reports &amp; 24 Actifit activity reports - 200 APX + 2,000 AFIT tokens.</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@btcsam/appics-v1-appics-im-113508</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@fitbyrobi/actifit-fitbyrobi-20200316t220219152z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200316t214746313z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200316t214418941z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@verticallife2/actifit-verticallife2-20200316t185242819z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200316t184748635z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200316t163119501z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200316t160411154z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200316t130827202z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@blumela/actifit-blumela-20200316t125949830z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@demstreets/appics-v1-appics-im-113216</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@nalitoss/appics-v1-appics-im-113194</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200316t075935064z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@appics/get-appics-power-spread-the-word-new-video</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@mysteryreader/actifit-mysteryreader-20200315t215545432z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@apprentice001/actifit-apprentice001-20200315t214826008z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@drugelis/actifit-drugelis-20200315t214309317z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@runridefly/appics-v1-appics-im-113014</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@ynwa.andree/actifit-ynwa-andree-20200315t200705972z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@fitbyrobi/appics-v1-appics-im-112992</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@actifit-peter/actifit-actifit-peter-20200315t185313145z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@sereze/actifit-sereze-20200315t180553095z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@bluengel/actifit-bluengel-20200315t160216119z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-112829</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@zanoni/appics-v1-appics-im-112824</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@robibasa/actifit-robibasa-20200315t134442257z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@zanoni/actifit-zanoni-20200315t133223221z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@photobook/actifit-photobook-20200315t124859100z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/hive-193552/@purepinay/actifit-purepinay-20200315t124614955z</t>
+  </si>
+  <si>
+    <t>https://steemit.com/appics/@mijafit94/appics-v1-appics-im-112782</t>
+  </si>
+  <si>
+    <t>appics/get-appics-powe</t>
+  </si>
+  <si>
+    <t>nalitoss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6559,6 +6655,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6603,7 +6707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6628,6 +6732,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7327,7 +7435,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Paul Jansen" refreshedDate="43905.521571412035" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1195" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Paul Jansen" refreshedDate="43907.459109490737" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1226" xr:uid="{1A1BB899-0127-4B5C-9B19-03700A0F137D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C9992" sheet="Posts"/>
   </cacheSource>
@@ -7341,7 +7449,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Account" numFmtId="0">
-      <sharedItems containsBlank="1" count="138">
+      <sharedItems containsBlank="1" count="140">
         <s v="jboogzofficial"/>
         <s v="alexvanaken"/>
         <s v="onealfa"/>
@@ -7478,6 +7586,8 @@
         <s v="elfman2018"/>
         <s v="sipahikara"/>
         <s v="titan-c"/>
+        <s v="nalitoss"/>
+        <s v="appics/get-appics-powe"/>
         <m/>
         <s v="charlesfuchs" u="1"/>
       </sharedItems>
@@ -33981,7 +34091,603 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6726ADED-D03C-4AE6-8CD0-05E0275D2F37}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="137">
+        <item x="17"/>
+        <item x="118"/>
+        <item x="62"/>
+        <item x="19"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="120"/>
+        <item x="38"/>
+        <item x="114"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item x="110"/>
+        <item x="116"/>
+        <item x="109"/>
+        <item x="125"/>
+        <item x="68"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="113"/>
+        <item x="30"/>
+        <item x="22"/>
+        <item x="73"/>
+        <item x="104"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="94"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="95"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="89"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="88"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="115"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="106"/>
+        <item x="74"/>
+        <item x="100"/>
+        <item x="105"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="92"/>
+        <item x="58"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="8"/>
+        <item x="111"/>
+        <item x="15"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="60"/>
+        <item x="126"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="76"/>
+        <item x="28"/>
+        <item x="121"/>
+        <item x="46"/>
+        <item x="81"/>
+        <item x="117"/>
+        <item x="124"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="93"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="97"/>
+        <item x="119"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="50"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="103"/>
+        <item x="80"/>
+        <item x="69"/>
+        <item x="85"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="96"/>
+        <item x="53"/>
+        <item x="102"/>
+        <item x="70"/>
+        <item x="122"/>
+        <item x="101"/>
+        <item x="99"/>
+        <item x="23"/>
+        <item x="91"/>
+        <item x="108"/>
+        <item x="77"/>
+        <item x="123"/>
+        <item x="112"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="54"/>
+        <item x="98"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="135"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="135">
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D5:E81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -33994,7 +34700,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="139">
+      <items count="141">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -34012,7 +34718,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="137"/>
+        <item m="1" x="139"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -34087,7 +34793,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="136"/>
+        <item x="138"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -34133,6 +34839,8 @@
         <item x="133"/>
         <item x="134"/>
         <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -34164,19 +34872,19 @@
       <x v="90"/>
     </i>
     <i>
-      <x/>
+      <x v="88"/>
     </i>
     <i>
-      <x v="88"/>
+      <x/>
     </i>
     <i>
       <x v="62"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="73"/>
     </i>
     <i>
-      <x v="73"/>
+      <x v="55"/>
     </i>
     <i>
       <x v="100"/>
@@ -34194,10 +34902,10 @@
       <x v="71"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="115"/>
     </i>
     <i>
-      <x v="115"/>
+      <x v="29"/>
     </i>
     <i>
       <x v="36"/>
@@ -34224,10 +34932,10 @@
       <x v="79"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="118"/>
     </i>
     <i>
-      <x v="118"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="63"/>
@@ -34236,58 +34944,58 @@
       <x v="69"/>
     </i>
     <i>
+      <x v="33"/>
+    </i>
+    <i>
       <x v="76"/>
     </i>
     <i>
       <x v="97"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="85"/>
     </i>
     <i>
       <x v="87"/>
     </i>
     <i>
-      <x v="85"/>
+      <x v="112"/>
     </i>
     <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="112"/>
+      <x v="57"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="120"/>
     </i>
     <i>
       <x v="109"/>
     </i>
     <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
       <x v="102"/>
     </i>
     <i>
-      <x v="123"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="119"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="119"/>
-    </i>
-    <i>
       <x v="52"/>
-    </i>
-    <i>
-      <x v="14"/>
     </i>
     <i>
       <x v="70"/>
@@ -34401,9 +35109,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H92" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
@@ -34415,7 +35123,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="139">
+      <items count="141">
         <item x="17"/>
         <item x="62"/>
         <item x="19"/>
@@ -34433,7 +35141,7 @@
         <item x="22"/>
         <item x="73"/>
         <item x="35"/>
-        <item m="1" x="137"/>
+        <item m="1" x="139"/>
         <item x="34"/>
         <item x="39"/>
         <item x="5"/>
@@ -34508,7 +35216,7 @@
         <item x="54"/>
         <item x="14"/>
         <item x="49"/>
-        <item x="136"/>
+        <item x="138"/>
         <item x="46"/>
         <item x="91"/>
         <item x="92"/>
@@ -34554,6 +35262,8 @@
         <item x="133"/>
         <item x="134"/>
         <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -34571,7 +35281,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="87">
+  <rowItems count="89">
     <i>
       <x v="42"/>
     </i>
@@ -34600,10 +35310,10 @@
       <x v="50"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="128"/>
     </i>
     <i>
-      <x v="128"/>
+      <x v="45"/>
     </i>
     <i>
       <x v="44"/>
@@ -34615,109 +35325,109 @@
       <x v="27"/>
     </i>
     <i>
-      <x v="69"/>
+      <x v="118"/>
     </i>
     <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="118"/>
+      <x v="22"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="117"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i>
       <x v="63"/>
     </i>
     <i>
+      <x v="40"/>
+    </i>
+    <i>
       <x v="29"/>
     </i>
     <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="33"/>
+      <x v="129"/>
     </i>
     <i>
       <x v="60"/>
     </i>
     <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="129"/>
+      <x v="108"/>
     </i>
     <i>
       <x v="53"/>
     </i>
     <i>
-      <x v="108"/>
+      <x v="121"/>
     </i>
     <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="121"/>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="58"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="81"/>
+      <x v="80"/>
     </i>
     <i>
       <x v="65"/>
     </i>
     <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
       <x v="98"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="76"/>
+      <x v="75"/>
     </i>
     <i>
       <x v="32"/>
     </i>
     <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="76"/>
     </i>
     <i>
       <x v="125"/>
@@ -34729,25 +35439,25 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="75"/>
+      <x v="35"/>
     </i>
     <i>
-      <x/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="137"/>
     </i>
     <i>
       <x v="74"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="61"/>
     </i>
     <i>
-      <x v="56"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="26"/>
@@ -34756,7 +35466,7 @@
       <x v="114"/>
     </i>
     <i>
-      <x v="137"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="72"/>
@@ -34774,13 +35484,13 @@
       <x v="133"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="54"/>
     </i>
     <i>
-      <x v="113"/>
+      <x v="139"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="116"/>
@@ -34789,16 +35499,16 @@
       <x v="94"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="10"/>
     </i>
     <i>
-      <x v="38"/>
+      <x v="66"/>
     </i>
     <i>
       <x v="124"/>
     </i>
     <i>
-      <x v="66"/>
+      <x v="67"/>
     </i>
     <i>
       <x v="126"/>
@@ -34807,7 +35517,7 @@
       <x v="99"/>
     </i>
     <i>
-      <x v="54"/>
+      <x v="38"/>
     </i>
     <i>
       <x v="100"/>
@@ -34822,13 +35532,19 @@
       <x v="134"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="138"/>
     </i>
     <i>
       <x v="111"/>
     </i>
     <i>
-      <x v="61"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="113"/>
     </i>
     <i t="grand">
       <x/>
@@ -34855,8 +35571,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F35C15A-71D4-4E31-90A7-A96A56BB3566}" name="PivotTable7" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F35C15A-71D4-4E31-90A7-A96A56BB3566}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P5:Q141" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -35444,8 +36160,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9039A971-46CC-4BDD-8177-1FA68F4C8295}" name="PivotTable6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9039A971-46CC-4BDD-8177-1FA68F4C8295}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M5:N141" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -36044,8 +36760,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3946A767-5631-47A2-AA52-D3AD9CD9CDBD}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3946A767-5631-47A2-AA52-D3AD9CD9CDBD}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:K81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -36466,602 +37182,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6726ADED-D03C-4AE6-8CD0-05E0275D2F37}" name="PivotTable2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="137">
-        <item x="17"/>
-        <item x="118"/>
-        <item x="62"/>
-        <item x="19"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="120"/>
-        <item x="38"/>
-        <item x="114"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="110"/>
-        <item x="116"/>
-        <item x="109"/>
-        <item x="125"/>
-        <item x="68"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="113"/>
-        <item x="30"/>
-        <item x="22"/>
-        <item x="73"/>
-        <item x="104"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="94"/>
-        <item x="39"/>
-        <item x="5"/>
-        <item x="95"/>
-        <item x="75"/>
-        <item x="59"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="10"/>
-        <item x="89"/>
-        <item x="12"/>
-        <item x="32"/>
-        <item x="4"/>
-        <item x="88"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="36"/>
-        <item x="48"/>
-        <item x="115"/>
-        <item x="55"/>
-        <item x="31"/>
-        <item x="106"/>
-        <item x="74"/>
-        <item x="100"/>
-        <item x="105"/>
-        <item x="90"/>
-        <item x="86"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="92"/>
-        <item x="58"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="8"/>
-        <item x="111"/>
-        <item x="15"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="60"/>
-        <item x="126"/>
-        <item x="56"/>
-        <item x="52"/>
-        <item x="76"/>
-        <item x="28"/>
-        <item x="121"/>
-        <item x="46"/>
-        <item x="81"/>
-        <item x="117"/>
-        <item x="124"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="93"/>
-        <item x="44"/>
-        <item x="63"/>
-        <item x="97"/>
-        <item x="119"/>
-        <item x="83"/>
-        <item x="64"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="50"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="16"/>
-        <item x="41"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="103"/>
-        <item x="80"/>
-        <item x="69"/>
-        <item x="85"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="82"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="67"/>
-        <item x="96"/>
-        <item x="53"/>
-        <item x="102"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="101"/>
-        <item x="99"/>
-        <item x="23"/>
-        <item x="91"/>
-        <item x="108"/>
-        <item x="77"/>
-        <item x="123"/>
-        <item x="112"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="54"/>
-        <item x="98"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="135"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="135">
-    <i>
-      <x v="126"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -37361,8 +37481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D6F82-DB26-444C-96DD-56C22A3FA552}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G93" sqref="G6:H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37373,7 +37493,7 @@
     <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.90625" customWidth="1"/>
     <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
@@ -37538,7 +37658,7 @@
         <v>362</v>
       </c>
       <c r="E7" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>375</v>
@@ -37576,7 +37696,7 @@
         <v>352</v>
       </c>
       <c r="E8" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>373</v>
@@ -37614,7 +37734,7 @@
         <v>429</v>
       </c>
       <c r="E9" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>341</v>
@@ -37649,16 +37769,16 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="E10" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H10" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>340</v>
@@ -37687,16 +37807,16 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="E11" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>410</v>
       </c>
       <c r="H11" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>401</v>
@@ -37728,7 +37848,7 @@
         <v>401</v>
       </c>
       <c r="E12" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>385</v>
@@ -37763,10 +37883,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="E13" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>343</v>
@@ -37801,10 +37921,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E14" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>389</v>
@@ -37842,13 +37962,13 @@
         <v>532</v>
       </c>
       <c r="E15" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>384</v>
+        <v>1108</v>
       </c>
       <c r="H15" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>760</v>
@@ -37880,10 +38000,10 @@
         <v>407</v>
       </c>
       <c r="E16" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1108</v>
+        <v>384</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
@@ -38029,13 +38149,13 @@
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>368</v>
+        <v>760</v>
       </c>
       <c r="E20" s="3">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>408</v>
+        <v>801</v>
       </c>
       <c r="H20" s="3">
         <v>6</v>
@@ -38067,10 +38187,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>760</v>
+        <v>368</v>
       </c>
       <c r="E21" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>416</v>
@@ -38111,7 +38231,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H22" s="3">
         <v>6</v>
@@ -38149,7 +38269,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>801</v>
+        <v>359</v>
       </c>
       <c r="H23" s="3">
         <v>6</v>
@@ -38187,7 +38307,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H24" s="3">
         <v>6</v>
@@ -38225,10 +38345,10 @@
         <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>802</v>
+        <v>355</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>419</v>
@@ -38263,10 +38383,10 @@
         <v>17</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>385</v>
@@ -38301,7 +38421,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>361</v>
+        <v>802</v>
       </c>
       <c r="H27" s="3">
         <v>5</v>
@@ -38339,7 +38459,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="H28" s="3">
         <v>5</v>
@@ -38377,10 +38497,10 @@
         <v>14</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>355</v>
@@ -38409,10 +38529,10 @@
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="E30" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>379</v>
@@ -38447,13 +38567,13 @@
         <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>801</v>
+        <v>343</v>
       </c>
       <c r="E31" s="3">
         <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H31" s="3">
         <v>4</v>
@@ -38491,7 +38611,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>399</v>
+        <v>1109</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
@@ -38529,7 +38649,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="H33" s="3">
         <v>3</v>
@@ -38561,13 +38681,13 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="E34" s="3">
         <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1109</v>
+        <v>619</v>
       </c>
       <c r="H34" s="3">
         <v>3</v>
@@ -38599,7 +38719,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="E35" s="3">
         <v>9</v>
@@ -38637,13 +38757,13 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="E36" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>619</v>
+        <v>897</v>
       </c>
       <c r="H36" s="3">
         <v>3</v>
@@ -38675,7 +38795,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
@@ -38713,13 +38833,13 @@
         <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E38" s="3">
         <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>897</v>
+        <v>367</v>
       </c>
       <c r="H38" s="3">
         <v>3</v>
@@ -38751,13 +38871,13 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>420</v>
+        <v>759</v>
       </c>
       <c r="E39" s="3">
         <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -38789,13 +38909,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>759</v>
+        <v>420</v>
       </c>
       <c r="E40" s="3">
         <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="H40" s="3">
         <v>2</v>
@@ -38827,13 +38947,13 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="E41" s="3">
         <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="H41" s="3">
         <v>2</v>
@@ -38865,13 +38985,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="H42" s="3">
         <v>2</v>
@@ -38903,13 +39023,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>666</v>
+        <v>931</v>
       </c>
       <c r="E43" s="3">
         <v>6</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="H43" s="3">
         <v>2</v>
@@ -38941,13 +39061,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>873</v>
+        <v>667</v>
       </c>
       <c r="E44" s="3">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H44" s="3">
         <v>2</v>
@@ -38979,13 +39099,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="E45" s="3">
         <v>6</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="H45" s="3">
         <v>2</v>
@@ -39017,13 +39137,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>533</v>
+        <v>666</v>
       </c>
       <c r="E46" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="H46" s="3">
         <v>2</v>
@@ -39055,13 +39175,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>931</v>
+        <v>533</v>
       </c>
       <c r="E47" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H47" s="3">
         <v>2</v>
@@ -39093,13 +39213,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E48" s="3">
         <v>4</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H48" s="3">
         <v>2</v>
@@ -39137,7 +39257,7 @@
         <v>4</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="H49" s="3">
         <v>2</v>
@@ -39169,13 +39289,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="H50" s="3">
         <v>2</v>
@@ -39207,13 +39327,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E51" s="3">
         <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>371</v>
+        <v>530</v>
       </c>
       <c r="H51" s="3">
         <v>2</v>
@@ -39251,7 +39371,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="H52" s="3">
         <v>2</v>
@@ -39289,7 +39409,7 @@
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="H53" s="3">
         <v>2</v>
@@ -39327,7 +39447,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H54" s="3">
         <v>2</v>
@@ -39479,7 +39599,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="H58" s="3">
         <v>2</v>
@@ -39517,7 +39637,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="H59" s="3">
         <v>2</v>
@@ -39555,7 +39675,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>346</v>
+        <v>2157</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -39631,7 +39751,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -39669,7 +39789,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
@@ -39707,7 +39827,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -39821,7 +39941,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>2157</v>
+        <v>346</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
@@ -40037,7 +40157,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -40073,7 +40193,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>758</v>
+        <v>2191</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -40109,7 +40229,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -40217,7 +40337,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -40253,7 +40373,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -40320,10 +40440,10 @@
         <v>431</v>
       </c>
       <c r="E81" s="3">
-        <v>823</v>
+        <v>844</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -40401,7 +40521,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
@@ -40519,7 +40639,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
@@ -40543,7 +40663,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>667</v>
+        <v>2192</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -40567,7 +40687,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="H91" s="3">
         <v>1</v>
@@ -40591,10 +40711,10 @@
         <v>2</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="H92" s="3">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>416</v>
@@ -40616,6 +40736,12 @@
       <c r="B93" s="3">
         <v>2</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
       <c r="M93" s="2" t="s">
         <v>397</v>
       </c>
@@ -40636,6 +40762,12 @@
       <c r="B94" s="3">
         <v>2</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H94" s="3">
+        <v>371</v>
+      </c>
       <c r="M94" s="2" t="s">
         <v>758</v>
       </c>
@@ -41489,15 +41621,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7BC73F-E57B-4274-B31C-48B9734DA5E0}">
-  <dimension ref="A1:F1195"/>
+  <dimension ref="A1:F1225"/>
   <sheetViews>
-    <sheetView topLeftCell="A1175" workbookViewId="0">
-      <selection activeCell="A1192" sqref="A1192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C930" sqref="C930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65257,8 +65390,398 @@
         <v>2156</v>
       </c>
     </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1196" t="str">
+        <f t="shared" ref="A1196:A1225" si="63">IFERROR(IF(FIND("appics",C1196)&gt;0,"appics"),"actifit")</f>
+        <v>appics</v>
+      </c>
+      <c r="B1196" t="str">
+        <f t="shared" ref="B1196:B1225" si="64">IF(A1196="other","N/A",IF(A1196="appics",MID(C1196,29,LEN(C1196)-26-29),MID(C1196,34,FIND("/actifit-",C1196)-34)))</f>
+        <v>btcsam</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1197" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1197" t="str">
+        <f t="shared" si="64"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1198" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1198" t="str">
+        <f t="shared" si="64"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1199" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1199" t="str">
+        <f t="shared" si="64"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1200" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1200" t="str">
+        <f t="shared" si="64"/>
+        <v>verticallife2</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1201" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1201" t="str">
+        <f t="shared" si="64"/>
+        <v>sereze</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1202" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1202" t="str">
+        <f t="shared" si="64"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1203" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1203" t="str">
+        <f t="shared" si="64"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1204" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1204" t="str">
+        <f t="shared" si="64"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1205" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1205" t="str">
+        <f t="shared" si="64"/>
+        <v>blumela</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1206" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1206" t="str">
+        <f t="shared" si="64"/>
+        <v>demstreets</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1207" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1207" t="str">
+        <f t="shared" si="64"/>
+        <v>nalitoss</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1208" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1208" t="str">
+        <f t="shared" si="64"/>
+        <v>photobook</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1209" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1209" t="str">
+        <f t="shared" si="64"/>
+        <v>appics/get-appics-powe</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1210" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1210" t="str">
+        <f t="shared" si="64"/>
+        <v>mysteryreader</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1211" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1211" t="str">
+        <f t="shared" si="64"/>
+        <v>apprentice001</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1212" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1212" t="str">
+        <f t="shared" si="64"/>
+        <v>drugelis</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1213" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1213" t="str">
+        <f t="shared" si="64"/>
+        <v>runridefly</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1214" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1214" t="str">
+        <f t="shared" si="64"/>
+        <v>ynwa.andree</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1215" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1215" t="str">
+        <f t="shared" si="64"/>
+        <v>fitbyrobi</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1216" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1216" t="str">
+        <f t="shared" si="64"/>
+        <v>actifit-peter</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1217" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1217" t="str">
+        <f t="shared" si="64"/>
+        <v>sereze</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1218" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1218" t="str">
+        <f t="shared" si="64"/>
+        <v>bluengel</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1219" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1219" t="str">
+        <f t="shared" si="64"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1220" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1220" t="str">
+        <f t="shared" si="64"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1221" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1221" t="str">
+        <f t="shared" si="64"/>
+        <v>robibasa</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1222" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1222" t="str">
+        <f t="shared" si="64"/>
+        <v>zanoni</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1223" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1223" t="str">
+        <f t="shared" si="64"/>
+        <v>photobook</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1224" t="str">
+        <f t="shared" si="63"/>
+        <v>actifit</v>
+      </c>
+      <c r="B1224" t="str">
+        <f t="shared" si="64"/>
+        <v>purepinay</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1225" t="str">
+        <f t="shared" si="63"/>
+        <v>appics</v>
+      </c>
+      <c r="B1225" t="str">
+        <f t="shared" si="64"/>
+        <v>mijafit94</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>2190</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1024" xr:uid="{31CC09CB-DC66-4848-A2F4-FA898E014EF2}"/>
+  <autoFilter ref="A1:F1225" xr:uid="{31CC09CB-DC66-4848-A2F4-FA898E014EF2}"/>
   <hyperlinks>
     <hyperlink ref="C864" r:id="rId1" xr:uid="{07238352-2ADA-4B91-B9EC-718ED4EFAB8A}"/>
     <hyperlink ref="C73" r:id="rId2" xr:uid="{44106978-58AB-4437-8434-290688120996}"/>
@@ -65295,10 +65818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397501C8-85C1-49EF-B6DA-9080A0166B84}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65317,10 +65840,10 @@
       <c r="F1" s="10" t="s">
         <v>2118</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>2122</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -65336,10 +65859,10 @@
       <c r="F2" s="10" t="s">
         <v>2121</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>2119</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>2120</v>
       </c>
     </row>
@@ -65372,23 +65895,23 @@
         <v>362</v>
       </c>
       <c r="B4">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <v>25</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="14">
         <f t="shared" ref="F4:F34" si="0">IFERROR(VLOOKUP(D4,$A$3:$B$51,2,FALSE),0)</f>
         <v>20</v>
       </c>
-      <c r="G4" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="11">
-        <v>200</v>
+      <c r="G4" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -65396,7 +65919,7 @@
         <v>352</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>373</v>
@@ -65423,7 +65946,7 @@
         <v>429</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>341</v>
@@ -65447,25 +65970,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="E7" s="11">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="14">
+        <v>18</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G7" s="11">
+        <v>38</v>
+      </c>
+      <c r="G7" s="14">
         <v>2000</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <v>200</v>
       </c>
       <c r="J7" t="s">
@@ -65474,26 +65997,26 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="E8" s="11">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="14">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G8" s="11">
-        <v>500</v>
-      </c>
-      <c r="H8" s="11">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="14">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -65501,31 +66024,31 @@
         <v>401</v>
       </c>
       <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <v>14</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>500</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="14">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>343</v>
@@ -65546,26 +66069,26 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B11">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="14">
         <v>11</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="14">
         <v>200</v>
-      </c>
-      <c r="H11" s="11">
-        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -65573,13 +66096,13 @@
         <v>532</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>1108</v>
       </c>
       <c r="E12" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
@@ -65597,10 +66120,10 @@
         <v>407</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>1108</v>
+        <v>384</v>
       </c>
       <c r="E13" s="11">
         <v>9</v>
@@ -65669,7 +66192,7 @@
         <v>410</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>366</v>
@@ -65690,34 +66213,34 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>760</v>
       </c>
       <c r="B17">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>408</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="14">
+        <v>500</v>
+      </c>
+      <c r="H17" s="14">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>760</v>
+        <v>368</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>416</v>
@@ -65744,14 +66267,14 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="E19" s="11">
         <v>6</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -65767,21 +66290,21 @@
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>801</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20" s="14">
         <v>6</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="14">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="14">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -65792,20 +66315,20 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E21" s="11">
         <v>6</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G21" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -65815,21 +66338,21 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
-        <v>802</v>
-      </c>
-      <c r="E22" s="11">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="D22" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="14">
+        <v>6</v>
+      </c>
+      <c r="F22" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G22" s="14">
+        <v>500</v>
+      </c>
+      <c r="H22" s="14">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -65840,20 +66363,20 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="E23" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G23" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -65864,7 +66387,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>802</v>
       </c>
       <c r="E24" s="11">
         <v>5</v>
@@ -65888,14 +66411,14 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="E25" s="11">
         <v>5</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
@@ -65912,28 +66435,28 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="E26" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G26" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>379</v>
@@ -65954,26 +66477,26 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>801</v>
+        <v>343</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
-      <c r="D28" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D28" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="14">
         <v>4</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G28" s="14">
+        <v>500</v>
+      </c>
+      <c r="H28" s="14">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -65984,7 +66507,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>1109</v>
       </c>
       <c r="E29" s="11">
         <v>3</v>
@@ -66008,7 +66531,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="E30" s="11">
         <v>3</v>
@@ -66026,13 +66549,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="B31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>1109</v>
+        <v>619</v>
       </c>
       <c r="E31" s="11">
         <v>3</v>
@@ -66050,7 +66573,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="B32">
         <v>9</v>
@@ -66074,13 +66597,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>473</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>619</v>
+        <v>897</v>
       </c>
       <c r="E33" s="11">
         <v>3</v>
@@ -66098,7 +66621,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -66122,13 +66645,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>897</v>
+        <v>367</v>
       </c>
       <c r="E35" s="11">
         <v>3</v>
@@ -66146,13 +66669,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>759</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="E36" s="11">
         <v>2</v>
@@ -66170,20 +66693,20 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>759</v>
+        <v>420</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="E37" s="11">
         <v>2</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
@@ -66194,20 +66717,20 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="E38" s="11">
         <v>2</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -66218,13 +66741,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="E39" s="11">
         <v>2</v>
@@ -66242,13 +66765,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>666</v>
+        <v>931</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="E40" s="11">
         <v>2</v>
@@ -66266,20 +66789,20 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>873</v>
+        <v>667</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E41" s="11">
         <v>2</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
@@ -66290,20 +66813,20 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E42" s="11">
         <v>2</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
@@ -66314,13 +66837,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>533</v>
+        <v>666</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="E43" s="11">
         <v>2</v>
@@ -66338,20 +66861,20 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>931</v>
+        <v>533</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E44" s="11">
         <v>2</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G44" s="11">
         <v>0</v>
@@ -66362,13 +66885,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E45" s="11">
         <v>2</v>
@@ -66392,7 +66915,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="E46" s="11">
         <v>2</v>
@@ -66410,20 +66933,20 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E47" s="11">
         <v>2</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -66434,13 +66957,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>371</v>
+        <v>530</v>
       </c>
       <c r="E48" s="11">
         <v>2</v>
@@ -66464,7 +66987,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="E49" s="11">
         <v>2</v>
@@ -66488,14 +67011,14 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="E50" s="11">
         <v>2</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
         <v>0</v>
@@ -66512,14 +67035,14 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="E51" s="11">
         <v>2</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
@@ -66608,7 +67131,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
@@ -66632,14 +67155,14 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="E56" s="11">
         <v>2</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
@@ -66656,7 +67179,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>346</v>
+        <v>2157</v>
       </c>
       <c r="E57" s="11">
         <v>1</v>
@@ -66704,7 +67227,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="E59" s="11">
         <v>1</v>
@@ -66728,7 +67251,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="E60" s="11">
         <v>1</v>
@@ -66752,7 +67275,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="E61" s="11">
         <v>1</v>
@@ -66824,7 +67347,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>2157</v>
+        <v>346</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
@@ -66968,7 +67491,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="E70" s="11">
         <v>1</v>
@@ -66992,7 +67515,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>758</v>
+        <v>2191</v>
       </c>
       <c r="E71" s="11">
         <v>1</v>
@@ -67016,7 +67539,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
@@ -67088,7 +67611,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E75" s="11">
         <v>1</v>
@@ -67112,7 +67635,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="E76" s="11">
         <v>1</v>
@@ -67154,7 +67677,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E78" s="11">
         <v>1</v>
@@ -67208,7 +67731,7 @@
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E81" s="11">
         <v>1</v>
@@ -67233,7 +67756,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G82" s="11">
         <v>0</v>
@@ -67298,7 +67821,7 @@
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="E86" s="11">
         <v>1</v>
@@ -67316,14 +67839,14 @@
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D87" t="s">
-        <v>667</v>
+        <v>2192</v>
       </c>
       <c r="E87" s="11">
         <v>1</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G87" s="11">
         <v>0</v>
@@ -67334,20 +67857,36 @@
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="E88" s="11">
         <v>1</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" ref="F88" si="3">IFERROR(VLOOKUP(D88,$A$3:$B$51,2,FALSE),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G88" s="11">
         <v>0</v>
       </c>
       <c r="H88" s="11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>758</v>
+      </c>
+      <c r="E90" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Getinshape_top_contributors.xlsx
+++ b/Getinshape_top_contributors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9383A-8E83-4054-A5F0-5F2CAA920DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D525D87D-EA6B-42A0-9456-6AC8B23FD38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{E07FC0DA-2B8B-4693-B315-93EF4EBA5036}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <pivotCache cacheId="1" r:id="rId6"/>
     <pivotCache cacheId="2" r:id="rId7"/>
     <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="12" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6729,13 +6729,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -34091,1026 +34091,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6726ADED-D03C-4AE6-8CD0-05E0275D2F37}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="137">
-        <item x="17"/>
-        <item x="118"/>
-        <item x="62"/>
-        <item x="19"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="120"/>
-        <item x="38"/>
-        <item x="114"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="110"/>
-        <item x="116"/>
-        <item x="109"/>
-        <item x="125"/>
-        <item x="68"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="113"/>
-        <item x="30"/>
-        <item x="22"/>
-        <item x="73"/>
-        <item x="104"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="94"/>
-        <item x="39"/>
-        <item x="5"/>
-        <item x="95"/>
-        <item x="75"/>
-        <item x="59"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="10"/>
-        <item x="89"/>
-        <item x="12"/>
-        <item x="32"/>
-        <item x="4"/>
-        <item x="88"/>
-        <item x="66"/>
-        <item x="107"/>
-        <item x="36"/>
-        <item x="48"/>
-        <item x="115"/>
-        <item x="55"/>
-        <item x="31"/>
-        <item x="106"/>
-        <item x="74"/>
-        <item x="100"/>
-        <item x="105"/>
-        <item x="90"/>
-        <item x="86"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="92"/>
-        <item x="58"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="8"/>
-        <item x="111"/>
-        <item x="15"/>
-        <item x="127"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="60"/>
-        <item x="126"/>
-        <item x="56"/>
-        <item x="52"/>
-        <item x="76"/>
-        <item x="28"/>
-        <item x="121"/>
-        <item x="46"/>
-        <item x="81"/>
-        <item x="117"/>
-        <item x="124"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="93"/>
-        <item x="44"/>
-        <item x="63"/>
-        <item x="97"/>
-        <item x="119"/>
-        <item x="83"/>
-        <item x="64"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="50"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="16"/>
-        <item x="41"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="103"/>
-        <item x="80"/>
-        <item x="69"/>
-        <item x="85"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="82"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="67"/>
-        <item x="96"/>
-        <item x="53"/>
-        <item x="102"/>
-        <item x="70"/>
-        <item x="122"/>
-        <item x="101"/>
-        <item x="99"/>
-        <item x="23"/>
-        <item x="91"/>
-        <item x="108"/>
-        <item x="77"/>
-        <item x="123"/>
-        <item x="112"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="54"/>
-        <item x="98"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="135"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="135">
-    <i>
-      <x v="126"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="116"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D5:E81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="141">
-        <item x="17"/>
-        <item x="62"/>
-        <item x="19"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="38"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="110"/>
-        <item x="68"/>
-        <item x="47"/>
-        <item x="20"/>
-        <item x="30"/>
-        <item x="22"/>
-        <item x="73"/>
-        <item x="35"/>
-        <item m="1" x="139"/>
-        <item x="34"/>
-        <item x="39"/>
-        <item x="5"/>
-        <item x="75"/>
-        <item x="59"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="10"/>
-        <item x="89"/>
-        <item x="12"/>
-        <item x="32"/>
-        <item x="4"/>
-        <item x="88"/>
-        <item x="66"/>
-        <item x="36"/>
-        <item x="48"/>
-        <item x="55"/>
-        <item x="31"/>
-        <item x="74"/>
-        <item x="90"/>
-        <item x="86"/>
-        <item x="61"/>
-        <item x="0"/>
-        <item x="58"/>
-        <item x="13"/>
-        <item x="51"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="87"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="60"/>
-        <item x="56"/>
-        <item x="52"/>
-        <item x="76"/>
-        <item x="28"/>
-        <item x="81"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="44"/>
-        <item x="63"/>
-        <item x="83"/>
-        <item x="64"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="50"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="16"/>
-        <item x="41"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="80"/>
-        <item x="69"/>
-        <item x="85"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="82"/>
-        <item x="26"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="67"/>
-        <item x="53"/>
-        <item x="70"/>
-        <item x="23"/>
-        <item x="77"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="54"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="138"/>
-        <item x="46"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="76">
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="136"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23C43E7-EB6F-4D58-B16D-62DF049A5C21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -35571,7 +34552,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F35C15A-71D4-4E31-90A7-A96A56BB3566}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P5:Q141" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -36160,7 +35141,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9039A971-46CC-4BDD-8177-1FA68F4C8295}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M5:N141" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
@@ -36760,7 +35741,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3946A767-5631-47A2-AA52-D3AD9CD9CDBD}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J5:K81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
@@ -37182,6 +36163,1025 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6726ADED-D03C-4AE6-8CD0-05E0275D2F37}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="137">
+        <item x="17"/>
+        <item x="118"/>
+        <item x="62"/>
+        <item x="19"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="120"/>
+        <item x="38"/>
+        <item x="114"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item x="110"/>
+        <item x="116"/>
+        <item x="109"/>
+        <item x="125"/>
+        <item x="68"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="113"/>
+        <item x="30"/>
+        <item x="22"/>
+        <item x="73"/>
+        <item x="104"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="94"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="95"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="89"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="88"/>
+        <item x="66"/>
+        <item x="107"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="115"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="106"/>
+        <item x="74"/>
+        <item x="100"/>
+        <item x="105"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="92"/>
+        <item x="58"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="8"/>
+        <item x="111"/>
+        <item x="15"/>
+        <item x="127"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="60"/>
+        <item x="126"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="76"/>
+        <item x="28"/>
+        <item x="121"/>
+        <item x="46"/>
+        <item x="81"/>
+        <item x="117"/>
+        <item x="124"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="93"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="97"/>
+        <item x="119"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="50"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="103"/>
+        <item x="80"/>
+        <item x="69"/>
+        <item x="85"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="96"/>
+        <item x="53"/>
+        <item x="102"/>
+        <item x="70"/>
+        <item x="122"/>
+        <item x="101"/>
+        <item x="99"/>
+        <item x="23"/>
+        <item x="91"/>
+        <item x="108"/>
+        <item x="77"/>
+        <item x="123"/>
+        <item x="112"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="54"/>
+        <item x="98"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="135"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="135">
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF2BF084-96D2-4FF6-9FC1-48130F28FFBA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D5:E81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="141">
+        <item x="17"/>
+        <item x="62"/>
+        <item x="19"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item x="110"/>
+        <item x="68"/>
+        <item x="47"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="22"/>
+        <item x="73"/>
+        <item x="35"/>
+        <item m="1" x="139"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="75"/>
+        <item x="59"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="10"/>
+        <item x="89"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="88"/>
+        <item x="66"/>
+        <item x="36"/>
+        <item x="48"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="74"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="61"/>
+        <item x="0"/>
+        <item x="58"/>
+        <item x="13"/>
+        <item x="51"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="87"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="60"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="76"/>
+        <item x="28"/>
+        <item x="81"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="44"/>
+        <item x="63"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="21"/>
+        <item x="43"/>
+        <item x="50"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="80"/>
+        <item x="69"/>
+        <item x="85"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="53"/>
+        <item x="70"/>
+        <item x="23"/>
+        <item x="77"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="54"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="138"/>
+        <item x="46"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="76">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of url" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -65820,8 +65820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397501C8-85C1-49EF-B6DA-9080A0166B84}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65840,10 +65840,10 @@
       <c r="F1" s="10" t="s">
         <v>2118</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>2122</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -65880,7 +65880,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="11">
-        <f>IFERROR(VLOOKUP(D3,$A$3:$B$51,2,FALSE),0)</f>
+        <f>IFERROR(VLOOKUP(D3,$A$3:$B$100,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11">
@@ -65897,20 +65897,20 @@
       <c r="B4">
         <v>39</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>25</v>
       </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F34" si="0">IFERROR(VLOOKUP(D4,$A$3:$B$51,2,FALSE),0)</f>
+      <c r="F4" s="13">
+        <f>IFERROR(VLOOKUP(D4,$A$3:$B$100,2,FALSE),0)</f>
         <v>20</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>1000</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>100</v>
       </c>
     </row>
@@ -65928,7 +65928,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(VLOOKUP(D5,$A$3:$B$100,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11">
@@ -65955,7 +65955,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
+        <f>IFERROR(VLOOKUP(D6,$A$3:$B$100,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11">
@@ -65975,20 +65975,20 @@
       <c r="B7">
         <v>37</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>18</v>
       </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
+      <c r="F7" s="13">
+        <f>IFERROR(VLOOKUP(D7,$A$3:$B$100,2,FALSE),0)</f>
         <v>38</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>2000</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>200</v>
       </c>
       <c r="J7" t="s">
@@ -66002,20 +66002,20 @@
       <c r="B8">
         <v>36</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>15</v>
       </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F71" si="0">IFERROR(VLOOKUP(D8,$A$3:$B$100,2,FALSE),0)</f>
         <v>24</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>2000</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>200</v>
       </c>
     </row>
@@ -66026,20 +66026,20 @@
       <c r="B9">
         <v>33</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>14</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>500</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>50</v>
       </c>
     </row>
@@ -66074,20 +66074,20 @@
       <c r="B11">
         <v>30</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>11</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>2000</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>200</v>
       </c>
     </row>
@@ -66218,20 +66218,20 @@
       <c r="B17">
         <v>22</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>6</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>500</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>50</v>
       </c>
     </row>
@@ -66290,20 +66290,20 @@
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>6</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>1000</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>100</v>
       </c>
     </row>
@@ -66338,20 +66338,20 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>6</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>500</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>50</v>
       </c>
     </row>
@@ -66482,20 +66482,20 @@
       <c r="B28">
         <v>11</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>4</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>500</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>50</v>
       </c>
     </row>
@@ -66586,7 +66586,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
@@ -66634,7 +66634,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
@@ -66657,7 +66657,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" ref="F35:F61" si="1">IFERROR(VLOOKUP(D35,$A$3:$B$51,2,FALSE),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="11">
@@ -66681,7 +66681,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G36" s="11">
@@ -66705,7 +66705,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G37" s="11">
@@ -66729,7 +66729,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38" s="11">
@@ -66753,7 +66753,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G39" s="11">
@@ -66777,7 +66777,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G40" s="11">
@@ -66801,7 +66801,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G41" s="11">
@@ -66825,7 +66825,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="11">
@@ -66849,7 +66849,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="11">
@@ -66873,7 +66873,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G44" s="11">
@@ -66897,7 +66897,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="11">
@@ -66921,7 +66921,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="11">
@@ -66945,8 +66945,8 @@
         <v>2</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -66969,7 +66969,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="11">
@@ -66993,7 +66993,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="11">
@@ -67017,7 +67017,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="11">
@@ -67041,7 +67041,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G51" s="11">
@@ -67065,7 +67065,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="11">
@@ -67089,7 +67089,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="11">
@@ -67113,7 +67113,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="11">
@@ -67137,7 +67137,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="11">
@@ -67161,7 +67161,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G56" s="11">
@@ -67185,7 +67185,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="11">
@@ -67209,7 +67209,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="11">
@@ -67233,7 +67233,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="11">
@@ -67257,7 +67257,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="11">
@@ -67281,7 +67281,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="11">
@@ -67305,7 +67305,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" ref="F62:F87" si="2">IFERROR(VLOOKUP(D62,$A$3:$B$51,2,FALSE),0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G62" s="11">
@@ -67329,7 +67329,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="11">
@@ -67353,8 +67353,8 @@
         <v>1</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G64" s="11">
         <v>0</v>
@@ -67377,7 +67377,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="11">
@@ -67401,7 +67401,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="11">
@@ -67425,7 +67425,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="11">
@@ -67449,7 +67449,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="11">
@@ -67473,7 +67473,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G69" s="11">
@@ -67497,7 +67497,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G70" s="11">
@@ -67521,7 +67521,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G71" s="11">
@@ -67545,7 +67545,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F72:F90" si="1">IFERROR(VLOOKUP(D72,$A$3:$B$100,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G72" s="11">
@@ -67569,7 +67569,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G73" s="11">
@@ -67593,7 +67593,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="11">
@@ -67617,7 +67617,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="11">
@@ -67641,7 +67641,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="11">
@@ -67665,7 +67665,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G77" s="11">
@@ -67683,7 +67683,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G78" s="11">
@@ -67701,7 +67701,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G79" s="11">
@@ -67719,7 +67719,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G80" s="11">
@@ -67737,7 +67737,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="11">
@@ -67755,7 +67755,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="G82" s="11">
@@ -67773,7 +67773,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="11">
@@ -67791,7 +67791,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G84" s="11">
@@ -67809,7 +67809,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G85" s="11">
@@ -67827,7 +67827,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G86" s="11">
@@ -67845,7 +67845,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G87" s="11">
@@ -67863,7 +67863,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" ref="F88" si="3">IFERROR(VLOOKUP(D88,$A$3:$B$51,2,FALSE),0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G88" s="11">
@@ -67880,6 +67880,10 @@
       <c r="E89" s="11">
         <v>1</v>
       </c>
+      <c r="F89" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
@@ -67887,6 +67891,10 @@
       </c>
       <c r="E90" s="11">
         <v>1</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
